--- a/oryginal_price_changes.xlsx
+++ b/oryginal_price_changes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>GovBondG7</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>GABHDG</t>
+  </si>
+  <si>
+    <t>EURO_STOXX_Leverage</t>
+  </si>
+  <si>
+    <t>Fallen_Angels</t>
   </si>
   <si>
     <t>Date</t>
@@ -404,15 +410,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I457"/>
+  <dimension ref="A1:K457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -438,13 +444,19 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>31048</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>31079</v>
       </c>
@@ -455,7 +467,7 @@
         <v>-0.02655596935386972</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>31107</v>
       </c>
@@ -466,7 +478,7 @@
         <v>0.146933842815437</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>31138</v>
       </c>
@@ -477,7 +489,7 @@
         <v>-0.09141141397673624</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>31168</v>
       </c>
@@ -488,7 +500,7 @@
         <v>-0.0159528582101689</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>31199</v>
       </c>
@@ -499,7 +511,7 @@
         <v>-0.005592693887728539</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>31229</v>
       </c>
@@ -510,7 +522,7 @@
         <v>-0.01948511119118079</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>31260</v>
       </c>
@@ -521,7 +533,7 @@
         <v>-0.01726700906327028</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>31291</v>
       </c>
@@ -532,7 +544,7 @@
         <v>-0.006564833971902995</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>31321</v>
       </c>
@@ -543,7 +555,7 @@
         <v>-0.06322193939876686</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>31352</v>
       </c>
@@ -554,7 +566,7 @@
         <v>-0.01863191844902756</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>31382</v>
       </c>
@@ -565,7 +577,7 @@
         <v>-0.01837631319800648</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>31413</v>
       </c>
@@ -576,7 +588,7 @@
         <v>0.04986057735520744</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>31444</v>
       </c>
@@ -587,7 +599,7 @@
         <v>-0.07308559600902631</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>31472</v>
       </c>
@@ -2999,7 +3011,7 @@
         <v>-0.01388961208018724</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:10">
       <c r="A193" s="2">
         <v>36861</v>
       </c>
@@ -3013,7 +3025,7 @@
         <v>-0.05442661080349676</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:10">
       <c r="A194" s="2">
         <v>36892</v>
       </c>
@@ -3027,7 +3039,7 @@
         <v>-0.02863910727574137</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:10">
       <c r="A195" s="2">
         <v>36923</v>
       </c>
@@ -3041,7 +3053,7 @@
         <v>0.01322396995048569</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:10">
       <c r="A196" s="2">
         <v>36951</v>
       </c>
@@ -3055,7 +3067,7 @@
         <v>0.01176619226944142</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:10">
       <c r="A197" s="2">
         <v>36982</v>
       </c>
@@ -3069,7 +3081,7 @@
         <v>0.0160865968110111</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:10">
       <c r="A198" s="2">
         <v>37012</v>
       </c>
@@ -3083,7 +3095,7 @@
         <v>0.06400055209203437</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:10">
       <c r="A199" s="2">
         <v>37043</v>
       </c>
@@ -3097,7 +3109,7 @@
         <v>0.01158878504673266</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:10">
       <c r="A200" s="2">
         <v>37073</v>
       </c>
@@ -3111,7 +3123,7 @@
         <v>-0.04823386741732993</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:10">
       <c r="A201" s="2">
         <v>37104</v>
       </c>
@@ -3125,7 +3137,7 @@
         <v>-0.01847849146335212</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:10">
       <c r="A202" s="2">
         <v>37135</v>
       </c>
@@ -3139,7 +3151,7 @@
         <v>0.07680104366119056</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:10">
       <c r="A203" s="2">
         <v>37165</v>
       </c>
@@ -3153,7 +3165,7 @@
         <v>-0.03959834959506559</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:10">
       <c r="A204" s="2">
         <v>37196</v>
       </c>
@@ -3170,7 +3182,7 @@
         <v>0.004335533656478763</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:10">
       <c r="A205" s="2">
         <v>37226</v>
       </c>
@@ -3187,7 +3199,7 @@
         <v>0.01330961541511133</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:10">
       <c r="A206" s="2">
         <v>37257</v>
       </c>
@@ -3203,8 +3215,11 @@
       <c r="H206">
         <v>0.04178138506249884</v>
       </c>
-    </row>
-    <row r="207" spans="1:8">
+      <c r="J206">
+        <v>-0.07490951854743111</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="2">
         <v>37288</v>
       </c>
@@ -3220,8 +3235,11 @@
       <c r="H207">
         <v>0.0498391947218555</v>
       </c>
-    </row>
-    <row r="208" spans="1:8">
+      <c r="J207">
+        <v>-0.03092054794520493</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="2">
         <v>37316</v>
       </c>
@@ -3237,8 +3255,11 @@
       <c r="H208">
         <v>0.006831628167904835</v>
       </c>
-    </row>
-    <row r="209" spans="1:8">
+      <c r="J208">
+        <v>0.08666323640002882</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10">
       <c r="A209" s="2">
         <v>37347</v>
       </c>
@@ -3254,8 +3275,11 @@
       <c r="H209">
         <v>-0.009677455474217944</v>
       </c>
-    </row>
-    <row r="210" spans="1:8">
+      <c r="J209">
+        <v>-0.1063980352162505</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10">
       <c r="A210" s="2">
         <v>37377</v>
       </c>
@@ -3271,8 +3295,11 @@
       <c r="H210">
         <v>0.01691605888741066</v>
       </c>
-    </row>
-    <row r="211" spans="1:8">
+      <c r="J210">
+        <v>-0.06846555177714664</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10">
       <c r="A211" s="2">
         <v>37408</v>
       </c>
@@ -3288,8 +3315,11 @@
       <c r="H211">
         <v>-0.08228639571985807</v>
       </c>
-    </row>
-    <row r="212" spans="1:8">
+      <c r="J211">
+        <v>-0.1691170035879931</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10">
       <c r="A212" s="2">
         <v>37438</v>
       </c>
@@ -3305,8 +3335,11 @@
       <c r="H212">
         <v>-0.02471263786810896</v>
       </c>
-    </row>
-    <row r="213" spans="1:8">
+      <c r="J212">
+        <v>-0.2864515546594651</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10">
       <c r="A213" s="2">
         <v>37469</v>
       </c>
@@ -3322,8 +3355,11 @@
       <c r="H213">
         <v>0.0215310605877379</v>
       </c>
-    </row>
-    <row r="214" spans="1:8">
+      <c r="J213">
+        <v>-0.001022699716384801</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10">
       <c r="A214" s="2">
         <v>37500</v>
       </c>
@@ -3339,8 +3375,11 @@
       <c r="H214">
         <v>0.03201278902071136</v>
       </c>
-    </row>
-    <row r="215" spans="1:8">
+      <c r="J214">
+        <v>-0.3551134564643801</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10">
       <c r="A215" s="2">
         <v>37530</v>
       </c>
@@ -3356,8 +3395,11 @@
       <c r="H215">
         <v>-0.02140410165210049</v>
       </c>
-    </row>
-    <row r="216" spans="1:8">
+      <c r="J215">
+        <v>0.2739800009819469</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10">
       <c r="A216" s="2">
         <v>37561</v>
       </c>
@@ -3373,8 +3415,11 @@
       <c r="H216">
         <v>0.0003950898994038443</v>
       </c>
-    </row>
-    <row r="217" spans="1:8">
+      <c r="J216">
+        <v>0.1003417090591443</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10">
       <c r="A217" s="2">
         <v>37591</v>
       </c>
@@ -3390,8 +3435,11 @@
       <c r="H217">
         <v>0.01691690820645109</v>
       </c>
-    </row>
-    <row r="218" spans="1:8">
+      <c r="J217">
+        <v>-0.1997665051660735</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10">
       <c r="A218" s="2">
         <v>37622</v>
       </c>
@@ -3407,8 +3455,11 @@
       <c r="H218">
         <v>0.03959568772415856</v>
       </c>
-    </row>
-    <row r="219" spans="1:8">
+      <c r="J218">
+        <v>-0.119908380018674</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10">
       <c r="A219" s="2">
         <v>37653</v>
       </c>
@@ -3424,8 +3475,11 @@
       <c r="H219">
         <v>-0.05157646215599732</v>
       </c>
-    </row>
-    <row r="220" spans="1:8">
+      <c r="J219">
+        <v>-0.1042851222544537</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10">
       <c r="A220" s="2">
         <v>37681</v>
       </c>
@@ -3441,8 +3495,11 @@
       <c r="H220">
         <v>-0.04625981822193392</v>
       </c>
-    </row>
-    <row r="221" spans="1:8">
+      <c r="J220">
+        <v>-0.1128733760225045</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10">
       <c r="A221" s="2">
         <v>37712</v>
       </c>
@@ -3458,8 +3515,11 @@
       <c r="H221">
         <v>-0.01564817015469999</v>
       </c>
-    </row>
-    <row r="222" spans="1:8">
+      <c r="J221">
+        <v>0.3067487222280172</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10">
       <c r="A222" s="2">
         <v>37742</v>
       </c>
@@ -3475,8 +3535,11 @@
       <c r="H222">
         <v>0.01047080820339397</v>
       </c>
-    </row>
-    <row r="223" spans="1:8">
+      <c r="J222">
+        <v>0.01749708647966952</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10">
       <c r="A223" s="2">
         <v>37773</v>
       </c>
@@ -3492,8 +3555,11 @@
       <c r="H223">
         <v>-0.009517793201264779</v>
       </c>
-    </row>
-    <row r="224" spans="1:8">
+      <c r="J223">
+        <v>0.07656703538087184</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10">
       <c r="A224" s="2">
         <v>37803</v>
       </c>
@@ -3509,8 +3575,11 @@
       <c r="H224">
         <v>0.03516324449161057</v>
       </c>
-    </row>
-    <row r="225" spans="1:8">
+      <c r="J224">
+        <v>0.08333454783939565</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10">
       <c r="A225" s="2">
         <v>37834</v>
       </c>
@@ -3526,8 +3595,11 @@
       <c r="H225">
         <v>0.09665980519190387</v>
       </c>
-    </row>
-    <row r="226" spans="1:8">
+      <c r="J225">
+        <v>0.02931403279835143</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10">
       <c r="A226" s="2">
         <v>37865</v>
       </c>
@@ -3543,8 +3615,11 @@
       <c r="H226">
         <v>-0.03126139040334608</v>
       </c>
-    </row>
-    <row r="227" spans="1:8">
+      <c r="J226">
+        <v>-0.1258887494772044</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10">
       <c r="A227" s="2">
         <v>37895</v>
       </c>
@@ -3560,8 +3635,11 @@
       <c r="H227">
         <v>-0.001940640484541345</v>
       </c>
-    </row>
-    <row r="228" spans="1:8">
+      <c r="J227">
+        <v>0.1517045454545443</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10">
       <c r="A228" s="2">
         <v>37926</v>
       </c>
@@ -3577,8 +3655,11 @@
       <c r="H228">
         <v>-0.0006602654077834114</v>
       </c>
-    </row>
-    <row r="229" spans="1:8">
+      <c r="J228">
+        <v>0.04029808116739853</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10">
       <c r="A229" s="2">
         <v>37956</v>
       </c>
@@ -3594,8 +3675,11 @@
       <c r="H229">
         <v>-0.005299771295312783</v>
       </c>
-    </row>
-    <row r="230" spans="1:8">
+      <c r="J229">
+        <v>0.09019093972295078</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10">
       <c r="A230" s="2">
         <v>37987</v>
       </c>
@@ -3611,8 +3695,11 @@
       <c r="H230">
         <v>-0.02291007705491166</v>
       </c>
-    </row>
-    <row r="231" spans="1:8">
+      <c r="J230">
+        <v>0.06544409721029809</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10">
       <c r="A231" s="2">
         <v>38018</v>
       </c>
@@ -3628,8 +3715,11 @@
       <c r="H231">
         <v>-0.01246734677042338</v>
       </c>
-    </row>
-    <row r="232" spans="1:8">
+      <c r="J231">
+        <v>0.03626146936845909</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10">
       <c r="A232" s="2">
         <v>38047</v>
       </c>
@@ -3645,8 +3735,11 @@
       <c r="H232">
         <v>0.08734191351766807</v>
       </c>
-    </row>
-    <row r="233" spans="1:8">
+      <c r="J232">
+        <v>-0.07463011539777653</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10">
       <c r="A233" s="2">
         <v>38078</v>
       </c>
@@ -3662,8 +3755,11 @@
       <c r="H233">
         <v>-0.0618181288022579</v>
       </c>
-    </row>
-    <row r="234" spans="1:8">
+      <c r="J233">
+        <v>0.007865458090107191</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10">
       <c r="A234" s="2">
         <v>38108</v>
       </c>
@@ -3679,8 +3775,11 @@
       <c r="H234">
         <v>-0.008602218267735773</v>
       </c>
-    </row>
-    <row r="235" spans="1:8">
+      <c r="J234">
+        <v>-0.009894055784687827</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10">
       <c r="A235" s="2">
         <v>38139</v>
       </c>
@@ -3696,8 +3795,11 @@
       <c r="H235">
         <v>0.0100450030504966</v>
       </c>
-    </row>
-    <row r="236" spans="1:8">
+      <c r="J235">
+        <v>0.05145795672725995</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10">
       <c r="A236" s="2">
         <v>38169</v>
       </c>
@@ -3713,8 +3815,11 @@
       <c r="H236">
         <v>-0.001588487407504724</v>
       </c>
-    </row>
-    <row r="237" spans="1:8">
+      <c r="J236">
+        <v>-0.06284304722038281</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10">
       <c r="A237" s="2">
         <v>38200</v>
       </c>
@@ -3730,8 +3835,11 @@
       <c r="H237">
         <v>0.03430990091778807</v>
       </c>
-    </row>
-    <row r="238" spans="1:8">
+      <c r="J237">
+        <v>-0.03577899066783741</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10">
       <c r="A238" s="2">
         <v>38231</v>
       </c>
@@ -3747,8 +3855,11 @@
       <c r="H238">
         <v>-0.003884010402354754</v>
       </c>
-    </row>
-    <row r="239" spans="1:8">
+      <c r="J238">
+        <v>0.03935193391711467</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10">
       <c r="A239" s="2">
         <v>38261</v>
       </c>
@@ -3764,8 +3875,11 @@
       <c r="H239">
         <v>-0.002546988775247061</v>
       </c>
-    </row>
-    <row r="240" spans="1:8">
+      <c r="J239">
+        <v>0.06071562574615386</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10">
       <c r="A240" s="2">
         <v>38292</v>
       </c>
@@ -3781,8 +3895,11 @@
       <c r="H240">
         <v>0.02072729453187527</v>
       </c>
-    </row>
-    <row r="241" spans="1:8">
+      <c r="J240">
+        <v>0.04640319001832993</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
       <c r="A241" s="2">
         <v>38322</v>
       </c>
@@ -3798,8 +3915,11 @@
       <c r="H241">
         <v>-0.0570863051801187</v>
       </c>
-    </row>
-    <row r="242" spans="1:8">
+      <c r="J241">
+        <v>0.05051219012497343</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
       <c r="A242" s="2">
         <v>38353</v>
       </c>
@@ -3815,8 +3935,11 @@
       <c r="H242">
         <v>0.007141845015091963</v>
       </c>
-    </row>
-    <row r="243" spans="1:8">
+      <c r="J242">
+        <v>0.02304219364023852</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10">
       <c r="A243" s="2">
         <v>38384</v>
       </c>
@@ -3832,8 +3955,11 @@
       <c r="H243">
         <v>0.01423193382017152</v>
       </c>
-    </row>
-    <row r="244" spans="1:8">
+      <c r="J243">
+        <v>0.05125150122957778</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
       <c r="A244" s="2">
         <v>38412</v>
       </c>
@@ -3849,8 +3975,11 @@
       <c r="H244">
         <v>0.003931446716485709</v>
       </c>
-    </row>
-    <row r="245" spans="1:8">
+      <c r="J244">
+        <v>-0.004288654559303051</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10">
       <c r="A245" s="2">
         <v>38443</v>
       </c>
@@ -3866,8 +3995,11 @@
       <c r="H245">
         <v>0.01973189772558248</v>
       </c>
-    </row>
-    <row r="246" spans="1:8">
+      <c r="J245">
+        <v>-0.06631881840863829</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10">
       <c r="A246" s="2">
         <v>38473</v>
       </c>
@@ -3883,8 +4015,11 @@
       <c r="H246">
         <v>-0.0004817112674353474</v>
       </c>
-    </row>
-    <row r="247" spans="1:8">
+      <c r="J246">
+        <v>0.1224752523528538</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10">
       <c r="A247" s="2">
         <v>38504</v>
       </c>
@@ -3900,8 +4035,11 @@
       <c r="H247">
         <v>0.07549605515634061</v>
       </c>
-    </row>
-    <row r="248" spans="1:8">
+      <c r="J247">
+        <v>0.07475693569548181</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10">
       <c r="A248" s="2">
         <v>38534</v>
       </c>
@@ -3917,8 +4055,11 @@
       <c r="H248">
         <v>-0.01861238862553516</v>
       </c>
-    </row>
-    <row r="249" spans="1:8">
+      <c r="J248">
+        <v>0.09211217733655608</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10">
       <c r="A249" s="2">
         <v>38565</v>
       </c>
@@ -3934,8 +4075,11 @@
       <c r="H249">
         <v>0.001213514309921893</v>
       </c>
-    </row>
-    <row r="250" spans="1:8">
+      <c r="J249">
+        <v>-0.03602756660325301</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10">
       <c r="A250" s="2">
         <v>38596</v>
       </c>
@@ -3951,8 +4095,11 @@
       <c r="H250">
         <v>0.106476150553271</v>
       </c>
-    </row>
-    <row r="251" spans="1:8">
+      <c r="J250">
+        <v>0.1000199655977403</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10">
       <c r="A251" s="2">
         <v>38626</v>
       </c>
@@ -3968,8 +4115,11 @@
       <c r="H251">
         <v>-0.003710663911073775</v>
       </c>
-    </row>
-    <row r="252" spans="1:8">
+      <c r="J251">
+        <v>-0.06395158081382746</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10">
       <c r="A252" s="2">
         <v>38657</v>
       </c>
@@ -3985,8 +4135,11 @@
       <c r="H252">
         <v>0.07561801174647642</v>
       </c>
-    </row>
-    <row r="253" spans="1:8">
+      <c r="J252">
+        <v>0.07880645546208376</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10">
       <c r="A253" s="2">
         <v>38687</v>
       </c>
@@ -4002,8 +4155,11 @@
       <c r="H253">
         <v>0.03254797196746084</v>
       </c>
-    </row>
-    <row r="254" spans="1:8">
+      <c r="J253">
+        <v>0.0752756558708656</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10">
       <c r="A254" s="2">
         <v>38718</v>
       </c>
@@ -4019,8 +4175,11 @@
       <c r="H254">
         <v>0.07930620985906045</v>
       </c>
-    </row>
-    <row r="255" spans="1:8">
+      <c r="J254">
+        <v>0.06280537982821621</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10">
       <c r="A255" s="2">
         <v>38749</v>
       </c>
@@ -4036,8 +4195,11 @@
       <c r="H255">
         <v>-0.002413159051473657</v>
       </c>
-    </row>
-    <row r="256" spans="1:8">
+      <c r="J255">
+        <v>0.043039567366147</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10">
       <c r="A256" s="2">
         <v>38777</v>
       </c>
@@ -4053,8 +4215,11 @@
       <c r="H256">
         <v>0.02695850589851867</v>
       </c>
-    </row>
-    <row r="257" spans="1:8">
+      <c r="J256">
+        <v>0.04176235878163692</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10">
       <c r="A257" s="2">
         <v>38808</v>
       </c>
@@ -4070,8 +4235,11 @@
       <c r="H257">
         <v>0.06831216026678</v>
       </c>
-    </row>
-    <row r="258" spans="1:8">
+      <c r="J257">
+        <v>-0.003696507802192772</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10">
       <c r="A258" s="2">
         <v>38838</v>
       </c>
@@ -4087,8 +4255,11 @@
       <c r="H258">
         <v>-0.01210704680299113</v>
       </c>
-    </row>
-    <row r="259" spans="1:8">
+      <c r="J258">
+        <v>-0.08458637163691196</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10">
       <c r="A259" s="2">
         <v>38869</v>
       </c>
@@ -4104,8 +4275,11 @@
       <c r="H259">
         <v>-0.04903531119162863</v>
       </c>
-    </row>
-    <row r="260" spans="1:8">
+      <c r="J259">
+        <v>0.01126798390985551</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10">
       <c r="A260" s="2">
         <v>38899</v>
       </c>
@@ -4121,8 +4295,11 @@
       <c r="H260">
         <v>0.02660919882523638</v>
       </c>
-    </row>
-    <row r="261" spans="1:8">
+      <c r="J260">
+        <v>0.02049217434343631</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10">
       <c r="A261" s="2">
         <v>38930</v>
       </c>
@@ -4138,8 +4315,11 @@
       <c r="H261">
         <v>-0.0206726964543118</v>
       </c>
-    </row>
-    <row r="262" spans="1:8">
+      <c r="J261">
+        <v>0.06456573686327371</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10">
       <c r="A262" s="2">
         <v>38961</v>
       </c>
@@ -4155,8 +4335,11 @@
       <c r="H262">
         <v>-0.02439323570882967</v>
       </c>
-    </row>
-    <row r="263" spans="1:8">
+      <c r="J262">
+        <v>0.04467063738999033</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10">
       <c r="A263" s="2">
         <v>38991</v>
       </c>
@@ -4172,8 +4355,11 @@
       <c r="H263">
         <v>0.004652554823965094</v>
       </c>
-    </row>
-    <row r="264" spans="1:8">
+      <c r="J263">
+        <v>0.05311024124578911</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10">
       <c r="A264" s="2">
         <v>39022</v>
       </c>
@@ -4189,8 +4375,11 @@
       <c r="H264">
         <v>0.03024069264069085</v>
       </c>
-    </row>
-    <row r="265" spans="1:8">
+      <c r="J264">
+        <v>-0.007282460481784714</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10">
       <c r="A265" s="2">
         <v>39052</v>
       </c>
@@ -4206,8 +4395,11 @@
       <c r="H265">
         <v>-0.01477027403537701</v>
       </c>
-    </row>
-    <row r="266" spans="1:8">
+      <c r="J265">
+        <v>0.06371332058117019</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10">
       <c r="A266" s="2">
         <v>39083</v>
       </c>
@@ -4223,8 +4415,11 @@
       <c r="H266">
         <v>0.04034401176909097</v>
       </c>
-    </row>
-    <row r="267" spans="1:8">
+      <c r="J266">
+        <v>0.02651942685516451</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10">
       <c r="A267" s="2">
         <v>39114</v>
       </c>
@@ -4243,8 +4438,11 @@
       <c r="H267">
         <v>0.00119753232449038</v>
       </c>
-    </row>
-    <row r="268" spans="1:8">
+      <c r="J267">
+        <v>-0.04676267372354126</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10">
       <c r="A268" s="2">
         <v>39142</v>
       </c>
@@ -4263,8 +4461,11 @@
       <c r="H268">
         <v>-0.01169325189189019</v>
       </c>
-    </row>
-    <row r="269" spans="1:8">
+      <c r="J268">
+        <v>0.04108504398826773</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10">
       <c r="A269" s="2">
         <v>39173</v>
       </c>
@@ -4283,8 +4484,11 @@
       <c r="H269">
         <v>0.001463633325543556</v>
       </c>
-    </row>
-    <row r="270" spans="1:8">
+      <c r="J269">
+        <v>0.1116400476981829</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10">
       <c r="A270" s="2">
         <v>39203</v>
       </c>
@@ -4303,8 +4507,11 @@
       <c r="H270">
         <v>-0.01544031900107024</v>
       </c>
-    </row>
-    <row r="271" spans="1:8">
+      <c r="J270">
+        <v>0.08478541805681794</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10">
       <c r="A271" s="2">
         <v>39234</v>
       </c>
@@ -4323,8 +4530,11 @@
       <c r="H271">
         <v>-0.01684828093193014</v>
       </c>
-    </row>
-    <row r="272" spans="1:8">
+      <c r="J271">
+        <v>-0.008424757262658678</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10">
       <c r="A272" s="2">
         <v>39264</v>
       </c>
@@ -4343,8 +4553,11 @@
       <c r="H272">
         <v>0.007982366432833343</v>
       </c>
-    </row>
-    <row r="273" spans="1:8">
+      <c r="J272">
+        <v>-0.0796590471852956</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10">
       <c r="A273" s="2">
         <v>39295</v>
       </c>
@@ -4363,8 +4576,11 @@
       <c r="H273">
         <v>0.009914449885986887</v>
       </c>
-    </row>
-    <row r="274" spans="1:8">
+      <c r="J273">
+        <v>-0.0152809832387002</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10">
       <c r="A274" s="2">
         <v>39326</v>
       </c>
@@ -4383,8 +4599,11 @@
       <c r="H274">
         <v>0.06869303278826111</v>
       </c>
-    </row>
-    <row r="275" spans="1:8">
+      <c r="J274">
+        <v>0.03483561281826053</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10">
       <c r="A275" s="2">
         <v>39356</v>
       </c>
@@ -4403,8 +4622,11 @@
       <c r="H275">
         <v>0.04287258360512158</v>
       </c>
-    </row>
-    <row r="276" spans="1:8">
+      <c r="J275">
+        <v>0.04710970075522702</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10">
       <c r="A276" s="2">
         <v>39387</v>
       </c>
@@ -4423,8 +4645,11 @@
       <c r="H276">
         <v>-0.02871035432662716</v>
       </c>
-    </row>
-    <row r="277" spans="1:8">
+      <c r="J276">
+        <v>-0.04226354444448399</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10">
       <c r="A277" s="2">
         <v>39417</v>
       </c>
@@ -4443,8 +4668,11 @@
       <c r="H277">
         <v>0.07054619452989264</v>
       </c>
-    </row>
-    <row r="278" spans="1:8">
+      <c r="J277">
+        <v>4.174493842246108E-05</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10">
       <c r="A278" s="2">
         <v>39448</v>
       </c>
@@ -4463,8 +4691,11 @@
       <c r="H278">
         <v>0.09264659123843222</v>
       </c>
-    </row>
-    <row r="279" spans="1:8">
+      <c r="J278">
+        <v>-0.2699532476206338</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10">
       <c r="A279" s="2">
         <v>39479</v>
       </c>
@@ -4483,8 +4714,11 @@
       <c r="H279">
         <v>0.03165567227336719</v>
       </c>
-    </row>
-    <row r="280" spans="1:8">
+      <c r="J279">
+        <v>-0.04363885871119033</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10">
       <c r="A280" s="2">
         <v>39508</v>
       </c>
@@ -4503,8 +4737,11 @@
       <c r="H280">
         <v>-0.07831101260708728</v>
       </c>
-    </row>
-    <row r="281" spans="1:8">
+      <c r="J280">
+        <v>-0.05960253022276985</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10">
       <c r="A281" s="2">
         <v>39539</v>
       </c>
@@ -4523,8 +4760,11 @@
       <c r="H281">
         <v>-0.05062099363117045</v>
       </c>
-    </row>
-    <row r="282" spans="1:8">
+      <c r="J281">
+        <v>0.1217694816547887</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10">
       <c r="A282" s="2">
         <v>39569</v>
       </c>
@@ -4543,8 +4783,11 @@
       <c r="H282">
         <v>0.01903295273399874</v>
       </c>
-    </row>
-    <row r="283" spans="1:8">
+      <c r="J282">
+        <v>0.0143616599222407</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10">
       <c r="A283" s="2">
         <v>39600</v>
       </c>
@@ -4563,8 +4806,11 @@
       <c r="H283">
         <v>0.03318450389075767</v>
       </c>
-    </row>
-    <row r="284" spans="1:8">
+      <c r="J283">
+        <v>-0.2150735294117641</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10">
       <c r="A284" s="2">
         <v>39630</v>
       </c>
@@ -4583,8 +4829,11 @@
       <c r="H284">
         <v>-0.003496783211820009</v>
       </c>
-    </row>
-    <row r="285" spans="1:8">
+      <c r="J284">
+        <v>0.002163962899424554</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10">
       <c r="A285" s="2">
         <v>39661</v>
       </c>
@@ -4603,8 +4852,11 @@
       <c r="H285">
         <v>-0.03864696049969107</v>
       </c>
-    </row>
-    <row r="286" spans="1:8">
+      <c r="J285">
+        <v>-0.005192240760866107</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10">
       <c r="A286" s="2">
         <v>39692</v>
       </c>
@@ -4623,8 +4875,11 @@
       <c r="H286">
         <v>0.09389550408711278</v>
       </c>
-    </row>
-    <row r="287" spans="1:8">
+      <c r="J286">
+        <v>-0.1985634317701491</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10">
       <c r="A287" s="2">
         <v>39722</v>
       </c>
@@ -4643,8 +4898,11 @@
       <c r="H287">
         <v>-0.07370446657978225</v>
       </c>
-    </row>
-    <row r="288" spans="1:8">
+      <c r="J287">
+        <v>-0.3128307467526689</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10">
       <c r="A288" s="2">
         <v>39753</v>
       </c>
@@ -4663,8 +4921,11 @@
       <c r="H288">
         <v>0.117235626409286</v>
       </c>
-    </row>
-    <row r="289" spans="1:8">
+      <c r="J288">
+        <v>-0.1354042420785143</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10">
       <c r="A289" s="2">
         <v>39783</v>
       </c>
@@ -4683,8 +4944,11 @@
       <c r="H289">
         <v>-0.02880724110532917</v>
       </c>
-    </row>
-    <row r="290" spans="1:8">
+      <c r="J289">
+        <v>-0.0004048704414569837</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10">
       <c r="A290" s="2">
         <v>39814</v>
       </c>
@@ -4703,8 +4967,11 @@
       <c r="H290">
         <v>0.1543267357277411</v>
       </c>
-    </row>
-    <row r="291" spans="1:8">
+      <c r="J290">
+        <v>-0.1730247071001053</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10">
       <c r="A291" s="2">
         <v>39845</v>
       </c>
@@ -4723,8 +4990,11 @@
       <c r="H291">
         <v>0.04942939877472652</v>
       </c>
-    </row>
-    <row r="292" spans="1:8">
+      <c r="J291">
+        <v>-0.2259147060424108</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10">
       <c r="A292" s="2">
         <v>39873</v>
       </c>
@@ -4743,8 +5013,11 @@
       <c r="H292">
         <v>-0.08532414318297088</v>
       </c>
-    </row>
-    <row r="293" spans="1:8">
+      <c r="J292">
+        <v>0.0800740515079803</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10">
       <c r="A293" s="2">
         <v>39904</v>
       </c>
@@ -4763,8 +5036,11 @@
       <c r="H293">
         <v>-0.0338836336961118</v>
       </c>
-    </row>
-    <row r="294" spans="1:8">
+      <c r="J293">
+        <v>0.3271859405510946</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10">
       <c r="A294" s="2">
         <v>39934</v>
       </c>
@@ -4783,8 +5059,11 @@
       <c r="H294">
         <v>0.03996961626866669</v>
       </c>
-    </row>
-    <row r="295" spans="1:8">
+      <c r="J294">
+        <v>0.1068334150727477</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10">
       <c r="A295" s="2">
         <v>39965</v>
       </c>
@@ -4803,8 +5082,11 @@
       <c r="H295">
         <v>-0.04446972620630285</v>
       </c>
-    </row>
-    <row r="296" spans="1:8">
+      <c r="J295">
+        <v>-0.04039583487187104</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10">
       <c r="A296" s="2">
         <v>39995</v>
       </c>
@@ -4823,8 +5105,11 @@
       <c r="H296">
         <v>0.00453112145880552</v>
       </c>
-    </row>
-    <row r="297" spans="1:8">
+      <c r="J296">
+        <v>0.2020317069416675</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10">
       <c r="A297" s="2">
         <v>40026</v>
       </c>
@@ -4843,8 +5128,11 @@
       <c r="H297">
         <v>0.008017888866601375</v>
       </c>
-    </row>
-    <row r="298" spans="1:8">
+      <c r="J297">
+        <v>0.1058825035853299</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10">
       <c r="A298" s="2">
         <v>40057</v>
       </c>
@@ -4863,8 +5151,11 @@
       <c r="H298">
         <v>0.01572092229744571</v>
       </c>
-    </row>
-    <row r="299" spans="1:8">
+      <c r="J298">
+        <v>0.0703873096740586</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10">
       <c r="A299" s="2">
         <v>40087</v>
       </c>
@@ -4883,8 +5174,11 @@
       <c r="H299">
         <v>0.03335934478289304</v>
       </c>
-    </row>
-    <row r="300" spans="1:8">
+      <c r="J299">
+        <v>-0.09155813249102285</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10">
       <c r="A300" s="2">
         <v>40118</v>
       </c>
@@ -4903,8 +5197,11 @@
       <c r="H300">
         <v>0.1137473822190596</v>
       </c>
-    </row>
-    <row r="301" spans="1:8">
+      <c r="J300">
+        <v>0.04265301262205345</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10">
       <c r="A301" s="2">
         <v>40148</v>
       </c>
@@ -4923,8 +5220,11 @@
       <c r="H301">
         <v>-0.02080915856255583</v>
       </c>
-    </row>
-    <row r="302" spans="1:8">
+      <c r="J301">
+        <v>0.1250770882346224</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10">
       <c r="A302" s="2">
         <v>40179</v>
       </c>
@@ -4943,8 +5243,11 @@
       <c r="H302">
         <v>0.007679558742039516</v>
       </c>
-    </row>
-    <row r="303" spans="1:8">
+      <c r="J302">
+        <v>-0.1247842946180237</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10">
       <c r="A303" s="2">
         <v>40210</v>
       </c>
@@ -4966,8 +5269,11 @@
       <c r="H303">
         <v>0.05757160197864608</v>
       </c>
-    </row>
-    <row r="304" spans="1:8">
+      <c r="J303">
+        <v>-0.03700954523839795</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10">
       <c r="A304" s="2">
         <v>40238</v>
       </c>
@@ -4989,8 +5295,11 @@
       <c r="H304">
         <v>0.01333725351014037</v>
       </c>
-    </row>
-    <row r="305" spans="1:8">
+      <c r="J304">
+        <v>0.1532096832470176</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10">
       <c r="A305" s="2">
         <v>40269</v>
       </c>
@@ -5012,8 +5321,11 @@
       <c r="H305">
         <v>0.07017009997890944</v>
       </c>
-    </row>
-    <row r="306" spans="1:8">
+      <c r="J305">
+        <v>-0.07430731793923717</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10">
       <c r="A306" s="2">
         <v>40299</v>
       </c>
@@ -5035,8 +5347,11 @@
       <c r="H306">
         <v>0.1078226102306448</v>
       </c>
-    </row>
-    <row r="307" spans="1:8">
+      <c r="J306">
+        <v>-0.1191389503136437</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10">
       <c r="A307" s="2">
         <v>40330</v>
       </c>
@@ -5058,8 +5373,11 @@
       <c r="H307">
         <v>0.03325017003006403</v>
       </c>
-    </row>
-    <row r="308" spans="1:8">
+      <c r="J307">
+        <v>-0.02798555253855106</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10">
       <c r="A308" s="2">
         <v>40360</v>
       </c>
@@ -5081,8 +5399,11 @@
       <c r="H308">
         <v>-0.1148918554841564</v>
       </c>
-    </row>
-    <row r="309" spans="1:8">
+      <c r="J308">
+        <v>0.1316625159768625</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10">
       <c r="A309" s="2">
         <v>40391</v>
       </c>
@@ -5104,8 +5425,11 @@
       <c r="H309">
         <v>0.09512079941064333</v>
       </c>
-    </row>
-    <row r="310" spans="1:8">
+      <c r="J309">
+        <v>-0.08538360327422367</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10">
       <c r="A310" s="2">
         <v>40422</v>
       </c>
@@ -5127,8 +5451,11 @@
       <c r="H310">
         <v>-0.02544178887092807</v>
       </c>
-    </row>
-    <row r="311" spans="1:8">
+      <c r="J310">
+        <v>0.09597708465945476</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10">
       <c r="A311" s="2">
         <v>40452</v>
       </c>
@@ -5150,8 +5477,11 @@
       <c r="H311">
         <v>0.01487181976090879</v>
       </c>
-    </row>
-    <row r="312" spans="1:8">
+      <c r="J311">
+        <v>0.07141446642427995</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10">
       <c r="A312" s="2">
         <v>40483</v>
       </c>
@@ -5173,8 +5503,11 @@
       <c r="H312">
         <v>0.09517838459990213</v>
       </c>
-    </row>
-    <row r="313" spans="1:8">
+      <c r="J312">
+        <v>-0.1271940761299682</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10">
       <c r="A313" s="2">
         <v>40513</v>
       </c>
@@ -5196,8 +5529,11 @@
       <c r="H313">
         <v>-0.008433124654778523</v>
       </c>
-    </row>
-    <row r="314" spans="1:8">
+      <c r="J313">
+        <v>0.1195826346189668</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10">
       <c r="A314" s="2">
         <v>40544</v>
       </c>
@@ -5219,8 +5555,11 @@
       <c r="H314">
         <v>-0.08171098012998335</v>
       </c>
-    </row>
-    <row r="315" spans="1:8">
+      <c r="J314">
+        <v>0.1094838681045585</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10">
       <c r="A315" s="2">
         <v>40575</v>
       </c>
@@ -5242,8 +5581,11 @@
       <c r="H315">
         <v>0.05238635869665331</v>
       </c>
-    </row>
-    <row r="316" spans="1:8">
+      <c r="J315">
+        <v>0.03923000000000054</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10">
       <c r="A316" s="2">
         <v>40603</v>
       </c>
@@ -5265,8 +5607,11 @@
       <c r="H316">
         <v>-0.006931580677855709</v>
       </c>
-    </row>
-    <row r="317" spans="1:8">
+      <c r="J316">
+        <v>-0.06983054761698626</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10">
       <c r="A317" s="2">
         <v>40634</v>
       </c>
@@ -5288,8 +5633,11 @@
       <c r="H317">
         <v>0.02017011682817782</v>
       </c>
-    </row>
-    <row r="318" spans="1:8">
+      <c r="J317">
+        <v>0.07910744212028953</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10">
       <c r="A318" s="2">
         <v>40664</v>
       </c>
@@ -5311,8 +5659,11 @@
       <c r="H318">
         <v>0.03369326586281862</v>
       </c>
-    </row>
-    <row r="319" spans="1:8">
+      <c r="J318">
+        <v>-0.0579026583455553</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10">
       <c r="A319" s="2">
         <v>40695</v>
       </c>
@@ -5334,8 +5685,11 @@
       <c r="H319">
         <v>-0.02478570472793062</v>
       </c>
-    </row>
-    <row r="320" spans="1:8">
+      <c r="J319">
+        <v>-0.008690077640857496</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10">
       <c r="A320" s="2">
         <v>40725</v>
       </c>
@@ -5357,8 +5711,11 @@
       <c r="H320">
         <v>0.09634055680829801</v>
       </c>
-    </row>
-    <row r="321" spans="1:8">
+      <c r="J320">
+        <v>-0.1225633603301212</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10">
       <c r="A321" s="2">
         <v>40756</v>
       </c>
@@ -5380,8 +5737,11 @@
       <c r="H321">
         <v>0.09895896302135632</v>
       </c>
-    </row>
-    <row r="322" spans="1:8">
+      <c r="J321">
+        <v>-0.2680190456135427</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10">
       <c r="A322" s="2">
         <v>40787</v>
       </c>
@@ -5403,8 +5763,11 @@
       <c r="H322">
         <v>-0.04405031581071361</v>
       </c>
-    </row>
-    <row r="323" spans="1:8">
+      <c r="J322">
+        <v>-0.1154885006952318</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10">
       <c r="A323" s="2">
         <v>40817</v>
       </c>
@@ -5426,8 +5789,11 @@
       <c r="H323">
         <v>0.02515455245260312</v>
       </c>
-    </row>
-    <row r="324" spans="1:8">
+      <c r="J323">
+        <v>0.1846484650271929</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10">
       <c r="A324" s="2">
         <v>40848</v>
       </c>
@@ -5449,8 +5815,11 @@
       <c r="H324">
         <v>0.05799194280084441</v>
       </c>
-    </row>
-    <row r="325" spans="1:8">
+      <c r="J324">
+        <v>-0.05002898020194657</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10">
       <c r="A325" s="2">
         <v>40878</v>
       </c>
@@ -5472,8 +5841,11 @@
       <c r="H325">
         <v>-0.06484090870661274</v>
       </c>
-    </row>
-    <row r="326" spans="1:8">
+      <c r="J325">
+        <v>-0.01489997109919228</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10">
       <c r="A326" s="2">
         <v>40909</v>
       </c>
@@ -5495,8 +5867,11 @@
       <c r="H326">
         <v>0.08772958831004796</v>
       </c>
-    </row>
-    <row r="327" spans="1:8">
+      <c r="J326">
+        <v>0.09246340906868222</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10">
       <c r="A327" s="2">
         <v>40940</v>
       </c>
@@ -5518,8 +5893,11 @@
       <c r="H327">
         <v>-0.00524948354827437</v>
       </c>
-    </row>
-    <row r="328" spans="1:8">
+      <c r="J327">
+        <v>0.07932624166380897</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10">
       <c r="A328" s="2">
         <v>40969</v>
       </c>
@@ -5541,8 +5919,11 @@
       <c r="H328">
         <v>-0.05461615677077714</v>
       </c>
-    </row>
-    <row r="329" spans="1:8">
+      <c r="J328">
+        <v>-0.02909709167311947</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10">
       <c r="A329" s="2">
         <v>41000</v>
       </c>
@@ -5564,8 +5945,11 @@
       <c r="H329">
         <v>0.003906542502768007</v>
       </c>
-    </row>
-    <row r="330" spans="1:8">
+      <c r="J329">
+        <v>-0.1214994518714677</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10">
       <c r="A330" s="2">
         <v>41030</v>
       </c>
@@ -5587,8 +5971,11 @@
       <c r="H330">
         <v>0.005222455093310874</v>
       </c>
-    </row>
-    <row r="331" spans="1:8">
+      <c r="J330">
+        <v>-0.1239931934203053</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10">
       <c r="A331" s="2">
         <v>41061</v>
       </c>
@@ -5610,8 +5997,11 @@
       <c r="H331">
         <v>0.01075570398904513</v>
       </c>
-    </row>
-    <row r="332" spans="1:8">
+      <c r="J331">
+        <v>0.1472046472046471</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10">
       <c r="A332" s="2">
         <v>41091</v>
       </c>
@@ -5633,8 +6023,11 @@
       <c r="H332">
         <v>0.03997795067359466</v>
       </c>
-    </row>
-    <row r="333" spans="1:8">
+      <c r="J332">
+        <v>0.05302285078453939</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10">
       <c r="A333" s="2">
         <v>41122</v>
       </c>
@@ -5656,8 +6049,11 @@
       <c r="H333">
         <v>-0.01001552575643672</v>
       </c>
-    </row>
-    <row r="334" spans="1:8">
+      <c r="J333">
+        <v>0.09701526822769124</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10">
       <c r="A334" s="2">
         <v>41153</v>
       </c>
@@ -5679,8 +6075,11 @@
       <c r="H334">
         <v>0.05076357822304911</v>
       </c>
-    </row>
-    <row r="335" spans="1:8">
+      <c r="J334">
+        <v>0.01408549013038418</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10">
       <c r="A335" s="2">
         <v>41183</v>
       </c>
@@ -5705,8 +6104,11 @@
       <c r="H335">
         <v>-0.03678774017610287</v>
       </c>
-    </row>
-    <row r="336" spans="1:8">
+      <c r="J335">
+        <v>0.04029293944357937</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10">
       <c r="A336" s="2">
         <v>41214</v>
       </c>
@@ -5731,8 +6133,11 @@
       <c r="H336">
         <v>0.004613372059425025</v>
       </c>
-    </row>
-    <row r="337" spans="1:8">
+      <c r="J336">
+        <v>0.05721847293899818</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10">
       <c r="A337" s="2">
         <v>41244</v>
       </c>
@@ -5757,8 +6162,11 @@
       <c r="H337">
         <v>-0.05111965813316932</v>
       </c>
-    </row>
-    <row r="338" spans="1:8">
+      <c r="J337">
+        <v>0.04942799208951931</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10">
       <c r="A338" s="2">
         <v>41275</v>
       </c>
@@ -5783,8 +6191,11 @@
       <c r="H338">
         <v>-0.02583418340193055</v>
       </c>
-    </row>
-    <row r="339" spans="1:8">
+      <c r="J338">
+        <v>0.05698746466610172</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10">
       <c r="A339" s="2">
         <v>41306</v>
       </c>
@@ -5809,8 +6220,11 @@
       <c r="H339">
         <v>-0.01520498287403182</v>
       </c>
-    </row>
-    <row r="340" spans="1:8">
+      <c r="J339">
+        <v>-0.05456945870617524</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10">
       <c r="A340" s="2">
         <v>41334</v>
       </c>
@@ -5835,8 +6249,11 @@
       <c r="H340">
         <v>0.03159578614202441</v>
       </c>
-    </row>
-    <row r="341" spans="1:8">
+      <c r="J340">
+        <v>-0.007459569135288335</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10">
       <c r="A341" s="2">
         <v>41365</v>
       </c>
@@ -5861,8 +6278,11 @@
       <c r="H341">
         <v>-0.09964324696476978</v>
       </c>
-    </row>
-    <row r="342" spans="1:8">
+      <c r="J341">
+        <v>0.08299663299663496</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10">
       <c r="A342" s="2">
         <v>41395</v>
       </c>
@@ -5887,8 +6307,11 @@
       <c r="H342">
         <v>-0.04589754720735928</v>
       </c>
-    </row>
-    <row r="343" spans="1:8">
+      <c r="J342">
+        <v>0.07222802069685286</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10">
       <c r="A343" s="2">
         <v>41426</v>
       </c>
@@ -5913,8 +6336,11 @@
       <c r="H343">
         <v>-0.1500492871185727</v>
       </c>
-    </row>
-    <row r="344" spans="1:8">
+      <c r="J343">
+        <v>-0.1157848954611828</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10">
       <c r="A344" s="2">
         <v>41456</v>
       </c>
@@ -5939,8 +6365,11 @@
       <c r="H344">
         <v>0.08656959769461103</v>
       </c>
-    </row>
-    <row r="345" spans="1:8">
+      <c r="J344">
+        <v>0.1321411004145872</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10">
       <c r="A345" s="2">
         <v>41487</v>
       </c>
@@ -5965,8 +6394,11 @@
       <c r="H345">
         <v>0.06425662846605285</v>
       </c>
-    </row>
-    <row r="346" spans="1:8">
+      <c r="J345">
+        <v>-0.03502674073384371</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10">
       <c r="A346" s="2">
         <v>41518</v>
       </c>
@@ -5991,8 +6423,11 @@
       <c r="H346">
         <v>-0.06794778828604364</v>
       </c>
-    </row>
-    <row r="347" spans="1:8">
+      <c r="J346">
+        <v>0.1325321870008476</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10">
       <c r="A347" s="2">
         <v>41548</v>
       </c>
@@ -6017,8 +6452,11 @@
       <c r="H347">
         <v>-0.011835812486652</v>
       </c>
-    </row>
-    <row r="348" spans="1:8">
+      <c r="J347">
+        <v>0.124566950002839</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10">
       <c r="A348" s="2">
         <v>41579</v>
       </c>
@@ -6043,8 +6481,11 @@
       <c r="H348">
         <v>-0.05153947369297174</v>
       </c>
-    </row>
-    <row r="349" spans="1:8">
+      <c r="J348">
+        <v>0.01582411662710581</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10">
       <c r="A349" s="2">
         <v>41609</v>
       </c>
@@ -6069,8 +6510,11 @@
       <c r="H349">
         <v>-0.05361689265753589</v>
       </c>
-    </row>
-    <row r="350" spans="1:8">
+      <c r="J349">
+        <v>0.01436786371244514</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10">
       <c r="A350" s="2">
         <v>41640</v>
       </c>
@@ -6095,8 +6539,11 @@
       <c r="H350">
         <v>0.06238299343931986</v>
       </c>
-    </row>
-    <row r="351" spans="1:8">
+      <c r="J350">
+        <v>-0.05776833850678076</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10">
       <c r="A351" s="2">
         <v>41671</v>
       </c>
@@ -6121,8 +6568,11 @@
       <c r="H351">
         <v>0.03755258299694941</v>
       </c>
-    </row>
-    <row r="352" spans="1:8">
+      <c r="J351">
+        <v>0.0906907792072682</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10">
       <c r="A352" s="2">
         <v>41699</v>
       </c>
@@ -6147,8 +6597,11 @@
       <c r="H352">
         <v>-0.02443108671278815</v>
       </c>
-    </row>
-    <row r="353" spans="1:8">
+      <c r="J352">
+        <v>0.0069231930942939</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10">
       <c r="A353" s="2">
         <v>41730</v>
       </c>
@@ -6173,8 +6626,11 @@
       <c r="H353">
         <v>-0.006981238196581696</v>
       </c>
-    </row>
-    <row r="354" spans="1:8">
+      <c r="J353">
+        <v>0.03107041364066987</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10">
       <c r="A354" s="2">
         <v>41760</v>
       </c>
@@ -6199,8 +6655,11 @@
       <c r="H354">
         <v>-0.01215987719347988</v>
       </c>
-    </row>
-    <row r="355" spans="1:8">
+      <c r="J354">
+        <v>0.06126355117290383</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10">
       <c r="A355" s="2">
         <v>41791</v>
       </c>
@@ -6225,8 +6684,11 @@
       <c r="H355">
         <v>0.04765269174216558</v>
       </c>
-    </row>
-    <row r="356" spans="1:8">
+      <c r="J355">
+        <v>-0.005771256258206181</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10">
       <c r="A356" s="2">
         <v>41821</v>
       </c>
@@ -6251,8 +6713,11 @@
       <c r="H356">
         <v>-0.002241780078138245</v>
       </c>
-    </row>
-    <row r="357" spans="1:8">
+      <c r="J356">
+        <v>-0.06857594798937672</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10">
       <c r="A357" s="2">
         <v>41852</v>
       </c>
@@ -6277,8 +6742,11 @@
       <c r="H357">
         <v>0.01487752683986998</v>
       </c>
-    </row>
-    <row r="358" spans="1:8">
+      <c r="J357">
+        <v>0.0352427025637434</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10">
       <c r="A358" s="2">
         <v>41883</v>
       </c>
@@ -6303,8 +6771,11 @@
       <c r="H358">
         <v>-0.008368481503698177</v>
       </c>
-    </row>
-    <row r="359" spans="1:8">
+      <c r="J358">
+        <v>0.03535980615692491</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10">
       <c r="A359" s="2">
         <v>41913</v>
       </c>
@@ -6329,8 +6800,11 @@
       <c r="H359">
         <v>-0.03844247487077157</v>
       </c>
-    </row>
-    <row r="360" spans="1:8">
+      <c r="J359">
+        <v>-0.07164038084163138</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10">
       <c r="A360" s="2">
         <v>41944</v>
       </c>
@@ -6355,8 +6829,11 @@
       <c r="H360">
         <v>0.01922671522125685</v>
       </c>
-    </row>
-    <row r="361" spans="1:8">
+      <c r="J360">
+        <v>0.09068134311415332</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10">
       <c r="A361" s="2">
         <v>41974</v>
       </c>
@@ -6381,8 +6858,11 @@
       <c r="H361">
         <v>0.04251252601212818</v>
       </c>
-    </row>
-    <row r="362" spans="1:8">
+      <c r="J361">
+        <v>-0.06509661488989138</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10">
       <c r="A362" s="2">
         <v>42005</v>
       </c>
@@ -6407,8 +6887,11 @@
       <c r="H362">
         <v>0.128576158418338</v>
       </c>
-    </row>
-    <row r="363" spans="1:8">
+      <c r="J362">
+        <v>0.1324022818183921</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10">
       <c r="A363" s="2">
         <v>42036</v>
       </c>
@@ -6433,8 +6916,11 @@
       <c r="H363">
         <v>-0.0311283772001959</v>
       </c>
-    </row>
-    <row r="364" spans="1:8">
+      <c r="J363">
+        <v>0.1519946844574611</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10">
       <c r="A364" s="2">
         <v>42064</v>
       </c>
@@ -6459,8 +6945,11 @@
       <c r="H364">
         <v>0.02147192810340925</v>
       </c>
-    </row>
-    <row r="365" spans="1:8">
+      <c r="J364">
+        <v>0.05543523041610321</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10">
       <c r="A365" s="2">
         <v>42095</v>
       </c>
@@ -6485,8 +6974,11 @@
       <c r="H365">
         <v>-0.04611521907903315</v>
       </c>
-    </row>
-    <row r="366" spans="1:8">
+      <c r="J365">
+        <v>-0.03731131049635028</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10">
       <c r="A366" s="2">
         <v>42125</v>
       </c>
@@ -6511,8 +7003,11 @@
       <c r="H366">
         <v>0.03199177746321347</v>
       </c>
-    </row>
-    <row r="367" spans="1:8">
+      <c r="J366">
+        <v>0.001633475828033859</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10">
       <c r="A367" s="2">
         <v>42156</v>
       </c>
@@ -6537,8 +7032,11 @@
       <c r="H367">
         <v>-0.0363603681419713</v>
       </c>
-    </row>
-    <row r="368" spans="1:8">
+      <c r="J367">
+        <v>-0.08086398334490053</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10">
       <c r="A368" s="2">
         <v>42186</v>
       </c>
@@ -6563,8 +7061,11 @@
       <c r="H368">
         <v>-0.04301074950649564</v>
       </c>
-    </row>
-    <row r="369" spans="1:8">
+      <c r="J368">
+        <v>0.1018579688807524</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11">
       <c r="A369" s="2">
         <v>42217</v>
       </c>
@@ -6589,8 +7090,11 @@
       <c r="H369">
         <v>0.0104711136597504</v>
       </c>
-    </row>
-    <row r="370" spans="1:8">
+      <c r="J369">
+        <v>-0.1829254365428324</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11">
       <c r="A370" s="2">
         <v>42248</v>
       </c>
@@ -6615,8 +7119,11 @@
       <c r="H370">
         <v>-0.01745087946471258</v>
       </c>
-    </row>
-    <row r="371" spans="1:8">
+      <c r="J370">
+        <v>-0.1053245836565542</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11">
       <c r="A371" s="2">
         <v>42278</v>
       </c>
@@ -6641,8 +7148,11 @@
       <c r="H371">
         <v>0.04276148465835949</v>
       </c>
-    </row>
-    <row r="372" spans="1:8">
+      <c r="J371">
+        <v>0.2143180753007339</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11">
       <c r="A372" s="2">
         <v>42309</v>
       </c>
@@ -6667,8 +7177,11 @@
       <c r="H372">
         <v>-0.03193801276634778</v>
       </c>
-    </row>
-    <row r="373" spans="1:8">
+      <c r="J372">
+        <v>0.05310793338350872</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11">
       <c r="A373" s="2">
         <v>42339</v>
       </c>
@@ -6693,8 +7206,11 @@
       <c r="H373">
         <v>-0.02797034848127322</v>
       </c>
-    </row>
-    <row r="374" spans="1:8">
+      <c r="J373">
+        <v>-0.1345219988638657</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11">
       <c r="A374" s="2">
         <v>42370</v>
       </c>
@@ -6719,8 +7235,11 @@
       <c r="H374">
         <v>0.04348332768666907</v>
       </c>
-    </row>
-    <row r="375" spans="1:8">
+      <c r="J374">
+        <v>-0.1337638506598919</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11">
       <c r="A375" s="2">
         <v>42401</v>
       </c>
@@ -6745,8 +7264,11 @@
       <c r="H375">
         <v>0.1139857799552961</v>
       </c>
-    </row>
-    <row r="376" spans="1:8">
+      <c r="J375">
+        <v>-0.07138841588111144</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11">
       <c r="A376" s="2">
         <v>42430</v>
       </c>
@@ -6771,8 +7293,11 @@
       <c r="H376">
         <v>-0.04202762342305344</v>
       </c>
-    </row>
-    <row r="377" spans="1:8">
+      <c r="J376">
+        <v>0.0396139504277262</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11">
       <c r="A377" s="2">
         <v>42461</v>
       </c>
@@ -6797,8 +7322,11 @@
       <c r="H377">
         <v>0.03768840774361171</v>
       </c>
-    </row>
-    <row r="378" spans="1:8">
+      <c r="J377">
+        <v>0.02587560131656663</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11">
       <c r="A378" s="2">
         <v>42491</v>
       </c>
@@ -6823,8 +7351,11 @@
       <c r="H378">
         <v>-0.03616169691396565</v>
       </c>
-    </row>
-    <row r="379" spans="1:8">
+      <c r="J378">
+        <v>0.05584257461581488</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11">
       <c r="A379" s="2">
         <v>42522</v>
       </c>
@@ -6849,8 +7380,11 @@
       <c r="H379">
         <v>0.09474150867897713</v>
       </c>
-    </row>
-    <row r="380" spans="1:8">
+      <c r="J379">
+        <v>-0.1308436701365085</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11">
       <c r="A380" s="2">
         <v>42552</v>
       </c>
@@ -6875,8 +7409,14 @@
       <c r="H380">
         <v>0.0150835857052527</v>
       </c>
-    </row>
-    <row r="381" spans="1:8">
+      <c r="J380">
+        <v>0.09040707837670681</v>
+      </c>
+      <c r="K380">
+        <v>0.02682380599999989</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11">
       <c r="A381" s="2">
         <v>42583</v>
       </c>
@@ -6901,8 +7441,14 @@
       <c r="H381">
         <v>-0.02606901372662451</v>
       </c>
-    </row>
-    <row r="382" spans="1:8">
+      <c r="J381">
+        <v>0.02135880824755843</v>
+      </c>
+      <c r="K381">
+        <v>0.01766975005252269</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11">
       <c r="A382" s="2">
         <v>42614</v>
       </c>
@@ -6927,8 +7473,14 @@
       <c r="H382">
         <v>0.007495668488966212</v>
       </c>
-    </row>
-    <row r="383" spans="1:8">
+      <c r="J382">
+        <v>-0.01349067083085109</v>
+      </c>
+      <c r="K382">
+        <v>0.005233702353349523</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11">
       <c r="A383" s="2">
         <v>42644</v>
       </c>
@@ -6953,8 +7505,14 @@
       <c r="H383">
         <v>-0.01929340702268567</v>
       </c>
-    </row>
-    <row r="384" spans="1:8">
+      <c r="J383">
+        <v>0.03723135168654856</v>
+      </c>
+      <c r="K383">
+        <v>0.0194323441184443</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11">
       <c r="A384" s="2">
         <v>42675</v>
       </c>
@@ -6979,8 +7537,14 @@
       <c r="H384">
         <v>-0.04673643452111698</v>
       </c>
-    </row>
-    <row r="385" spans="1:9">
+      <c r="J384">
+        <v>-0.0002123960635936895</v>
+      </c>
+      <c r="K384">
+        <v>0.01284899060747158</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11">
       <c r="A385" s="2">
         <v>42705</v>
       </c>
@@ -7005,8 +7569,14 @@
       <c r="H385">
         <v>-0.007353922586878503</v>
       </c>
-    </row>
-    <row r="386" spans="1:9">
+      <c r="J385">
+        <v>0.1636347899979558</v>
+      </c>
+      <c r="K385">
+        <v>0.02394578653570734</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11">
       <c r="A386" s="2">
         <v>42736</v>
       </c>
@@ -7031,8 +7601,14 @@
       <c r="H386">
         <v>0.02550948388474161</v>
       </c>
-    </row>
-    <row r="387" spans="1:9">
+      <c r="J386">
+        <v>-0.0343360988836372</v>
+      </c>
+      <c r="K386">
+        <v>0.004121093830212308</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11">
       <c r="A387" s="2">
         <v>42767</v>
       </c>
@@ -7057,8 +7633,14 @@
       <c r="H387">
         <v>0.05072629083304658</v>
       </c>
-    </row>
-    <row r="388" spans="1:9">
+      <c r="J387">
+        <v>0.0586081099059601</v>
+      </c>
+      <c r="K387">
+        <v>0.02266085676043761</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11">
       <c r="A388" s="2">
         <v>42795</v>
       </c>
@@ -7083,8 +7665,14 @@
       <c r="H388">
         <v>-0.01727880831784034</v>
       </c>
-    </row>
-    <row r="389" spans="1:9">
+      <c r="J388">
+        <v>0.1167327014280715</v>
+      </c>
+      <c r="K388">
+        <v>-0.005709978727395759</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11">
       <c r="A389" s="2">
         <v>42826</v>
       </c>
@@ -7109,8 +7697,14 @@
       <c r="H389">
         <v>-0.004894349532516329</v>
       </c>
-    </row>
-    <row r="390" spans="1:9">
+      <c r="J389">
+        <v>0.03958988574373135</v>
+      </c>
+      <c r="K389">
+        <v>-0.003477613478358399</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11">
       <c r="A390" s="2">
         <v>42856</v>
       </c>
@@ -7135,8 +7729,14 @@
       <c r="H390">
         <v>-0.02612580036594669</v>
       </c>
-    </row>
-    <row r="391" spans="1:9">
+      <c r="J390">
+        <v>0.02734239238811509</v>
+      </c>
+      <c r="K390">
+        <v>-0.01295904679002591</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11">
       <c r="A391" s="2">
         <v>42887</v>
       </c>
@@ -7161,8 +7761,14 @@
       <c r="H391">
         <v>-0.03533505799884218</v>
       </c>
-    </row>
-    <row r="392" spans="1:9">
+      <c r="J391">
+        <v>-0.0585534123806245</v>
+      </c>
+      <c r="K391">
+        <v>-0.01121435781864333</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11">
       <c r="A392" s="2">
         <v>42917</v>
       </c>
@@ -7187,8 +7793,14 @@
       <c r="H392">
         <v>-0.007041879144171315</v>
       </c>
-    </row>
-    <row r="393" spans="1:9">
+      <c r="J392">
+        <v>0.00543132496053067</v>
+      </c>
+      <c r="K392">
+        <v>-0.00513825736587914</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11">
       <c r="A393" s="2">
         <v>42948</v>
       </c>
@@ -7213,8 +7825,14 @@
       <c r="H393">
         <v>0.02629390336420889</v>
       </c>
-    </row>
-    <row r="394" spans="1:9">
+      <c r="J393">
+        <v>-0.01509860673314645</v>
+      </c>
+      <c r="K393">
+        <v>-0.003661386492799235</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11">
       <c r="A394" s="2">
         <v>42979</v>
       </c>
@@ -7239,8 +7857,14 @@
       <c r="H394">
         <v>-0.02026685077516333</v>
       </c>
-    </row>
-    <row r="395" spans="1:9">
+      <c r="J394">
+        <v>0.1060731346036021</v>
+      </c>
+      <c r="K394">
+        <v>0.0147607398302334</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11">
       <c r="A395" s="2">
         <v>43009</v>
       </c>
@@ -7265,8 +7889,14 @@
       <c r="H395">
         <v>0.004197032371429099</v>
       </c>
-    </row>
-    <row r="396" spans="1:9">
+      <c r="J395">
+        <v>0.04605984983757505</v>
+      </c>
+      <c r="K395">
+        <v>0.01871182473798272</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11">
       <c r="A396" s="2">
         <v>43040</v>
       </c>
@@ -7291,8 +7921,14 @@
       <c r="H396">
         <v>-0.01003585888614267</v>
       </c>
-    </row>
-    <row r="397" spans="1:9">
+      <c r="J396">
+        <v>-0.05451525995393292</v>
+      </c>
+      <c r="K396">
+        <v>-0.01160795423607008</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11">
       <c r="A397" s="2">
         <v>43070</v>
       </c>
@@ -7320,8 +7956,14 @@
       <c r="I397">
         <v>0.003464868704460056</v>
       </c>
-    </row>
-    <row r="398" spans="1:9">
+      <c r="J397">
+        <v>-0.03466689868564821</v>
+      </c>
+      <c r="K397">
+        <v>-0.006097835660390127</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11">
       <c r="A398" s="2">
         <v>43101</v>
       </c>
@@ -7349,8 +7991,14 @@
       <c r="I398">
         <v>0.01191685728598424</v>
       </c>
-    </row>
-    <row r="399" spans="1:9">
+      <c r="J398">
+        <v>0.06262463524825668</v>
+      </c>
+      <c r="K398">
+        <v>-0.01645853364648264</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11">
       <c r="A399" s="2">
         <v>43132</v>
       </c>
@@ -7378,8 +8026,14 @@
       <c r="I399">
         <v>-0.008873336430593293</v>
       </c>
-    </row>
-    <row r="400" spans="1:9">
+      <c r="J399">
+        <v>-0.09170620510509753</v>
+      </c>
+      <c r="K399">
+        <v>0.0005474034967785091</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11">
       <c r="A400" s="2">
         <v>43160</v>
       </c>
@@ -7407,8 +8061,14 @@
       <c r="I400">
         <v>0.01064396696754888</v>
       </c>
-    </row>
-    <row r="401" spans="1:9">
+      <c r="J400">
+        <v>-0.044182191716861</v>
+      </c>
+      <c r="K400">
+        <v>-0.01174256556087805</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11">
       <c r="A401" s="2">
         <v>43191</v>
       </c>
@@ -7436,8 +8096,14 @@
       <c r="I401">
         <v>-0.01601715156386285</v>
       </c>
-    </row>
-    <row r="402" spans="1:9">
+      <c r="J401">
+        <v>0.122046090153024</v>
+      </c>
+      <c r="K401">
+        <v>0.02087823290621982</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11">
       <c r="A402" s="2">
         <v>43221</v>
       </c>
@@ -7465,8 +8131,14 @@
       <c r="I402">
         <v>-0.007585252654838892</v>
       </c>
-    </row>
-    <row r="403" spans="1:9">
+      <c r="J402">
+        <v>-0.04235577106224131</v>
+      </c>
+      <c r="K402">
+        <v>0.01296667186458134</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11">
       <c r="A403" s="2">
         <v>43252</v>
       </c>
@@ -7494,8 +8166,14 @@
       <c r="I403">
         <v>-0.004446341275239241</v>
       </c>
-    </row>
-    <row r="404" spans="1:9">
+      <c r="J403">
+        <v>-0.004620105699835286</v>
+      </c>
+      <c r="K403">
+        <v>0.003400090322757565</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11">
       <c r="A404" s="2">
         <v>43282</v>
       </c>
@@ -7523,8 +8201,14 @@
       <c r="I404">
         <v>-0.001669447050334782</v>
       </c>
-    </row>
-    <row r="405" spans="1:9">
+      <c r="J404">
+        <v>0.08006531283362928</v>
+      </c>
+      <c r="K404">
+        <v>0.004202964861125924</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11">
       <c r="A405" s="2">
         <v>43313</v>
       </c>
@@ -7552,8 +8236,14 @@
       <c r="I405">
         <v>0.001049016163422678</v>
       </c>
-    </row>
-    <row r="406" spans="1:9">
+      <c r="J405">
+        <v>-0.07359618566346515</v>
+      </c>
+      <c r="K405">
+        <v>0.007149220558499314</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11">
       <c r="A406" s="2">
         <v>43344</v>
       </c>
@@ -7581,8 +8271,14 @@
       <c r="I406">
         <v>-0.008620375971287952</v>
       </c>
-    </row>
-    <row r="407" spans="1:9">
+      <c r="J406">
+        <v>0.005460521060379309</v>
+      </c>
+      <c r="K406">
+        <v>0.01386010268200377</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11">
       <c r="A407" s="2">
         <v>43374</v>
       </c>
@@ -7610,8 +8306,14 @@
       <c r="I407">
         <v>-0.01117051038770334</v>
       </c>
-    </row>
-    <row r="408" spans="1:9">
+      <c r="J407">
+        <v>-0.1152796299974463</v>
+      </c>
+      <c r="K407">
+        <v>0.001817274575773631</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11">
       <c r="A408" s="2">
         <v>43405</v>
       </c>
@@ -7639,8 +8341,14 @@
       <c r="I408">
         <v>0.003127047457190724</v>
       </c>
-    </row>
-    <row r="409" spans="1:9">
+      <c r="J408">
+        <v>-0.01462466565320197</v>
+      </c>
+      <c r="K408">
+        <v>-0.01887622042364767</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11">
       <c r="A409" s="2">
         <v>43435</v>
       </c>
@@ -7668,8 +8376,14 @@
       <c r="I409">
         <v>0.02021798942076125</v>
       </c>
-    </row>
-    <row r="410" spans="1:9">
+      <c r="J409">
+        <v>-0.1046731892124131</v>
+      </c>
+      <c r="K409">
+        <v>-0.0163603556578692</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11">
       <c r="A410" s="2">
         <v>43466</v>
       </c>
@@ -7697,8 +8411,14 @@
       <c r="I410">
         <v>0.01522508652864096</v>
       </c>
-    </row>
-    <row r="411" spans="1:9">
+      <c r="J410">
+        <v>0.1127809162358866</v>
+      </c>
+      <c r="K410">
+        <v>0.03680988921201167</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11">
       <c r="A411" s="2">
         <v>43497</v>
       </c>
@@ -7726,8 +8446,14 @@
       <c r="I411">
         <v>-0.005755994144776455</v>
       </c>
-    </row>
-    <row r="412" spans="1:9">
+      <c r="J411">
+        <v>0.08909985429883815</v>
+      </c>
+      <c r="K411">
+        <v>0.02254369414776103</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11">
       <c r="A412" s="2">
         <v>43525</v>
       </c>
@@ -7755,8 +8481,14 @@
       <c r="I412">
         <v>0.01251943208980588</v>
       </c>
-    </row>
-    <row r="413" spans="1:9">
+      <c r="J412">
+        <v>0.03653488511608272</v>
+      </c>
+      <c r="K412">
+        <v>0.02260757434546923</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11">
       <c r="A413" s="2">
         <v>43556</v>
       </c>
@@ -7784,8 +8516,14 @@
       <c r="I413">
         <v>-0.002961008100256235</v>
       </c>
-    </row>
-    <row r="414" spans="1:9">
+      <c r="J413">
+        <v>0.1120094918393333</v>
+      </c>
+      <c r="K413">
+        <v>0.01280610187215769</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11">
       <c r="A414" s="2">
         <v>43586</v>
       </c>
@@ -7813,8 +8551,14 @@
       <c r="I414">
         <v>0.01354138547646411</v>
       </c>
-    </row>
-    <row r="415" spans="1:9">
+      <c r="J414">
+        <v>-0.1016743609895231</v>
+      </c>
+      <c r="K414">
+        <v>-0.003845456685016346</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11">
       <c r="A415" s="2">
         <v>43617</v>
       </c>
@@ -7842,8 +8586,14 @@
       <c r="I415">
         <v>0.02217165963870005</v>
       </c>
-    </row>
-    <row r="416" spans="1:9">
+      <c r="J415">
+        <v>0.1236051402681382</v>
+      </c>
+      <c r="K415">
+        <v>0.01001214926397398</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11">
       <c r="A416" s="2">
         <v>43647</v>
       </c>
@@ -7871,8 +8621,14 @@
       <c r="I416">
         <v>-0.002778776768912694</v>
       </c>
-    </row>
-    <row r="417" spans="1:9">
+      <c r="J416">
+        <v>-0.001794443413154934</v>
+      </c>
+      <c r="K416">
+        <v>0.02653906536213091</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11">
       <c r="A417" s="2">
         <v>43678</v>
       </c>
@@ -7900,8 +8656,14 @@
       <c r="I417">
         <v>0.0203348839194597</v>
       </c>
-    </row>
-    <row r="418" spans="1:9">
+      <c r="J417">
+        <v>-0.02460430614100417</v>
+      </c>
+      <c r="K417">
+        <v>0.01872704450449048</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11">
       <c r="A418" s="2">
         <v>43709</v>
       </c>
@@ -7929,8 +8691,14 @@
       <c r="I418">
         <v>-0.0101716486664013</v>
       </c>
-    </row>
-    <row r="419" spans="1:9">
+      <c r="J418">
+        <v>0.0870718828943744</v>
+      </c>
+      <c r="K418">
+        <v>0.01680496021717048</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11">
       <c r="A419" s="2">
         <v>43739</v>
       </c>
@@ -7958,8 +8726,14 @@
       <c r="I419">
         <v>0.00665896155081791</v>
       </c>
-    </row>
-    <row r="420" spans="1:9">
+      <c r="J419">
+        <v>0.02009139538736027</v>
+      </c>
+      <c r="K419">
+        <v>-0.01113311670621997</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11">
       <c r="A420" s="2">
         <v>43770</v>
       </c>
@@ -7987,8 +8761,14 @@
       <c r="I420">
         <v>-0.007582647452648916</v>
       </c>
-    </row>
-    <row r="421" spans="1:9">
+      <c r="J420">
+        <v>0.05686149026200082</v>
+      </c>
+      <c r="K420">
+        <v>0.01988323210313125</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11">
       <c r="A421" s="2">
         <v>43800</v>
       </c>
@@ -8016,8 +8796,14 @@
       <c r="I421">
         <v>0.005831639178431436</v>
       </c>
-    </row>
-    <row r="422" spans="1:9">
+      <c r="J421">
+        <v>0.02349384523616371</v>
+      </c>
+      <c r="K421">
+        <v>-0.00243634261054626</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11">
       <c r="A422" s="2">
         <v>43831</v>
       </c>
@@ -8045,8 +8831,14 @@
       <c r="I422">
         <v>0.01276484517295673</v>
       </c>
-    </row>
-    <row r="423" spans="1:9">
+      <c r="J422">
+        <v>-0.05330896150398567</v>
+      </c>
+      <c r="K422">
+        <v>0.02385829338972822</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11">
       <c r="A423" s="2">
         <v>43862</v>
       </c>
@@ -8074,8 +8866,14 @@
       <c r="I423">
         <v>0.006725835948122372</v>
       </c>
-    </row>
-    <row r="424" spans="1:9">
+      <c r="J423">
+        <v>-0.1661995084345</v>
+      </c>
+      <c r="K423">
+        <v>-0.003704522292866663</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11">
       <c r="A424" s="2">
         <v>43891</v>
       </c>
@@ -8103,8 +8901,14 @@
       <c r="I424">
         <v>-0.02240637416126146</v>
       </c>
-    </row>
-    <row r="425" spans="1:9">
+      <c r="J424">
+        <v>-0.3333463846829356</v>
+      </c>
+      <c r="K424">
+        <v>-0.1168656801358938</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11">
       <c r="A425" s="2">
         <v>43922</v>
       </c>
@@ -8132,8 +8936,14 @@
       <c r="I425">
         <v>0.01963337449682845</v>
       </c>
-    </row>
-    <row r="426" spans="1:9">
+      <c r="J425">
+        <v>0.09868691529974316</v>
+      </c>
+      <c r="K425">
+        <v>0.1116252695510838</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11">
       <c r="A426" s="2">
         <v>43952</v>
       </c>
@@ -8161,8 +8971,14 @@
       <c r="I426">
         <v>0.004386959934453927</v>
       </c>
-    </row>
-    <row r="427" spans="1:9">
+      <c r="J426">
+        <v>0.09307582457024721</v>
+      </c>
+      <c r="K426">
+        <v>0.0157895130214627</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11">
       <c r="A427" s="2">
         <v>43983</v>
       </c>
@@ -8190,8 +9006,14 @@
       <c r="I427">
         <v>0.008884279168048126</v>
       </c>
-    </row>
-    <row r="428" spans="1:9">
+      <c r="J427">
+        <v>0.1243441506270302</v>
+      </c>
+      <c r="K427">
+        <v>0.02029125690911626</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11">
       <c r="A428" s="2">
         <v>44013</v>
       </c>
@@ -8219,8 +9041,14 @@
       <c r="I428">
         <v>0.03189335685268047</v>
       </c>
-    </row>
-    <row r="429" spans="1:9">
+      <c r="J428">
+        <v>-0.03343627472302113</v>
+      </c>
+      <c r="K428">
+        <v>0.002964213767491231</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11">
       <c r="A429" s="2">
         <v>44044</v>
       </c>
@@ -8248,8 +9076,14 @@
       <c r="I429">
         <v>-0.0015246588193637</v>
       </c>
-    </row>
-    <row r="430" spans="1:9">
+      <c r="J429">
+        <v>0.06280857848179378</v>
+      </c>
+      <c r="K429">
+        <v>0.008958761320716713</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11">
       <c r="A430" s="2">
         <v>44075</v>
       </c>
@@ -8277,8 +9111,14 @@
       <c r="I430">
         <v>-0.003596812942408767</v>
       </c>
-    </row>
-    <row r="431" spans="1:9">
+      <c r="J430">
+        <v>-0.0490194892391822</v>
+      </c>
+      <c r="K430">
+        <v>-0.0004431497576241616</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11">
       <c r="A431" s="2">
         <v>44105</v>
       </c>
@@ -8306,8 +9146,14 @@
       <c r="I431">
         <v>0.0009564788238152211</v>
       </c>
-    </row>
-    <row r="432" spans="1:9">
+      <c r="J431">
+        <v>-0.1435077408439239</v>
+      </c>
+      <c r="K431">
+        <v>0.007641197186271098</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11">
       <c r="A432" s="2">
         <v>44136</v>
       </c>
@@ -8335,8 +9181,14 @@
       <c r="I432">
         <v>0.01818220432956164</v>
       </c>
-    </row>
-    <row r="433" spans="1:9">
+      <c r="J432">
+        <v>0.3865033864068446</v>
+      </c>
+      <c r="K432">
+        <v>0.03310174336756555</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11">
       <c r="A433" s="2">
         <v>44166</v>
       </c>
@@ -8364,8 +9216,14 @@
       <c r="I433">
         <v>0.01343233400547317</v>
       </c>
-    </row>
-    <row r="434" spans="1:9">
+      <c r="J433">
+        <v>0.03474003888570576</v>
+      </c>
+      <c r="K433">
+        <v>0.002951148107560364</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11">
       <c r="A434" s="2">
         <v>44197</v>
       </c>
@@ -8393,8 +9251,14 @@
       <c r="I434">
         <v>-0.008806961361813248</v>
       </c>
-    </row>
-    <row r="435" spans="1:9">
+      <c r="J434">
+        <v>-0.03785451402009465</v>
+      </c>
+      <c r="K434">
+        <v>0.01241920686371434</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11">
       <c r="A435" s="2">
         <v>44228</v>
       </c>
@@ -8422,8 +9286,14 @@
       <c r="I435">
         <v>-0.01721310320077729</v>
       </c>
-    </row>
-    <row r="436" spans="1:9">
+      <c r="J435">
+        <v>0.139599944048113</v>
+      </c>
+      <c r="K435">
+        <v>0.005553124599915416</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11">
       <c r="A436" s="2">
         <v>44256</v>
       </c>
@@ -8451,8 +9321,14 @@
       <c r="I436">
         <v>-0.01923673581241125</v>
       </c>
-    </row>
-    <row r="437" spans="1:9">
+      <c r="J436">
+        <v>0.1152524289261776</v>
+      </c>
+      <c r="K436">
+        <v>0.02293241761637232</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11">
       <c r="A437" s="2">
         <v>44287</v>
       </c>
@@ -8480,8 +9356,14 @@
       <c r="I437">
         <v>0.01263308625561299</v>
       </c>
-    </row>
-    <row r="438" spans="1:9">
+      <c r="J437">
+        <v>0.03842783668804062</v>
+      </c>
+      <c r="K437">
+        <v>-0.01087126376281211</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11">
       <c r="A438" s="2">
         <v>44317</v>
       </c>
@@ -8509,8 +9391,14 @@
       <c r="I438">
         <v>0.009391611862869409</v>
       </c>
-    </row>
-    <row r="439" spans="1:9">
+      <c r="J438">
+        <v>0.03938234011242603</v>
+      </c>
+      <c r="K438">
+        <v>-0.001462857735733181</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11">
       <c r="A439" s="2">
         <v>44348</v>
       </c>
@@ -8538,8 +9426,14 @@
       <c r="I439">
         <v>-0.008822371664789053</v>
       </c>
-    </row>
-    <row r="440" spans="1:9">
+      <c r="J439">
+        <v>0.02315922407775117</v>
+      </c>
+      <c r="K439">
+        <v>0.03195852711393932</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11">
       <c r="A440" s="2">
         <v>44378</v>
       </c>
@@ -8567,8 +9461,14 @@
       <c r="I440">
         <v>0.01331017403087054</v>
       </c>
-    </row>
-    <row r="441" spans="1:9">
+      <c r="J440">
+        <v>0.01286803460608343</v>
+      </c>
+      <c r="K440">
+        <v>0.008764161903177081</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11">
       <c r="A441" s="2">
         <v>44409</v>
       </c>
@@ -8596,8 +9496,14 @@
       <c r="I441">
         <v>-0.004158548685487484</v>
       </c>
-    </row>
-    <row r="442" spans="1:9">
+      <c r="J441">
+        <v>0.05324028519959478</v>
+      </c>
+      <c r="K441">
+        <v>0.008551801313494423</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11">
       <c r="A442" s="2">
         <v>44440</v>
       </c>
@@ -8625,8 +9531,14 @@
       <c r="I442">
         <v>-0.01776904781565247</v>
       </c>
-    </row>
-    <row r="443" spans="1:9">
+      <c r="J442">
+        <v>-0.06812694032425126</v>
+      </c>
+      <c r="K442">
+        <v>0.01459234072249904</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11">
       <c r="A443" s="2">
         <v>44470</v>
       </c>
@@ -8654,8 +9566,14 @@
       <c r="I443">
         <v>-0.002417112419656697</v>
       </c>
-    </row>
-    <row r="444" spans="1:9">
+      <c r="J443">
+        <v>0.1049956814115598</v>
+      </c>
+      <c r="K443">
+        <v>-0.004844455415892068</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11">
       <c r="A444" s="2">
         <v>44501</v>
       </c>
@@ -8683,8 +9601,14 @@
       <c r="I444">
         <v>-0.002925049523762713</v>
       </c>
-    </row>
-    <row r="445" spans="1:9">
+      <c r="J444">
+        <v>-0.08660939233845444</v>
+      </c>
+      <c r="K444">
+        <v>0.005137023188291012</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11">
       <c r="A445" s="2">
         <v>44531</v>
       </c>
@@ -8712,8 +9636,14 @@
       <c r="I445">
         <v>-0.001396013625551862</v>
       </c>
-    </row>
-    <row r="446" spans="1:9">
+      <c r="J445">
+        <v>0.1159791254383948</v>
+      </c>
+      <c r="K445">
+        <v>0.02009394246890328</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11">
       <c r="A446" s="2">
         <v>44562</v>
       </c>
@@ -8741,8 +9671,14 @@
       <c r="I446">
         <v>-0.02049368558168541</v>
       </c>
-    </row>
-    <row r="447" spans="1:9">
+      <c r="J446">
+        <v>-0.05744714356137293</v>
+      </c>
+      <c r="K446">
+        <v>-0.02021307062166489</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11">
       <c r="A447" s="2">
         <v>44593</v>
       </c>
@@ -8770,8 +9706,14 @@
       <c r="I447">
         <v>-0.01188562752829569</v>
       </c>
-    </row>
-    <row r="448" spans="1:9">
+      <c r="J447">
+        <v>-0.1189150513382141</v>
+      </c>
+      <c r="K447">
+        <v>-0.02266745242612966</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11">
       <c r="A448" s="2">
         <v>44621</v>
       </c>
@@ -8799,8 +9741,14 @@
       <c r="I448">
         <v>-0.0304526896277344</v>
       </c>
-    </row>
-    <row r="449" spans="1:9">
+      <c r="J448">
+        <v>-0.02236695659342691</v>
+      </c>
+      <c r="K448">
+        <v>-0.003779930125488051</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11">
       <c r="A449" s="2">
         <v>44652</v>
       </c>
@@ -8828,8 +9776,14 @@
       <c r="I449">
         <v>-0.05478838109389506</v>
       </c>
-    </row>
-    <row r="450" spans="1:9">
+      <c r="J449">
+        <v>-0.04151557571975228</v>
+      </c>
+      <c r="K449">
+        <v>-0.0001770728364918206</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11">
       <c r="A450" s="2">
         <v>44682</v>
       </c>
@@ -8857,8 +9811,14 @@
       <c r="I450">
         <v>0.0027295825676803</v>
       </c>
-    </row>
-    <row r="451" spans="1:9">
+      <c r="J450">
+        <v>0.0210718024969403</v>
+      </c>
+      <c r="K450">
+        <v>-0.01366419799844909</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11">
       <c r="A451" s="2">
         <v>44713</v>
       </c>
@@ -8886,8 +9846,14 @@
       <c r="I451">
         <v>-0.0320876833526722</v>
       </c>
-    </row>
-    <row r="452" spans="1:9">
+      <c r="J451">
+        <v>-0.1714245092801593</v>
+      </c>
+      <c r="K451">
+        <v>-0.03688502620631617</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11">
       <c r="A452" s="2">
         <v>44743</v>
       </c>
@@ -8915,8 +9881,14 @@
       <c r="I452">
         <v>0.02125895477168949</v>
       </c>
-    </row>
-    <row r="453" spans="1:9">
+      <c r="J452">
+        <v>0.1512071090219873</v>
+      </c>
+      <c r="K452">
+        <v>0.06066220705422887</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11">
       <c r="A453" s="2">
         <v>44774</v>
       </c>
@@ -8944,8 +9916,14 @@
       <c r="I453">
         <v>-0.03946132847401196</v>
       </c>
-    </row>
-    <row r="454" spans="1:9">
+      <c r="J453">
+        <v>-0.1011477016608076</v>
+      </c>
+      <c r="K453">
+        <v>-0.001114565497836062</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11">
       <c r="A454" s="2">
         <v>44805</v>
       </c>
@@ -8973,8 +9951,14 @@
       <c r="I454">
         <v>-0.0513799020894613</v>
       </c>
-    </row>
-    <row r="455" spans="1:9">
+      <c r="J454">
+        <v>-0.1115801110524796</v>
+      </c>
+      <c r="K454">
+        <v>-0.02026077777627489</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11">
       <c r="A455" s="2">
         <v>44835</v>
       </c>
@@ -9002,8 +9986,14 @@
       <c r="I455">
         <v>-0.00687738076673805</v>
       </c>
-    </row>
-    <row r="456" spans="1:9">
+      <c r="J455">
+        <v>0.1856674208144715</v>
+      </c>
+      <c r="K455">
+        <v>-0.002783300035572034</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11">
       <c r="A456" s="2">
         <v>44866</v>
       </c>
@@ -9031,8 +10021,14 @@
       <c r="I456">
         <v>0.04706102278539581</v>
       </c>
-    </row>
-    <row r="457" spans="1:9">
+      <c r="J456">
+        <v>0.1996221842710368</v>
+      </c>
+      <c r="K456">
+        <v>-0.005925365221789103</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11">
       <c r="A457" s="2">
         <v>44896</v>
       </c>
@@ -9059,6 +10055,12 @@
       </c>
       <c r="I457">
         <v>0.005407715642045119</v>
+      </c>
+      <c r="J457">
+        <v>-0.08715085576127835</v>
+      </c>
+      <c r="K457">
+        <v>-0.01867151643650844</v>
       </c>
     </row>
   </sheetData>

--- a/oryginal_price_changes.xlsx
+++ b/oryginal_price_changes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>GovBondG7</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>EURPLN</t>
+  </si>
+  <si>
+    <t>EDO</t>
   </si>
   <si>
     <t>GlobalCorporate</t>
@@ -410,15 +413,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K457"/>
+  <dimension ref="A1:L457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -450,398 +453,401 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>31048</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>31079</v>
       </c>
       <c r="B3">
         <v>0.02684229522874992</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>-0.02655596935386972</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>31107</v>
       </c>
       <c r="B4">
         <v>-0.03995666759182515</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.146933842815437</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>31138</v>
       </c>
       <c r="B5">
         <v>0.02073229776881202</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>-0.09141141397673624</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>31168</v>
       </c>
       <c r="B6">
         <v>0.02312389684948157</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>-0.0159528582101689</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>31199</v>
       </c>
       <c r="B7">
         <v>0.004743440411965061</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-0.005592693887728539</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>31229</v>
       </c>
       <c r="B8">
         <v>-0.04414159325781986</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-0.01948511119118079</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>31260</v>
       </c>
       <c r="B9">
         <v>0.01514034743007642</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-0.01726700906327028</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>31291</v>
       </c>
       <c r="B10">
         <v>-0.002255848158625118</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-0.006564833971902995</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>31321</v>
       </c>
       <c r="B11">
         <v>-0.008938427557570572</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-0.06322193939876686</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>31352</v>
       </c>
       <c r="B12">
         <v>-0.001815334659477918</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.01863191844902756</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>31382</v>
       </c>
       <c r="B13">
         <v>0.004788975501668125</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-0.01837631319800648</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>31413</v>
       </c>
       <c r="B14">
         <v>-0.002197323188793843</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.04986057735520744</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>31444</v>
       </c>
       <c r="B15">
         <v>-0.0007218087514592186</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-0.07308559600902631</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>31472</v>
       </c>
       <c r="B16">
         <v>0.08497364538260088</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-0.01063841329269855</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>31503</v>
       </c>
       <c r="B17">
         <v>-0.02947010406708228</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.01048919556793693</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>31533</v>
       </c>
       <c r="B18">
         <v>0.01969509542775705</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>-0.02454266237979075</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <v>31564</v>
       </c>
       <c r="B19">
         <v>-0.004344486804606418</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.01454658417012866</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>31594</v>
       </c>
       <c r="B20">
         <v>-0.008114425386971491</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.0009204239118048019</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="2">
         <v>31625</v>
       </c>
       <c r="B21">
         <v>0.0006530778989759511</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.04393841222440886</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <v>31656</v>
       </c>
       <c r="B22">
         <v>-0.01952804950788711</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.09163147097239155</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
         <v>31686</v>
       </c>
       <c r="B23">
         <v>0.01145167205299935</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>-0.06284099559037482</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <v>31717</v>
       </c>
       <c r="B24">
         <v>-0.02308686632921397</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>-0.01858395483707287</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" s="2">
         <v>31747</v>
       </c>
       <c r="B25">
         <v>-0.008156491751680872</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-0.01053265867634623</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
         <v>31778</v>
       </c>
       <c r="B26">
         <v>-0.01247128962567656</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>-0.03677830252947079</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" s="2">
         <v>31809</v>
       </c>
       <c r="B27">
         <v>0.01155122513442119</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-0.004388464534314851</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" s="2">
         <v>31837</v>
       </c>
       <c r="B28">
         <v>0.006659805580892852</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>0.03577164887306661</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" s="2">
         <v>31868</v>
       </c>
       <c r="B29">
         <v>0.001794691898295842</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>0.06271288062782143</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" s="2">
         <v>31898</v>
       </c>
       <c r="B30">
         <v>0.009487475139878354</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-0.01687715242532828</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" s="2">
         <v>31929</v>
       </c>
       <c r="B31">
         <v>-0.007354406703004912</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.009711650558682061</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" s="2">
         <v>31959</v>
       </c>
       <c r="B32">
         <v>-0.0028757130156154</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>0.04906823304397157</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33" s="2">
         <v>31990</v>
       </c>
       <c r="B33">
         <v>-0.00907605296735603</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-0.0119399744076909</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:9">
       <c r="A34" s="2">
         <v>32021</v>
       </c>
       <c r="B34">
         <v>-0.01347352336886021</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>-0.01283623586359506</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:9">
       <c r="A35" s="2">
         <v>32051</v>
       </c>
       <c r="B35">
         <v>0.007899803123868177</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.01298419768105585</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:9">
       <c r="A36" s="2">
         <v>32082</v>
       </c>
       <c r="B36">
         <v>-0.02059938157639429</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>-0.01279886079529724</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:9">
       <c r="A37" s="2">
         <v>32112</v>
       </c>
       <c r="B37">
         <v>0.0005658196760780498</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>-0.04208111397531655</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:9">
       <c r="A38" s="2">
         <v>32143</v>
       </c>
@@ -851,11 +857,11 @@
       <c r="C38">
         <v>0.03622121396054645</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>-0.04858181523283345</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:9">
       <c r="A39" s="2">
         <v>32174</v>
       </c>
@@ -865,11 +871,11 @@
       <c r="C39">
         <v>0.08877427977470043</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>-0.04254839991214898</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:9">
       <c r="A40" s="2">
         <v>32203</v>
       </c>
@@ -879,11 +885,11 @@
       <c r="C40">
         <v>0.01722291244600194</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>0.05784355844345801</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:9">
       <c r="A41" s="2">
         <v>32234</v>
       </c>
@@ -893,11 +899,11 @@
       <c r="C41">
         <v>0.007020130938113933</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>-0.023179374339373</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:9">
       <c r="A42" s="2">
         <v>32264</v>
       </c>
@@ -907,11 +913,11 @@
       <c r="C42">
         <v>-0.00978402629037145</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>0.02455118913916277</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:9">
       <c r="A43" s="2">
         <v>32295</v>
       </c>
@@ -921,11 +927,11 @@
       <c r="C43">
         <v>0.03641248582383749</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>-0.005917626176517699</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:9">
       <c r="A44" s="2">
         <v>32325</v>
       </c>
@@ -935,11 +941,11 @@
       <c r="C44">
         <v>0.07015701301651633</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>0.05106720427581357</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:9">
       <c r="A45" s="2">
         <v>32356</v>
       </c>
@@ -949,11 +955,11 @@
       <c r="C45">
         <v>-0.03345536685787165</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>0.001305414266216109</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:9">
       <c r="A46" s="2">
         <v>32387</v>
       </c>
@@ -963,11 +969,11 @@
       <c r="C46">
         <v>0.03569191526061322</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>-0.07926895897127872</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:9">
       <c r="A47" s="2">
         <v>32417</v>
       </c>
@@ -977,11 +983,11 @@
       <c r="C47">
         <v>0.03936651045522876</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>0.01392485547034483</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:9">
       <c r="A48" s="2">
         <v>32448</v>
       </c>
@@ -991,11 +997,11 @@
       <c r="C48">
         <v>-0.007157069267961891</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>-0.01579974161865638</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:9">
       <c r="A49" s="2">
         <v>32478</v>
       </c>
@@ -1005,11 +1011,11 @@
       <c r="C49">
         <v>0.01032975296356842</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>-0.02839521645406973</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:9">
       <c r="A50" s="2">
         <v>32509</v>
       </c>
@@ -1019,11 +1025,11 @@
       <c r="C50">
         <v>0.07733445155814578</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>-0.001261185617211114</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:9">
       <c r="A51" s="2">
         <v>32540</v>
       </c>
@@ -1033,11 +1039,11 @@
       <c r="C51">
         <v>0.006461288433990076</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>-0.005545319861915976</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:9">
       <c r="A52" s="2">
         <v>32568</v>
       </c>
@@ -1047,11 +1053,11 @@
       <c r="C52">
         <v>0.001169176100413116</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>-0.003174801335057542</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:9">
       <c r="A53" s="2">
         <v>32599</v>
       </c>
@@ -1061,11 +1067,11 @@
       <c r="C53">
         <v>0.03088770772459215</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>-0.009248455368390696</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:9">
       <c r="A54" s="2">
         <v>32629</v>
       </c>
@@ -1075,11 +1081,11 @@
       <c r="C54">
         <v>0.01837919305324753</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>-0.0005327011752198629</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:9">
       <c r="A55" s="2">
         <v>32660</v>
       </c>
@@ -1089,11 +1095,11 @@
       <c r="C55">
         <v>0.00392271144324785</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>0.04957027159874228</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:9">
       <c r="A56" s="2">
         <v>32690</v>
       </c>
@@ -1103,11 +1109,11 @@
       <c r="C56">
         <v>0.06450859333970693</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>-0.05563292945350573</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:9">
       <c r="A57" s="2">
         <v>32721</v>
       </c>
@@ -1117,11 +1123,11 @@
       <c r="C57">
         <v>-0.008373608666223609</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>-0.007942084133027327</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:9">
       <c r="A58" s="2">
         <v>32752</v>
       </c>
@@ -1131,11 +1137,11 @@
       <c r="C58">
         <v>0.04609846717528132</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>0.03426302936393477</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:9">
       <c r="A59" s="2">
         <v>32782</v>
       </c>
@@ -1145,11 +1151,11 @@
       <c r="C59">
         <v>-0.06858035732902967</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>-0.01451714844421659</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:9">
       <c r="A60" s="2">
         <v>32813</v>
       </c>
@@ -1159,11 +1165,11 @@
       <c r="C60">
         <v>0.02448947355035647</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>0.07197994955242271</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:9">
       <c r="A61" s="2">
         <v>32843</v>
       </c>
@@ -1173,11 +1179,11 @@
       <c r="C61">
         <v>-0.009614200756741242</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>-0.05792863717942132</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:9">
       <c r="A62" s="2">
         <v>32874</v>
       </c>
@@ -1187,11 +1193,11 @@
       <c r="C62">
         <v>-0.07385280045243237</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>0.004731869378289622</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:9">
       <c r="A63" s="2">
         <v>32905</v>
       </c>
@@ -1201,11 +1207,11 @@
       <c r="C63">
         <v>-0.05463724069653242</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>-0.0306898226334622</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:9">
       <c r="A64" s="2">
         <v>32933</v>
       </c>
@@ -1215,11 +1221,11 @@
       <c r="C64">
         <v>-0.04526972983896183</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>-0.08029606963963998</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:9">
       <c r="A65" s="2">
         <v>32964</v>
       </c>
@@ -1229,11 +1235,11 @@
       <c r="C65">
         <v>-0.02516991024594573</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>-0.01478960960966447</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:9">
       <c r="A66" s="2">
         <v>32994</v>
       </c>
@@ -1243,11 +1249,11 @@
       <c r="C66">
         <v>0.086478297783803</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>-0.02887508733340383</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:9">
       <c r="A67" s="2">
         <v>33025</v>
       </c>
@@ -1257,11 +1263,11 @@
       <c r="C67">
         <v>1.849824109778631E-05</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>-0.02331052428115865</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:9">
       <c r="A68" s="2">
         <v>33055</v>
       </c>
@@ -1271,11 +1277,11 @@
       <c r="C68">
         <v>-0.02032639313654372</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>0.02517441533373654</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:9">
       <c r="A69" s="2">
         <v>33086</v>
       </c>
@@ -1285,11 +1291,11 @@
       <c r="C69">
         <v>-0.1338583362954636</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>-0.004315169767447502</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:9">
       <c r="A70" s="2">
         <v>33117</v>
       </c>
@@ -1299,11 +1305,11 @@
       <c r="C70">
         <v>-0.102990360704477</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>0.05501325429360016</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:9">
       <c r="A71" s="2">
         <v>33147</v>
       </c>
@@ -1313,11 +1319,11 @@
       <c r="C71">
         <v>0.06002847782489762</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>-0.0979898068131112</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:9">
       <c r="A72" s="2">
         <v>33178</v>
       </c>
@@ -1327,11 +1333,11 @@
       <c r="C72">
         <v>-0.03620204607369304</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>-0.00595321148383765</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:9">
       <c r="A73" s="2">
         <v>33208</v>
       </c>
@@ -1341,11 +1347,11 @@
       <c r="C73">
         <v>0.03365872241751666</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>0.02799754182658742</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:9">
       <c r="A74" s="2">
         <v>33239</v>
       </c>
@@ -1355,11 +1361,11 @@
       <c r="C74">
         <v>0.03956666400270992</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>-0.06160908540537191</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:9">
       <c r="A75" s="2">
         <v>33270</v>
       </c>
@@ -1369,11 +1375,11 @@
       <c r="C75">
         <v>0.07585213325487894</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>-0.02549355554690147</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:9">
       <c r="A76" s="2">
         <v>33298</v>
       </c>
@@ -1383,11 +1389,11 @@
       <c r="C76">
         <v>0.05807821571032212</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>0.06729505596151708</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:9">
       <c r="A77" s="2">
         <v>33329</v>
       </c>
@@ -1397,11 +1403,11 @@
       <c r="C77">
         <v>0.06218338958365166</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>0.05952858190676369</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:9">
       <c r="A78" s="2">
         <v>33359</v>
       </c>
@@ -1411,11 +1417,11 @@
       <c r="C78">
         <v>0.03762045197731934</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>0.02088668363965396</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:9">
       <c r="A79" s="2">
         <v>33390</v>
       </c>
@@ -1425,11 +1431,11 @@
       <c r="C79">
         <v>-0.02594708192216799</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>0.06018211413642516</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:9">
       <c r="A80" s="2">
         <v>33420</v>
       </c>
@@ -1439,11 +1445,11 @@
       <c r="C80">
         <v>0.0490029966185257</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>-0.01364802986917724</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:9">
       <c r="A81" s="2">
         <v>33451</v>
       </c>
@@ -1453,11 +1459,11 @@
       <c r="C81">
         <v>-0.02397197482431934</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>-0.06364412889969262</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:9">
       <c r="A82" s="2">
         <v>33482</v>
       </c>
@@ -1467,11 +1473,11 @@
       <c r="C82">
         <v>-0.002823341869722884</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>-0.006596309456448735</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:9">
       <c r="A83" s="2">
         <v>33512</v>
       </c>
@@ -1481,11 +1487,11 @@
       <c r="C83">
         <v>0.01606192700013254</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>0.0058557246188089</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:9">
       <c r="A84" s="2">
         <v>33543</v>
       </c>
@@ -1495,11 +1501,11 @@
       <c r="C84">
         <v>-0.07882383740946375</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>-0.01356904213015797</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:9">
       <c r="A85" s="2">
         <v>33573</v>
       </c>
@@ -1509,11 +1515,11 @@
       <c r="C85">
         <v>0.04015005456536858</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>-0.06585330804921741</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:9">
       <c r="A86" s="2">
         <v>33604</v>
       </c>
@@ -1523,11 +1529,11 @@
       <c r="C86">
         <v>-0.008009057700116617</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>0.00904078537106634</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:9">
       <c r="A87" s="2">
         <v>33635</v>
       </c>
@@ -1537,11 +1543,11 @@
       <c r="C87">
         <v>0.006639020024586939</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>0.01919335645684139</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:9">
       <c r="A88" s="2">
         <v>33664</v>
       </c>
@@ -1551,11 +1557,11 @@
       <c r="C88">
         <v>-0.01897112858924799</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>-0.006415797379683008</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:9">
       <c r="A89" s="2">
         <v>33695</v>
       </c>
@@ -1565,11 +1571,11 @@
       <c r="C89">
         <v>0.004270557232666228</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>-0.02453424677128302</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:9">
       <c r="A90" s="2">
         <v>33725</v>
       </c>
@@ -1579,11 +1585,11 @@
       <c r="C90">
         <v>0.01848117665647186</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>-0.01576010777528891</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:9">
       <c r="A91" s="2">
         <v>33756</v>
       </c>
@@ -1593,11 +1599,11 @@
       <c r="C91">
         <v>-0.06325370025356503</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>-0.01163625617331543</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:9">
       <c r="A92" s="2">
         <v>33786</v>
       </c>
@@ -1607,11 +1613,11 @@
       <c r="C92">
         <v>-0.04452764763075667</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>-0.007492846471342851</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:9">
       <c r="A93" s="2">
         <v>33817</v>
       </c>
@@ -1621,11 +1627,11 @@
       <c r="C93">
         <v>-0.003358903620092057</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>-0.07383892749397603</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:9">
       <c r="A94" s="2">
         <v>33848</v>
       </c>
@@ -1635,11 +1641,11 @@
       <c r="C94">
         <v>0.01438380819052676</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>0.05018368956677599</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:9">
       <c r="A95" s="2">
         <v>33878</v>
       </c>
@@ -1649,11 +1655,11 @@
       <c r="C95">
         <v>0.01612101546197842</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>0.01249802619816753</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:9">
       <c r="A96" s="2">
         <v>33909</v>
       </c>
@@ -1663,11 +1669,11 @@
       <c r="C96">
         <v>0.08324683583739323</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>0.04965179293677702</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:9">
       <c r="A97" s="2">
         <v>33939</v>
       </c>
@@ -1677,11 +1683,11 @@
       <c r="C97">
         <v>0.008806341354614444</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>-0.00453399241506347</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:9">
       <c r="A98" s="2">
         <v>33970</v>
       </c>
@@ -1691,11 +1697,11 @@
       <c r="C98">
         <v>0.0231374224976304</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>0.01202698241953981</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:9">
       <c r="A99" s="2">
         <v>34001</v>
       </c>
@@ -1705,11 +1711,11 @@
       <c r="C99">
         <v>0.04901952061835191</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>0.01607605108513388</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:9">
       <c r="A100" s="2">
         <v>34029</v>
       </c>
@@ -1719,11 +1725,11 @@
       <c r="C100">
         <v>0.06267059542440578</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>0.03621156753052546</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:9">
       <c r="A101" s="2">
         <v>34060</v>
       </c>
@@ -1733,11 +1739,11 @@
       <c r="C101">
         <v>0.009848821574351518</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>0.01315875507925335</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:9">
       <c r="A102" s="2">
         <v>34090</v>
       </c>
@@ -1747,11 +1753,11 @@
       <c r="C102">
         <v>0.02601525273450944</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>0.06796690130466243</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:9">
       <c r="A103" s="2">
         <v>34121</v>
       </c>
@@ -1761,11 +1767,11 @@
       <c r="C103">
         <v>0.02250509357730501</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>0.0319095527894786</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:9">
       <c r="A104" s="2">
         <v>34151</v>
       </c>
@@ -1775,11 +1781,11 @@
       <c r="C104">
         <v>0.06402966155760059</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>0.1065906093764273</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:9">
       <c r="A105" s="2">
         <v>34182</v>
       </c>
@@ -1789,11 +1795,11 @@
       <c r="C105">
         <v>0.05542229528522635</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>-0.06810446411564963</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:9">
       <c r="A106" s="2">
         <v>34213</v>
       </c>
@@ -1803,11 +1809,11 @@
       <c r="C106">
         <v>-0.055858942400138</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>-0.08123768617531701</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:9">
       <c r="A107" s="2">
         <v>34243</v>
       </c>
@@ -1817,11 +1823,11 @@
       <c r="C107">
         <v>0.04170155363796724</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>0.05186737542544617</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:9">
       <c r="A108" s="2">
         <v>34274</v>
       </c>
@@ -1831,11 +1837,11 @@
       <c r="C108">
         <v>-0.02652265944155552</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>0.03046872062228556</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:9">
       <c r="A109" s="2">
         <v>34304</v>
       </c>
@@ -1845,11 +1851,11 @@
       <c r="C109">
         <v>0.05361890273382697</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>0.05278227805364266</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:9">
       <c r="A110" s="2">
         <v>34335</v>
       </c>
@@ -1859,11 +1865,11 @@
       <c r="C110">
         <v>0.08077640408972919</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>-0.01952084262009857</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:9">
       <c r="A111" s="2">
         <v>34366</v>
       </c>
@@ -1873,11 +1879,11 @@
       <c r="C111">
         <v>-0.01824553486994429</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>0.005774990016082615</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:9">
       <c r="A112" s="2">
         <v>34394</v>
       </c>
@@ -1887,11 +1893,11 @@
       <c r="C112">
         <v>-0.06467683273993508</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>-0.001039274696951309</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:9">
       <c r="A113" s="2">
         <v>34425</v>
       </c>
@@ -1901,11 +1907,11 @@
       <c r="C113">
         <v>0.03017302443029335</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>-0.02995517209246013</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:9">
       <c r="A114" s="2">
         <v>34455</v>
       </c>
@@ -1915,11 +1921,11 @@
       <c r="C114">
         <v>-0.01572350262729227</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>0.007489792335294121</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:9">
       <c r="A115" s="2">
         <v>34486</v>
       </c>
@@ -1929,11 +1935,11 @@
       <c r="C115">
         <v>-0.02101594283418595</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>-0.01458840426705588</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:9">
       <c r="A116" s="2">
         <v>34516</v>
       </c>
@@ -1943,11 +1949,11 @@
       <c r="C116">
         <v>-0.009368330376304135</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>-0.04142885794812745</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:9">
       <c r="A117" s="2">
         <v>34547</v>
       </c>
@@ -1957,11 +1963,11 @@
       <c r="C117">
         <v>0.03680989187753747</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>0.005711386700582466</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:9">
       <c r="A118" s="2">
         <v>34578</v>
       </c>
@@ -1971,11 +1977,11 @@
       <c r="C118">
         <v>-0.03394622150566262</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>0.01262158755392861</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:9">
       <c r="A119" s="2">
         <v>34608</v>
       </c>
@@ -1985,11 +1991,11 @@
       <c r="C119">
         <v>0.00602806356388097</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>-0.046437587716333</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:9">
       <c r="A120" s="2">
         <v>34639</v>
       </c>
@@ -1999,11 +2005,11 @@
       <c r="C120">
         <v>-0.02920410906622839</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>0.01288694613805896</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:9">
       <c r="A121" s="2">
         <v>34669</v>
       </c>
@@ -2013,11 +2019,11 @@
       <c r="C121">
         <v>0.02401220851257513</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>0.01885371957794724</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:9">
       <c r="A122" s="2">
         <v>34700</v>
       </c>
@@ -2027,11 +2033,11 @@
       <c r="C122">
         <v>-0.04037050991776558</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>-0.03990103416760882</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:9">
       <c r="A123" s="2">
         <v>34731</v>
       </c>
@@ -2041,11 +2047,11 @@
       <c r="C123">
         <v>-0.0003824644751101447</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>-0.006988717818089074</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:9">
       <c r="A124" s="2">
         <v>34759</v>
       </c>
@@ -2055,11 +2061,11 @@
       <c r="C124">
         <v>0.005166664467682658</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>0.0009775005137191428</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:9">
       <c r="A125" s="2">
         <v>34790</v>
       </c>
@@ -2069,11 +2075,11 @@
       <c r="C125">
         <v>0.01654362667422116</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>-0.02476224935590243</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:9">
       <c r="A126" s="2">
         <v>34820</v>
       </c>
@@ -2083,11 +2089,11 @@
       <c r="C126">
         <v>0.02666104569708416</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>0.001251140323947242</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:9">
       <c r="A127" s="2">
         <v>34851</v>
       </c>
@@ -2097,11 +2103,11 @@
       <c r="C127">
         <v>-0.008124290478736862</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>-0.001247283391317966</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:9">
       <c r="A128" s="2">
         <v>34881</v>
       </c>
@@ -2111,11 +2117,11 @@
       <c r="C128">
         <v>0.03620101178500201</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>-0.02106846806874529</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:9">
       <c r="A129" s="2">
         <v>34912</v>
       </c>
@@ -2125,11 +2131,11 @@
       <c r="C129">
         <v>0.007719889874031827</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>0.02758972129141246</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:9">
       <c r="A130" s="2">
         <v>34943</v>
       </c>
@@ -2139,11 +2145,11 @@
       <c r="C130">
         <v>0.04069434215537404</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>0.01720032186480669</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:9">
       <c r="A131" s="2">
         <v>34973</v>
       </c>
@@ -2153,11 +2159,11 @@
       <c r="C131">
         <v>-0.03201064445094415</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>-0.01901734573546587</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:9">
       <c r="A132" s="2">
         <v>35004</v>
       </c>
@@ -2167,11 +2173,11 @@
       <c r="C132">
         <v>0.03368587773666576</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>0.01564885272548899</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:9">
       <c r="A133" s="2">
         <v>35034</v>
       </c>
@@ -2181,11 +2187,11 @@
       <c r="C133">
         <v>0.04642602758761605</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>0.0129554913695582</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:9">
       <c r="A134" s="2">
         <v>35065</v>
       </c>
@@ -2195,11 +2201,11 @@
       <c r="C134">
         <v>0.0346404407675649</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>0.06147854710630374</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:9">
       <c r="A135" s="2">
         <v>35096</v>
       </c>
@@ -2209,11 +2215,11 @@
       <c r="C135">
         <v>0.00993373264096542</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>-0.006405575945806041</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:9">
       <c r="A136" s="2">
         <v>35125</v>
       </c>
@@ -2223,11 +2229,11 @@
       <c r="C136">
         <v>0.01474644120599167</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>-0.01136377186720505</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:9">
       <c r="A137" s="2">
         <v>35156</v>
       </c>
@@ -2237,11 +2243,11 @@
       <c r="C137">
         <v>0.03315225643406872</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>-0.004323517411699451</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:9">
       <c r="A138" s="2">
         <v>35186</v>
       </c>
@@ -2251,11 +2257,11 @@
       <c r="C138">
         <v>0.01317704753697924</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <v>0.01019064847687989</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:9">
       <c r="A139" s="2">
         <v>35217</v>
       </c>
@@ -2265,11 +2271,11 @@
       <c r="C139">
         <v>-0.002313249133513273</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>-0.02947749682293677</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:9">
       <c r="A140" s="2">
         <v>35247</v>
       </c>
@@ -2279,11 +2285,11 @@
       <c r="C140">
         <v>-0.05197649331291498</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>-0.006687429973304293</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:9">
       <c r="A141" s="2">
         <v>35278</v>
       </c>
@@ -2293,11 +2299,11 @@
       <c r="C141">
         <v>0.003155414604862905</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <v>-0.006108197176465602</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:9">
       <c r="A142" s="2">
         <v>35309</v>
       </c>
@@ -2307,11 +2313,11 @@
       <c r="C142">
         <v>0.04591470200071801</v>
       </c>
-      <c r="H142">
+      <c r="I142">
         <v>-0.01077782957481033</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:9">
       <c r="A143" s="2">
         <v>35339</v>
       </c>
@@ -2321,11 +2327,11 @@
       <c r="C143">
         <v>0.007122156537490598</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>0.004434157216534507</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:9">
       <c r="A144" s="2">
         <v>35370</v>
       </c>
@@ -2335,11 +2341,11 @@
       <c r="C144">
         <v>0.03994005936149247</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <v>-0.03416470075627742</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:9">
       <c r="A145" s="2">
         <v>35400</v>
       </c>
@@ -2349,11 +2355,11 @@
       <c r="C145">
         <v>0.007328161603280314</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <v>0.01731531120469287</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:9">
       <c r="A146" s="2">
         <v>35431</v>
       </c>
@@ -2363,11 +2369,11 @@
       <c r="C146">
         <v>0.04443172143781582</v>
       </c>
-      <c r="H146">
+      <c r="I146">
         <v>-0.03965016887405726</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:9">
       <c r="A147" s="2">
         <v>35462</v>
       </c>
@@ -2377,11 +2383,11 @@
       <c r="C147">
         <v>0.05779631832956578</v>
       </c>
-      <c r="H147">
+      <c r="I147">
         <v>0.08313628731109479</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:9">
       <c r="A148" s="2">
         <v>35490</v>
       </c>
@@ -2391,11 +2397,11 @@
       <c r="C148">
         <v>-0.008628497259829615</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>-0.01787175247663908</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:9">
       <c r="A149" s="2">
         <v>35521</v>
       </c>
@@ -2405,11 +2411,11 @@
       <c r="C149">
         <v>0.03773379393606491</v>
       </c>
-      <c r="H149">
+      <c r="I149">
         <v>-0.0176631109418699</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:9">
       <c r="A150" s="2">
         <v>35551</v>
       </c>
@@ -2419,11 +2425,11 @@
       <c r="C150">
         <v>0.05642285149489457</v>
       </c>
-      <c r="H150">
+      <c r="I150">
         <v>0.01291143572605158</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:9">
       <c r="A151" s="2">
         <v>35582</v>
       </c>
@@ -2433,11 +2439,11 @@
       <c r="C151">
         <v>0.06298107425653066</v>
       </c>
-      <c r="H151">
+      <c r="I151">
         <v>-0.02109763822950339</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:9">
       <c r="A152" s="2">
         <v>35612</v>
       </c>
@@ -2447,11 +2453,11 @@
       <c r="C152">
         <v>0.07429797562503637</v>
       </c>
-      <c r="H152">
+      <c r="I152">
         <v>0.002630741492409383</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:9">
       <c r="A153" s="2">
         <v>35643</v>
       </c>
@@ -2461,11 +2467,11 @@
       <c r="C153">
         <v>-0.04363978327317397</v>
       </c>
-      <c r="H153">
+      <c r="I153">
         <v>0.02537173708772045</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:9">
       <c r="A154" s="2">
         <v>35674</v>
       </c>
@@ -2475,11 +2481,11 @@
       <c r="C154">
         <v>0.02570506954732732</v>
       </c>
-      <c r="H154">
+      <c r="I154">
         <v>-0.006024362714771359</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:9">
       <c r="A155" s="2">
         <v>35704</v>
       </c>
@@ -2489,11 +2495,11 @@
       <c r="C155">
         <v>-0.07661338677725771</v>
       </c>
-      <c r="H155">
+      <c r="I155">
         <v>-0.07935019443184765</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:9">
       <c r="A156" s="2">
         <v>35735</v>
       </c>
@@ -2503,11 +2509,11 @@
       <c r="C156">
         <v>-0.005596192452546722</v>
       </c>
-      <c r="H156">
+      <c r="I156">
         <v>-0.06649988922562589</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:9">
       <c r="A157" s="2">
         <v>35765</v>
       </c>
@@ -2517,11 +2523,11 @@
       <c r="C157">
         <v>0.04046443602889638</v>
       </c>
-      <c r="H157">
+      <c r="I157">
         <v>0.0006834904630133032</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:9">
       <c r="A158" s="2">
         <v>35796</v>
       </c>
@@ -2531,11 +2537,11 @@
       <c r="C158">
         <v>0.04552208573254735</v>
       </c>
-      <c r="H158">
+      <c r="I158">
         <v>0.07836070062088241</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:9">
       <c r="A159" s="2">
         <v>35827</v>
       </c>
@@ -2545,11 +2551,11 @@
       <c r="C159">
         <v>0.06605594381019153</v>
       </c>
-      <c r="H159">
+      <c r="I159">
         <v>-0.02658765454673118</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:9">
       <c r="A160" s="2">
         <v>35855</v>
       </c>
@@ -2559,11 +2565,11 @@
       <c r="C160">
         <v>0.04651112564620008</v>
       </c>
-      <c r="H160">
+      <c r="I160">
         <v>0.01583514015103771</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:9">
       <c r="A161" s="2">
         <v>35886</v>
       </c>
@@ -2573,11 +2579,11 @@
       <c r="C161">
         <v>0.002536858685770138</v>
       </c>
-      <c r="H161">
+      <c r="I161">
         <v>0.0252354571732023</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:9">
       <c r="A162" s="2">
         <v>35916</v>
       </c>
@@ -2587,11 +2593,11 @@
       <c r="C162">
         <v>-0.03391529431815721</v>
       </c>
-      <c r="H162">
+      <c r="I162">
         <v>-0.06942947397195609</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:9">
       <c r="A163" s="2">
         <v>35947</v>
       </c>
@@ -2601,11 +2607,11 @@
       <c r="C163">
         <v>0.02540933952392943</v>
       </c>
-      <c r="H163">
+      <c r="I163">
         <v>0.01652513361788643</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:9">
       <c r="A164" s="2">
         <v>35977</v>
       </c>
@@ -2615,11 +2621,11 @@
       <c r="C164">
         <v>0.002693273580754996</v>
       </c>
-      <c r="H164">
+      <c r="I164">
         <v>-0.02283713264321718</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:9">
       <c r="A165" s="2">
         <v>36008</v>
       </c>
@@ -2629,11 +2635,11 @@
       <c r="C165">
         <v>-0.14360873993811</v>
       </c>
-      <c r="H165">
+      <c r="I165">
         <v>-0.05734778297984777</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:9">
       <c r="A166" s="2">
         <v>36039</v>
       </c>
@@ -2643,11 +2649,11 @@
       <c r="C166">
         <v>-0.02768764901942955</v>
       </c>
-      <c r="H166">
+      <c r="I166">
         <v>0.02465702670633974</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:9">
       <c r="A167" s="2">
         <v>36069</v>
       </c>
@@ -2657,11 +2663,11 @@
       <c r="C167">
         <v>0.05101271115130324</v>
       </c>
-      <c r="H167">
+      <c r="I167">
         <v>-0.04202145026939452</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:9">
       <c r="A168" s="2">
         <v>36100</v>
       </c>
@@ -2671,11 +2677,11 @@
       <c r="C168">
         <v>0.09140262598823479</v>
       </c>
-      <c r="H168">
+      <c r="I168">
         <v>0.037384206211871</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:9">
       <c r="A169" s="2">
         <v>36130</v>
       </c>
@@ -2685,11 +2691,11 @@
       <c r="C169">
         <v>0.03976528198168316</v>
       </c>
-      <c r="H169">
+      <c r="I169">
         <v>-0.03082406107768065</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:9">
       <c r="A170" s="2">
         <v>36161</v>
       </c>
@@ -2699,11 +2705,11 @@
       <c r="C170">
         <v>0.0537827082451563</v>
       </c>
-      <c r="H170">
+      <c r="I170">
         <v>0.02531272205121038</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:9">
       <c r="A171" s="2">
         <v>36192</v>
       </c>
@@ -2713,11 +2719,11 @@
       <c r="C171">
         <v>0.007250521982228753</v>
       </c>
-      <c r="H171">
+      <c r="I171">
         <v>0.03919177677401997</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:9">
       <c r="A172" s="2">
         <v>36220</v>
       </c>
@@ -2727,11 +2733,11 @@
       <c r="C172">
         <v>0.07182864079697548</v>
       </c>
-      <c r="H172">
+      <c r="I172">
         <v>-0.001462952171325083</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:9">
       <c r="A173" s="2">
         <v>36251</v>
       </c>
@@ -2741,11 +2747,11 @@
       <c r="C173">
         <v>0.05747794485353808</v>
       </c>
-      <c r="H173">
+      <c r="I173">
         <v>0.03961918618605242</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:9">
       <c r="A174" s="2">
         <v>36281</v>
       </c>
@@ -2755,11 +2761,11 @@
       <c r="C174">
         <v>-0.02232788187995316</v>
       </c>
-      <c r="H174">
+      <c r="I174">
         <v>-0.05016715778637548</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:9">
       <c r="A175" s="2">
         <v>36312</v>
       </c>
@@ -2769,11 +2775,11 @@
       <c r="C175">
         <v>0.06279739368059056</v>
       </c>
-      <c r="H175">
+      <c r="I175">
         <v>-0.0162520410217295</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:9">
       <c r="A176" s="2">
         <v>36342</v>
       </c>
@@ -2783,11 +2789,11 @@
       <c r="C176">
         <v>-0.03817159611356757</v>
       </c>
-      <c r="H176">
+      <c r="I176">
         <v>-0.05420635483642078</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:9">
       <c r="A177" s="2">
         <v>36373</v>
       </c>
@@ -2797,11 +2803,11 @@
       <c r="C177">
         <v>0.01022994943804112</v>
       </c>
-      <c r="H177">
+      <c r="I177">
         <v>0.008278535088124483</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:9">
       <c r="A178" s="2">
         <v>36404</v>
       </c>
@@ -2811,11 +2817,11 @@
       <c r="C178">
         <v>-0.01931451356936298</v>
       </c>
-      <c r="H178">
+      <c r="I178">
         <v>0.1633466326052206</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:9">
       <c r="A179" s="2">
         <v>36434</v>
       </c>
@@ -2825,11 +2831,11 @@
       <c r="C179">
         <v>0.07195439310246399</v>
       </c>
-      <c r="H179">
+      <c r="I179">
         <v>0.02062249015900841</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:9">
       <c r="A180" s="2">
         <v>36465</v>
       </c>
@@ -2839,11 +2845,11 @@
       <c r="C180">
         <v>0.06742535123932059</v>
       </c>
-      <c r="H180">
+      <c r="I180">
         <v>0.008433358574947647</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:9">
       <c r="A181" s="2">
         <v>36495</v>
       </c>
@@ -2853,11 +2859,11 @@
       <c r="C181">
         <v>0.08880774910827882</v>
       </c>
-      <c r="H181">
+      <c r="I181">
         <v>0.001281952683006571</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:9">
       <c r="A182" s="2">
         <v>36526</v>
       </c>
@@ -2867,11 +2873,11 @@
       <c r="C182">
         <v>-0.02930412208183186</v>
       </c>
-      <c r="H182">
+      <c r="I182">
         <v>0.001475823171119828</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:9">
       <c r="A183" s="2">
         <v>36557</v>
       </c>
@@ -2881,11 +2887,11 @@
       <c r="C183">
         <v>0.01134954132090038</v>
       </c>
-      <c r="H183">
+      <c r="I183">
         <v>0.04475000546879349</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:9">
       <c r="A184" s="2">
         <v>36586</v>
       </c>
@@ -2895,11 +2901,11 @@
       <c r="C184">
         <v>0.08369979387721349</v>
       </c>
-      <c r="H184">
+      <c r="I184">
         <v>-0.04166809776901459</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:9">
       <c r="A185" s="2">
         <v>36617</v>
       </c>
@@ -2909,11 +2915,11 @@
       <c r="C185">
         <v>0.00434713869597747</v>
       </c>
-      <c r="H185">
+      <c r="I185">
         <v>0.04505432234656315</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:9">
       <c r="A186" s="2">
         <v>36647</v>
       </c>
@@ -2923,11 +2929,11 @@
       <c r="C186">
         <v>-0.04877642645164237</v>
       </c>
-      <c r="H186">
+      <c r="I186">
         <v>-0.03337471812606341</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:9">
       <c r="A187" s="2">
         <v>36678</v>
       </c>
@@ -2937,11 +2943,11 @@
       <c r="C187">
         <v>0.006522576666429636</v>
       </c>
-      <c r="H187">
+      <c r="I187">
         <v>0.03038046279607731</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:9">
       <c r="A188" s="2">
         <v>36708</v>
       </c>
@@ -2951,11 +2957,11 @@
       <c r="C188">
         <v>0.003497839625504318</v>
       </c>
-      <c r="H188">
+      <c r="I188">
         <v>-0.00703899451914114</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:9">
       <c r="A189" s="2">
         <v>36739</v>
       </c>
@@ -2965,11 +2971,11 @@
       <c r="C189">
         <v>0.07010333007207681</v>
       </c>
-      <c r="H189">
+      <c r="I189">
         <v>0.03877718319065138</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:9">
       <c r="A190" s="2">
         <v>36770</v>
       </c>
@@ -2979,11 +2985,11 @@
       <c r="C190">
         <v>-0.0397206454632254</v>
       </c>
-      <c r="H190">
+      <c r="I190">
         <v>0.003798295238074179</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:9">
       <c r="A191" s="2">
         <v>36800</v>
       </c>
@@ -2993,11 +2999,11 @@
       <c r="C191">
         <v>0.02097125389397547</v>
       </c>
-      <c r="H191">
+      <c r="I191">
         <v>0.00652558128196068</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:9">
       <c r="A192" s="2">
         <v>36831</v>
       </c>
@@ -3007,11 +3013,11 @@
       <c r="C192">
         <v>-0.09079329467799091</v>
       </c>
-      <c r="H192">
+      <c r="I192">
         <v>-0.01388961208018724</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:11">
       <c r="A193" s="2">
         <v>36861</v>
       </c>
@@ -3021,11 +3027,11 @@
       <c r="C193">
         <v>-0.05114889736907235</v>
       </c>
-      <c r="H193">
+      <c r="I193">
         <v>-0.05442661080349676</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:11">
       <c r="A194" s="2">
         <v>36892</v>
       </c>
@@ -3035,11 +3041,11 @@
       <c r="C194">
         <v>0.02660700796536974</v>
       </c>
-      <c r="H194">
+      <c r="I194">
         <v>-0.02863910727574137</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:11">
       <c r="A195" s="2">
         <v>36923</v>
       </c>
@@ -3049,11 +3055,11 @@
       <c r="C195">
         <v>-0.07968242584699203</v>
       </c>
-      <c r="H195">
+      <c r="I195">
         <v>0.01322396995048569</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:11">
       <c r="A196" s="2">
         <v>36951</v>
       </c>
@@ -3063,11 +3069,11 @@
       <c r="C196">
         <v>-0.02338460571449119</v>
       </c>
-      <c r="H196">
+      <c r="I196">
         <v>0.01176619226944142</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:11">
       <c r="A197" s="2">
         <v>36982</v>
       </c>
@@ -3077,11 +3083,11 @@
       <c r="C197">
         <v>0.06751984703951019</v>
       </c>
-      <c r="H197">
+      <c r="I197">
         <v>0.0160865968110111</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:11">
       <c r="A198" s="2">
         <v>37012</v>
       </c>
@@ -3091,11 +3097,11 @@
       <c r="C198">
         <v>0.03502919541913019</v>
       </c>
-      <c r="H198">
+      <c r="I198">
         <v>0.06400055209203437</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:11">
       <c r="A199" s="2">
         <v>37043</v>
       </c>
@@ -3105,11 +3111,11 @@
       <c r="C199">
         <v>-0.03063728268014598</v>
       </c>
-      <c r="H199">
+      <c r="I199">
         <v>0.01158878504673266</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:11">
       <c r="A200" s="2">
         <v>37073</v>
       </c>
@@ -3119,11 +3125,11 @@
       <c r="C200">
         <v>-0.0466759917501256</v>
       </c>
-      <c r="H200">
+      <c r="I200">
         <v>-0.04823386741732993</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:11">
       <c r="A201" s="2">
         <v>37104</v>
       </c>
@@ -3133,11 +3139,11 @@
       <c r="C201">
         <v>-0.08793947633332733</v>
       </c>
-      <c r="H201">
+      <c r="I201">
         <v>-0.01847849146335212</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:11">
       <c r="A202" s="2">
         <v>37135</v>
       </c>
@@ -3147,11 +3153,11 @@
       <c r="C202">
         <v>-0.088657739951023</v>
       </c>
-      <c r="H202">
+      <c r="I202">
         <v>0.07680104366119056</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:11">
       <c r="A203" s="2">
         <v>37165</v>
       </c>
@@ -3161,11 +3167,11 @@
       <c r="C203">
         <v>0.03130174168226985</v>
       </c>
-      <c r="H203">
+      <c r="I203">
         <v>-0.03959834959506559</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:11">
       <c r="A204" s="2">
         <v>37196</v>
       </c>
@@ -3178,11 +3184,11 @@
       <c r="F204">
         <v>-0.04325560841196818</v>
       </c>
-      <c r="H204">
+      <c r="I204">
         <v>0.004335533656478763</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:11">
       <c r="A205" s="2">
         <v>37226</v>
       </c>
@@ -3195,11 +3201,11 @@
       <c r="F205">
         <v>-0.01040619481048766</v>
       </c>
-      <c r="H205">
+      <c r="I205">
         <v>0.01330961541511133</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:11">
       <c r="A206" s="2">
         <v>37257</v>
       </c>
@@ -3212,14 +3218,14 @@
       <c r="F206">
         <v>-0.03157432321124587</v>
       </c>
-      <c r="H206">
+      <c r="I206">
         <v>0.04178138506249884</v>
       </c>
-      <c r="J206">
+      <c r="K206">
         <v>-0.07490951854743111</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:11">
       <c r="A207" s="2">
         <v>37288</v>
       </c>
@@ -3232,14 +3238,14 @@
       <c r="F207">
         <v>0.01536629621229291</v>
       </c>
-      <c r="H207">
+      <c r="I207">
         <v>0.0498391947218555</v>
       </c>
-      <c r="J207">
+      <c r="K207">
         <v>-0.03092054794520493</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:11">
       <c r="A208" s="2">
         <v>37316</v>
       </c>
@@ -3252,14 +3258,14 @@
       <c r="F208">
         <v>0.02496230524375931</v>
       </c>
-      <c r="H208">
+      <c r="I208">
         <v>0.006831628167904835</v>
       </c>
-      <c r="J208">
+      <c r="K208">
         <v>0.08666323640002882</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:11">
       <c r="A209" s="2">
         <v>37347</v>
       </c>
@@ -3272,14 +3278,14 @@
       <c r="F209">
         <v>-0.02258363299553234</v>
       </c>
-      <c r="H209">
+      <c r="I209">
         <v>-0.009677455474217944</v>
       </c>
-      <c r="J209">
+      <c r="K209">
         <v>-0.1063980352162505</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:11">
       <c r="A210" s="2">
         <v>37377</v>
       </c>
@@ -3292,14 +3298,14 @@
       <c r="F210">
         <v>0.0009755009894367728</v>
       </c>
-      <c r="H210">
+      <c r="I210">
         <v>0.01691605888741066</v>
       </c>
-      <c r="J210">
+      <c r="K210">
         <v>-0.06846555177714664</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:11">
       <c r="A211" s="2">
         <v>37408</v>
       </c>
@@ -3312,14 +3318,14 @@
       <c r="F211">
         <v>0.04318650108592759</v>
       </c>
-      <c r="H211">
+      <c r="I211">
         <v>-0.08228639571985807</v>
       </c>
-      <c r="J211">
+      <c r="K211">
         <v>-0.1691170035879931</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:11">
       <c r="A212" s="2">
         <v>37438</v>
       </c>
@@ -3332,14 +3338,14 @@
       <c r="F212">
         <v>0.07246763646069665</v>
       </c>
-      <c r="H212">
+      <c r="I212">
         <v>-0.02471263786810896</v>
       </c>
-      <c r="J212">
+      <c r="K212">
         <v>-0.2864515546594651</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:11">
       <c r="A213" s="2">
         <v>37469</v>
       </c>
@@ -3352,14 +3358,14 @@
       <c r="F213">
         <v>0.01520657043305151</v>
       </c>
-      <c r="H213">
+      <c r="I213">
         <v>0.0215310605877379</v>
       </c>
-      <c r="J213">
+      <c r="K213">
         <v>-0.001022699716384801</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:11">
       <c r="A214" s="2">
         <v>37500</v>
       </c>
@@ -3372,14 +3378,14 @@
       <c r="F214">
         <v>-0.006202348557279969</v>
       </c>
-      <c r="H214">
+      <c r="I214">
         <v>0.03201278902071136</v>
       </c>
-      <c r="J214">
+      <c r="K214">
         <v>-0.3551134564643801</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:11">
       <c r="A215" s="2">
         <v>37530</v>
       </c>
@@ -3392,14 +3398,14 @@
       <c r="F215">
         <v>0.01001529429177572</v>
       </c>
-      <c r="H215">
+      <c r="I215">
         <v>-0.02140410165210049</v>
       </c>
-      <c r="J215">
+      <c r="K215">
         <v>0.2739800009819469</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:11">
       <c r="A216" s="2">
         <v>37561</v>
       </c>
@@ -3412,14 +3418,14 @@
       <c r="F216">
         <v>-0.02532727627979692</v>
       </c>
-      <c r="H216">
+      <c r="I216">
         <v>0.0003950898994038443</v>
       </c>
-      <c r="J216">
+      <c r="K216">
         <v>0.1003417090591443</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:11">
       <c r="A217" s="2">
         <v>37591</v>
       </c>
@@ -3432,14 +3438,14 @@
       <c r="F217">
         <v>-2.505826045551274E-05</v>
       </c>
-      <c r="H217">
+      <c r="I217">
         <v>0.01691690820645109</v>
       </c>
-      <c r="J217">
+      <c r="K217">
         <v>-0.1997665051660735</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:11">
       <c r="A218" s="2">
         <v>37622</v>
       </c>
@@ -3452,14 +3458,14 @@
       <c r="F218">
         <v>0.006164486543376979</v>
       </c>
-      <c r="H218">
+      <c r="I218">
         <v>0.03959568772415856</v>
       </c>
-      <c r="J218">
+      <c r="K218">
         <v>-0.119908380018674</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:11">
       <c r="A219" s="2">
         <v>37653</v>
       </c>
@@ -3472,14 +3478,14 @@
       <c r="F219">
         <v>0.02348575413428966</v>
       </c>
-      <c r="H219">
+      <c r="I219">
         <v>-0.05157646215599732</v>
       </c>
-      <c r="J219">
+      <c r="K219">
         <v>-0.1042851222544537</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:11">
       <c r="A220" s="2">
         <v>37681</v>
       </c>
@@ -3492,14 +3498,14 @@
       <c r="F220">
         <v>0.02649957415744009</v>
       </c>
-      <c r="H220">
+      <c r="I220">
         <v>-0.04625981822193392</v>
       </c>
-      <c r="J220">
+      <c r="K220">
         <v>-0.1128733760225045</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:11">
       <c r="A221" s="2">
         <v>37712</v>
       </c>
@@ -3512,14 +3518,14 @@
       <c r="F221">
         <v>0.06040204816992234</v>
       </c>
-      <c r="H221">
+      <c r="I221">
         <v>-0.01564817015469999</v>
       </c>
-      <c r="J221">
+      <c r="K221">
         <v>0.3067487222280172</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:11">
       <c r="A222" s="2">
         <v>37742</v>
       </c>
@@ -3532,14 +3538,14 @@
       <c r="F222">
         <v>-0.0485781990521329</v>
       </c>
-      <c r="H222">
+      <c r="I222">
         <v>0.01047080820339397</v>
       </c>
-      <c r="J222">
+      <c r="K222">
         <v>0.01749708647966952</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:11">
       <c r="A223" s="2">
         <v>37773</v>
       </c>
@@ -3552,14 +3558,14 @@
       <c r="F223">
         <v>0.02786719612772881</v>
       </c>
-      <c r="H223">
+      <c r="I223">
         <v>-0.009517793201264779</v>
       </c>
-      <c r="J223">
+      <c r="K223">
         <v>0.07656703538087184</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:11">
       <c r="A224" s="2">
         <v>37803</v>
       </c>
@@ -3572,14 +3578,14 @@
       <c r="F224">
         <v>0.02432277974625663</v>
       </c>
-      <c r="H224">
+      <c r="I224">
         <v>0.03516324449161057</v>
       </c>
-      <c r="J224">
+      <c r="K224">
         <v>0.08333454783939565</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:11">
       <c r="A225" s="2">
         <v>37834</v>
       </c>
@@ -3592,14 +3598,14 @@
       <c r="F225">
         <v>-0.03048494722042461</v>
       </c>
-      <c r="H225">
+      <c r="I225">
         <v>0.09665980519190387</v>
       </c>
-      <c r="J225">
+      <c r="K225">
         <v>0.02931403279835143</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:11">
       <c r="A226" s="2">
         <v>37865</v>
       </c>
@@ -3612,14 +3618,14 @@
       <c r="F226">
         <v>0.003659968234237976</v>
       </c>
-      <c r="H226">
+      <c r="I226">
         <v>-0.03126139040334608</v>
       </c>
-      <c r="J226">
+      <c r="K226">
         <v>-0.1258887494772044</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:11">
       <c r="A227" s="2">
         <v>37895</v>
       </c>
@@ -3632,14 +3638,14 @@
       <c r="F227">
         <v>0.05589193156277239</v>
       </c>
-      <c r="H227">
+      <c r="I227">
         <v>-0.001940640484541345</v>
       </c>
-      <c r="J227">
+      <c r="K227">
         <v>0.1517045454545443</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:11">
       <c r="A228" s="2">
         <v>37926</v>
       </c>
@@ -3652,14 +3658,14 @@
       <c r="F228">
         <v>0.01589956341362764</v>
       </c>
-      <c r="H228">
+      <c r="I228">
         <v>-0.0006602654077834114</v>
       </c>
-      <c r="J228">
+      <c r="K228">
         <v>0.04029808116739853</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:11">
       <c r="A229" s="2">
         <v>37956</v>
       </c>
@@ -3672,14 +3678,14 @@
       <c r="F229">
         <v>-0.0002779500117595646</v>
       </c>
-      <c r="H229">
+      <c r="I229">
         <v>-0.005299771295312783</v>
       </c>
-      <c r="J229">
+      <c r="K229">
         <v>0.09019093972295078</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:11">
       <c r="A230" s="2">
         <v>37987</v>
       </c>
@@ -3692,14 +3698,14 @@
       <c r="F230">
         <v>0.01304589588947347</v>
       </c>
-      <c r="H230">
+      <c r="I230">
         <v>-0.02291007705491166</v>
       </c>
-      <c r="J230">
+      <c r="K230">
         <v>0.06544409721029809</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:11">
       <c r="A231" s="2">
         <v>38018</v>
       </c>
@@ -3712,14 +3718,14 @@
       <c r="F231">
         <v>0.01311011653436922</v>
       </c>
-      <c r="H231">
+      <c r="I231">
         <v>-0.01246734677042338</v>
       </c>
-      <c r="J231">
+      <c r="K231">
         <v>0.03626146936845909</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:11">
       <c r="A232" s="2">
         <v>38047</v>
       </c>
@@ -3732,14 +3738,14 @@
       <c r="F232">
         <v>0.018733459751193</v>
       </c>
-      <c r="H232">
+      <c r="I232">
         <v>0.08734191351766807</v>
       </c>
-      <c r="J232">
+      <c r="K232">
         <v>-0.07463011539777653</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:11">
       <c r="A233" s="2">
         <v>38078</v>
       </c>
@@ -3752,14 +3758,17 @@
       <c r="F233">
         <v>-0.02771641302569128</v>
       </c>
-      <c r="H233">
+      <c r="G233">
+        <v>0.001400000000000068</v>
+      </c>
+      <c r="I233">
         <v>-0.0618181288022579</v>
       </c>
-      <c r="J233">
+      <c r="K233">
         <v>0.007865458090107191</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:11">
       <c r="A234" s="2">
         <v>38108</v>
       </c>
@@ -3772,14 +3781,17 @@
       <c r="F234">
         <v>0.01201270696147927</v>
       </c>
-      <c r="H234">
+      <c r="G234">
+        <v>0.001298182544437809</v>
+      </c>
+      <c r="I234">
         <v>-0.008602218267735773</v>
       </c>
-      <c r="J234">
+      <c r="K234">
         <v>-0.009894055784687827</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:11">
       <c r="A235" s="2">
         <v>38139</v>
       </c>
@@ -3792,14 +3804,17 @@
       <c r="F235">
         <v>-0.03380176284716441</v>
       </c>
-      <c r="H235">
+      <c r="G235">
+        <v>0.001396230178517976</v>
+      </c>
+      <c r="I235">
         <v>0.0100450030504966</v>
       </c>
-      <c r="J235">
+      <c r="K235">
         <v>0.05145795672725995</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:11">
       <c r="A236" s="2">
         <v>38169</v>
       </c>
@@ -3812,14 +3827,17 @@
       <c r="F236">
         <v>-0.0323809113989415</v>
       </c>
-      <c r="H236">
+      <c r="G236">
+        <v>0.001493875112040799</v>
+      </c>
+      <c r="I236">
         <v>-0.001588487407504724</v>
       </c>
-      <c r="J236">
+      <c r="K236">
         <v>-0.06284304722038281</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:11">
       <c r="A237" s="2">
         <v>38200</v>
       </c>
@@ -3832,14 +3850,17 @@
       <c r="F237">
         <v>-0.0271940942343184</v>
       </c>
-      <c r="H237">
+      <c r="G237">
+        <v>0.00149164677804281</v>
+      </c>
+      <c r="I237">
         <v>0.03430990091778807</v>
       </c>
-      <c r="J237">
+      <c r="K237">
         <v>-0.03577899066783741</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:11">
       <c r="A238" s="2">
         <v>38231</v>
       </c>
@@ -3852,14 +3873,17 @@
       <c r="F238">
         <v>0.01629714285714279</v>
       </c>
-      <c r="H238">
+      <c r="G238">
+        <v>0.001489425081918405</v>
+      </c>
+      <c r="I238">
         <v>-0.003884010402354754</v>
       </c>
-      <c r="J238">
+      <c r="K238">
         <v>0.03935193391711467</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:11">
       <c r="A239" s="2">
         <v>38261</v>
       </c>
@@ -3872,14 +3896,17 @@
       <c r="F239">
         <v>-0.01985920878033431</v>
       </c>
-      <c r="H239">
+      <c r="G239">
+        <v>0.002280388657545096</v>
+      </c>
+      <c r="I239">
         <v>-0.002546988775247061</v>
       </c>
-      <c r="J239">
+      <c r="K239">
         <v>0.06071562574615386</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:11">
       <c r="A240" s="2">
         <v>38292</v>
       </c>
@@ -3892,14 +3919,17 @@
       <c r="F240">
         <v>-0.01014226709499766</v>
       </c>
-      <c r="H240">
+      <c r="G240">
+        <v>0.002374122069443096</v>
+      </c>
+      <c r="I240">
         <v>0.02072729453187527</v>
       </c>
-      <c r="J240">
+      <c r="K240">
         <v>0.04640319001832993</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:11">
       <c r="A241" s="2">
         <v>38322</v>
       </c>
@@ -3912,14 +3942,17 @@
       <c r="F241">
         <v>-0.03013584310816453</v>
       </c>
-      <c r="H241">
+      <c r="G241">
+        <v>0.002269811506957486</v>
+      </c>
+      <c r="I241">
         <v>-0.0570863051801187</v>
       </c>
-      <c r="J241">
+      <c r="K241">
         <v>0.05051219012497343</v>
       </c>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:11">
       <c r="A242" s="2">
         <v>38353</v>
       </c>
@@ -3932,14 +3965,17 @@
       <c r="F242">
         <v>-0.02633969118982737</v>
       </c>
-      <c r="H242">
+      <c r="G242">
+        <v>0.003249310752264645</v>
+      </c>
+      <c r="I242">
         <v>0.007141845015091963</v>
       </c>
-      <c r="J242">
+      <c r="K242">
         <v>0.02304219364023852</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:11">
       <c r="A243" s="2">
         <v>38384</v>
       </c>
@@ -3952,14 +3988,17 @@
       <c r="F243">
         <v>-0.00417321288295347</v>
       </c>
-      <c r="H243">
+      <c r="G243">
+        <v>0.003140641868681904</v>
+      </c>
+      <c r="I243">
         <v>0.01423193382017152</v>
       </c>
-      <c r="J243">
+      <c r="K243">
         <v>0.05125150122957778</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:11">
       <c r="A244" s="2">
         <v>38412</v>
       </c>
@@ -3972,14 +4011,17 @@
       <c r="F244">
         <v>-0.03931864122664308</v>
       </c>
-      <c r="H244">
+      <c r="G244">
+        <v>0.003130809118481626</v>
+      </c>
+      <c r="I244">
         <v>0.003931446716485709</v>
       </c>
-      <c r="J244">
+      <c r="K244">
         <v>-0.004288654559303051</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:11">
       <c r="A245" s="2">
         <v>38443</v>
       </c>
@@ -3992,14 +4034,17 @@
       <c r="F245">
         <v>0.04639347206897426</v>
       </c>
-      <c r="H245">
+      <c r="G245">
+        <v>0.003706232322247205</v>
+      </c>
+      <c r="I245">
         <v>0.01973189772558248</v>
       </c>
-      <c r="J245">
+      <c r="K245">
         <v>-0.06631881840863829</v>
       </c>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:11">
       <c r="A246" s="2">
         <v>38473</v>
       </c>
@@ -4012,14 +4057,17 @@
       <c r="F246">
         <v>0.04855440300154501</v>
       </c>
-      <c r="H246">
+      <c r="G246">
+        <v>0.003692546885628367</v>
+      </c>
+      <c r="I246">
         <v>-0.0004817112674353474</v>
       </c>
-      <c r="J246">
+      <c r="K246">
         <v>0.1224752523528538</v>
       </c>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:11">
       <c r="A247" s="2">
         <v>38504</v>
       </c>
@@ -4032,14 +4080,17 @@
       <c r="F247">
         <v>-0.02916345096938655</v>
       </c>
-      <c r="H247">
+      <c r="G247">
+        <v>0.003678962145415854</v>
+      </c>
+      <c r="I247">
         <v>0.07549605515634061</v>
       </c>
-      <c r="J247">
+      <c r="K247">
         <v>0.07475693569548181</v>
       </c>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:11">
       <c r="A248" s="2">
         <v>38534</v>
       </c>
@@ -4052,14 +4103,17 @@
       <c r="F248">
         <v>-0.02596839468105616</v>
       </c>
-      <c r="H248">
+      <c r="G248">
+        <v>0.003954856757017344</v>
+      </c>
+      <c r="I248">
         <v>-0.01861238862553516</v>
       </c>
-      <c r="J248">
+      <c r="K248">
         <v>0.09211217733655608</v>
       </c>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:11">
       <c r="A249" s="2">
         <v>38565</v>
       </c>
@@ -4072,14 +4126,17 @@
       <c r="F249">
         <v>0.004699015679873408</v>
       </c>
-      <c r="H249">
+      <c r="G249">
+        <v>0.003939277478862468</v>
+      </c>
+      <c r="I249">
         <v>0.001213514309921893</v>
       </c>
-      <c r="J249">
+      <c r="K249">
         <v>-0.03602756660325301</v>
       </c>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:11">
       <c r="A250" s="2">
         <v>38596</v>
       </c>
@@ -4092,14 +4149,17 @@
       <c r="F250">
         <v>-0.0100679401339111</v>
       </c>
-      <c r="H250">
+      <c r="G250">
+        <v>0.003923820461288363</v>
+      </c>
+      <c r="I250">
         <v>0.106476150553271</v>
       </c>
-      <c r="J250">
+      <c r="K250">
         <v>0.1000199655977403</v>
       </c>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:11">
       <c r="A251" s="2">
         <v>38626</v>
       </c>
@@ -4112,14 +4172,17 @@
       <c r="F251">
         <v>-0.02695511625015534</v>
       </c>
-      <c r="H251">
+      <c r="G251">
+        <v>0.003813155386081846</v>
+      </c>
+      <c r="I251">
         <v>-0.003710663911073775</v>
       </c>
-      <c r="J251">
+      <c r="K251">
         <v>-0.06395158081382746</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:11">
       <c r="A252" s="2">
         <v>38657</v>
       </c>
@@ -4132,14 +4195,17 @@
       <c r="F252">
         <v>0.01321203138176896</v>
       </c>
-      <c r="H252">
+      <c r="G252">
+        <v>0.003798670465337217</v>
+      </c>
+      <c r="I252">
         <v>0.07561801174647642</v>
       </c>
-      <c r="J252">
+      <c r="K252">
         <v>0.07880645546208376</v>
       </c>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:11">
       <c r="A253" s="2">
         <v>38687</v>
       </c>
@@ -4152,14 +4218,17 @@
       <c r="F253">
         <v>-0.01523405972558511</v>
       </c>
-      <c r="H253">
+      <c r="G253">
+        <v>0.003878902554399266</v>
+      </c>
+      <c r="I253">
         <v>0.03254797196746084</v>
       </c>
-      <c r="J253">
+      <c r="K253">
         <v>0.0752756558708656</v>
       </c>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:11">
       <c r="A254" s="2">
         <v>38718</v>
       </c>
@@ -4172,14 +4241,17 @@
       <c r="F254">
         <v>-0.01675033295768869</v>
       </c>
-      <c r="H254">
+      <c r="G254">
+        <v>0.00329846385826027</v>
+      </c>
+      <c r="I254">
         <v>0.07930620985906045</v>
       </c>
-      <c r="J254">
+      <c r="K254">
         <v>0.06280537982821621</v>
       </c>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:11">
       <c r="A255" s="2">
         <v>38749</v>
       </c>
@@ -4192,14 +4264,17 @@
       <c r="F255">
         <v>-0.005209690023443625</v>
       </c>
-      <c r="H255">
+      <c r="G255">
+        <v>0.003287619763291394</v>
+      </c>
+      <c r="I255">
         <v>-0.002413159051473657</v>
       </c>
-      <c r="J255">
+      <c r="K255">
         <v>0.043039567366147</v>
       </c>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:11">
       <c r="A256" s="2">
         <v>38777</v>
       </c>
@@ -4212,14 +4287,17 @@
       <c r="F256">
         <v>-0.01021209740769835</v>
       </c>
-      <c r="H256">
+      <c r="G256">
+        <v>0.003276846737196859</v>
+      </c>
+      <c r="I256">
         <v>0.02695850589851867</v>
       </c>
-      <c r="J256">
+      <c r="K256">
         <v>0.04176235878163692</v>
       </c>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" spans="1:11">
       <c r="A257" s="2">
         <v>38808</v>
       </c>
@@ -4232,14 +4310,17 @@
       <c r="F257">
         <v>0.03666666666666685</v>
       </c>
-      <c r="H257">
+      <c r="G257">
+        <v>0.002799552071668598</v>
+      </c>
+      <c r="I257">
         <v>0.06831216026678</v>
       </c>
-      <c r="J257">
+      <c r="K257">
         <v>-0.003696507802192772</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" spans="1:11">
       <c r="A258" s="2">
         <v>38838</v>
       </c>
@@ -4252,14 +4333,17 @@
       <c r="F258">
         <v>-0.01133057724697595</v>
       </c>
-      <c r="H258">
+      <c r="G258">
+        <v>0.002791736460078242</v>
+      </c>
+      <c r="I258">
         <v>-0.01210704680299113</v>
       </c>
-      <c r="J258">
+      <c r="K258">
         <v>-0.08458637163691196</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" spans="1:11">
       <c r="A259" s="2">
         <v>38869</v>
       </c>
@@ -4272,14 +4356,17 @@
       <c r="F259">
         <v>0.0158484332249238</v>
       </c>
-      <c r="H259">
+      <c r="G259">
+        <v>0.002783964365256075</v>
+      </c>
+      <c r="I259">
         <v>-0.04903531119162863</v>
       </c>
-      <c r="J259">
+      <c r="K259">
         <v>0.01126798390985551</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" spans="1:11">
       <c r="A260" s="2">
         <v>38899</v>
       </c>
@@ -4292,14 +4379,17 @@
       <c r="F260">
         <v>0.03577599349527372</v>
       </c>
-      <c r="H260">
+      <c r="G260">
+        <v>0.002220988339811214</v>
+      </c>
+      <c r="I260">
         <v>0.02660919882523638</v>
       </c>
-      <c r="J260">
+      <c r="K260">
         <v>0.02049217434343631</v>
       </c>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" spans="1:11">
       <c r="A261" s="2">
         <v>38930</v>
       </c>
@@ -4312,14 +4402,17 @@
       <c r="F261">
         <v>-0.0327494848395643</v>
       </c>
-      <c r="H261">
+      <c r="G261">
+        <v>0.002308402585410985</v>
+      </c>
+      <c r="I261">
         <v>-0.0206726964543118</v>
       </c>
-      <c r="J261">
+      <c r="K261">
         <v>0.06456573686327371</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:11">
       <c r="A262" s="2">
         <v>38961</v>
       </c>
@@ -4332,14 +4425,17 @@
       <c r="F262">
         <v>-0.0002536204316619939</v>
       </c>
-      <c r="H262">
+      <c r="G262">
+        <v>0.002210962690004648</v>
+      </c>
+      <c r="I262">
         <v>-0.02439323570882967</v>
       </c>
-      <c r="J262">
+      <c r="K262">
         <v>0.04467063738999033</v>
       </c>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:11">
       <c r="A263" s="2">
         <v>38991</v>
       </c>
@@ -4352,14 +4448,17 @@
       <c r="F263">
         <v>0.007407595322052707</v>
       </c>
-      <c r="H263">
+      <c r="G263">
+        <v>0.001838404265097848</v>
+      </c>
+      <c r="I263">
         <v>0.004652554823965094</v>
       </c>
-      <c r="J263">
+      <c r="K263">
         <v>0.05311024124578911</v>
       </c>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" spans="1:11">
       <c r="A264" s="2">
         <v>39022</v>
       </c>
@@ -4372,14 +4471,17 @@
       <c r="F264">
         <v>-0.0256352144242149</v>
       </c>
-      <c r="H264">
+      <c r="G264">
+        <v>0.001835030736764942</v>
+      </c>
+      <c r="I264">
         <v>0.03024069264069085</v>
       </c>
-      <c r="J264">
+      <c r="K264">
         <v>-0.007282460481784714</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" spans="1:11">
       <c r="A265" s="2">
         <v>39052</v>
       </c>
@@ -4392,14 +4494,17 @@
       <c r="F265">
         <v>-0.01377510143953686</v>
       </c>
-      <c r="H265">
+      <c r="G265">
+        <v>0.001831669566810135</v>
+      </c>
+      <c r="I265">
         <v>-0.01477027403537701</v>
       </c>
-      <c r="J265">
+      <c r="K265">
         <v>0.06371332058117019</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" spans="1:11">
       <c r="A266" s="2">
         <v>39083</v>
       </c>
@@ -4412,14 +4517,17 @@
       <c r="F266">
         <v>0.003590146750524159</v>
       </c>
-      <c r="H266">
+      <c r="G266">
+        <v>0.001919736721820886</v>
+      </c>
+      <c r="I266">
         <v>0.04034401176909097</v>
       </c>
-      <c r="J266">
+      <c r="K266">
         <v>0.02651942685516451</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" spans="1:11">
       <c r="A267" s="2">
         <v>39114</v>
       </c>
@@ -4435,14 +4543,17 @@
       <c r="F267">
         <v>0.02148993393738419</v>
       </c>
-      <c r="H267">
+      <c r="G267">
+        <v>0.001916058394160647</v>
+      </c>
+      <c r="I267">
         <v>0.00119753232449038</v>
       </c>
-      <c r="J267">
+      <c r="K267">
         <v>-0.04676267372354126</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" spans="1:11">
       <c r="A268" s="2">
         <v>39142</v>
       </c>
@@ -4458,14 +4569,17 @@
       <c r="F268">
         <v>0.002837423312883391</v>
       </c>
-      <c r="H268">
+      <c r="G268">
+        <v>0.001912394135324513</v>
+      </c>
+      <c r="I268">
         <v>-0.01169325189189019</v>
       </c>
-      <c r="J268">
+      <c r="K268">
         <v>0.04108504398826773</v>
       </c>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" spans="1:11">
       <c r="A269" s="2">
         <v>39173</v>
       </c>
@@ -4481,14 +4595,17 @@
       <c r="F269">
         <v>-0.01605872906629957</v>
       </c>
-      <c r="H269">
+      <c r="G269">
+        <v>0.001999636429740104</v>
+      </c>
+      <c r="I269">
         <v>0.001463633325543556</v>
       </c>
-      <c r="J269">
+      <c r="K269">
         <v>0.1116400476981829</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" spans="1:11">
       <c r="A270" s="2">
         <v>39203</v>
       </c>
@@ -4504,14 +4621,17 @@
       <c r="F270">
         <v>-0.01847102406673395</v>
       </c>
-      <c r="H270">
+      <c r="G270">
+        <v>0.001995645863570372</v>
+      </c>
+      <c r="I270">
         <v>-0.01544031900107024</v>
       </c>
-      <c r="J270">
+      <c r="K270">
         <v>0.08478541805681794</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" spans="1:11">
       <c r="A271" s="2">
         <v>39234</v>
       </c>
@@ -4527,14 +4647,17 @@
       <c r="F271">
         <v>0.007179054054053946</v>
       </c>
-      <c r="H271">
+      <c r="G271">
+        <v>0.001991671193192213</v>
+      </c>
+      <c r="I271">
         <v>-0.01684828093193014</v>
       </c>
-      <c r="J271">
+      <c r="K271">
         <v>-0.008424757262658678</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" spans="1:11">
       <c r="A272" s="2">
         <v>39264</v>
       </c>
@@ -4550,14 +4673,17 @@
       <c r="F272">
         <v>-0.01394129979035641</v>
       </c>
-      <c r="H272">
+      <c r="G272">
+        <v>0.002258764004336777</v>
+      </c>
+      <c r="I272">
         <v>0.007982366432833343</v>
       </c>
-      <c r="J272">
+      <c r="K272">
         <v>-0.0796590471852956</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" spans="1:11">
       <c r="A273" s="2">
         <v>39295</v>
       </c>
@@ -4573,14 +4699,17 @@
       <c r="F273">
         <v>0.006803444243648427</v>
       </c>
-      <c r="H273">
+      <c r="G273">
+        <v>0.002253673487785157</v>
+      </c>
+      <c r="I273">
         <v>0.009914449885986887</v>
       </c>
-      <c r="J273">
+      <c r="K273">
         <v>-0.0152809832387002</v>
       </c>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" spans="1:11">
       <c r="A274" s="2">
         <v>39326</v>
       </c>
@@ -4596,14 +4725,17 @@
       <c r="F274">
         <v>0.009898637947418409</v>
       </c>
-      <c r="H274">
+      <c r="G274">
+        <v>0.002248605864364039</v>
+      </c>
+      <c r="I274">
         <v>0.06869303278826111</v>
       </c>
-      <c r="J274">
+      <c r="K274">
         <v>0.03483561281826053</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" spans="1:11">
       <c r="A275" s="2">
         <v>39356</v>
       </c>
@@ -4619,14 +4751,17 @@
       <c r="F275">
         <v>-0.014480253012363</v>
       </c>
-      <c r="H275">
+      <c r="G275">
+        <v>0.002512788297585722</v>
+      </c>
+      <c r="I275">
         <v>0.04287258360512158</v>
       </c>
-      <c r="J275">
+      <c r="K275">
         <v>0.04710970075522702</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:11">
       <c r="A276" s="2">
         <v>39387</v>
       </c>
@@ -4642,14 +4777,17 @@
       <c r="F276">
         <v>-0.03781991778278748</v>
       </c>
-      <c r="H276">
+      <c r="G276">
+        <v>0.0025960075194702</v>
+      </c>
+      <c r="I276">
         <v>-0.02871035432662716</v>
       </c>
-      <c r="J276">
+      <c r="K276">
         <v>-0.04226354444448399</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:11">
       <c r="A277" s="2">
         <v>39417</v>
       </c>
@@ -4665,14 +4803,17 @@
       <c r="F277">
         <v>-0.004410264891535065</v>
       </c>
-      <c r="H277">
+      <c r="G277">
+        <v>0.002499999999999947</v>
+      </c>
+      <c r="I277">
         <v>0.07054619452989264</v>
       </c>
-      <c r="J277">
+      <c r="K277">
         <v>4.174493842246108E-05</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:11">
       <c r="A278" s="2">
         <v>39448</v>
       </c>
@@ -4688,14 +4829,17 @@
       <c r="F278">
         <v>-0.003460782413687968</v>
       </c>
-      <c r="H278">
+      <c r="G278">
+        <v>0.002850017812611183</v>
+      </c>
+      <c r="I278">
         <v>0.09264659123843222</v>
       </c>
-      <c r="J278">
+      <c r="K278">
         <v>-0.2699532476206338</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:11">
       <c r="A279" s="2">
         <v>39479</v>
       </c>
@@ -4711,14 +4855,17 @@
       <c r="F279">
         <v>0.001555814858031912</v>
       </c>
-      <c r="H279">
+      <c r="G279">
+        <v>0.002753108348134914</v>
+      </c>
+      <c r="I279">
         <v>0.03165567227336719</v>
       </c>
-      <c r="J279">
+      <c r="K279">
         <v>-0.04363885871119033</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:11">
       <c r="A280" s="2">
         <v>39508</v>
       </c>
@@ -4734,14 +4881,17 @@
       <c r="F280">
         <v>-0.02565880721220526</v>
       </c>
-      <c r="H280">
+      <c r="G280">
+        <v>0.002834115667345705</v>
+      </c>
+      <c r="I280">
         <v>-0.07831101260708728</v>
       </c>
-      <c r="J280">
+      <c r="K280">
         <v>-0.05960253022276985</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:11">
       <c r="A281" s="2">
         <v>39539</v>
       </c>
@@ -4757,14 +4907,17 @@
       <c r="F281">
         <v>0.001110320284697375</v>
       </c>
-      <c r="H281">
+      <c r="G281">
+        <v>0.003091053607701122</v>
+      </c>
+      <c r="I281">
         <v>-0.05062099363117045</v>
       </c>
-      <c r="J281">
+      <c r="K281">
         <v>0.1217694816547887</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:11">
       <c r="A282" s="2">
         <v>39569</v>
       </c>
@@ -4780,14 +4933,17 @@
       <c r="F282">
         <v>-0.01814355590945282</v>
       </c>
-      <c r="H282">
+      <c r="G282">
+        <v>0.003169572107765362</v>
+      </c>
+      <c r="I282">
         <v>0.01903295273399874</v>
       </c>
-      <c r="J282">
+      <c r="K282">
         <v>0.0143616599222407</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:11">
       <c r="A283" s="2">
         <v>39600</v>
       </c>
@@ -4803,14 +4959,17 @@
       <c r="F283">
         <v>-0.02392399930487166</v>
       </c>
-      <c r="H283">
+      <c r="G283">
+        <v>0.003071792171318366</v>
+      </c>
+      <c r="I283">
         <v>0.03318450389075767</v>
       </c>
-      <c r="J283">
+      <c r="K283">
         <v>-0.2150735294117641</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:11">
       <c r="A284" s="2">
         <v>39630</v>
       </c>
@@ -4826,14 +4985,17 @@
       <c r="F284">
         <v>-0.005756676557863494</v>
       </c>
-      <c r="H284">
+      <c r="G284">
+        <v>0.003412372036048605</v>
+      </c>
+      <c r="I284">
         <v>-0.003496783211820009</v>
       </c>
-      <c r="J284">
+      <c r="K284">
         <v>0.002163962899424554</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:11">
       <c r="A285" s="2">
         <v>39661</v>
       </c>
@@ -4849,14 +5011,17 @@
       <c r="F285">
         <v>-0.04160448874828393</v>
       </c>
-      <c r="H285">
+      <c r="G285">
+        <v>0.003487966515521412</v>
+      </c>
+      <c r="I285">
         <v>-0.03864696049969107</v>
       </c>
-      <c r="J285">
+      <c r="K285">
         <v>-0.005192240760866107</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:11">
       <c r="A286" s="2">
         <v>39692</v>
       </c>
@@ -4872,14 +5037,17 @@
       <c r="F286">
         <v>0.0372135027404088</v>
       </c>
-      <c r="H286">
+      <c r="G286">
+        <v>0.003388946819603778</v>
+      </c>
+      <c r="I286">
         <v>0.09389550408711278</v>
       </c>
-      <c r="J286">
+      <c r="K286">
         <v>-0.1985634317701491</v>
       </c>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" spans="1:11">
       <c r="A287" s="2">
         <v>39722</v>
       </c>
@@ -4895,14 +5063,17 @@
       <c r="F287">
         <v>0.01954544089830956</v>
       </c>
-      <c r="H287">
+      <c r="G287">
+        <v>0.004070321295574608</v>
+      </c>
+      <c r="I287">
         <v>-0.07370446657978225</v>
       </c>
-      <c r="J287">
+      <c r="K287">
         <v>-0.3128307467526689</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:11">
       <c r="A288" s="2">
         <v>39753</v>
       </c>
@@ -4918,14 +5089,17 @@
       <c r="F288">
         <v>0.03254019671358743</v>
       </c>
-      <c r="H288">
+      <c r="G288">
+        <v>0.003967569432465234</v>
+      </c>
+      <c r="I288">
         <v>0.117235626409286</v>
       </c>
-      <c r="J288">
+      <c r="K288">
         <v>-0.1354042420785143</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" spans="1:11">
       <c r="A289" s="2">
         <v>39783</v>
       </c>
@@ -4941,14 +5115,17 @@
       <c r="F289">
         <v>0.07737501069503461</v>
       </c>
-      <c r="H289">
+      <c r="G289">
+        <v>0.004037800687285209</v>
+      </c>
+      <c r="I289">
         <v>-0.02880724110532917</v>
       </c>
-      <c r="J289">
+      <c r="K289">
         <v>-0.0004048704414569837</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:11">
       <c r="A290" s="2">
         <v>39814</v>
       </c>
@@ -4964,14 +5141,17 @@
       <c r="F290">
         <v>0.08513341804320196</v>
       </c>
-      <c r="H290">
+      <c r="G290">
+        <v>0.004278257893385762</v>
+      </c>
+      <c r="I290">
         <v>0.1543267357277411</v>
       </c>
-      <c r="J290">
+      <c r="K290">
         <v>-0.1730247071001053</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" spans="1:11">
       <c r="A291" s="2">
         <v>39845</v>
       </c>
@@ -4987,14 +5167,17 @@
       <c r="F291">
         <v>0.08504098360655754</v>
       </c>
-      <c r="H291">
+      <c r="G291">
+        <v>0.004345233023770989</v>
+      </c>
+      <c r="I291">
         <v>0.04942939877472652</v>
       </c>
-      <c r="J291">
+      <c r="K291">
         <v>-0.2259147060424108</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:11">
       <c r="A292" s="2">
         <v>39873</v>
       </c>
@@ -5010,14 +5193,17 @@
       <c r="F292">
         <v>0.04658482845451695</v>
       </c>
-      <c r="H292">
+      <c r="G292">
+        <v>0.00424160162877496</v>
+      </c>
+      <c r="I292">
         <v>-0.08532414318297088</v>
       </c>
-      <c r="J292">
+      <c r="K292">
         <v>0.0800740515079803</v>
       </c>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:11">
       <c r="A293" s="2">
         <v>39904</v>
       </c>
@@ -5033,14 +5219,17 @@
       <c r="F293">
         <v>-0.001095596133190213</v>
       </c>
-      <c r="H293">
+      <c r="G293">
+        <v>0.004223686433519225</v>
+      </c>
+      <c r="I293">
         <v>-0.0338836336961118</v>
       </c>
-      <c r="J293">
+      <c r="K293">
         <v>0.3271859405510946</v>
       </c>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" spans="1:11">
       <c r="A294" s="2">
         <v>39934</v>
       </c>
@@ -5056,14 +5245,17 @@
       <c r="F294">
         <v>-0.04942041764339022</v>
       </c>
-      <c r="H294">
+      <c r="G294">
+        <v>0.004205921938088775</v>
+      </c>
+      <c r="I294">
         <v>0.03996961626866669</v>
       </c>
-      <c r="J294">
+      <c r="K294">
         <v>0.1068334150727477</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:11">
       <c r="A295" s="2">
         <v>39965</v>
       </c>
@@ -5079,14 +5271,17 @@
       <c r="F295">
         <v>0.0199542996764781</v>
       </c>
-      <c r="H295">
+      <c r="G295">
+        <v>0.004188306248952944</v>
+      </c>
+      <c r="I295">
         <v>-0.04446972620630285</v>
       </c>
-      <c r="J295">
+      <c r="K295">
         <v>-0.04039583487187104</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:11">
       <c r="A296" s="2">
         <v>39995</v>
       </c>
@@ -5102,14 +5297,17 @@
       <c r="F296">
         <v>-0.01195572610518392</v>
       </c>
-      <c r="H296">
+      <c r="G296">
+        <v>0.004337671004337684</v>
+      </c>
+      <c r="I296">
         <v>0.00453112145880552</v>
       </c>
-      <c r="J296">
+      <c r="K296">
         <v>0.2020317069416675</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:11">
       <c r="A297" s="2">
         <v>40026</v>
       </c>
@@ -5125,14 +5323,17 @@
       <c r="F297">
         <v>-0.07020025143678155</v>
       </c>
-      <c r="H297">
+      <c r="G297">
+        <v>0.004235880398671066</v>
+      </c>
+      <c r="I297">
         <v>0.008017888866601375</v>
       </c>
-      <c r="J297">
+      <c r="K297">
         <v>0.1058825035853299</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:11">
       <c r="A298" s="2">
         <v>40057</v>
       </c>
@@ -5148,14 +5349,17 @@
       <c r="F298">
         <v>-0.01241036289446362</v>
       </c>
-      <c r="H298">
+      <c r="G298">
+        <v>0.004300719543462117</v>
+      </c>
+      <c r="I298">
         <v>0.01572092229744571</v>
       </c>
-      <c r="J298">
+      <c r="K298">
         <v>0.0703873096740586</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:11">
       <c r="A299" s="2">
         <v>40087</v>
       </c>
@@ -5171,14 +5375,17 @@
       <c r="F299">
         <v>0.02745519888516745</v>
       </c>
-      <c r="H299">
+      <c r="G299">
+        <v>0.004199950588816614</v>
+      </c>
+      <c r="I299">
         <v>0.03335934478289304</v>
       </c>
-      <c r="J299">
+      <c r="K299">
         <v>-0.09155813249102285</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:11">
       <c r="A300" s="2">
         <v>40118</v>
       </c>
@@ -5194,14 +5401,17 @@
       <c r="F300">
         <v>0.01208775519916228</v>
       </c>
-      <c r="H300">
+      <c r="G300">
+        <v>0.004264392324093702</v>
+      </c>
+      <c r="I300">
         <v>0.1137473822190596</v>
       </c>
-      <c r="J300">
+      <c r="K300">
         <v>0.04265301262205345</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:11">
       <c r="A301" s="2">
         <v>40148</v>
       </c>
@@ -5217,14 +5427,17 @@
       <c r="F301">
         <v>-0.02148869139982135</v>
       </c>
-      <c r="H301">
+      <c r="G301">
+        <v>0.004164625183733506</v>
+      </c>
+      <c r="I301">
         <v>-0.02080915856255583</v>
       </c>
-      <c r="J301">
+      <c r="K301">
         <v>0.1250770882346224</v>
       </c>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:11">
       <c r="A302" s="2">
         <v>40179</v>
       </c>
@@ -5240,14 +5453,17 @@
       <c r="F302">
         <v>-0.01487265737626131</v>
       </c>
-      <c r="H302">
+      <c r="G302">
+        <v>0.003903391070992912</v>
+      </c>
+      <c r="I302">
         <v>0.007679558742039516</v>
       </c>
-      <c r="J302">
+      <c r="K302">
         <v>-0.1247842946180237</v>
       </c>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:11">
       <c r="A303" s="2">
         <v>40210</v>
       </c>
@@ -5266,14 +5482,17 @@
       <c r="F303">
         <v>-0.01570693397722012</v>
       </c>
-      <c r="H303">
+      <c r="G303">
+        <v>0.003888213851761968</v>
+      </c>
+      <c r="I303">
         <v>0.05757160197864608</v>
       </c>
-      <c r="J303">
+      <c r="K303">
         <v>-0.03700954523839795</v>
       </c>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:11">
       <c r="A304" s="2">
         <v>40238</v>
       </c>
@@ -5292,14 +5511,17 @@
       <c r="F304">
         <v>-0.0220531754094706</v>
       </c>
-      <c r="H304">
+      <c r="G304">
+        <v>0.003953844912450544</v>
+      </c>
+      <c r="I304">
         <v>0.01333725351014037</v>
       </c>
-      <c r="J304">
+      <c r="K304">
         <v>0.1532096832470176</v>
       </c>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" spans="1:11">
       <c r="A305" s="2">
         <v>40269</v>
       </c>
@@ -5318,14 +5540,17 @@
       <c r="F305">
         <v>-0.02310791293992442</v>
       </c>
-      <c r="H305">
+      <c r="G305">
+        <v>0.003697154798263824</v>
+      </c>
+      <c r="I305">
         <v>0.07017009997890944</v>
       </c>
-      <c r="J305">
+      <c r="K305">
         <v>-0.07430731793923717</v>
       </c>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" spans="1:11">
       <c r="A306" s="2">
         <v>40299</v>
       </c>
@@ -5344,14 +5569,17 @@
       <c r="F306">
         <v>0.01719621320191944</v>
       </c>
-      <c r="H306">
+      <c r="G306">
+        <v>0.00376361306854589</v>
+      </c>
+      <c r="I306">
         <v>0.1078226102306448</v>
       </c>
-      <c r="J306">
+      <c r="K306">
         <v>-0.1191389503136437</v>
       </c>
     </row>
-    <row r="307" spans="1:10">
+    <row r="307" spans="1:11">
       <c r="A307" s="2">
         <v>40330</v>
       </c>
@@ -5370,14 +5598,17 @@
       <c r="F307">
         <v>0.03789076444489781</v>
       </c>
-      <c r="H307">
+      <c r="G307">
+        <v>0.003749501396090871</v>
+      </c>
+      <c r="I307">
         <v>0.03325017003006403</v>
       </c>
-      <c r="J307">
+      <c r="K307">
         <v>-0.02798555253855106</v>
       </c>
     </row>
-    <row r="308" spans="1:10">
+    <row r="308" spans="1:11">
       <c r="A308" s="2">
         <v>40360</v>
       </c>
@@ -5396,14 +5627,17 @@
       <c r="F308">
         <v>0.01464229559748409</v>
       </c>
-      <c r="H308">
+      <c r="G308">
+        <v>0.003735495151804269</v>
+      </c>
+      <c r="I308">
         <v>-0.1148918554841564</v>
       </c>
-      <c r="J308">
+      <c r="K308">
         <v>0.1316625159768625</v>
       </c>
     </row>
-    <row r="309" spans="1:10">
+    <row r="309" spans="1:11">
       <c r="A309" s="2">
         <v>40391</v>
       </c>
@@ -5422,14 +5656,17 @@
       <c r="F309">
         <v>-0.03094430992736075</v>
       </c>
-      <c r="H309">
+      <c r="G309">
+        <v>0.003800775991764871</v>
+      </c>
+      <c r="I309">
         <v>0.09512079941064333</v>
       </c>
-      <c r="J309">
+      <c r="K309">
         <v>-0.08538360327422367</v>
       </c>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" spans="1:11">
       <c r="A310" s="2">
         <v>40422</v>
       </c>
@@ -5448,14 +5685,17 @@
       <c r="F310">
         <v>-0.002648543301184358</v>
       </c>
-      <c r="H310">
+      <c r="G310">
+        <v>0.003786384791354402</v>
+      </c>
+      <c r="I310">
         <v>-0.02544178887092807</v>
       </c>
-      <c r="J310">
+      <c r="K310">
         <v>0.09597708465945476</v>
       </c>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" spans="1:11">
       <c r="A311" s="2">
         <v>40452</v>
       </c>
@@ -5474,14 +5714,17 @@
       <c r="F311">
         <v>-0.005937468684236835</v>
       </c>
-      <c r="H311">
+      <c r="G311">
+        <v>0.003379174852652378</v>
+      </c>
+      <c r="I311">
         <v>0.01487181976090879</v>
       </c>
-      <c r="J311">
+      <c r="K311">
         <v>0.07141446642427995</v>
       </c>
     </row>
-    <row r="312" spans="1:10">
+    <row r="312" spans="1:11">
       <c r="A312" s="2">
         <v>40483</v>
       </c>
@@ -5500,14 +5743,17 @@
       <c r="F312">
         <v>-0.001940573099120546</v>
       </c>
-      <c r="H312">
+      <c r="G312">
+        <v>0.003367794486215603</v>
+      </c>
+      <c r="I312">
         <v>0.09517838459990213</v>
       </c>
-      <c r="J312">
+      <c r="K312">
         <v>-0.1271940761299682</v>
       </c>
     </row>
-    <row r="313" spans="1:10">
+    <row r="313" spans="1:11">
       <c r="A313" s="2">
         <v>40513</v>
       </c>
@@ -5526,14 +5772,17 @@
       <c r="F313">
         <v>0.0152265037119339</v>
       </c>
-      <c r="H313">
+      <c r="G313">
+        <v>0.003434548434938733</v>
+      </c>
+      <c r="I313">
         <v>-0.008433124654778523</v>
       </c>
-      <c r="J313">
+      <c r="K313">
         <v>0.1195826346189668</v>
       </c>
     </row>
-    <row r="314" spans="1:10">
+    <row r="314" spans="1:11">
       <c r="A314" s="2">
         <v>40544</v>
       </c>
@@ -5552,14 +5801,17 @@
       <c r="F314">
         <v>-0.0170874269369482</v>
       </c>
-      <c r="H314">
+      <c r="G314">
+        <v>0.003267211201866793</v>
+      </c>
+      <c r="I314">
         <v>-0.08171098012998335</v>
       </c>
-      <c r="J314">
+      <c r="K314">
         <v>0.1094838681045585</v>
       </c>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:11">
       <c r="A315" s="2">
         <v>40575</v>
       </c>
@@ -5578,14 +5830,17 @@
       <c r="F315">
         <v>-0.005845437522141728</v>
       </c>
-      <c r="H315">
+      <c r="G315">
+        <v>0.003256571295650046</v>
+      </c>
+      <c r="I315">
         <v>0.05238635869665331</v>
       </c>
-      <c r="J315">
+      <c r="K315">
         <v>0.03923000000000054</v>
       </c>
     </row>
-    <row r="316" spans="1:10">
+    <row r="316" spans="1:11">
       <c r="A316" s="2">
         <v>40603</v>
       </c>
@@ -5604,14 +5859,17 @@
       <c r="F316">
         <v>0.007407030315371488</v>
       </c>
-      <c r="H316">
+      <c r="G316">
+        <v>0.003323286189040875</v>
+      </c>
+      <c r="I316">
         <v>-0.006931580677855709</v>
       </c>
-      <c r="J316">
+      <c r="K316">
         <v>-0.06983054761698626</v>
       </c>
     </row>
-    <row r="317" spans="1:10">
+    <row r="317" spans="1:11">
       <c r="A317" s="2">
         <v>40634</v>
       </c>
@@ -5630,14 +5888,17 @@
       <c r="F317">
         <v>0.01793925918439543</v>
       </c>
-      <c r="H317">
+      <c r="G317">
+        <v>0.00346633800647056</v>
+      </c>
+      <c r="I317">
         <v>0.02017011682817782</v>
       </c>
-      <c r="J317">
+      <c r="K317">
         <v>0.07910744212028953</v>
       </c>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:11">
       <c r="A318" s="2">
         <v>40664</v>
       </c>
@@ -5656,14 +5917,17 @@
       <c r="F318">
         <v>-0.02370432883240681</v>
       </c>
-      <c r="H318">
+      <c r="G318">
+        <v>0.003377600368465572</v>
+      </c>
+      <c r="I318">
         <v>0.03369326586281862</v>
       </c>
-      <c r="J318">
+      <c r="K318">
         <v>-0.0579026583455553</v>
       </c>
     </row>
-    <row r="319" spans="1:10">
+    <row r="319" spans="1:11">
       <c r="A319" s="2">
         <v>40695</v>
       </c>
@@ -5682,14 +5946,17 @@
       <c r="F319">
         <v>0.004474614191645632</v>
       </c>
-      <c r="H319">
+      <c r="G319">
+        <v>0.003442735827404064</v>
+      </c>
+      <c r="I319">
         <v>-0.02478570472793062</v>
       </c>
-      <c r="J319">
+      <c r="K319">
         <v>-0.008690077640857496</v>
       </c>
     </row>
-    <row r="320" spans="1:10">
+    <row r="320" spans="1:11">
       <c r="A320" s="2">
         <v>40725</v>
       </c>
@@ -5708,14 +5975,17 @@
       <c r="F320">
         <v>0.00746665316763262</v>
       </c>
-      <c r="H320">
+      <c r="G320">
+        <v>0.003507166819152197</v>
+      </c>
+      <c r="I320">
         <v>0.09634055680829801</v>
       </c>
-      <c r="J320">
+      <c r="K320">
         <v>-0.1225633603301212</v>
       </c>
     </row>
-    <row r="321" spans="1:10">
+    <row r="321" spans="1:11">
       <c r="A321" s="2">
         <v>40756</v>
       </c>
@@ -5734,14 +6004,17 @@
       <c r="F321">
         <v>0.005200482363581616</v>
       </c>
-      <c r="H321">
+      <c r="G321">
+        <v>0.003494909588208639</v>
+      </c>
+      <c r="I321">
         <v>0.09895896302135632</v>
       </c>
-      <c r="J321">
+      <c r="K321">
         <v>-0.2680190456135427</v>
       </c>
     </row>
-    <row r="322" spans="1:10">
+    <row r="322" spans="1:11">
       <c r="A322" s="2">
         <v>40787</v>
       </c>
@@ -5760,14 +6033,17 @@
       <c r="F322">
         <v>0.03164129864287313</v>
       </c>
-      <c r="H322">
+      <c r="G322">
+        <v>0.003407026044821126</v>
+      </c>
+      <c r="I322">
         <v>-0.04405031581071361</v>
       </c>
-      <c r="J322">
+      <c r="K322">
         <v>-0.1154885006952318</v>
       </c>
     </row>
-    <row r="323" spans="1:10">
+    <row r="323" spans="1:11">
       <c r="A323" s="2">
         <v>40817</v>
       </c>
@@ -5786,14 +6062,17 @@
       <c r="F323">
         <v>0.06962715313612899</v>
       </c>
-      <c r="H323">
+      <c r="G323">
+        <v>0.003697276088432844</v>
+      </c>
+      <c r="I323">
         <v>0.02515455245260312</v>
       </c>
-      <c r="J323">
+      <c r="K323">
         <v>0.1846484650271929</v>
       </c>
     </row>
-    <row r="324" spans="1:10">
+    <row r="324" spans="1:11">
       <c r="A324" s="2">
         <v>40848</v>
       </c>
@@ -5812,14 +6091,17 @@
       <c r="F324">
         <v>-0.01048673869221528</v>
       </c>
-      <c r="H324">
+      <c r="G324">
+        <v>0.003758833258156624</v>
+      </c>
+      <c r="I324">
         <v>0.05799194280084441</v>
       </c>
-      <c r="J324">
+      <c r="K324">
         <v>-0.05002898020194657</v>
       </c>
     </row>
-    <row r="325" spans="1:10">
+    <row r="325" spans="1:11">
       <c r="A325" s="2">
         <v>40878</v>
       </c>
@@ -5838,14 +6120,17 @@
       <c r="F325">
         <v>0.02996246108771272</v>
       </c>
-      <c r="H325">
+      <c r="G325">
+        <v>0.003669862192929862</v>
+      </c>
+      <c r="I325">
         <v>-0.06484090870661274</v>
       </c>
-      <c r="J325">
+      <c r="K325">
         <v>-0.01489997109919228</v>
       </c>
     </row>
-    <row r="326" spans="1:10">
+    <row r="326" spans="1:11">
       <c r="A326" s="2">
         <v>40909</v>
       </c>
@@ -5864,14 +6149,17 @@
       <c r="F326">
         <v>-0.007778296330866574</v>
       </c>
-      <c r="H326">
+      <c r="G326">
+        <v>0.004029550033579632</v>
+      </c>
+      <c r="I326">
         <v>0.08772958831004796</v>
       </c>
-      <c r="J326">
+      <c r="K326">
         <v>0.09246340906868222</v>
       </c>
     </row>
-    <row r="327" spans="1:10">
+    <row r="327" spans="1:11">
       <c r="A327" s="2">
         <v>40940</v>
       </c>
@@ -5890,14 +6178,17 @@
       <c r="F327">
         <v>-0.05223195287477322</v>
       </c>
-      <c r="H327">
+      <c r="G327">
+        <v>0.004087699739873552</v>
+      </c>
+      <c r="I327">
         <v>-0.00524948354827437</v>
       </c>
-      <c r="J327">
+      <c r="K327">
         <v>0.07932624166380897</v>
       </c>
     </row>
-    <row r="328" spans="1:10">
+    <row r="328" spans="1:11">
       <c r="A328" s="2">
         <v>40969</v>
       </c>
@@ -5916,14 +6207,17 @@
       <c r="F328">
         <v>-0.02637362637362617</v>
       </c>
-      <c r="H328">
+      <c r="G328">
+        <v>0.004071058475203726</v>
+      </c>
+      <c r="I328">
         <v>-0.05461615677077714</v>
       </c>
-      <c r="J328">
+      <c r="K328">
         <v>-0.02909709167311947</v>
       </c>
     </row>
-    <row r="329" spans="1:10">
+    <row r="329" spans="1:11">
       <c r="A329" s="2">
         <v>41000</v>
       </c>
@@ -5942,14 +6236,17 @@
       <c r="F329">
         <v>0.005000121362168874</v>
       </c>
-      <c r="H329">
+      <c r="G329">
+        <v>0.004349428676741596</v>
+      </c>
+      <c r="I329">
         <v>0.003906542502768007</v>
       </c>
-      <c r="J329">
+      <c r="K329">
         <v>-0.1214994518714677</v>
       </c>
     </row>
-    <row r="330" spans="1:10">
+    <row r="330" spans="1:11">
       <c r="A330" s="2">
         <v>41030</v>
       </c>
@@ -5968,14 +6265,17 @@
       <c r="F330">
         <v>0.007873445236082466</v>
       </c>
-      <c r="H330">
+      <c r="G330">
+        <v>0.004403992953611269</v>
+      </c>
+      <c r="I330">
         <v>0.005222455093310874</v>
       </c>
-      <c r="J330">
+      <c r="K330">
         <v>-0.1239931934203053</v>
       </c>
     </row>
-    <row r="331" spans="1:10">
+    <row r="331" spans="1:11">
       <c r="A331" s="2">
         <v>41061</v>
       </c>
@@ -5994,14 +6294,17 @@
       <c r="F331">
         <v>0.05161630442596632</v>
       </c>
-      <c r="H331">
+      <c r="G331">
+        <v>0.004384682841274357</v>
+      </c>
+      <c r="I331">
         <v>0.01075570398904513</v>
       </c>
-      <c r="J331">
+      <c r="K331">
         <v>0.1472046472046471</v>
       </c>
     </row>
-    <row r="332" spans="1:10">
+    <row r="332" spans="1:11">
       <c r="A332" s="2">
         <v>41091</v>
       </c>
@@ -6020,14 +6323,17 @@
       <c r="F332">
         <v>-0.03798564429759588</v>
       </c>
-      <c r="H332">
+      <c r="G332">
+        <v>0.004583818393480765</v>
+      </c>
+      <c r="I332">
         <v>0.03997795067359466</v>
       </c>
-      <c r="J332">
+      <c r="K332">
         <v>0.05302285078453939</v>
       </c>
     </row>
-    <row r="333" spans="1:10">
+    <row r="333" spans="1:11">
       <c r="A333" s="2">
         <v>41122</v>
       </c>
@@ -6046,14 +6352,17 @@
       <c r="F333">
         <v>-0.02532095314794647</v>
       </c>
-      <c r="H333">
+      <c r="G333">
+        <v>0.004490475845585706</v>
+      </c>
+      <c r="I333">
         <v>-0.01001552575643672</v>
       </c>
-      <c r="J333">
+      <c r="K333">
         <v>0.09701526822769124</v>
       </c>
     </row>
-    <row r="334" spans="1:10">
+    <row r="334" spans="1:11">
       <c r="A334" s="2">
         <v>41153</v>
       </c>
@@ -6072,14 +6381,17 @@
       <c r="F334">
         <v>0.01249119055141068</v>
       </c>
-      <c r="H334">
+      <c r="G334">
+        <v>0.004614608118826302</v>
+      </c>
+      <c r="I334">
         <v>0.05076357822304911</v>
       </c>
-      <c r="J334">
+      <c r="K334">
         <v>0.01408549013038418</v>
       </c>
     </row>
-    <row r="335" spans="1:10">
+    <row r="335" spans="1:11">
       <c r="A335" s="2">
         <v>41183</v>
       </c>
@@ -6099,16 +6411,19 @@
         <v>-0.0130091448047428</v>
       </c>
       <c r="G335">
+        <v>0.004378095169740748</v>
+      </c>
+      <c r="H335">
         <v>0.006536336576810076</v>
       </c>
-      <c r="H335">
+      <c r="I335">
         <v>-0.03678774017610287</v>
       </c>
-      <c r="J335">
+      <c r="K335">
         <v>0.04029293944357937</v>
       </c>
     </row>
-    <row r="336" spans="1:10">
+    <row r="336" spans="1:11">
       <c r="A336" s="2">
         <v>41214</v>
       </c>
@@ -6128,16 +6443,19 @@
         <v>0.005155516645996006</v>
       </c>
       <c r="G336">
+        <v>0.004430470201514991</v>
+      </c>
+      <c r="H336">
         <v>0.002688435694128133</v>
       </c>
-      <c r="H336">
+      <c r="I336">
         <v>0.004613372059425025</v>
       </c>
-      <c r="J336">
+      <c r="K336">
         <v>0.05721847293899818</v>
       </c>
     </row>
-    <row r="337" spans="1:10">
+    <row r="337" spans="1:11">
       <c r="A337" s="2">
         <v>41244</v>
       </c>
@@ -6157,16 +6475,19 @@
         <v>-0.007814579149831857</v>
       </c>
       <c r="G337">
+        <v>0.004482071713147295</v>
+      </c>
+      <c r="H337">
         <v>-0.01060777381973277</v>
       </c>
-      <c r="H337">
+      <c r="I337">
         <v>-0.05111965813316932</v>
       </c>
-      <c r="J337">
+      <c r="K337">
         <v>0.04942799208951931</v>
       </c>
     </row>
-    <row r="338" spans="1:10">
+    <row r="338" spans="1:11">
       <c r="A338" s="2">
         <v>41275</v>
       </c>
@@ -6186,16 +6507,19 @@
         <v>-0.004413557668861201</v>
       </c>
       <c r="G338">
+        <v>0.00432041929315119</v>
+      </c>
+      <c r="H338">
         <v>-0.03095639001791395</v>
       </c>
-      <c r="H338">
+      <c r="I338">
         <v>-0.02583418340193055</v>
       </c>
-      <c r="J338">
+      <c r="K338">
         <v>0.05698746466610172</v>
       </c>
     </row>
-    <row r="339" spans="1:10">
+    <row r="339" spans="1:11">
       <c r="A339" s="2">
         <v>41306</v>
       </c>
@@ -6215,16 +6539,19 @@
         <v>0.02716206617845152</v>
       </c>
       <c r="G339">
+        <v>0.004301833568406188</v>
+      </c>
+      <c r="H339">
         <v>0.02678207940358246</v>
       </c>
-      <c r="H339">
+      <c r="I339">
         <v>-0.01520498287403182</v>
       </c>
-      <c r="J339">
+      <c r="K339">
         <v>-0.05456945870617524</v>
       </c>
     </row>
-    <row r="340" spans="1:10">
+    <row r="340" spans="1:11">
       <c r="A340" s="2">
         <v>41334</v>
       </c>
@@ -6244,16 +6571,19 @@
         <v>-0.01115933044017359</v>
       </c>
       <c r="G340">
+        <v>0.004353626852046988</v>
+      </c>
+      <c r="H340">
         <v>0.02383693150623212</v>
       </c>
-      <c r="H340">
+      <c r="I340">
         <v>0.03159578614202441</v>
       </c>
-      <c r="J340">
+      <c r="K340">
         <v>-0.007459569135288335</v>
       </c>
     </row>
-    <row r="341" spans="1:10">
+    <row r="341" spans="1:11">
       <c r="A341" s="2">
         <v>41365</v>
       </c>
@@ -6273,16 +6603,19 @@
         <v>0.006631299734747964</v>
       </c>
       <c r="G341">
+        <v>0.003705516325246405</v>
+      </c>
+      <c r="H341">
         <v>0.002815504898136867</v>
       </c>
-      <c r="H341">
+      <c r="I341">
         <v>-0.09964324696476978</v>
       </c>
-      <c r="J341">
+      <c r="K341">
         <v>0.08299663299663496</v>
       </c>
     </row>
-    <row r="342" spans="1:10">
+    <row r="342" spans="1:11">
       <c r="A342" s="2">
         <v>41395</v>
       </c>
@@ -6302,16 +6635,19 @@
         <v>-0.004120253922625383</v>
       </c>
       <c r="G342">
+        <v>0.003691836166062945</v>
+      </c>
+      <c r="H342">
         <v>-0.0191951164408295</v>
       </c>
-      <c r="H342">
+      <c r="I342">
         <v>-0.04589754720735928</v>
       </c>
-      <c r="J342">
+      <c r="K342">
         <v>0.07222802069685286</v>
       </c>
     </row>
-    <row r="343" spans="1:10">
+    <row r="343" spans="1:11">
       <c r="A343" s="2">
         <v>41426</v>
       </c>
@@ -6331,16 +6667,19 @@
         <v>0.02766218459096059</v>
       </c>
       <c r="G343">
+        <v>0.00374765771392882</v>
+      </c>
+      <c r="H343">
         <v>-0.02968441023725454</v>
       </c>
-      <c r="H343">
+      <c r="I343">
         <v>-0.1500492871185727</v>
       </c>
-      <c r="J343">
+      <c r="K343">
         <v>-0.1157848954611828</v>
       </c>
     </row>
-    <row r="344" spans="1:10">
+    <row r="344" spans="1:11">
       <c r="A344" s="2">
         <v>41456</v>
       </c>
@@ -6360,16 +6699,19 @@
         <v>0.01303747396016197</v>
       </c>
       <c r="G344">
+        <v>0.003249671575745072</v>
+      </c>
+      <c r="H344">
         <v>0.000791096252049206</v>
       </c>
-      <c r="H344">
+      <c r="I344">
         <v>0.08656959769461103</v>
       </c>
-      <c r="J344">
+      <c r="K344">
         <v>0.1321411004145872</v>
       </c>
     </row>
-    <row r="345" spans="1:10">
+    <row r="345" spans="1:11">
       <c r="A345" s="2">
         <v>41487</v>
       </c>
@@ -6389,16 +6731,19 @@
         <v>-0.01756007393715353</v>
       </c>
       <c r="G345">
+        <v>0.003308063404548811</v>
+      </c>
+      <c r="H345">
         <v>-0.003416175450214776</v>
       </c>
-      <c r="H345">
+      <c r="I345">
         <v>0.06425662846605285</v>
       </c>
-      <c r="J345">
+      <c r="K345">
         <v>-0.03502674073384371</v>
       </c>
     </row>
-    <row r="346" spans="1:10">
+    <row r="346" spans="1:11">
       <c r="A346" s="2">
         <v>41518</v>
       </c>
@@ -6418,16 +6763,19 @@
         <v>0.003245531514581401</v>
       </c>
       <c r="G346">
+        <v>0.003228465448550599</v>
+      </c>
+      <c r="H346">
         <v>-0.001623544844150171</v>
       </c>
-      <c r="H346">
+      <c r="I346">
         <v>-0.06794778828604364</v>
       </c>
-      <c r="J346">
+      <c r="K346">
         <v>0.1325321870008476</v>
       </c>
     </row>
-    <row r="347" spans="1:10">
+    <row r="347" spans="1:11">
       <c r="A347" s="2">
         <v>41548</v>
       </c>
@@ -6447,16 +6795,19 @@
         <v>-0.01136949692906364</v>
       </c>
       <c r="G347">
+        <v>0.002875727490585289</v>
+      </c>
+      <c r="H347">
         <v>0.003769307412608391</v>
       </c>
-      <c r="H347">
+      <c r="I347">
         <v>-0.011835812486652</v>
       </c>
-      <c r="J347">
+      <c r="K347">
         <v>0.124566950002839</v>
       </c>
     </row>
-    <row r="348" spans="1:10">
+    <row r="348" spans="1:11">
       <c r="A348" s="2">
         <v>41579</v>
       </c>
@@ -6476,16 +6827,19 @@
         <v>-0.009176487326014171</v>
       </c>
       <c r="G348">
+        <v>0.002867481395507632</v>
+      </c>
+      <c r="H348">
         <v>0.0009655792717031542</v>
       </c>
-      <c r="H348">
+      <c r="I348">
         <v>-0.05153947369297174</v>
       </c>
-      <c r="J348">
+      <c r="K348">
         <v>0.01582411662710581</v>
       </c>
     </row>
-    <row r="349" spans="1:10">
+    <row r="349" spans="1:11">
       <c r="A349" s="2">
         <v>41609</v>
       </c>
@@ -6505,16 +6859,19 @@
         <v>0.005504235868472707</v>
       </c>
       <c r="G349">
+        <v>0.002859282456259882</v>
+      </c>
+      <c r="H349">
         <v>-0.01300870414257593</v>
       </c>
-      <c r="H349">
+      <c r="I349">
         <v>-0.05361689265753589</v>
       </c>
-      <c r="J349">
+      <c r="K349">
         <v>0.01436786371244514</v>
       </c>
     </row>
-    <row r="350" spans="1:10">
+    <row r="350" spans="1:11">
       <c r="A350" s="2">
         <v>41640</v>
       </c>
@@ -6534,16 +6891,19 @@
         <v>-0.01178122619954303</v>
       </c>
       <c r="G350">
+        <v>0.002172289729142518</v>
+      </c>
+      <c r="H350">
         <v>0.0293749853356513</v>
       </c>
-      <c r="H350">
+      <c r="I350">
         <v>0.06238299343931986</v>
       </c>
-      <c r="J350">
+      <c r="K350">
         <v>-0.05776833850678076</v>
       </c>
     </row>
-    <row r="351" spans="1:10">
+    <row r="351" spans="1:11">
       <c r="A351" s="2">
         <v>41671</v>
       </c>
@@ -6563,16 +6923,19 @@
         <v>0.02295224103465721</v>
       </c>
       <c r="G351">
+        <v>0.002235318024791821</v>
+      </c>
+      <c r="H351">
         <v>-0.005546913496636163</v>
       </c>
-      <c r="H351">
+      <c r="I351">
         <v>0.03755258299694941</v>
       </c>
-      <c r="J351">
+      <c r="K351">
         <v>0.0906907792072682</v>
       </c>
     </row>
-    <row r="352" spans="1:10">
+    <row r="352" spans="1:11">
       <c r="A352" s="2">
         <v>41699</v>
       </c>
@@ -6592,16 +6955,19 @@
         <v>-0.02177802891180491</v>
       </c>
       <c r="G352">
+        <v>0.002162746688294082</v>
+      </c>
+      <c r="H352">
         <v>0.002525601358514873</v>
       </c>
-      <c r="H352">
+      <c r="I352">
         <v>-0.02443108671278815</v>
       </c>
-      <c r="J352">
+      <c r="K352">
         <v>0.0069231930942939</v>
       </c>
     </row>
-    <row r="353" spans="1:10">
+    <row r="353" spans="1:11">
       <c r="A353" s="2">
         <v>41730</v>
       </c>
@@ -6621,16 +6987,19 @@
         <v>0.001155262461190576</v>
       </c>
       <c r="G353">
+        <v>0.001820879417318677</v>
+      </c>
+      <c r="H353">
         <v>0.008886699588724456</v>
       </c>
-      <c r="H353">
+      <c r="I353">
         <v>-0.006981238196581696</v>
       </c>
-      <c r="J353">
+      <c r="K353">
         <v>0.03107041364066987</v>
       </c>
     </row>
-    <row r="354" spans="1:10">
+    <row r="354" spans="1:11">
       <c r="A354" s="2">
         <v>41760</v>
       </c>
@@ -6650,16 +7019,19 @@
         <v>0.00920739476404564</v>
       </c>
       <c r="G354">
+        <v>0.001817569841803923</v>
+      </c>
+      <c r="H354">
         <v>0.02582160061807914</v>
       </c>
-      <c r="H354">
+      <c r="I354">
         <v>-0.01215987719347988</v>
       </c>
-      <c r="J354">
+      <c r="K354">
         <v>0.06126355117290383</v>
       </c>
     </row>
-    <row r="355" spans="1:10">
+    <row r="355" spans="1:11">
       <c r="A355" s="2">
         <v>41791</v>
       </c>
@@ -6679,16 +7051,19 @@
         <v>-0.01550738446879474</v>
       </c>
       <c r="G355">
+        <v>0.00174707700577903</v>
+      </c>
+      <c r="H355">
         <v>0.001421950257359139</v>
       </c>
-      <c r="H355">
+      <c r="I355">
         <v>0.04765269174216558</v>
       </c>
-      <c r="J355">
+      <c r="K355">
         <v>-0.005771256258206181</v>
       </c>
     </row>
-    <row r="356" spans="1:10">
+    <row r="356" spans="1:11">
       <c r="A356" s="2">
         <v>41821</v>
       </c>
@@ -6708,16 +7083,19 @@
         <v>0.00476662875946654</v>
       </c>
       <c r="G356">
+        <v>0.001676951972095608</v>
+      </c>
+      <c r="H356">
         <v>0.01426926513101168</v>
       </c>
-      <c r="H356">
+      <c r="I356">
         <v>-0.002241780078138245</v>
       </c>
-      <c r="J356">
+      <c r="K356">
         <v>-0.06857594798937672</v>
       </c>
     </row>
-    <row r="357" spans="1:10">
+    <row r="357" spans="1:11">
       <c r="A357" s="2">
         <v>41852</v>
       </c>
@@ -6737,16 +7115,19 @@
         <v>0.005008910080431583</v>
       </c>
       <c r="G357">
+        <v>0.001607178731668046</v>
+      </c>
+      <c r="H357">
         <v>0.02295414879239432</v>
       </c>
-      <c r="H357">
+      <c r="I357">
         <v>0.01487752683986998</v>
       </c>
-      <c r="J357">
+      <c r="K357">
         <v>0.0352427025637434</v>
       </c>
     </row>
-    <row r="358" spans="1:10">
+    <row r="358" spans="1:11">
       <c r="A358" s="2">
         <v>41883</v>
       </c>
@@ -6766,16 +7147,19 @@
         <v>0.007691570422197591</v>
       </c>
       <c r="G358">
+        <v>0.001604599852911726</v>
+      </c>
+      <c r="H358">
         <v>0.02382688506723785</v>
       </c>
-      <c r="H358">
+      <c r="I358">
         <v>-0.008368481503698177</v>
       </c>
-      <c r="J358">
+      <c r="K358">
         <v>0.03535980615692491</v>
       </c>
     </row>
-    <row r="359" spans="1:10">
+    <row r="359" spans="1:11">
       <c r="A359" s="2">
         <v>41913</v>
       </c>
@@ -6795,16 +7179,19 @@
         <v>-0.007204850790631157</v>
       </c>
       <c r="G359">
+        <v>0.001535278018823805</v>
+      </c>
+      <c r="H359">
         <v>0.008720597371781214</v>
       </c>
-      <c r="H359">
+      <c r="I359">
         <v>-0.03844247487077157</v>
       </c>
-      <c r="J359">
+      <c r="K359">
         <v>-0.07164038084163138</v>
       </c>
     </row>
-    <row r="360" spans="1:10">
+    <row r="360" spans="1:11">
       <c r="A360" s="2">
         <v>41944</v>
       </c>
@@ -6824,16 +7211,19 @@
         <v>0.01216708181643988</v>
       </c>
       <c r="G360">
+        <v>0.001466275659824046</v>
+      </c>
+      <c r="H360">
         <v>0.005990988838836753</v>
       </c>
-      <c r="H360">
+      <c r="I360">
         <v>0.01922671522125685</v>
       </c>
-      <c r="J360">
+      <c r="K360">
         <v>0.09068134311415332</v>
       </c>
     </row>
-    <row r="361" spans="1:10">
+    <row r="361" spans="1:11">
       <c r="A361" s="2">
         <v>41974</v>
       </c>
@@ -6853,16 +7243,19 @@
         <v>-0.0106483672503549</v>
       </c>
       <c r="G361">
+        <v>0.001464128843338131</v>
+      </c>
+      <c r="H361">
         <v>0.02192960531672017</v>
       </c>
-      <c r="H361">
+      <c r="I361">
         <v>0.04251252601212818</v>
       </c>
-      <c r="J361">
+      <c r="K361">
         <v>-0.06509661488989138</v>
       </c>
     </row>
-    <row r="362" spans="1:10">
+    <row r="362" spans="1:11">
       <c r="A362" s="2">
         <v>42005</v>
       </c>
@@ -6882,16 +7275,19 @@
         <v>0.02485051423104534</v>
       </c>
       <c r="G362">
+        <v>0.001329080276448735</v>
+      </c>
+      <c r="H362">
         <v>0.07829833773322137</v>
       </c>
-      <c r="H362">
+      <c r="I362">
         <v>0.128576158418338</v>
       </c>
-      <c r="J362">
+      <c r="K362">
         <v>0.1324022818183921</v>
       </c>
     </row>
-    <row r="363" spans="1:10">
+    <row r="363" spans="1:11">
       <c r="A363" s="2">
         <v>42036</v>
       </c>
@@ -6911,16 +7307,19 @@
         <v>-0.02368783402179764</v>
       </c>
       <c r="G363">
+        <v>0.001260950358375368</v>
+      </c>
+      <c r="H363">
         <v>0.0002057328261240166</v>
       </c>
-      <c r="H363">
+      <c r="I363">
         <v>-0.0311283772001959</v>
       </c>
-      <c r="J363">
+      <c r="K363">
         <v>0.1519946844574611</v>
       </c>
     </row>
-    <row r="364" spans="1:10">
+    <row r="364" spans="1:11">
       <c r="A364" s="2">
         <v>42064</v>
       </c>
@@ -6940,16 +7339,19 @@
         <v>-0.009011808576755764</v>
       </c>
       <c r="G364">
+        <v>0.001259362364949945</v>
+      </c>
+      <c r="H364">
         <v>0.03395272266414362</v>
       </c>
-      <c r="H364">
+      <c r="I364">
         <v>0.02147192810340925</v>
       </c>
-      <c r="J364">
+      <c r="K364">
         <v>0.05543523041610321</v>
       </c>
     </row>
-    <row r="365" spans="1:10">
+    <row r="365" spans="1:11">
       <c r="A365" s="2">
         <v>42095</v>
       </c>
@@ -6969,16 +7371,19 @@
         <v>-0.01715271244904359</v>
       </c>
       <c r="G365">
+        <v>0.001059181782073315</v>
+      </c>
+      <c r="H365">
         <v>-0.03346398828143671</v>
       </c>
-      <c r="H365">
+      <c r="I365">
         <v>-0.04611521907903315</v>
       </c>
-      <c r="J365">
+      <c r="K365">
         <v>-0.03731131049635028</v>
       </c>
     </row>
-    <row r="366" spans="1:10">
+    <row r="366" spans="1:11">
       <c r="A366" s="2">
         <v>42125</v>
       </c>
@@ -6998,16 +7403,19 @@
         <v>-0.008121062487268516</v>
       </c>
       <c r="G366">
+        <v>0.00105806110302864</v>
+      </c>
+      <c r="H366">
         <v>0.01085558046291646</v>
       </c>
-      <c r="H366">
+      <c r="I366">
         <v>0.03199177746321347</v>
       </c>
-      <c r="J366">
+      <c r="K366">
         <v>0.001633475828033859</v>
       </c>
     </row>
-    <row r="367" spans="1:10">
+    <row r="367" spans="1:11">
       <c r="A367" s="2">
         <v>42156</v>
       </c>
@@ -7027,16 +7435,19 @@
         <v>0.01709761227267093</v>
       </c>
       <c r="G367">
+        <v>0.0009908838684107302</v>
+      </c>
+      <c r="H367">
         <v>-0.03110644004245966</v>
       </c>
-      <c r="H367">
+      <c r="I367">
         <v>-0.0363603681419713</v>
       </c>
-      <c r="J367">
+      <c r="K367">
         <v>-0.08086398334490053</v>
       </c>
     </row>
-    <row r="368" spans="1:10">
+    <row r="368" spans="1:11">
       <c r="A368" s="2">
         <v>42186</v>
       </c>
@@ -7056,16 +7467,19 @@
         <v>0.01971974894176021</v>
       </c>
       <c r="G368">
+        <v>0.001055896522140776</v>
+      </c>
+      <c r="H368">
         <v>0.02430033782713847</v>
       </c>
-      <c r="H368">
+      <c r="I368">
         <v>-0.04301074950649564</v>
       </c>
-      <c r="J368">
+      <c r="K368">
         <v>0.1018579688807524</v>
       </c>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:12">
       <c r="A369" s="2">
         <v>42217</v>
       </c>
@@ -7085,16 +7499,19 @@
         <v>-0.01170419356531782</v>
       </c>
       <c r="G369">
+        <v>0.00105478278067106</v>
+      </c>
+      <c r="H369">
         <v>-0.02695672768529178</v>
       </c>
-      <c r="H369">
+      <c r="I369">
         <v>0.0104711136597504</v>
       </c>
-      <c r="J369">
+      <c r="K369">
         <v>-0.1829254365428324</v>
       </c>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" spans="1:12">
       <c r="A370" s="2">
         <v>42248</v>
       </c>
@@ -7114,16 +7531,19 @@
         <v>0.02117027953459183</v>
       </c>
       <c r="G370">
+        <v>0.0009878169245967072</v>
+      </c>
+      <c r="H370">
         <v>0.00153256320438877</v>
       </c>
-      <c r="H370">
+      <c r="I370">
         <v>-0.01745087946471258</v>
       </c>
-      <c r="J370">
+      <c r="K370">
         <v>-0.1053245836565542</v>
       </c>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" spans="1:12">
       <c r="A371" s="2">
         <v>42278</v>
       </c>
@@ -7143,16 +7563,19 @@
         <v>0.003848426825520557</v>
       </c>
       <c r="G371">
+        <v>0.001052631578947416</v>
+      </c>
+      <c r="H371">
         <v>0.02293250380617584</v>
       </c>
-      <c r="H371">
+      <c r="I371">
         <v>0.04276148465835949</v>
       </c>
-      <c r="J371">
+      <c r="K371">
         <v>0.2143180753007339</v>
       </c>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:12">
       <c r="A372" s="2">
         <v>42309</v>
       </c>
@@ -7172,16 +7595,19 @@
         <v>0.0007912249386565762</v>
       </c>
       <c r="G372">
+        <v>0.001051524710830698</v>
+      </c>
+      <c r="H372">
         <v>0.02992515509391258</v>
       </c>
-      <c r="H372">
+      <c r="I372">
         <v>-0.03193801276634778</v>
       </c>
-      <c r="J372">
+      <c r="K372">
         <v>0.05310793338350872</v>
       </c>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:12">
       <c r="A373" s="2">
         <v>42339</v>
       </c>
@@ -7201,16 +7627,19 @@
         <v>0.004442415657632814</v>
       </c>
       <c r="G373">
+        <v>0.001050420168067223</v>
+      </c>
+      <c r="H373">
         <v>-0.03126710438785285</v>
       </c>
-      <c r="H373">
+      <c r="I373">
         <v>-0.02797034848127322</v>
       </c>
-      <c r="J373">
+      <c r="K373">
         <v>-0.1345219988638657</v>
       </c>
     </row>
-    <row r="374" spans="1:11">
+    <row r="374" spans="1:12">
       <c r="A374" s="2">
         <v>42370</v>
       </c>
@@ -7230,16 +7659,19 @@
         <v>-0.001286069686704971</v>
       </c>
       <c r="G374">
+        <v>0.0009837355718782526</v>
+      </c>
+      <c r="H374">
         <v>-0.002694143195926646</v>
       </c>
-      <c r="H374">
+      <c r="I374">
         <v>0.04348332768666907</v>
       </c>
-      <c r="J374">
+      <c r="K374">
         <v>-0.1337638506598919</v>
       </c>
     </row>
-    <row r="375" spans="1:11">
+    <row r="375" spans="1:12">
       <c r="A375" s="2">
         <v>42401</v>
       </c>
@@ -7259,16 +7691,19 @@
         <v>0.03671308578036436</v>
       </c>
       <c r="G375">
+        <v>0.001048286706414103</v>
+      </c>
+      <c r="H375">
         <v>0.01086787983161797</v>
       </c>
-      <c r="H375">
+      <c r="I375">
         <v>0.1139857799552961</v>
       </c>
-      <c r="J375">
+      <c r="K375">
         <v>-0.07138841588111144</v>
       </c>
     </row>
-    <row r="376" spans="1:11">
+    <row r="376" spans="1:12">
       <c r="A376" s="2">
         <v>42430</v>
       </c>
@@ -7288,16 +7723,19 @@
         <v>-0.01557971424369609</v>
       </c>
       <c r="G376">
+        <v>0.001047188952156608</v>
+      </c>
+      <c r="H376">
         <v>-0.008046423274523984</v>
       </c>
-      <c r="H376">
+      <c r="I376">
         <v>-0.04202762342305344</v>
       </c>
-      <c r="J376">
+      <c r="K376">
         <v>0.0396139504277262</v>
       </c>
     </row>
-    <row r="377" spans="1:11">
+    <row r="377" spans="1:12">
       <c r="A377" s="2">
         <v>42461</v>
       </c>
@@ -7317,16 +7755,19 @@
         <v>-0.02481963874888249</v>
       </c>
       <c r="G377">
+        <v>0.00104609349460616</v>
+      </c>
+      <c r="H377">
         <v>0.01260439870778796</v>
       </c>
-      <c r="H377">
+      <c r="I377">
         <v>0.03768840774361171</v>
       </c>
-      <c r="J377">
+      <c r="K377">
         <v>0.02587560131656663</v>
       </c>
     </row>
-    <row r="378" spans="1:11">
+    <row r="378" spans="1:12">
       <c r="A378" s="2">
         <v>42491</v>
       </c>
@@ -7346,16 +7787,19 @@
         <v>0.03068583549375425</v>
       </c>
       <c r="G378">
+        <v>0.001045000326562517</v>
+      </c>
+      <c r="H378">
         <v>0.01469553184948169</v>
       </c>
-      <c r="H378">
+      <c r="I378">
         <v>-0.03616169691396565</v>
       </c>
-      <c r="J378">
+      <c r="K378">
         <v>0.05584257461581488</v>
       </c>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:12">
       <c r="A379" s="2">
         <v>42522</v>
       </c>
@@ -7375,16 +7819,19 @@
         <v>0.002984084880636839</v>
       </c>
       <c r="G379">
+        <v>0.001043909440856083</v>
+      </c>
+      <c r="H379">
         <v>0.01949582669538885</v>
       </c>
-      <c r="H379">
+      <c r="I379">
         <v>0.09474150867897713</v>
       </c>
-      <c r="J379">
+      <c r="K379">
         <v>-0.1308436701365085</v>
       </c>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" spans="1:12">
       <c r="A380" s="2">
         <v>42552</v>
       </c>
@@ -7404,19 +7851,22 @@
         <v>-0.003075520091194051</v>
       </c>
       <c r="G380">
+        <v>0.001042820830346125</v>
+      </c>
+      <c r="H380">
         <v>0.01615466106888297</v>
       </c>
-      <c r="H380">
+      <c r="I380">
         <v>0.0150835857052527</v>
       </c>
-      <c r="J380">
+      <c r="K380">
         <v>0.09040707837670681</v>
       </c>
-      <c r="K380">
+      <c r="L380">
         <v>0.02682380599999989</v>
       </c>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" spans="1:12">
       <c r="A381" s="2">
         <v>42583</v>
       </c>
@@ -7436,19 +7886,22 @@
         <v>-0.003860262168516093</v>
       </c>
       <c r="G381">
+        <v>0.0009766260824273232</v>
+      </c>
+      <c r="H381">
         <v>6.782366576696397E-05</v>
       </c>
-      <c r="H381">
+      <c r="I381">
         <v>-0.02606901372662451</v>
       </c>
-      <c r="J381">
+      <c r="K381">
         <v>0.02135880824755843</v>
       </c>
-      <c r="K381">
+      <c r="L381">
         <v>0.01766975005252269</v>
       </c>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:12">
       <c r="A382" s="2">
         <v>42614</v>
       </c>
@@ -7468,19 +7921,22 @@
         <v>0.001597840160886044</v>
       </c>
       <c r="G382">
+        <v>0.001040718095485893</v>
+      </c>
+      <c r="H382">
         <v>-0.002888548222972243</v>
       </c>
-      <c r="H382">
+      <c r="I382">
         <v>0.007495668488966212</v>
       </c>
-      <c r="J382">
+      <c r="K382">
         <v>-0.01349067083085109</v>
       </c>
-      <c r="K382">
+      <c r="L382">
         <v>0.005233702353349523</v>
       </c>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" spans="1:12">
       <c r="A383" s="2">
         <v>42644</v>
       </c>
@@ -7500,19 +7956,22 @@
         <v>-0.0154830339870361</v>
       </c>
       <c r="G383">
+        <v>0.00103963612735547</v>
+      </c>
+      <c r="H383">
         <v>0.001004310353592608</v>
       </c>
-      <c r="H383">
+      <c r="I383">
         <v>-0.01929340702268567</v>
       </c>
-      <c r="J383">
+      <c r="K383">
         <v>0.03723135168654856</v>
       </c>
-      <c r="K383">
+      <c r="L383">
         <v>0.0194323441184443</v>
       </c>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:12">
       <c r="A384" s="2">
         <v>42675</v>
       </c>
@@ -7532,19 +7991,22 @@
         <v>0.00275650770960767</v>
       </c>
       <c r="G384">
+        <v>0.001038556406594893</v>
+      </c>
+      <c r="H384">
         <v>3.09587590874294E-06</v>
       </c>
-      <c r="H384">
+      <c r="I384">
         <v>-0.04673643452111698</v>
       </c>
-      <c r="J384">
+      <c r="K384">
         <v>-0.0002123960635936895</v>
       </c>
-      <c r="K384">
+      <c r="L384">
         <v>0.01284899060747158</v>
       </c>
     </row>
-    <row r="385" spans="1:11">
+    <row r="385" spans="1:12">
       <c r="A385" s="2">
         <v>42705</v>
       </c>
@@ -7564,19 +8026,22 @@
         <v>0.03442431503112275</v>
       </c>
       <c r="G385">
+        <v>0.001037478926209312</v>
+      </c>
+      <c r="H385">
         <v>0.01354933744915687</v>
       </c>
-      <c r="H385">
+      <c r="I385">
         <v>-0.007353922586878503</v>
       </c>
-      <c r="J385">
+      <c r="K385">
         <v>0.1636347899979558</v>
       </c>
-      <c r="K385">
+      <c r="L385">
         <v>0.02394578653570734</v>
       </c>
     </row>
-    <row r="386" spans="1:11">
+    <row r="386" spans="1:12">
       <c r="A386" s="2">
         <v>42736</v>
       </c>
@@ -7596,19 +8061,22 @@
         <v>-0.01128742649369319</v>
       </c>
       <c r="G386">
+        <v>0.001036403679232967</v>
+      </c>
+      <c r="H386">
         <v>-0.01129749904372168</v>
       </c>
-      <c r="H386">
+      <c r="I386">
         <v>0.02550948388474161</v>
       </c>
-      <c r="J386">
+      <c r="K386">
         <v>-0.0343360988836372</v>
       </c>
-      <c r="K386">
+      <c r="L386">
         <v>0.004121093830212308</v>
       </c>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:12">
       <c r="A387" s="2">
         <v>42767</v>
       </c>
@@ -7628,19 +8096,22 @@
         <v>-0.01901201105080219</v>
       </c>
       <c r="G387">
+        <v>0.001035330658729183</v>
+      </c>
+      <c r="H387">
         <v>0.02232698033884706</v>
       </c>
-      <c r="H387">
+      <c r="I387">
         <v>0.05072629083304658</v>
       </c>
-      <c r="J387">
+      <c r="K387">
         <v>0.0586081099059601</v>
       </c>
-      <c r="K387">
+      <c r="L387">
         <v>0.02266085676043761</v>
       </c>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:12">
       <c r="A388" s="2">
         <v>42795</v>
       </c>
@@ -7660,19 +8131,22 @@
         <v>-0.003635429586981931</v>
       </c>
       <c r="G388">
+        <v>0.001034259857789488</v>
+      </c>
+      <c r="H388">
         <v>-0.009001795577248783</v>
       </c>
-      <c r="H388">
+      <c r="I388">
         <v>-0.01727880831784034</v>
       </c>
-      <c r="J388">
+      <c r="K388">
         <v>0.1167327014280715</v>
       </c>
-      <c r="K388">
+      <c r="L388">
         <v>-0.005709978727395759</v>
       </c>
     </row>
-    <row r="389" spans="1:11">
+    <row r="389" spans="1:12">
       <c r="A389" s="2">
         <v>42826</v>
       </c>
@@ -7692,19 +8166,22 @@
         <v>-0.01747239092819908</v>
       </c>
       <c r="G389">
+        <v>0.001033191269533829</v>
+      </c>
+      <c r="H389">
         <v>-0.008169808360388608</v>
       </c>
-      <c r="H389">
+      <c r="I389">
         <v>-0.004894349532516329</v>
       </c>
-      <c r="J389">
+      <c r="K389">
         <v>0.03958988574373135</v>
       </c>
-      <c r="K389">
+      <c r="L389">
         <v>-0.003477613478358399</v>
       </c>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" spans="1:12">
       <c r="A390" s="2">
         <v>42856</v>
       </c>
@@ -7724,19 +8201,22 @@
         <v>-0.001222100878872423</v>
       </c>
       <c r="G390">
+        <v>0.001032124887111241</v>
+      </c>
+      <c r="H390">
         <v>-0.009644334784826958</v>
       </c>
-      <c r="H390">
+      <c r="I390">
         <v>-0.02612580036594669</v>
       </c>
-      <c r="J390">
+      <c r="K390">
         <v>0.02734239238811509</v>
       </c>
-      <c r="K390">
+      <c r="L390">
         <v>-0.01295904679002591</v>
       </c>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:12">
       <c r="A391" s="2">
         <v>42887</v>
       </c>
@@ -7756,19 +8236,22 @@
         <v>-0.01025974794390871</v>
       </c>
       <c r="G391">
+        <v>0.001031060703698961</v>
+      </c>
+      <c r="H391">
         <v>-0.01259402844474389</v>
       </c>
-      <c r="H391">
+      <c r="I391">
         <v>-0.03533505799884218</v>
       </c>
-      <c r="J391">
+      <c r="K391">
         <v>-0.0585534123806245</v>
       </c>
-      <c r="K391">
+      <c r="L391">
         <v>-0.01121435781864333</v>
       </c>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:12">
       <c r="A392" s="2">
         <v>42917</v>
       </c>
@@ -7788,19 +8271,22 @@
         <v>0.01192998397857448</v>
       </c>
       <c r="G392">
+        <v>0.001223123471095544</v>
+      </c>
+      <c r="H392">
         <v>-0.01060036259146369</v>
       </c>
-      <c r="H392">
+      <c r="I392">
         <v>-0.007041879144171315</v>
       </c>
-      <c r="J392">
+      <c r="K392">
         <v>0.00543132496053067</v>
       </c>
-      <c r="K392">
+      <c r="L392">
         <v>-0.00513825736587914</v>
       </c>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:12">
       <c r="A393" s="2">
         <v>42948</v>
       </c>
@@ -7820,19 +8306,22 @@
         <v>0.005418510842929214</v>
       </c>
       <c r="G393">
+        <v>0.001221629267665447</v>
+      </c>
+      <c r="H393">
         <v>-0.0002092383889776839</v>
       </c>
-      <c r="H393">
+      <c r="I393">
         <v>0.02629390336420889</v>
       </c>
-      <c r="J393">
+      <c r="K393">
         <v>-0.01509860673314645</v>
       </c>
-      <c r="K393">
+      <c r="L393">
         <v>-0.003661386492799235</v>
       </c>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:12">
       <c r="A394" s="2">
         <v>42979</v>
       </c>
@@ -7852,19 +8341,22 @@
         <v>-0.001609976684717185</v>
       </c>
       <c r="G394">
+        <v>0.001220138710505969</v>
+      </c>
+      <c r="H394">
         <v>-0.0008693152359945389</v>
       </c>
-      <c r="H394">
+      <c r="I394">
         <v>-0.02026685077516333</v>
       </c>
-      <c r="J394">
+      <c r="K394">
         <v>0.1060731346036021</v>
       </c>
-      <c r="K394">
+      <c r="L394">
         <v>0.0147607398302334</v>
       </c>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:12">
       <c r="A395" s="2">
         <v>43009</v>
       </c>
@@ -7884,19 +8376,22 @@
         <v>0.01535593132558222</v>
       </c>
       <c r="G395">
+        <v>0.001667628760182005</v>
+      </c>
+      <c r="H395">
         <v>0.01516837025012197</v>
       </c>
-      <c r="H395">
+      <c r="I395">
         <v>0.004197032371429099</v>
       </c>
-      <c r="J395">
+      <c r="K395">
         <v>0.04605984983757505</v>
       </c>
-      <c r="K395">
+      <c r="L395">
         <v>0.01871182473798272</v>
       </c>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:12">
       <c r="A396" s="2">
         <v>43040</v>
       </c>
@@ -7916,19 +8411,22 @@
         <v>-0.01718253692239924</v>
       </c>
       <c r="G396">
+        <v>0.001600819619645311</v>
+      </c>
+      <c r="H396">
         <v>-0.01232334160181392</v>
       </c>
-      <c r="H396">
+      <c r="I396">
         <v>-0.01003585888614267</v>
       </c>
-      <c r="J396">
+      <c r="K396">
         <v>-0.05451525995393292</v>
       </c>
-      <c r="K396">
+      <c r="L396">
         <v>-0.01160795423607008</v>
       </c>
     </row>
-    <row r="397" spans="1:11">
+    <row r="397" spans="1:12">
       <c r="A397" s="2">
         <v>43070</v>
       </c>
@@ -7948,22 +8446,25 @@
         <v>-0.008584592084435183</v>
       </c>
       <c r="G397">
+        <v>0.001598261091932063</v>
+      </c>
+      <c r="H397">
         <v>-0.004072241667602783</v>
       </c>
-      <c r="H397">
+      <c r="I397">
         <v>0.0005725036735426681</v>
       </c>
-      <c r="I397">
+      <c r="J397">
         <v>0.003464868704460056</v>
       </c>
-      <c r="J397">
+      <c r="K397">
         <v>-0.03466689868564821</v>
       </c>
-      <c r="K397">
+      <c r="L397">
         <v>-0.006097835660390127</v>
       </c>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" spans="1:12">
       <c r="A398" s="2">
         <v>43101</v>
       </c>
@@ -7983,22 +8484,25 @@
         <v>-0.006165231047446929</v>
       </c>
       <c r="G398">
+        <v>0.002170166592200262</v>
+      </c>
+      <c r="H398">
         <v>-0.03164194037442813</v>
       </c>
-      <c r="H398">
+      <c r="I398">
         <v>-0.001195990799171209</v>
       </c>
-      <c r="I398">
+      <c r="J398">
         <v>0.01191685728598424</v>
       </c>
-      <c r="J398">
+      <c r="K398">
         <v>0.06262463524825668</v>
       </c>
-      <c r="K398">
+      <c r="L398">
         <v>-0.01645853364648264</v>
       </c>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:12">
       <c r="A399" s="2">
         <v>43132</v>
       </c>
@@ -8018,22 +8522,25 @@
         <v>-0.005779696362430586</v>
       </c>
       <c r="G399">
+        <v>0.002165467167696278</v>
+      </c>
+      <c r="H399">
         <v>0.001259973142639037</v>
       </c>
-      <c r="H399">
+      <c r="I399">
         <v>-0.0007294210216791663</v>
       </c>
-      <c r="I399">
+      <c r="J399">
         <v>-0.008873336430593293</v>
       </c>
-      <c r="J399">
+      <c r="K399">
         <v>-0.09170620510509753</v>
       </c>
-      <c r="K399">
+      <c r="L399">
         <v>0.0005474034967785091</v>
       </c>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:12">
       <c r="A400" s="2">
         <v>43160</v>
       </c>
@@ -8053,22 +8560,25 @@
         <v>0.005668805914438302</v>
       </c>
       <c r="G400">
+        <v>0.002224340641881151</v>
+      </c>
+      <c r="H400">
         <v>-0.004420138494219295</v>
       </c>
-      <c r="H400">
+      <c r="I400">
         <v>-0.004171028594512127</v>
       </c>
-      <c r="I400">
+      <c r="J400">
         <v>0.01064396696754888</v>
       </c>
-      <c r="J400">
+      <c r="K400">
         <v>-0.044182191716861</v>
       </c>
-      <c r="K400">
+      <c r="L400">
         <v>-0.01174256556087805</v>
       </c>
     </row>
-    <row r="401" spans="1:11">
+    <row r="401" spans="1:12">
       <c r="A401" s="2">
         <v>43191</v>
       </c>
@@ -8088,22 +8598,25 @@
         <v>0.008998848204899712</v>
       </c>
       <c r="G401">
+        <v>0.002599873176918344</v>
+      </c>
+      <c r="H401">
         <v>0.008440105288725963</v>
       </c>
-      <c r="H401">
+      <c r="I401">
         <v>0.01182887894837847</v>
       </c>
-      <c r="I401">
+      <c r="J401">
         <v>-0.01601715156386285</v>
       </c>
-      <c r="J401">
+      <c r="K401">
         <v>0.122046090153024</v>
       </c>
-      <c r="K401">
+      <c r="L401">
         <v>0.02087823290621982</v>
       </c>
     </row>
-    <row r="402" spans="1:11">
+    <row r="402" spans="1:12">
       <c r="A402" s="2">
         <v>43221</v>
       </c>
@@ -8123,22 +8636,25 @@
         <v>0.005949682818066071</v>
       </c>
       <c r="G402">
+        <v>0.002593131364239998</v>
+      </c>
+      <c r="H402">
         <v>0.02459325371955901</v>
       </c>
-      <c r="H402">
+      <c r="I402">
         <v>0.02630947822418594</v>
       </c>
-      <c r="I402">
+      <c r="J402">
         <v>-0.007585252654838892</v>
       </c>
-      <c r="J402">
+      <c r="K402">
         <v>-0.04235577106224131</v>
       </c>
-      <c r="K402">
+      <c r="L402">
         <v>0.01296667186458134</v>
       </c>
     </row>
-    <row r="403" spans="1:11">
+    <row r="403" spans="1:12">
       <c r="A403" s="2">
         <v>43252</v>
       </c>
@@ -8158,22 +8674,25 @@
         <v>0.01829553121918326</v>
       </c>
       <c r="G403">
+        <v>0.002586424425939926</v>
+      </c>
+      <c r="H403">
         <v>-0.001337078498311106</v>
       </c>
-      <c r="H403">
+      <c r="I403">
         <v>-0.03868870001277447</v>
       </c>
-      <c r="I403">
+      <c r="J403">
         <v>-0.004446341275239241</v>
       </c>
-      <c r="J403">
+      <c r="K403">
         <v>-0.004620105699835286</v>
       </c>
-      <c r="K403">
+      <c r="L403">
         <v>0.003400090322757565</v>
       </c>
     </row>
-    <row r="404" spans="1:11">
+    <row r="404" spans="1:12">
       <c r="A404" s="2">
         <v>43282</v>
       </c>
@@ -8193,22 +8712,25 @@
         <v>0.01331235853012647</v>
       </c>
       <c r="G404">
+        <v>0.002579752092116028</v>
+      </c>
+      <c r="H404">
         <v>-0.000625186248865206</v>
       </c>
-      <c r="H404">
+      <c r="I404">
         <v>-0.03008092955656549</v>
       </c>
-      <c r="I404">
+      <c r="J404">
         <v>-0.001669447050334782</v>
       </c>
-      <c r="J404">
+      <c r="K404">
         <v>0.08006531283362928</v>
       </c>
-      <c r="K404">
+      <c r="L404">
         <v>0.004202964861125924</v>
       </c>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:12">
       <c r="A405" s="2">
         <v>43313</v>
       </c>
@@ -8228,22 +8750,25 @@
         <v>-0.02224864246927694</v>
       </c>
       <c r="G405">
+        <v>0.002573114095644424</v>
+      </c>
+      <c r="H405">
         <v>0.009465343018927097</v>
       </c>
-      <c r="H405">
+      <c r="I405">
         <v>-0.007967167091083249</v>
       </c>
-      <c r="I405">
+      <c r="J405">
         <v>0.001049016163422678</v>
       </c>
-      <c r="J405">
+      <c r="K405">
         <v>-0.07359618566346515</v>
       </c>
-      <c r="K405">
+      <c r="L405">
         <v>0.007149220558499314</v>
       </c>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:12">
       <c r="A406" s="2">
         <v>43344</v>
       </c>
@@ -8263,22 +8788,25 @@
         <v>0.006255202925798065</v>
       </c>
       <c r="G406">
+        <v>0.002566510172143932</v>
+      </c>
+      <c r="H406">
         <v>0.002398520625034317</v>
       </c>
-      <c r="H406">
+      <c r="I406">
         <v>-0.006243835473778381</v>
       </c>
-      <c r="I406">
+      <c r="J406">
         <v>-0.008620375971287952</v>
       </c>
-      <c r="J406">
+      <c r="K406">
         <v>0.005460521060379309</v>
       </c>
-      <c r="K406">
+      <c r="L406">
         <v>0.01386010268200377</v>
       </c>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:12">
       <c r="A407" s="2">
         <v>43374</v>
       </c>
@@ -8298,22 +8826,25 @@
         <v>-0.005305366483933982</v>
       </c>
       <c r="G407">
+        <v>0.002559940059940091</v>
+      </c>
+      <c r="H407">
         <v>0.005850147968610608</v>
       </c>
-      <c r="H407">
+      <c r="I407">
         <v>0.04665862263727072</v>
       </c>
-      <c r="I407">
+      <c r="J407">
         <v>-0.01117051038770334</v>
       </c>
-      <c r="J407">
+      <c r="K407">
         <v>-0.1152796299974463</v>
       </c>
-      <c r="K407">
+      <c r="L407">
         <v>0.001817274575773631</v>
       </c>
     </row>
-    <row r="408" spans="1:11">
+    <row r="408" spans="1:12">
       <c r="A408" s="2">
         <v>43405</v>
       </c>
@@ -8333,22 +8864,25 @@
         <v>0.01451980674522702</v>
       </c>
       <c r="G408">
+        <v>0.002553403500031193</v>
+      </c>
+      <c r="H408">
         <v>-0.007344767688699627</v>
       </c>
-      <c r="H408">
+      <c r="I408">
         <v>-0.001477191195592309</v>
       </c>
-      <c r="I408">
+      <c r="J408">
         <v>0.003127047457190724</v>
       </c>
-      <c r="J408">
+      <c r="K408">
         <v>-0.01462466565320197</v>
       </c>
-      <c r="K408">
+      <c r="L408">
         <v>-0.01887622042364767</v>
       </c>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" spans="1:12">
       <c r="A409" s="2">
         <v>43435</v>
       </c>
@@ -8368,22 +8902,25 @@
         <v>-0.01157395147046292</v>
       </c>
       <c r="G409">
+        <v>0.002609019754006736</v>
+      </c>
+      <c r="H409">
         <v>0.004322309328143703</v>
       </c>
-      <c r="H409">
+      <c r="I409">
         <v>0.04428069541184398</v>
       </c>
-      <c r="I409">
+      <c r="J409">
         <v>0.02021798942076125</v>
       </c>
-      <c r="J409">
+      <c r="K409">
         <v>-0.1046731892124131</v>
       </c>
-      <c r="K409">
+      <c r="L409">
         <v>-0.0163603556578692</v>
       </c>
     </row>
-    <row r="410" spans="1:11">
+    <row r="410" spans="1:12">
       <c r="A410" s="2">
         <v>43466</v>
       </c>
@@ -8403,22 +8940,25 @@
         <v>-0.0005358494961850147</v>
       </c>
       <c r="G410">
+        <v>0.002540272614621975</v>
+      </c>
+      <c r="H410">
         <v>0.01955479954199069</v>
       </c>
-      <c r="H410">
+      <c r="I410">
         <v>0.02904299487940221</v>
       </c>
-      <c r="I410">
+      <c r="J410">
         <v>0.01522508652864096</v>
       </c>
-      <c r="J410">
+      <c r="K410">
         <v>0.1127809162358866</v>
       </c>
-      <c r="K410">
+      <c r="L410">
         <v>0.03680988921201167</v>
       </c>
     </row>
-    <row r="411" spans="1:11">
+    <row r="411" spans="1:12">
       <c r="A411" s="2">
         <v>43497</v>
       </c>
@@ -8438,22 +8978,25 @@
         <v>-0.00655252392219019</v>
       </c>
       <c r="G411">
+        <v>0.002472035102898396</v>
+      </c>
+      <c r="H411">
         <v>0.008195611573896366</v>
       </c>
-      <c r="H411">
+      <c r="I411">
         <v>0.00318896412352454</v>
       </c>
-      <c r="I411">
+      <c r="J411">
         <v>-0.005755994144776455</v>
       </c>
-      <c r="J411">
+      <c r="K411">
         <v>0.08909985429883815</v>
       </c>
-      <c r="K411">
+      <c r="L411">
         <v>0.02254369414776103</v>
       </c>
     </row>
-    <row r="412" spans="1:11">
+    <row r="412" spans="1:12">
       <c r="A412" s="2">
         <v>43525</v>
       </c>
@@ -8473,22 +9016,25 @@
         <v>0.009840819927542821</v>
       </c>
       <c r="G412">
+        <v>0.002527587694963307</v>
+      </c>
+      <c r="H412">
         <v>0.03263748750821893</v>
       </c>
-      <c r="H412">
+      <c r="I412">
         <v>-0.002183699733417255</v>
       </c>
-      <c r="I412">
+      <c r="J412">
         <v>0.01251943208980588</v>
       </c>
-      <c r="J412">
+      <c r="K412">
         <v>0.03653488511608272</v>
       </c>
-      <c r="K412">
+      <c r="L412">
         <v>0.02260757434546923</v>
       </c>
     </row>
-    <row r="413" spans="1:11">
+    <row r="413" spans="1:12">
       <c r="A413" s="2">
         <v>43556</v>
       </c>
@@ -8508,22 +9054,25 @@
         <v>0.0002207361900470328</v>
       </c>
       <c r="G413">
+        <v>0.002336735948837765</v>
+      </c>
+      <c r="H413">
         <v>0.006097826468154821</v>
       </c>
-      <c r="H413">
+      <c r="I413">
         <v>-0.008612609870442656</v>
       </c>
-      <c r="I413">
+      <c r="J413">
         <v>-0.002961008100256235</v>
       </c>
-      <c r="J413">
+      <c r="K413">
         <v>0.1120094918393333</v>
       </c>
-      <c r="K413">
+      <c r="L413">
         <v>0.01280610187215769</v>
       </c>
     </row>
-    <row r="414" spans="1:11">
+    <row r="414" spans="1:12">
       <c r="A414" s="2">
         <v>43586</v>
       </c>
@@ -8543,22 +9092,25 @@
         <v>-0.004423041630950197</v>
       </c>
       <c r="G414">
+        <v>0.002269938650306669</v>
+      </c>
+      <c r="H414">
         <v>0.01287847660593244</v>
       </c>
-      <c r="H414">
+      <c r="I414">
         <v>0.01640351021296405</v>
       </c>
-      <c r="I414">
+      <c r="J414">
         <v>0.01354138547646411</v>
       </c>
-      <c r="J414">
+      <c r="K414">
         <v>-0.1016743609895231</v>
       </c>
-      <c r="K414">
+      <c r="L414">
         <v>-0.003845456685016346</v>
       </c>
     </row>
-    <row r="415" spans="1:11">
+    <row r="415" spans="1:12">
       <c r="A415" s="2">
         <v>43617</v>
       </c>
@@ -8578,22 +9130,25 @@
         <v>-0.0009566720878085855</v>
       </c>
       <c r="G415">
+        <v>0.002326008447083305</v>
+      </c>
+      <c r="H415">
         <v>0.006864477441103523</v>
       </c>
-      <c r="H415">
+      <c r="I415">
         <v>0.06568381058889039</v>
       </c>
-      <c r="I415">
+      <c r="J415">
         <v>0.02217165963870005</v>
       </c>
-      <c r="J415">
+      <c r="K415">
         <v>0.1236051402681382</v>
       </c>
-      <c r="K415">
+      <c r="L415">
         <v>0.01001214926397398</v>
       </c>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" spans="1:12">
       <c r="A416" s="2">
         <v>43647</v>
       </c>
@@ -8613,22 +9168,25 @@
         <v>-0.008433782776958942</v>
       </c>
       <c r="G416">
+        <v>0.002442748091603164</v>
+      </c>
+      <c r="H416">
         <v>0.02124932989622952</v>
       </c>
-      <c r="H416">
+      <c r="I416">
         <v>0.03397200784457022</v>
       </c>
-      <c r="I416">
+      <c r="J416">
         <v>-0.002778776768912694</v>
       </c>
-      <c r="J416">
+      <c r="K416">
         <v>-0.001794443413154934</v>
       </c>
-      <c r="K416">
+      <c r="L416">
         <v>0.02653906536213091</v>
       </c>
     </row>
-    <row r="417" spans="1:11">
+    <row r="417" spans="1:12">
       <c r="A417" s="2">
         <v>43678</v>
       </c>
@@ -8648,22 +9206,25 @@
         <v>0.0105029348860437</v>
       </c>
       <c r="G417">
+        <v>0.002436795613767861</v>
+      </c>
+      <c r="H417">
         <v>0.02979717563684203</v>
       </c>
-      <c r="H417">
+      <c r="I417">
         <v>0.08180211119888736</v>
       </c>
-      <c r="I417">
+      <c r="J417">
         <v>0.0203348839194597</v>
       </c>
-      <c r="J417">
+      <c r="K417">
         <v>-0.02460430614100417</v>
       </c>
-      <c r="K417">
+      <c r="L417">
         <v>0.01872704450449048</v>
       </c>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" spans="1:12">
       <c r="A418" s="2">
         <v>43709</v>
       </c>
@@ -8683,22 +9244,25 @@
         <v>0.01968266252065809</v>
       </c>
       <c r="G418">
+        <v>0.002491643877240879</v>
+      </c>
+      <c r="H418">
         <v>0.005715513989371424</v>
       </c>
-      <c r="H418">
+      <c r="I418">
         <v>-0.01508025033078031</v>
       </c>
-      <c r="I418">
+      <c r="J418">
         <v>-0.0101716486664013</v>
       </c>
-      <c r="J418">
+      <c r="K418">
         <v>0.0870718828943744</v>
       </c>
-      <c r="K418">
+      <c r="L418">
         <v>0.01680496021717048</v>
       </c>
     </row>
-    <row r="419" spans="1:11">
+    <row r="419" spans="1:12">
       <c r="A419" s="2">
         <v>43739</v>
       </c>
@@ -8718,22 +9282,25 @@
         <v>-0.0008160914022370402</v>
       </c>
       <c r="G419">
+        <v>0.002606692531522681</v>
+      </c>
+      <c r="H419">
         <v>-0.01237630077921126</v>
       </c>
-      <c r="H419">
+      <c r="I419">
         <v>-0.006899342080268434</v>
       </c>
-      <c r="I419">
+      <c r="J419">
         <v>0.00665896155081791</v>
       </c>
-      <c r="J419">
+      <c r="K419">
         <v>0.02009139538736027</v>
       </c>
-      <c r="K419">
+      <c r="L419">
         <v>-0.01113311670621997</v>
       </c>
     </row>
-    <row r="420" spans="1:11">
+    <row r="420" spans="1:12">
       <c r="A420" s="2">
         <v>43770</v>
       </c>
@@ -8753,22 +9320,25 @@
         <v>-0.02477956686662375</v>
       </c>
       <c r="G420">
+        <v>0.002660378499304894</v>
+      </c>
+      <c r="H420">
         <v>0.01324888010931513</v>
       </c>
-      <c r="H420">
+      <c r="I420">
         <v>-0.01848581479765277</v>
       </c>
-      <c r="I420">
+      <c r="J420">
         <v>-0.007582647452648916</v>
       </c>
-      <c r="J420">
+      <c r="K420">
         <v>0.05686149026200082</v>
       </c>
-      <c r="K420">
+      <c r="L420">
         <v>0.01988323210313125</v>
       </c>
     </row>
-    <row r="421" spans="1:11">
+    <row r="421" spans="1:12">
       <c r="A421" s="2">
         <v>43800</v>
       </c>
@@ -8788,22 +9358,25 @@
         <v>0.01220607934538065</v>
       </c>
       <c r="G421">
+        <v>0.002653319664716935</v>
+      </c>
+      <c r="H421">
         <v>-0.01403421944235761</v>
       </c>
-      <c r="H421">
+      <c r="I421">
         <v>0.01964607163702414</v>
       </c>
-      <c r="I421">
+      <c r="J421">
         <v>0.005831639178431436</v>
       </c>
-      <c r="J421">
+      <c r="K421">
         <v>0.02349384523616371</v>
       </c>
-      <c r="K421">
+      <c r="L421">
         <v>-0.00243634261054626</v>
       </c>
     </row>
-    <row r="422" spans="1:11">
+    <row r="422" spans="1:12">
       <c r="A422" s="2">
         <v>43831</v>
       </c>
@@ -8823,22 +9396,25 @@
         <v>-0.01404745681003827</v>
       </c>
       <c r="G422">
+        <v>0.002706441330366127</v>
+      </c>
+      <c r="H422">
         <v>0.03268214834813032</v>
       </c>
-      <c r="H422">
+      <c r="I422">
         <v>0.05731318718009271</v>
       </c>
-      <c r="I422">
+      <c r="J422">
         <v>0.01276484517295673</v>
       </c>
-      <c r="J422">
+      <c r="K422">
         <v>-0.05330896150398567</v>
       </c>
-      <c r="K422">
+      <c r="L422">
         <v>0.02385829338972822</v>
       </c>
     </row>
-    <row r="423" spans="1:11">
+    <row r="423" spans="1:12">
       <c r="A423" s="2">
         <v>43862</v>
       </c>
@@ -8858,22 +9434,25 @@
         <v>0.01004454578578051</v>
       </c>
       <c r="G423">
+        <v>0.002699136276391512</v>
+      </c>
+      <c r="H423">
         <v>0.01019652821980777</v>
       </c>
-      <c r="H423">
+      <c r="I423">
         <v>0.02313423079695243</v>
       </c>
-      <c r="I423">
+      <c r="J423">
         <v>0.006725835948122372</v>
       </c>
-      <c r="J423">
+      <c r="K423">
         <v>-0.1661995084345</v>
       </c>
-      <c r="K423">
+      <c r="L423">
         <v>-0.003704522292866663</v>
       </c>
     </row>
-    <row r="424" spans="1:11">
+    <row r="424" spans="1:12">
       <c r="A424" s="2">
         <v>43891</v>
       </c>
@@ -8893,22 +9472,25 @@
         <v>0.007528893729723318</v>
       </c>
       <c r="G424">
+        <v>0.00263205120535992</v>
+      </c>
+      <c r="H424">
         <v>-0.0703744081946307</v>
       </c>
-      <c r="H424">
+      <c r="I424">
         <v>0.001356628064066445</v>
       </c>
-      <c r="I424">
+      <c r="J424">
         <v>-0.02240637416126146</v>
       </c>
-      <c r="J424">
+      <c r="K424">
         <v>-0.3333463846829356</v>
       </c>
-      <c r="K424">
+      <c r="L424">
         <v>-0.1168656801358938</v>
       </c>
     </row>
-    <row r="425" spans="1:11">
+    <row r="425" spans="1:12">
       <c r="A425" s="2">
         <v>43922</v>
       </c>
@@ -8928,22 +9510,25 @@
         <v>0.05282354653244403</v>
       </c>
       <c r="G425">
+        <v>0.003102440188532896</v>
+      </c>
+      <c r="H425">
         <v>0.05583450195111017</v>
       </c>
-      <c r="H425">
+      <c r="I425">
         <v>0.06608336200840426</v>
       </c>
-      <c r="I425">
+      <c r="J425">
         <v>0.01963337449682845</v>
       </c>
-      <c r="J425">
+      <c r="K425">
         <v>0.09868691529974316</v>
       </c>
-      <c r="K425">
+      <c r="L425">
         <v>0.1116252695510838</v>
       </c>
     </row>
-    <row r="426" spans="1:11">
+    <row r="426" spans="1:12">
       <c r="A426" s="2">
         <v>43952</v>
       </c>
@@ -8963,22 +9548,25 @@
         <v>-0.002834694732777421</v>
       </c>
       <c r="G426">
+        <v>0.003092844822458973</v>
+      </c>
+      <c r="H426">
         <v>-0.009153979074514429</v>
       </c>
-      <c r="H426">
+      <c r="I426">
         <v>-0.008463468493327131</v>
       </c>
-      <c r="I426">
+      <c r="J426">
         <v>0.004386959934453927</v>
       </c>
-      <c r="J426">
+      <c r="K426">
         <v>0.09307582457024721</v>
       </c>
-      <c r="K426">
+      <c r="L426">
         <v>0.0157895130214627</v>
       </c>
     </row>
-    <row r="427" spans="1:11">
+    <row r="427" spans="1:12">
       <c r="A427" s="2">
         <v>43983</v>
       </c>
@@ -8998,22 +9586,25 @@
         <v>-0.02117322971513047</v>
       </c>
       <c r="G427">
+        <v>0.003024014230655236</v>
+      </c>
+      <c r="H427">
         <v>0.01520030702404429</v>
       </c>
-      <c r="H427">
+      <c r="I427">
         <v>0.01712879936156142</v>
       </c>
-      <c r="I427">
+      <c r="J427">
         <v>0.008884279168048126</v>
       </c>
-      <c r="J427">
+      <c r="K427">
         <v>0.1243441506270302</v>
       </c>
-      <c r="K427">
+      <c r="L427">
         <v>0.02029125690911626</v>
       </c>
     </row>
-    <row r="428" spans="1:11">
+    <row r="428" spans="1:12">
       <c r="A428" s="2">
         <v>44013</v>
       </c>
@@ -9033,22 +9624,25 @@
         <v>-0.0004360863720761499</v>
       </c>
       <c r="G428">
+        <v>0.003487822180184397</v>
+      </c>
+      <c r="H428">
         <v>-0.01491914313781251</v>
       </c>
-      <c r="H428">
+      <c r="I428">
         <v>0.05033792287282934</v>
       </c>
-      <c r="I428">
+      <c r="J428">
         <v>0.03189335685268047</v>
       </c>
-      <c r="J428">
+      <c r="K428">
         <v>-0.03343627472302113</v>
       </c>
-      <c r="K428">
+      <c r="L428">
         <v>0.002964213767491231</v>
       </c>
     </row>
-    <row r="429" spans="1:11">
+    <row r="429" spans="1:12">
       <c r="A429" s="2">
         <v>44044</v>
       </c>
@@ -9068,22 +9662,25 @@
         <v>-0.007749532239493373</v>
       </c>
       <c r="G429">
+        <v>0.003475699558173728</v>
+      </c>
+      <c r="H429">
         <v>-0.01070443535075738</v>
       </c>
-      <c r="H429">
+      <c r="I429">
         <v>-0.01151802065955165</v>
       </c>
-      <c r="I429">
+      <c r="J429">
         <v>-0.0015246588193637</v>
       </c>
-      <c r="J429">
+      <c r="K429">
         <v>0.06280857848179378</v>
       </c>
-      <c r="K429">
+      <c r="L429">
         <v>0.008958761320716713</v>
       </c>
     </row>
-    <row r="430" spans="1:11">
+    <row r="430" spans="1:12">
       <c r="A430" s="2">
         <v>44075</v>
       </c>
@@ -9103,22 +9700,25 @@
         <v>-0.003469877115129139</v>
       </c>
       <c r="G430">
+        <v>0.003404954796289772</v>
+      </c>
+      <c r="H430">
         <v>0.01181590843876346</v>
       </c>
-      <c r="H430">
+      <c r="I430">
         <v>-0.01689024075582979</v>
       </c>
-      <c r="I430">
+      <c r="J430">
         <v>-0.003596812942408767</v>
       </c>
-      <c r="J430">
+      <c r="K430">
         <v>-0.0490194892391822</v>
       </c>
-      <c r="K430">
+      <c r="L430">
         <v>-0.0004431497576241616</v>
       </c>
     </row>
-    <row r="431" spans="1:11">
+    <row r="431" spans="1:12">
       <c r="A431" s="2">
         <v>44105</v>
       </c>
@@ -9138,22 +9738,25 @@
         <v>0.03009586190427438</v>
       </c>
       <c r="G431">
+        <v>0.003744441844137691</v>
+      </c>
+      <c r="H431">
         <v>0.0002347934426873977</v>
       </c>
-      <c r="H431">
+      <c r="I431">
         <v>-0.001823788333345178</v>
       </c>
-      <c r="I431">
+      <c r="J431">
         <v>0.0009564788238152211</v>
       </c>
-      <c r="J431">
+      <c r="K431">
         <v>-0.1435077408439239</v>
       </c>
-      <c r="K431">
+      <c r="L431">
         <v>0.007641197186271098</v>
       </c>
     </row>
-    <row r="432" spans="1:11">
+    <row r="432" spans="1:12">
       <c r="A432" s="2">
         <v>44136</v>
       </c>
@@ -9173,22 +9776,25 @@
         <v>0.01694750600536965</v>
       </c>
       <c r="G432">
+        <v>0.003672184658428446</v>
+      </c>
+      <c r="H432">
         <v>0.006348456447925477</v>
       </c>
-      <c r="H432">
+      <c r="I432">
         <v>-0.0854420243142433</v>
       </c>
-      <c r="I432">
+      <c r="J432">
         <v>0.01818220432956164</v>
       </c>
-      <c r="J432">
+      <c r="K432">
         <v>0.3865033864068446</v>
       </c>
-      <c r="K432">
+      <c r="L432">
         <v>0.03310174336756555</v>
       </c>
     </row>
-    <row r="433" spans="1:11">
+    <row r="433" spans="1:12">
       <c r="A433" s="2">
         <v>44166</v>
       </c>
@@ -9208,22 +9814,25 @@
         <v>-0.02759854451980459</v>
       </c>
       <c r="G433">
+        <v>0.003716824438120714</v>
+      </c>
+      <c r="H433">
         <v>-0.01166553003519133</v>
       </c>
-      <c r="H433">
+      <c r="I433">
         <v>0.04749006045960358</v>
       </c>
-      <c r="I433">
+      <c r="J433">
         <v>0.01343233400547317</v>
       </c>
-      <c r="J433">
+      <c r="K433">
         <v>0.03474003888570576</v>
       </c>
-      <c r="K433">
+      <c r="L433">
         <v>0.002951148107560364</v>
       </c>
     </row>
-    <row r="434" spans="1:11">
+    <row r="434" spans="1:12">
       <c r="A434" s="2">
         <v>44197</v>
       </c>
@@ -9243,22 +9852,25 @@
         <v>0.01858930277834836</v>
       </c>
       <c r="G434">
+        <v>0.003760921136376716</v>
+      </c>
+      <c r="H434">
         <v>0.001080394409124441</v>
       </c>
-      <c r="H434">
+      <c r="I434">
         <v>-0.00347269921727078</v>
       </c>
-      <c r="I434">
+      <c r="J434">
         <v>-0.008806961361813248</v>
       </c>
-      <c r="J434">
+      <c r="K434">
         <v>-0.03785451402009465</v>
       </c>
-      <c r="K434">
+      <c r="L434">
         <v>0.01241920686371434</v>
       </c>
     </row>
-    <row r="435" spans="1:11">
+    <row r="435" spans="1:12">
       <c r="A435" s="2">
         <v>44228</v>
       </c>
@@ -9278,22 +9890,25 @@
         <v>-0.009350792822729437</v>
       </c>
       <c r="G435">
+        <v>0.00380447313811394</v>
+      </c>
+      <c r="H435">
         <v>-0.01264382313634238</v>
       </c>
-      <c r="H435">
+      <c r="I435">
         <v>-0.06373708841117287</v>
       </c>
-      <c r="I435">
+      <c r="J435">
         <v>-0.01721310320077729</v>
       </c>
-      <c r="J435">
+      <c r="K435">
         <v>0.139599944048113</v>
       </c>
-      <c r="K435">
+      <c r="L435">
         <v>0.005553124599915416</v>
       </c>
     </row>
-    <row r="436" spans="1:11">
+    <row r="436" spans="1:12">
       <c r="A436" s="2">
         <v>44256</v>
       </c>
@@ -9313,22 +9928,25 @@
         <v>0.0002190498105993921</v>
       </c>
       <c r="G436">
+        <v>0.003790053979556784</v>
+      </c>
+      <c r="H436">
         <v>0.0138728059931601</v>
       </c>
-      <c r="H436">
+      <c r="I436">
         <v>0.003048742614738309</v>
       </c>
-      <c r="I436">
+      <c r="J436">
         <v>-0.01923673581241125</v>
       </c>
-      <c r="J436">
+      <c r="K436">
         <v>0.1152524289261776</v>
       </c>
-      <c r="K436">
+      <c r="L436">
         <v>0.02293241761637232</v>
       </c>
     </row>
-    <row r="437" spans="1:11">
+    <row r="437" spans="1:12">
       <c r="A437" s="2">
         <v>44287</v>
       </c>
@@ -9348,22 +9966,25 @@
         <v>0.02474499558678112</v>
       </c>
       <c r="G437">
+        <v>0.003661327231121225</v>
+      </c>
+      <c r="H437">
         <v>-0.0155195614155329</v>
       </c>
-      <c r="H437">
+      <c r="I437">
         <v>0.01441076380479478</v>
       </c>
-      <c r="I437">
+      <c r="J437">
         <v>0.01263308625561299</v>
       </c>
-      <c r="J437">
+      <c r="K437">
         <v>0.03842783668804062</v>
       </c>
-      <c r="K437">
+      <c r="L437">
         <v>-0.01087126376281211</v>
       </c>
     </row>
-    <row r="438" spans="1:11">
+    <row r="438" spans="1:12">
       <c r="A438" s="2">
         <v>44317</v>
       </c>
@@ -9383,22 +10004,25 @@
         <v>-0.01591194140364438</v>
       </c>
       <c r="G438">
+        <v>0.003704970360237203</v>
+      </c>
+      <c r="H438">
         <v>0.0008054987067533936</v>
       </c>
-      <c r="H438">
+      <c r="I438">
         <v>0.06436184750153484</v>
       </c>
-      <c r="I438">
+      <c r="J438">
         <v>0.009391611862869409</v>
       </c>
-      <c r="J438">
+      <c r="K438">
         <v>0.03938234011242603</v>
       </c>
-      <c r="K438">
+      <c r="L438">
         <v>-0.001462857735733181</v>
       </c>
     </row>
-    <row r="439" spans="1:11">
+    <row r="439" spans="1:12">
       <c r="A439" s="2">
         <v>44348</v>
       </c>
@@ -9418,22 +10042,25 @@
         <v>-0.01748101415766901</v>
       </c>
       <c r="G439">
+        <v>0.003634505082628081</v>
+      </c>
+      <c r="H439">
         <v>0.02800791255407464</v>
       </c>
-      <c r="H439">
+      <c r="I439">
         <v>-0.0472479904318911</v>
       </c>
-      <c r="I439">
+      <c r="J439">
         <v>-0.008822371664789053</v>
       </c>
-      <c r="J439">
+      <c r="K439">
         <v>0.02315922407775117</v>
       </c>
-      <c r="K439">
+      <c r="L439">
         <v>0.03195852711393932</v>
       </c>
     </row>
-    <row r="440" spans="1:11">
+    <row r="440" spans="1:12">
       <c r="A440" s="2">
         <v>44378</v>
       </c>
@@ -9453,22 +10080,25 @@
         <v>0.009055653420317444</v>
       </c>
       <c r="G440">
+        <v>0.003677926780965457</v>
+      </c>
+      <c r="H440">
         <v>0.01200593159028318</v>
       </c>
-      <c r="H440">
+      <c r="I440">
         <v>0.03489505518551028</v>
       </c>
-      <c r="I440">
+      <c r="J440">
         <v>0.01331017403087054</v>
       </c>
-      <c r="J440">
+      <c r="K440">
         <v>0.01286803460608343</v>
       </c>
-      <c r="K440">
+      <c r="L440">
         <v>0.008764161903177081</v>
       </c>
     </row>
-    <row r="441" spans="1:11">
+    <row r="441" spans="1:12">
       <c r="A441" s="2">
         <v>44409</v>
       </c>
@@ -9488,22 +10118,25 @@
         <v>0.01114938942766175</v>
       </c>
       <c r="G441">
+        <v>0.003720825346713141</v>
+      </c>
+      <c r="H441">
         <v>2.776063316400901E-05</v>
       </c>
-      <c r="H441">
+      <c r="I441">
         <v>-0.00118227520501335</v>
       </c>
-      <c r="I441">
+      <c r="J441">
         <v>-0.004158548685487484</v>
       </c>
-      <c r="J441">
+      <c r="K441">
         <v>0.05324028519959478</v>
       </c>
-      <c r="K441">
+      <c r="L441">
         <v>0.008551801313494423</v>
       </c>
     </row>
-    <row r="442" spans="1:11">
+    <row r="442" spans="1:12">
       <c r="A442" s="2">
         <v>44440</v>
       </c>
@@ -9523,22 +10156,25 @@
         <v>-0.01005706883271484</v>
       </c>
       <c r="G442">
+        <v>0.003650864974163115</v>
+      </c>
+      <c r="H442">
         <v>0.006433214022155909</v>
       </c>
-      <c r="H442">
+      <c r="I442">
         <v>-0.01855192735947264</v>
       </c>
-      <c r="I442">
+      <c r="J442">
         <v>-0.01776904781565247</v>
       </c>
-      <c r="J442">
+      <c r="K442">
         <v>-0.06812694032425126</v>
       </c>
-      <c r="K442">
+      <c r="L442">
         <v>0.01459234072249904</v>
       </c>
     </row>
-    <row r="443" spans="1:11">
+    <row r="443" spans="1:12">
       <c r="A443" s="2">
         <v>44470</v>
       </c>
@@ -9558,22 +10194,25 @@
         <v>0.01909168073988288</v>
       </c>
       <c r="G443">
+        <v>0.003917398847165465</v>
+      </c>
+      <c r="H443">
         <v>-0.005383507094585016</v>
       </c>
-      <c r="H443">
+      <c r="I443">
         <v>0.009365988194278918</v>
       </c>
-      <c r="I443">
+      <c r="J443">
         <v>-0.002417112419656697</v>
       </c>
-      <c r="J443">
+      <c r="K443">
         <v>0.1049956814115598</v>
       </c>
-      <c r="K443">
+      <c r="L443">
         <v>-0.004844455415892068</v>
       </c>
     </row>
-    <row r="444" spans="1:11">
+    <row r="444" spans="1:12">
       <c r="A444" s="2">
         <v>44501</v>
       </c>
@@ -9593,22 +10232,25 @@
         <v>0.0006008246698174791</v>
       </c>
       <c r="G444">
+        <v>0.003902112715313155</v>
+      </c>
+      <c r="H444">
         <v>0.01668580980248824</v>
       </c>
-      <c r="H444">
+      <c r="I444">
         <v>0.04523669451877765</v>
       </c>
-      <c r="I444">
+      <c r="J444">
         <v>-0.002925049523762713</v>
       </c>
-      <c r="J444">
+      <c r="K444">
         <v>-0.08660939233845444</v>
       </c>
-      <c r="K444">
+      <c r="L444">
         <v>0.005137023188291012</v>
       </c>
     </row>
-    <row r="445" spans="1:11">
+    <row r="445" spans="1:12">
       <c r="A445" s="2">
         <v>44531</v>
       </c>
@@ -9628,22 +10270,25 @@
         <v>0.01024257007218576</v>
       </c>
       <c r="G445">
+        <v>0.00394247320784058</v>
+      </c>
+      <c r="H445">
         <v>0.00634866753281349</v>
       </c>
-      <c r="H445">
+      <c r="I445">
         <v>0.0119961973777829</v>
       </c>
-      <c r="I445">
+      <c r="J445">
         <v>-0.001396013625551862</v>
       </c>
-      <c r="J445">
+      <c r="K445">
         <v>0.1159791254383948</v>
       </c>
-      <c r="K445">
+      <c r="L445">
         <v>0.02009394246890328</v>
       </c>
     </row>
-    <row r="446" spans="1:11">
+    <row r="446" spans="1:12">
       <c r="A446" s="2">
         <v>44562</v>
       </c>
@@ -9663,22 +10308,25 @@
         <v>-0.01526494791163768</v>
       </c>
       <c r="G446">
+        <v>0.004369469026548556</v>
+      </c>
+      <c r="H446">
         <v>-0.01605590791984357</v>
       </c>
-      <c r="H446">
+      <c r="I446">
         <v>0.001377288892810746</v>
       </c>
-      <c r="I446">
+      <c r="J446">
         <v>-0.02049368558168541</v>
       </c>
-      <c r="J446">
+      <c r="K446">
         <v>-0.05744714356137293</v>
       </c>
-      <c r="K446">
+      <c r="L446">
         <v>-0.02021307062166489</v>
       </c>
     </row>
-    <row r="447" spans="1:11">
+    <row r="447" spans="1:12">
       <c r="A447" s="2">
         <v>44593</v>
       </c>
@@ -9698,22 +10346,25 @@
         <v>-0.001887035023457218</v>
       </c>
       <c r="G447">
+        <v>0.004460598050553433</v>
+      </c>
+      <c r="H447">
         <v>-0.02434247429961411</v>
       </c>
-      <c r="H447">
+      <c r="I447">
         <v>0.05975038876824734</v>
       </c>
-      <c r="I447">
+      <c r="J447">
         <v>-0.01188562752829569</v>
       </c>
-      <c r="J447">
+      <c r="K447">
         <v>-0.1189150513382141</v>
       </c>
-      <c r="K447">
+      <c r="L447">
         <v>-0.02266745242612966</v>
       </c>
     </row>
-    <row r="448" spans="1:11">
+    <row r="448" spans="1:12">
       <c r="A448" s="2">
         <v>44621</v>
       </c>
@@ -9733,22 +10384,25 @@
         <v>0.02657977753763197</v>
       </c>
       <c r="G448">
+        <v>0.004385964912280604</v>
+      </c>
+      <c r="H448">
         <v>-0.01628693966051931</v>
       </c>
-      <c r="H448">
+      <c r="I448">
         <v>0.02588965902160156</v>
       </c>
-      <c r="I448">
+      <c r="J448">
         <v>-0.0304526896277344</v>
       </c>
-      <c r="J448">
+      <c r="K448">
         <v>-0.02236695659342691</v>
       </c>
-      <c r="K448">
+      <c r="L448">
         <v>-0.003779930125488051</v>
       </c>
     </row>
-    <row r="449" spans="1:11">
+    <row r="449" spans="1:12">
       <c r="A449" s="2">
         <v>44652</v>
       </c>
@@ -9768,22 +10422,25 @@
         <v>-0.01162835208302326</v>
       </c>
       <c r="G449">
+        <v>0.0055676855895197</v>
+      </c>
+      <c r="H449">
         <v>-0.00829966912362079</v>
       </c>
-      <c r="H449">
+      <c r="I449">
         <v>0.03649588542129489</v>
       </c>
-      <c r="I449">
+      <c r="J449">
         <v>-0.05478838109389506</v>
       </c>
-      <c r="J449">
+      <c r="K449">
         <v>-0.04151557571975228</v>
       </c>
-      <c r="K449">
+      <c r="L449">
         <v>-0.0001770728364918206</v>
       </c>
     </row>
-    <row r="450" spans="1:11">
+    <row r="450" spans="1:12">
       <c r="A450" s="2">
         <v>44682</v>
       </c>
@@ -9803,22 +10460,25 @@
         <v>0.005719056205111483</v>
       </c>
       <c r="G450">
+        <v>0.005591141027032842</v>
+      </c>
+      <c r="H450">
         <v>-0.01031515139176764</v>
       </c>
-      <c r="H450">
+      <c r="I450">
         <v>-0.05351982372871433</v>
       </c>
-      <c r="I450">
+      <c r="J450">
         <v>0.0027295825676803</v>
       </c>
-      <c r="J450">
+      <c r="K450">
         <v>0.0210718024969403</v>
       </c>
-      <c r="K450">
+      <c r="L450">
         <v>-0.01366419799844909</v>
       </c>
     </row>
-    <row r="451" spans="1:11">
+    <row r="451" spans="1:12">
       <c r="A451" s="2">
         <v>44713</v>
       </c>
@@ -9838,22 +10498,25 @@
         <v>-0.01913482521073118</v>
       </c>
       <c r="G451">
+        <v>0.005560053981106705</v>
+      </c>
+      <c r="H451">
         <v>-0.006081394393121053</v>
       </c>
-      <c r="H451">
+      <c r="I451">
         <v>0.0192131645159328</v>
       </c>
-      <c r="I451">
+      <c r="J451">
         <v>-0.0320876833526722</v>
       </c>
-      <c r="J451">
+      <c r="K451">
         <v>-0.1714245092801593</v>
       </c>
-      <c r="K451">
+      <c r="L451">
         <v>-0.03688502620631617</v>
       </c>
     </row>
-    <row r="452" spans="1:11">
+    <row r="452" spans="1:12">
       <c r="A452" s="2">
         <v>44743</v>
       </c>
@@ -9873,22 +10536,25 @@
         <v>0.02532084558406544</v>
       </c>
       <c r="G452">
+        <v>0.00719347219239852</v>
+      </c>
+      <c r="H452">
         <v>0.04699916923352854</v>
       </c>
-      <c r="H452">
+      <c r="I452">
         <v>-0.01711841369177913</v>
       </c>
-      <c r="I452">
+      <c r="J452">
         <v>0.02125895477168949</v>
       </c>
-      <c r="J452">
+      <c r="K452">
         <v>0.1512071090219873</v>
       </c>
-      <c r="K452">
+      <c r="L452">
         <v>0.06066220705422887</v>
       </c>
     </row>
-    <row r="453" spans="1:11">
+    <row r="453" spans="1:12">
       <c r="A453" s="2">
         <v>44774</v>
       </c>
@@ -9908,22 +10574,25 @@
         <v>0.008302753757299275</v>
       </c>
       <c r="G453">
+        <v>0.007142095725402475</v>
+      </c>
+      <c r="H453">
         <v>-0.01814203797712999</v>
       </c>
-      <c r="H453">
+      <c r="I453">
         <v>-0.002010482491164423</v>
       </c>
-      <c r="I453">
+      <c r="J453">
         <v>-0.03946132847401196</v>
       </c>
-      <c r="J453">
+      <c r="K453">
         <v>-0.1011477016608076</v>
       </c>
-      <c r="K453">
+      <c r="L453">
         <v>-0.001114565497836062</v>
       </c>
     </row>
-    <row r="454" spans="1:11">
+    <row r="454" spans="1:12">
       <c r="A454" s="2">
         <v>44805</v>
       </c>
@@ -9943,22 +10612,25 @@
         <v>-0.003170966353578608</v>
       </c>
       <c r="G454">
+        <v>0.007197290431837366</v>
+      </c>
+      <c r="H454">
         <v>-0.03050277571033455</v>
       </c>
-      <c r="H454">
+      <c r="I454">
         <v>-0.0005436373020654139</v>
       </c>
-      <c r="I454">
+      <c r="J454">
         <v>-0.0513799020894613</v>
       </c>
-      <c r="J454">
+      <c r="K454">
         <v>-0.1115801110524796</v>
       </c>
-      <c r="K454">
+      <c r="L454">
         <v>-0.02026077777627489</v>
       </c>
     </row>
-    <row r="455" spans="1:11">
+    <row r="455" spans="1:12">
       <c r="A455" s="2">
         <v>44835</v>
       </c>
@@ -9978,22 +10650,25 @@
         <v>0.0282612146417347</v>
       </c>
       <c r="G455">
+        <v>0.008774695250105102</v>
+      </c>
+      <c r="H455">
         <v>-0.01992841976851301</v>
       </c>
-      <c r="H455">
+      <c r="I455">
         <v>-0.03600622901441353</v>
       </c>
-      <c r="I455">
+      <c r="J455">
         <v>-0.00687738076673805</v>
       </c>
-      <c r="J455">
+      <c r="K455">
         <v>0.1856674208144715</v>
       </c>
-      <c r="K455">
+      <c r="L455">
         <v>-0.002783300035572034</v>
       </c>
     </row>
-    <row r="456" spans="1:11">
+    <row r="456" spans="1:12">
       <c r="A456" s="2">
         <v>44866</v>
       </c>
@@ -10013,22 +10688,25 @@
         <v>-0.02900143669288946</v>
       </c>
       <c r="G456">
+        <v>0.008854627845200191</v>
+      </c>
+      <c r="H456">
         <v>0.008135908312193463</v>
       </c>
-      <c r="H456">
+      <c r="I456">
         <v>0.02222328196245771</v>
       </c>
-      <c r="I456">
+      <c r="J456">
         <v>0.04706102278539581</v>
       </c>
-      <c r="J456">
+      <c r="K456">
         <v>0.1996221842710368</v>
       </c>
-      <c r="K456">
+      <c r="L456">
         <v>-0.005925365221789103</v>
       </c>
     </row>
-    <row r="457" spans="1:11">
+    <row r="457" spans="1:12">
       <c r="A457" s="2">
         <v>44896</v>
       </c>
@@ -10048,18 +10726,21 @@
         <v>-0.009897233268609473</v>
       </c>
       <c r="G457">
+        <v>0.008776911559708722</v>
+      </c>
+      <c r="H457">
         <v>-0.02515282633221005</v>
       </c>
-      <c r="H457">
+      <c r="I457">
         <v>0.005459740292789395</v>
       </c>
-      <c r="I457">
+      <c r="J457">
         <v>0.005407715642045119</v>
       </c>
-      <c r="J457">
+      <c r="K457">
         <v>-0.08715085576127835</v>
       </c>
-      <c r="K457">
+      <c r="L457">
         <v>-0.01867151643650844</v>
       </c>
     </row>

--- a/oryginal_price_changes.xlsx
+++ b/oryginal_price_changes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>GovBondG7</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>EURPLN</t>
+  </si>
+  <si>
+    <t>Euro_Corporate_Bond</t>
   </si>
   <si>
     <t>EDO</t>
@@ -413,15 +416,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L457"/>
+  <dimension ref="A1:M457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -456,398 +459,401 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2">
         <v>31048</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>31079</v>
       </c>
       <c r="B3">
         <v>0.02684229522874992</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>-0.02655596935386972</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>31107</v>
       </c>
       <c r="B4">
         <v>-0.03995666759182515</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.146933842815437</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>31138</v>
       </c>
       <c r="B5">
         <v>0.02073229776881202</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-0.09141141397673624</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>31168</v>
       </c>
       <c r="B6">
         <v>0.02312389684948157</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-0.0159528582101689</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>31199</v>
       </c>
       <c r="B7">
         <v>0.004743440411965061</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-0.005592693887728539</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>31229</v>
       </c>
       <c r="B8">
         <v>-0.04414159325781986</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-0.01948511119118079</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>31260</v>
       </c>
       <c r="B9">
         <v>0.01514034743007642</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-0.01726700906327028</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>31291</v>
       </c>
       <c r="B10">
         <v>-0.002255848158625118</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-0.006564833971902995</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>31321</v>
       </c>
       <c r="B11">
         <v>-0.008938427557570572</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-0.06322193939876686</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>31352</v>
       </c>
       <c r="B12">
         <v>-0.001815334659477918</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-0.01863191844902756</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>31382</v>
       </c>
       <c r="B13">
         <v>0.004788975501668125</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-0.01837631319800648</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>31413</v>
       </c>
       <c r="B14">
         <v>-0.002197323188793843</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.04986057735520744</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>31444</v>
       </c>
       <c r="B15">
         <v>-0.0007218087514592186</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-0.07308559600902631</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
         <v>31472</v>
       </c>
       <c r="B16">
         <v>0.08497364538260088</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-0.01063841329269855</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="A17" s="2">
         <v>31503</v>
       </c>
       <c r="B17">
         <v>-0.02947010406708228</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.01048919556793693</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" s="2">
         <v>31533</v>
       </c>
       <c r="B18">
         <v>0.01969509542775705</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>-0.02454266237979075</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" s="2">
         <v>31564</v>
       </c>
       <c r="B19">
         <v>-0.004344486804606418</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.01454658417012866</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="A20" s="2">
         <v>31594</v>
       </c>
       <c r="B20">
         <v>-0.008114425386971491</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.0009204239118048019</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" s="2">
         <v>31625</v>
       </c>
       <c r="B21">
         <v>0.0006530778989759511</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.04393841222440886</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22" s="2">
         <v>31656</v>
       </c>
       <c r="B22">
         <v>-0.01952804950788711</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.09163147097239155</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23" s="2">
         <v>31686</v>
       </c>
       <c r="B23">
         <v>0.01145167205299935</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-0.06284099559037482</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10">
       <c r="A24" s="2">
         <v>31717</v>
       </c>
       <c r="B24">
         <v>-0.02308686632921397</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-0.01858395483707287</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="A25" s="2">
         <v>31747</v>
       </c>
       <c r="B25">
         <v>-0.008156491751680872</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-0.01053265867634623</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10">
       <c r="A26" s="2">
         <v>31778</v>
       </c>
       <c r="B26">
         <v>-0.01247128962567656</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>-0.03677830252947079</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:10">
       <c r="A27" s="2">
         <v>31809</v>
       </c>
       <c r="B27">
         <v>0.01155122513442119</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-0.004388464534314851</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="A28" s="2">
         <v>31837</v>
       </c>
       <c r="B28">
         <v>0.006659805580892852</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.03577164887306661</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="A29" s="2">
         <v>31868</v>
       </c>
       <c r="B29">
         <v>0.001794691898295842</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.06271288062782143</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="A30" s="2">
         <v>31898</v>
       </c>
       <c r="B30">
         <v>0.009487475139878354</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-0.01687715242532828</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:10">
       <c r="A31" s="2">
         <v>31929</v>
       </c>
       <c r="B31">
         <v>-0.007354406703004912</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.009711650558682061</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:10">
       <c r="A32" s="2">
         <v>31959</v>
       </c>
       <c r="B32">
         <v>-0.0028757130156154</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0.04906823304397157</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10">
       <c r="A33" s="2">
         <v>31990</v>
       </c>
       <c r="B33">
         <v>-0.00907605296735603</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-0.0119399744076909</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:10">
       <c r="A34" s="2">
         <v>32021</v>
       </c>
       <c r="B34">
         <v>-0.01347352336886021</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>-0.01283623586359506</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:10">
       <c r="A35" s="2">
         <v>32051</v>
       </c>
       <c r="B35">
         <v>0.007899803123868177</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.01298419768105585</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>32082</v>
       </c>
       <c r="B36">
         <v>-0.02059938157639429</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>-0.01279886079529724</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:10">
       <c r="A37" s="2">
         <v>32112</v>
       </c>
       <c r="B37">
         <v>0.0005658196760780498</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>-0.04208111397531655</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:10">
       <c r="A38" s="2">
         <v>32143</v>
       </c>
@@ -857,11 +863,11 @@
       <c r="C38">
         <v>0.03622121396054645</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>-0.04858181523283345</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:10">
       <c r="A39" s="2">
         <v>32174</v>
       </c>
@@ -871,11 +877,11 @@
       <c r="C39">
         <v>0.08877427977470043</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>-0.04254839991214898</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:10">
       <c r="A40" s="2">
         <v>32203</v>
       </c>
@@ -885,11 +891,11 @@
       <c r="C40">
         <v>0.01722291244600194</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>0.05784355844345801</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:10">
       <c r="A41" s="2">
         <v>32234</v>
       </c>
@@ -899,11 +905,11 @@
       <c r="C41">
         <v>0.007020130938113933</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>-0.023179374339373</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:10">
       <c r="A42" s="2">
         <v>32264</v>
       </c>
@@ -913,11 +919,11 @@
       <c r="C42">
         <v>-0.00978402629037145</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>0.02455118913916277</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:10">
       <c r="A43" s="2">
         <v>32295</v>
       </c>
@@ -927,11 +933,11 @@
       <c r="C43">
         <v>0.03641248582383749</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>-0.005917626176517699</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:10">
       <c r="A44" s="2">
         <v>32325</v>
       </c>
@@ -941,11 +947,11 @@
       <c r="C44">
         <v>0.07015701301651633</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>0.05106720427581357</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:10">
       <c r="A45" s="2">
         <v>32356</v>
       </c>
@@ -955,11 +961,11 @@
       <c r="C45">
         <v>-0.03345536685787165</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>0.001305414266216109</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:10">
       <c r="A46" s="2">
         <v>32387</v>
       </c>
@@ -969,11 +975,11 @@
       <c r="C46">
         <v>0.03569191526061322</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>-0.07926895897127872</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:10">
       <c r="A47" s="2">
         <v>32417</v>
       </c>
@@ -983,11 +989,11 @@
       <c r="C47">
         <v>0.03936651045522876</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>0.01392485547034483</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:10">
       <c r="A48" s="2">
         <v>32448</v>
       </c>
@@ -997,11 +1003,11 @@
       <c r="C48">
         <v>-0.007157069267961891</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>-0.01579974161865638</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:10">
       <c r="A49" s="2">
         <v>32478</v>
       </c>
@@ -1011,11 +1017,11 @@
       <c r="C49">
         <v>0.01032975296356842</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>-0.02839521645406973</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:10">
       <c r="A50" s="2">
         <v>32509</v>
       </c>
@@ -1025,11 +1031,11 @@
       <c r="C50">
         <v>0.07733445155814578</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>-0.001261185617211114</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:10">
       <c r="A51" s="2">
         <v>32540</v>
       </c>
@@ -1039,11 +1045,11 @@
       <c r="C51">
         <v>0.006461288433990076</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>-0.005545319861915976</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:10">
       <c r="A52" s="2">
         <v>32568</v>
       </c>
@@ -1053,11 +1059,11 @@
       <c r="C52">
         <v>0.001169176100413116</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>-0.003174801335057542</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:10">
       <c r="A53" s="2">
         <v>32599</v>
       </c>
@@ -1067,11 +1073,11 @@
       <c r="C53">
         <v>0.03088770772459215</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>-0.009248455368390696</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:10">
       <c r="A54" s="2">
         <v>32629</v>
       </c>
@@ -1081,11 +1087,11 @@
       <c r="C54">
         <v>0.01837919305324753</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>-0.0005327011752198629</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:10">
       <c r="A55" s="2">
         <v>32660</v>
       </c>
@@ -1095,11 +1101,11 @@
       <c r="C55">
         <v>0.00392271144324785</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>0.04957027159874228</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:10">
       <c r="A56" s="2">
         <v>32690</v>
       </c>
@@ -1109,11 +1115,11 @@
       <c r="C56">
         <v>0.06450859333970693</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>-0.05563292945350573</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:10">
       <c r="A57" s="2">
         <v>32721</v>
       </c>
@@ -1123,11 +1129,11 @@
       <c r="C57">
         <v>-0.008373608666223609</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>-0.007942084133027327</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:10">
       <c r="A58" s="2">
         <v>32752</v>
       </c>
@@ -1137,11 +1143,11 @@
       <c r="C58">
         <v>0.04609846717528132</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>0.03426302936393477</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:10">
       <c r="A59" s="2">
         <v>32782</v>
       </c>
@@ -1151,11 +1157,11 @@
       <c r="C59">
         <v>-0.06858035732902967</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>-0.01451714844421659</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:10">
       <c r="A60" s="2">
         <v>32813</v>
       </c>
@@ -1165,11 +1171,11 @@
       <c r="C60">
         <v>0.02448947355035647</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>0.07197994955242271</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:10">
       <c r="A61" s="2">
         <v>32843</v>
       </c>
@@ -1179,11 +1185,11 @@
       <c r="C61">
         <v>-0.009614200756741242</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>-0.05792863717942132</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:10">
       <c r="A62" s="2">
         <v>32874</v>
       </c>
@@ -1193,11 +1199,11 @@
       <c r="C62">
         <v>-0.07385280045243237</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>0.004731869378289622</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:10">
       <c r="A63" s="2">
         <v>32905</v>
       </c>
@@ -1207,11 +1213,11 @@
       <c r="C63">
         <v>-0.05463724069653242</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>-0.0306898226334622</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:10">
       <c r="A64" s="2">
         <v>32933</v>
       </c>
@@ -1221,11 +1227,11 @@
       <c r="C64">
         <v>-0.04526972983896183</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>-0.08029606963963998</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:10">
       <c r="A65" s="2">
         <v>32964</v>
       </c>
@@ -1235,11 +1241,11 @@
       <c r="C65">
         <v>-0.02516991024594573</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>-0.01478960960966447</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:10">
       <c r="A66" s="2">
         <v>32994</v>
       </c>
@@ -1249,11 +1255,11 @@
       <c r="C66">
         <v>0.086478297783803</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>-0.02887508733340383</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:10">
       <c r="A67" s="2">
         <v>33025</v>
       </c>
@@ -1263,11 +1269,11 @@
       <c r="C67">
         <v>1.849824109778631E-05</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>-0.02331052428115865</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:10">
       <c r="A68" s="2">
         <v>33055</v>
       </c>
@@ -1277,11 +1283,11 @@
       <c r="C68">
         <v>-0.02032639313654372</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>0.02517441533373654</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:10">
       <c r="A69" s="2">
         <v>33086</v>
       </c>
@@ -1291,11 +1297,11 @@
       <c r="C69">
         <v>-0.1338583362954636</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>-0.004315169767447502</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:10">
       <c r="A70" s="2">
         <v>33117</v>
       </c>
@@ -1305,11 +1311,11 @@
       <c r="C70">
         <v>-0.102990360704477</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>0.05501325429360016</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:10">
       <c r="A71" s="2">
         <v>33147</v>
       </c>
@@ -1319,11 +1325,11 @@
       <c r="C71">
         <v>0.06002847782489762</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>-0.0979898068131112</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:10">
       <c r="A72" s="2">
         <v>33178</v>
       </c>
@@ -1333,11 +1339,11 @@
       <c r="C72">
         <v>-0.03620204607369304</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>-0.00595321148383765</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:10">
       <c r="A73" s="2">
         <v>33208</v>
       </c>
@@ -1347,11 +1353,11 @@
       <c r="C73">
         <v>0.03365872241751666</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>0.02799754182658742</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:10">
       <c r="A74" s="2">
         <v>33239</v>
       </c>
@@ -1361,11 +1367,11 @@
       <c r="C74">
         <v>0.03956666400270992</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>-0.06160908540537191</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:10">
       <c r="A75" s="2">
         <v>33270</v>
       </c>
@@ -1375,11 +1381,11 @@
       <c r="C75">
         <v>0.07585213325487894</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>-0.02549355554690147</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:10">
       <c r="A76" s="2">
         <v>33298</v>
       </c>
@@ -1389,11 +1395,11 @@
       <c r="C76">
         <v>0.05807821571032212</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>0.06729505596151708</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:10">
       <c r="A77" s="2">
         <v>33329</v>
       </c>
@@ -1403,11 +1409,11 @@
       <c r="C77">
         <v>0.06218338958365166</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>0.05952858190676369</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:10">
       <c r="A78" s="2">
         <v>33359</v>
       </c>
@@ -1417,11 +1423,11 @@
       <c r="C78">
         <v>0.03762045197731934</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>0.02088668363965396</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:10">
       <c r="A79" s="2">
         <v>33390</v>
       </c>
@@ -1431,11 +1437,11 @@
       <c r="C79">
         <v>-0.02594708192216799</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>0.06018211413642516</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:10">
       <c r="A80" s="2">
         <v>33420</v>
       </c>
@@ -1445,11 +1451,11 @@
       <c r="C80">
         <v>0.0490029966185257</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>-0.01364802986917724</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:10">
       <c r="A81" s="2">
         <v>33451</v>
       </c>
@@ -1459,11 +1465,11 @@
       <c r="C81">
         <v>-0.02397197482431934</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>-0.06364412889969262</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:10">
       <c r="A82" s="2">
         <v>33482</v>
       </c>
@@ -1473,11 +1479,11 @@
       <c r="C82">
         <v>-0.002823341869722884</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>-0.006596309456448735</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:10">
       <c r="A83" s="2">
         <v>33512</v>
       </c>
@@ -1487,11 +1493,11 @@
       <c r="C83">
         <v>0.01606192700013254</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>0.0058557246188089</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:10">
       <c r="A84" s="2">
         <v>33543</v>
       </c>
@@ -1501,11 +1507,11 @@
       <c r="C84">
         <v>-0.07882383740946375</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>-0.01356904213015797</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:10">
       <c r="A85" s="2">
         <v>33573</v>
       </c>
@@ -1515,11 +1521,11 @@
       <c r="C85">
         <v>0.04015005456536858</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>-0.06585330804921741</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:10">
       <c r="A86" s="2">
         <v>33604</v>
       </c>
@@ -1529,11 +1535,11 @@
       <c r="C86">
         <v>-0.008009057700116617</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>0.00904078537106634</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:10">
       <c r="A87" s="2">
         <v>33635</v>
       </c>
@@ -1543,11 +1549,11 @@
       <c r="C87">
         <v>0.006639020024586939</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>0.01919335645684139</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:10">
       <c r="A88" s="2">
         <v>33664</v>
       </c>
@@ -1557,11 +1563,11 @@
       <c r="C88">
         <v>-0.01897112858924799</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>-0.006415797379683008</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:10">
       <c r="A89" s="2">
         <v>33695</v>
       </c>
@@ -1571,11 +1577,11 @@
       <c r="C89">
         <v>0.004270557232666228</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>-0.02453424677128302</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:10">
       <c r="A90" s="2">
         <v>33725</v>
       </c>
@@ -1585,11 +1591,11 @@
       <c r="C90">
         <v>0.01848117665647186</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>-0.01576010777528891</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:10">
       <c r="A91" s="2">
         <v>33756</v>
       </c>
@@ -1599,11 +1605,11 @@
       <c r="C91">
         <v>-0.06325370025356503</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>-0.01163625617331543</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:10">
       <c r="A92" s="2">
         <v>33786</v>
       </c>
@@ -1613,11 +1619,11 @@
       <c r="C92">
         <v>-0.04452764763075667</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>-0.007492846471342851</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:10">
       <c r="A93" s="2">
         <v>33817</v>
       </c>
@@ -1627,11 +1633,11 @@
       <c r="C93">
         <v>-0.003358903620092057</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>-0.07383892749397603</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:10">
       <c r="A94" s="2">
         <v>33848</v>
       </c>
@@ -1641,11 +1647,11 @@
       <c r="C94">
         <v>0.01438380819052676</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>0.05018368956677599</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:10">
       <c r="A95" s="2">
         <v>33878</v>
       </c>
@@ -1655,11 +1661,11 @@
       <c r="C95">
         <v>0.01612101546197842</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>0.01249802619816753</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:10">
       <c r="A96" s="2">
         <v>33909</v>
       </c>
@@ -1669,11 +1675,11 @@
       <c r="C96">
         <v>0.08324683583739323</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>0.04965179293677702</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:10">
       <c r="A97" s="2">
         <v>33939</v>
       </c>
@@ -1683,11 +1689,11 @@
       <c r="C97">
         <v>0.008806341354614444</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>-0.00453399241506347</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:10">
       <c r="A98" s="2">
         <v>33970</v>
       </c>
@@ -1697,11 +1703,11 @@
       <c r="C98">
         <v>0.0231374224976304</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>0.01202698241953981</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:10">
       <c r="A99" s="2">
         <v>34001</v>
       </c>
@@ -1711,11 +1717,11 @@
       <c r="C99">
         <v>0.04901952061835191</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>0.01607605108513388</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:10">
       <c r="A100" s="2">
         <v>34029</v>
       </c>
@@ -1725,11 +1731,11 @@
       <c r="C100">
         <v>0.06267059542440578</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>0.03621156753052546</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:10">
       <c r="A101" s="2">
         <v>34060</v>
       </c>
@@ -1739,11 +1745,11 @@
       <c r="C101">
         <v>0.009848821574351518</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>0.01315875507925335</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:10">
       <c r="A102" s="2">
         <v>34090</v>
       </c>
@@ -1753,11 +1759,11 @@
       <c r="C102">
         <v>0.02601525273450944</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>0.06796690130466243</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:10">
       <c r="A103" s="2">
         <v>34121</v>
       </c>
@@ -1767,11 +1773,11 @@
       <c r="C103">
         <v>0.02250509357730501</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>0.0319095527894786</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:10">
       <c r="A104" s="2">
         <v>34151</v>
       </c>
@@ -1781,11 +1787,11 @@
       <c r="C104">
         <v>0.06402966155760059</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>0.1065906093764273</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:10">
       <c r="A105" s="2">
         <v>34182</v>
       </c>
@@ -1795,11 +1801,11 @@
       <c r="C105">
         <v>0.05542229528522635</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>-0.06810446411564963</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:10">
       <c r="A106" s="2">
         <v>34213</v>
       </c>
@@ -1809,11 +1815,11 @@
       <c r="C106">
         <v>-0.055858942400138</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>-0.08123768617531701</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:10">
       <c r="A107" s="2">
         <v>34243</v>
       </c>
@@ -1823,11 +1829,11 @@
       <c r="C107">
         <v>0.04170155363796724</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>0.05186737542544617</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:10">
       <c r="A108" s="2">
         <v>34274</v>
       </c>
@@ -1837,11 +1843,11 @@
       <c r="C108">
         <v>-0.02652265944155552</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>0.03046872062228556</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:10">
       <c r="A109" s="2">
         <v>34304</v>
       </c>
@@ -1851,11 +1857,11 @@
       <c r="C109">
         <v>0.05361890273382697</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>0.05278227805364266</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:10">
       <c r="A110" s="2">
         <v>34335</v>
       </c>
@@ -1865,11 +1871,11 @@
       <c r="C110">
         <v>0.08077640408972919</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>-0.01952084262009857</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:10">
       <c r="A111" s="2">
         <v>34366</v>
       </c>
@@ -1879,11 +1885,11 @@
       <c r="C111">
         <v>-0.01824553486994429</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>0.005774990016082615</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:10">
       <c r="A112" s="2">
         <v>34394</v>
       </c>
@@ -1893,11 +1899,11 @@
       <c r="C112">
         <v>-0.06467683273993508</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>-0.001039274696951309</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:10">
       <c r="A113" s="2">
         <v>34425</v>
       </c>
@@ -1907,11 +1913,11 @@
       <c r="C113">
         <v>0.03017302443029335</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>-0.02995517209246013</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:10">
       <c r="A114" s="2">
         <v>34455</v>
       </c>
@@ -1921,11 +1927,11 @@
       <c r="C114">
         <v>-0.01572350262729227</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>0.007489792335294121</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:10">
       <c r="A115" s="2">
         <v>34486</v>
       </c>
@@ -1935,11 +1941,11 @@
       <c r="C115">
         <v>-0.02101594283418595</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>-0.01458840426705588</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:10">
       <c r="A116" s="2">
         <v>34516</v>
       </c>
@@ -1949,11 +1955,11 @@
       <c r="C116">
         <v>-0.009368330376304135</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>-0.04142885794812745</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:10">
       <c r="A117" s="2">
         <v>34547</v>
       </c>
@@ -1963,11 +1969,11 @@
       <c r="C117">
         <v>0.03680989187753747</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>0.005711386700582466</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:10">
       <c r="A118" s="2">
         <v>34578</v>
       </c>
@@ -1977,11 +1983,11 @@
       <c r="C118">
         <v>-0.03394622150566262</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>0.01262158755392861</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:10">
       <c r="A119" s="2">
         <v>34608</v>
       </c>
@@ -1991,11 +1997,11 @@
       <c r="C119">
         <v>0.00602806356388097</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>-0.046437587716333</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:10">
       <c r="A120" s="2">
         <v>34639</v>
       </c>
@@ -2005,11 +2011,11 @@
       <c r="C120">
         <v>-0.02920410906622839</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>0.01288694613805896</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:10">
       <c r="A121" s="2">
         <v>34669</v>
       </c>
@@ -2019,11 +2025,11 @@
       <c r="C121">
         <v>0.02401220851257513</v>
       </c>
-      <c r="I121">
+      <c r="J121">
         <v>0.01885371957794724</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:10">
       <c r="A122" s="2">
         <v>34700</v>
       </c>
@@ -2033,11 +2039,11 @@
       <c r="C122">
         <v>-0.04037050991776558</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>-0.03990103416760882</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:10">
       <c r="A123" s="2">
         <v>34731</v>
       </c>
@@ -2047,11 +2053,11 @@
       <c r="C123">
         <v>-0.0003824644751101447</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>-0.006988717818089074</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:10">
       <c r="A124" s="2">
         <v>34759</v>
       </c>
@@ -2061,11 +2067,11 @@
       <c r="C124">
         <v>0.005166664467682658</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>0.0009775005137191428</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:10">
       <c r="A125" s="2">
         <v>34790</v>
       </c>
@@ -2075,11 +2081,11 @@
       <c r="C125">
         <v>0.01654362667422116</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>-0.02476224935590243</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:10">
       <c r="A126" s="2">
         <v>34820</v>
       </c>
@@ -2089,11 +2095,11 @@
       <c r="C126">
         <v>0.02666104569708416</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>0.001251140323947242</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:10">
       <c r="A127" s="2">
         <v>34851</v>
       </c>
@@ -2103,11 +2109,11 @@
       <c r="C127">
         <v>-0.008124290478736862</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>-0.001247283391317966</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:10">
       <c r="A128" s="2">
         <v>34881</v>
       </c>
@@ -2117,11 +2123,11 @@
       <c r="C128">
         <v>0.03620101178500201</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>-0.02106846806874529</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:10">
       <c r="A129" s="2">
         <v>34912</v>
       </c>
@@ -2131,11 +2137,11 @@
       <c r="C129">
         <v>0.007719889874031827</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>0.02758972129141246</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:10">
       <c r="A130" s="2">
         <v>34943</v>
       </c>
@@ -2145,11 +2151,11 @@
       <c r="C130">
         <v>0.04069434215537404</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>0.01720032186480669</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:10">
       <c r="A131" s="2">
         <v>34973</v>
       </c>
@@ -2159,11 +2165,11 @@
       <c r="C131">
         <v>-0.03201064445094415</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>-0.01901734573546587</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:10">
       <c r="A132" s="2">
         <v>35004</v>
       </c>
@@ -2173,11 +2179,11 @@
       <c r="C132">
         <v>0.03368587773666576</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>0.01564885272548899</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:10">
       <c r="A133" s="2">
         <v>35034</v>
       </c>
@@ -2187,11 +2193,11 @@
       <c r="C133">
         <v>0.04642602758761605</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>0.0129554913695582</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:10">
       <c r="A134" s="2">
         <v>35065</v>
       </c>
@@ -2201,11 +2207,11 @@
       <c r="C134">
         <v>0.0346404407675649</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>0.06147854710630374</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:10">
       <c r="A135" s="2">
         <v>35096</v>
       </c>
@@ -2215,11 +2221,11 @@
       <c r="C135">
         <v>0.00993373264096542</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>-0.006405575945806041</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:10">
       <c r="A136" s="2">
         <v>35125</v>
       </c>
@@ -2229,11 +2235,11 @@
       <c r="C136">
         <v>0.01474644120599167</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>-0.01136377186720505</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:10">
       <c r="A137" s="2">
         <v>35156</v>
       </c>
@@ -2243,11 +2249,11 @@
       <c r="C137">
         <v>0.03315225643406872</v>
       </c>
-      <c r="I137">
+      <c r="J137">
         <v>-0.004323517411699451</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:10">
       <c r="A138" s="2">
         <v>35186</v>
       </c>
@@ -2257,11 +2263,11 @@
       <c r="C138">
         <v>0.01317704753697924</v>
       </c>
-      <c r="I138">
+      <c r="J138">
         <v>0.01019064847687989</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:10">
       <c r="A139" s="2">
         <v>35217</v>
       </c>
@@ -2271,11 +2277,11 @@
       <c r="C139">
         <v>-0.002313249133513273</v>
       </c>
-      <c r="I139">
+      <c r="J139">
         <v>-0.02947749682293677</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:10">
       <c r="A140" s="2">
         <v>35247</v>
       </c>
@@ -2285,11 +2291,11 @@
       <c r="C140">
         <v>-0.05197649331291498</v>
       </c>
-      <c r="I140">
+      <c r="J140">
         <v>-0.006687429973304293</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:10">
       <c r="A141" s="2">
         <v>35278</v>
       </c>
@@ -2299,11 +2305,11 @@
       <c r="C141">
         <v>0.003155414604862905</v>
       </c>
-      <c r="I141">
+      <c r="J141">
         <v>-0.006108197176465602</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:10">
       <c r="A142" s="2">
         <v>35309</v>
       </c>
@@ -2313,11 +2319,11 @@
       <c r="C142">
         <v>0.04591470200071801</v>
       </c>
-      <c r="I142">
+      <c r="J142">
         <v>-0.01077782957481033</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:10">
       <c r="A143" s="2">
         <v>35339</v>
       </c>
@@ -2327,11 +2333,11 @@
       <c r="C143">
         <v>0.007122156537490598</v>
       </c>
-      <c r="I143">
+      <c r="J143">
         <v>0.004434157216534507</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:10">
       <c r="A144" s="2">
         <v>35370</v>
       </c>
@@ -2341,11 +2347,11 @@
       <c r="C144">
         <v>0.03994005936149247</v>
       </c>
-      <c r="I144">
+      <c r="J144">
         <v>-0.03416470075627742</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:10">
       <c r="A145" s="2">
         <v>35400</v>
       </c>
@@ -2355,11 +2361,11 @@
       <c r="C145">
         <v>0.007328161603280314</v>
       </c>
-      <c r="I145">
+      <c r="J145">
         <v>0.01731531120469287</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:10">
       <c r="A146" s="2">
         <v>35431</v>
       </c>
@@ -2369,11 +2375,11 @@
       <c r="C146">
         <v>0.04443172143781582</v>
       </c>
-      <c r="I146">
+      <c r="J146">
         <v>-0.03965016887405726</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:10">
       <c r="A147" s="2">
         <v>35462</v>
       </c>
@@ -2383,11 +2389,11 @@
       <c r="C147">
         <v>0.05779631832956578</v>
       </c>
-      <c r="I147">
+      <c r="J147">
         <v>0.08313628731109479</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:10">
       <c r="A148" s="2">
         <v>35490</v>
       </c>
@@ -2397,11 +2403,11 @@
       <c r="C148">
         <v>-0.008628497259829615</v>
       </c>
-      <c r="I148">
+      <c r="J148">
         <v>-0.01787175247663908</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:10">
       <c r="A149" s="2">
         <v>35521</v>
       </c>
@@ -2411,11 +2417,11 @@
       <c r="C149">
         <v>0.03773379393606491</v>
       </c>
-      <c r="I149">
+      <c r="J149">
         <v>-0.0176631109418699</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:10">
       <c r="A150" s="2">
         <v>35551</v>
       </c>
@@ -2425,11 +2431,11 @@
       <c r="C150">
         <v>0.05642285149489457</v>
       </c>
-      <c r="I150">
+      <c r="J150">
         <v>0.01291143572605158</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:10">
       <c r="A151" s="2">
         <v>35582</v>
       </c>
@@ -2439,11 +2445,11 @@
       <c r="C151">
         <v>0.06298107425653066</v>
       </c>
-      <c r="I151">
+      <c r="J151">
         <v>-0.02109763822950339</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:10">
       <c r="A152" s="2">
         <v>35612</v>
       </c>
@@ -2453,11 +2459,11 @@
       <c r="C152">
         <v>0.07429797562503637</v>
       </c>
-      <c r="I152">
+      <c r="J152">
         <v>0.002630741492409383</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:10">
       <c r="A153" s="2">
         <v>35643</v>
       </c>
@@ -2467,11 +2473,11 @@
       <c r="C153">
         <v>-0.04363978327317397</v>
       </c>
-      <c r="I153">
+      <c r="J153">
         <v>0.02537173708772045</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:10">
       <c r="A154" s="2">
         <v>35674</v>
       </c>
@@ -2481,11 +2487,11 @@
       <c r="C154">
         <v>0.02570506954732732</v>
       </c>
-      <c r="I154">
+      <c r="J154">
         <v>-0.006024362714771359</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:10">
       <c r="A155" s="2">
         <v>35704</v>
       </c>
@@ -2495,11 +2501,11 @@
       <c r="C155">
         <v>-0.07661338677725771</v>
       </c>
-      <c r="I155">
+      <c r="J155">
         <v>-0.07935019443184765</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:10">
       <c r="A156" s="2">
         <v>35735</v>
       </c>
@@ -2509,11 +2515,11 @@
       <c r="C156">
         <v>-0.005596192452546722</v>
       </c>
-      <c r="I156">
+      <c r="J156">
         <v>-0.06649988922562589</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:10">
       <c r="A157" s="2">
         <v>35765</v>
       </c>
@@ -2523,11 +2529,11 @@
       <c r="C157">
         <v>0.04046443602889638</v>
       </c>
-      <c r="I157">
+      <c r="J157">
         <v>0.0006834904630133032</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:10">
       <c r="A158" s="2">
         <v>35796</v>
       </c>
@@ -2537,11 +2543,11 @@
       <c r="C158">
         <v>0.04552208573254735</v>
       </c>
-      <c r="I158">
+      <c r="J158">
         <v>0.07836070062088241</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:10">
       <c r="A159" s="2">
         <v>35827</v>
       </c>
@@ -2551,11 +2557,11 @@
       <c r="C159">
         <v>0.06605594381019153</v>
       </c>
-      <c r="I159">
+      <c r="J159">
         <v>-0.02658765454673118</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:10">
       <c r="A160" s="2">
         <v>35855</v>
       </c>
@@ -2565,11 +2571,11 @@
       <c r="C160">
         <v>0.04651112564620008</v>
       </c>
-      <c r="I160">
+      <c r="J160">
         <v>0.01583514015103771</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:10">
       <c r="A161" s="2">
         <v>35886</v>
       </c>
@@ -2579,11 +2585,11 @@
       <c r="C161">
         <v>0.002536858685770138</v>
       </c>
-      <c r="I161">
+      <c r="J161">
         <v>0.0252354571732023</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:10">
       <c r="A162" s="2">
         <v>35916</v>
       </c>
@@ -2593,11 +2599,11 @@
       <c r="C162">
         <v>-0.03391529431815721</v>
       </c>
-      <c r="I162">
+      <c r="J162">
         <v>-0.06942947397195609</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:10">
       <c r="A163" s="2">
         <v>35947</v>
       </c>
@@ -2607,11 +2613,11 @@
       <c r="C163">
         <v>0.02540933952392943</v>
       </c>
-      <c r="I163">
+      <c r="J163">
         <v>0.01652513361788643</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:10">
       <c r="A164" s="2">
         <v>35977</v>
       </c>
@@ -2621,11 +2627,11 @@
       <c r="C164">
         <v>0.002693273580754996</v>
       </c>
-      <c r="I164">
+      <c r="J164">
         <v>-0.02283713264321718</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:10">
       <c r="A165" s="2">
         <v>36008</v>
       </c>
@@ -2635,11 +2641,11 @@
       <c r="C165">
         <v>-0.14360873993811</v>
       </c>
-      <c r="I165">
+      <c r="J165">
         <v>-0.05734778297984777</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:10">
       <c r="A166" s="2">
         <v>36039</v>
       </c>
@@ -2649,11 +2655,11 @@
       <c r="C166">
         <v>-0.02768764901942955</v>
       </c>
-      <c r="I166">
+      <c r="J166">
         <v>0.02465702670633974</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:10">
       <c r="A167" s="2">
         <v>36069</v>
       </c>
@@ -2663,11 +2669,11 @@
       <c r="C167">
         <v>0.05101271115130324</v>
       </c>
-      <c r="I167">
+      <c r="J167">
         <v>-0.04202145026939452</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:10">
       <c r="A168" s="2">
         <v>36100</v>
       </c>
@@ -2677,11 +2683,11 @@
       <c r="C168">
         <v>0.09140262598823479</v>
       </c>
-      <c r="I168">
+      <c r="J168">
         <v>0.037384206211871</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:10">
       <c r="A169" s="2">
         <v>36130</v>
       </c>
@@ -2691,11 +2697,11 @@
       <c r="C169">
         <v>0.03976528198168316</v>
       </c>
-      <c r="I169">
+      <c r="J169">
         <v>-0.03082406107768065</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:10">
       <c r="A170" s="2">
         <v>36161</v>
       </c>
@@ -2705,11 +2711,11 @@
       <c r="C170">
         <v>0.0537827082451563</v>
       </c>
-      <c r="I170">
+      <c r="J170">
         <v>0.02531272205121038</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:10">
       <c r="A171" s="2">
         <v>36192</v>
       </c>
@@ -2719,11 +2725,11 @@
       <c r="C171">
         <v>0.007250521982228753</v>
       </c>
-      <c r="I171">
+      <c r="J171">
         <v>0.03919177677401997</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:10">
       <c r="A172" s="2">
         <v>36220</v>
       </c>
@@ -2733,11 +2739,11 @@
       <c r="C172">
         <v>0.07182864079697548</v>
       </c>
-      <c r="I172">
+      <c r="J172">
         <v>-0.001462952171325083</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:10">
       <c r="A173" s="2">
         <v>36251</v>
       </c>
@@ -2747,11 +2753,11 @@
       <c r="C173">
         <v>0.05747794485353808</v>
       </c>
-      <c r="I173">
+      <c r="J173">
         <v>0.03961918618605242</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:10">
       <c r="A174" s="2">
         <v>36281</v>
       </c>
@@ -2761,11 +2767,11 @@
       <c r="C174">
         <v>-0.02232788187995316</v>
       </c>
-      <c r="I174">
+      <c r="J174">
         <v>-0.05016715778637548</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:10">
       <c r="A175" s="2">
         <v>36312</v>
       </c>
@@ -2775,11 +2781,11 @@
       <c r="C175">
         <v>0.06279739368059056</v>
       </c>
-      <c r="I175">
+      <c r="J175">
         <v>-0.0162520410217295</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:10">
       <c r="A176" s="2">
         <v>36342</v>
       </c>
@@ -2789,11 +2795,11 @@
       <c r="C176">
         <v>-0.03817159611356757</v>
       </c>
-      <c r="I176">
+      <c r="J176">
         <v>-0.05420635483642078</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:10">
       <c r="A177" s="2">
         <v>36373</v>
       </c>
@@ -2803,11 +2809,11 @@
       <c r="C177">
         <v>0.01022994943804112</v>
       </c>
-      <c r="I177">
+      <c r="J177">
         <v>0.008278535088124483</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:10">
       <c r="A178" s="2">
         <v>36404</v>
       </c>
@@ -2817,11 +2823,11 @@
       <c r="C178">
         <v>-0.01931451356936298</v>
       </c>
-      <c r="I178">
+      <c r="J178">
         <v>0.1633466326052206</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:10">
       <c r="A179" s="2">
         <v>36434</v>
       </c>
@@ -2831,11 +2837,11 @@
       <c r="C179">
         <v>0.07195439310246399</v>
       </c>
-      <c r="I179">
+      <c r="J179">
         <v>0.02062249015900841</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:10">
       <c r="A180" s="2">
         <v>36465</v>
       </c>
@@ -2845,11 +2851,11 @@
       <c r="C180">
         <v>0.06742535123932059</v>
       </c>
-      <c r="I180">
+      <c r="J180">
         <v>0.008433358574947647</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:10">
       <c r="A181" s="2">
         <v>36495</v>
       </c>
@@ -2859,11 +2865,11 @@
       <c r="C181">
         <v>0.08880774910827882</v>
       </c>
-      <c r="I181">
+      <c r="J181">
         <v>0.001281952683006571</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:10">
       <c r="A182" s="2">
         <v>36526</v>
       </c>
@@ -2873,11 +2879,11 @@
       <c r="C182">
         <v>-0.02930412208183186</v>
       </c>
-      <c r="I182">
+      <c r="J182">
         <v>0.001475823171119828</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:10">
       <c r="A183" s="2">
         <v>36557</v>
       </c>
@@ -2887,11 +2893,11 @@
       <c r="C183">
         <v>0.01134954132090038</v>
       </c>
-      <c r="I183">
+      <c r="J183">
         <v>0.04475000546879349</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:10">
       <c r="A184" s="2">
         <v>36586</v>
       </c>
@@ -2901,11 +2907,11 @@
       <c r="C184">
         <v>0.08369979387721349</v>
       </c>
-      <c r="I184">
+      <c r="J184">
         <v>-0.04166809776901459</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:10">
       <c r="A185" s="2">
         <v>36617</v>
       </c>
@@ -2915,11 +2921,11 @@
       <c r="C185">
         <v>0.00434713869597747</v>
       </c>
-      <c r="I185">
+      <c r="J185">
         <v>0.04505432234656315</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:10">
       <c r="A186" s="2">
         <v>36647</v>
       </c>
@@ -2929,11 +2935,11 @@
       <c r="C186">
         <v>-0.04877642645164237</v>
       </c>
-      <c r="I186">
+      <c r="J186">
         <v>-0.03337471812606341</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:10">
       <c r="A187" s="2">
         <v>36678</v>
       </c>
@@ -2943,11 +2949,11 @@
       <c r="C187">
         <v>0.006522576666429636</v>
       </c>
-      <c r="I187">
+      <c r="J187">
         <v>0.03038046279607731</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:10">
       <c r="A188" s="2">
         <v>36708</v>
       </c>
@@ -2957,11 +2963,11 @@
       <c r="C188">
         <v>0.003497839625504318</v>
       </c>
-      <c r="I188">
+      <c r="J188">
         <v>-0.00703899451914114</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:10">
       <c r="A189" s="2">
         <v>36739</v>
       </c>
@@ -2971,11 +2977,11 @@
       <c r="C189">
         <v>0.07010333007207681</v>
       </c>
-      <c r="I189">
+      <c r="J189">
         <v>0.03877718319065138</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:10">
       <c r="A190" s="2">
         <v>36770</v>
       </c>
@@ -2985,11 +2991,11 @@
       <c r="C190">
         <v>-0.0397206454632254</v>
       </c>
-      <c r="I190">
+      <c r="J190">
         <v>0.003798295238074179</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:10">
       <c r="A191" s="2">
         <v>36800</v>
       </c>
@@ -2999,11 +3005,11 @@
       <c r="C191">
         <v>0.02097125389397547</v>
       </c>
-      <c r="I191">
+      <c r="J191">
         <v>0.00652558128196068</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:10">
       <c r="A192" s="2">
         <v>36831</v>
       </c>
@@ -3013,11 +3019,11 @@
       <c r="C192">
         <v>-0.09079329467799091</v>
       </c>
-      <c r="I192">
+      <c r="J192">
         <v>-0.01388961208018724</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:12">
       <c r="A193" s="2">
         <v>36861</v>
       </c>
@@ -3027,11 +3033,11 @@
       <c r="C193">
         <v>-0.05114889736907235</v>
       </c>
-      <c r="I193">
+      <c r="J193">
         <v>-0.05442661080349676</v>
       </c>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:12">
       <c r="A194" s="2">
         <v>36892</v>
       </c>
@@ -3041,11 +3047,11 @@
       <c r="C194">
         <v>0.02660700796536974</v>
       </c>
-      <c r="I194">
+      <c r="J194">
         <v>-0.02863910727574137</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:12">
       <c r="A195" s="2">
         <v>36923</v>
       </c>
@@ -3055,11 +3061,11 @@
       <c r="C195">
         <v>-0.07968242584699203</v>
       </c>
-      <c r="I195">
+      <c r="J195">
         <v>0.01322396995048569</v>
       </c>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:12">
       <c r="A196" s="2">
         <v>36951</v>
       </c>
@@ -3069,11 +3075,11 @@
       <c r="C196">
         <v>-0.02338460571449119</v>
       </c>
-      <c r="I196">
+      <c r="J196">
         <v>0.01176619226944142</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:12">
       <c r="A197" s="2">
         <v>36982</v>
       </c>
@@ -3083,11 +3089,11 @@
       <c r="C197">
         <v>0.06751984703951019</v>
       </c>
-      <c r="I197">
+      <c r="J197">
         <v>0.0160865968110111</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:12">
       <c r="A198" s="2">
         <v>37012</v>
       </c>
@@ -3097,11 +3103,11 @@
       <c r="C198">
         <v>0.03502919541913019</v>
       </c>
-      <c r="I198">
+      <c r="J198">
         <v>0.06400055209203437</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:12">
       <c r="A199" s="2">
         <v>37043</v>
       </c>
@@ -3111,11 +3117,11 @@
       <c r="C199">
         <v>-0.03063728268014598</v>
       </c>
-      <c r="I199">
+      <c r="J199">
         <v>0.01158878504673266</v>
       </c>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:12">
       <c r="A200" s="2">
         <v>37073</v>
       </c>
@@ -3125,11 +3131,11 @@
       <c r="C200">
         <v>-0.0466759917501256</v>
       </c>
-      <c r="I200">
+      <c r="J200">
         <v>-0.04823386741732993</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:12">
       <c r="A201" s="2">
         <v>37104</v>
       </c>
@@ -3139,11 +3145,11 @@
       <c r="C201">
         <v>-0.08793947633332733</v>
       </c>
-      <c r="I201">
+      <c r="J201">
         <v>-0.01847849146335212</v>
       </c>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:12">
       <c r="A202" s="2">
         <v>37135</v>
       </c>
@@ -3153,11 +3159,11 @@
       <c r="C202">
         <v>-0.088657739951023</v>
       </c>
-      <c r="I202">
+      <c r="J202">
         <v>0.07680104366119056</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:12">
       <c r="A203" s="2">
         <v>37165</v>
       </c>
@@ -3167,11 +3173,11 @@
       <c r="C203">
         <v>0.03130174168226985</v>
       </c>
-      <c r="I203">
+      <c r="J203">
         <v>-0.03959834959506559</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:12">
       <c r="A204" s="2">
         <v>37196</v>
       </c>
@@ -3184,11 +3190,11 @@
       <c r="F204">
         <v>-0.04325560841196818</v>
       </c>
-      <c r="I204">
+      <c r="J204">
         <v>0.004335533656478763</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:12">
       <c r="A205" s="2">
         <v>37226</v>
       </c>
@@ -3201,11 +3207,11 @@
       <c r="F205">
         <v>-0.01040619481048766</v>
       </c>
-      <c r="I205">
+      <c r="J205">
         <v>0.01330961541511133</v>
       </c>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:12">
       <c r="A206" s="2">
         <v>37257</v>
       </c>
@@ -3218,14 +3224,14 @@
       <c r="F206">
         <v>-0.03157432321124587</v>
       </c>
-      <c r="I206">
+      <c r="J206">
         <v>0.04178138506249884</v>
       </c>
-      <c r="K206">
+      <c r="L206">
         <v>-0.07490951854743111</v>
       </c>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:12">
       <c r="A207" s="2">
         <v>37288</v>
       </c>
@@ -3238,14 +3244,14 @@
       <c r="F207">
         <v>0.01536629621229291</v>
       </c>
-      <c r="I207">
+      <c r="J207">
         <v>0.0498391947218555</v>
       </c>
-      <c r="K207">
+      <c r="L207">
         <v>-0.03092054794520493</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:12">
       <c r="A208" s="2">
         <v>37316</v>
       </c>
@@ -3258,14 +3264,14 @@
       <c r="F208">
         <v>0.02496230524375931</v>
       </c>
-      <c r="I208">
+      <c r="J208">
         <v>0.006831628167904835</v>
       </c>
-      <c r="K208">
+      <c r="L208">
         <v>0.08666323640002882</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:12">
       <c r="A209" s="2">
         <v>37347</v>
       </c>
@@ -3278,14 +3284,14 @@
       <c r="F209">
         <v>-0.02258363299553234</v>
       </c>
-      <c r="I209">
+      <c r="J209">
         <v>-0.009677455474217944</v>
       </c>
-      <c r="K209">
+      <c r="L209">
         <v>-0.1063980352162505</v>
       </c>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:12">
       <c r="A210" s="2">
         <v>37377</v>
       </c>
@@ -3298,14 +3304,14 @@
       <c r="F210">
         <v>0.0009755009894367728</v>
       </c>
-      <c r="I210">
+      <c r="J210">
         <v>0.01691605888741066</v>
       </c>
-      <c r="K210">
+      <c r="L210">
         <v>-0.06846555177714664</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:12">
       <c r="A211" s="2">
         <v>37408</v>
       </c>
@@ -3318,14 +3324,14 @@
       <c r="F211">
         <v>0.04318650108592759</v>
       </c>
-      <c r="I211">
+      <c r="J211">
         <v>-0.08228639571985807</v>
       </c>
-      <c r="K211">
+      <c r="L211">
         <v>-0.1691170035879931</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:12">
       <c r="A212" s="2">
         <v>37438</v>
       </c>
@@ -3338,14 +3344,14 @@
       <c r="F212">
         <v>0.07246763646069665</v>
       </c>
-      <c r="I212">
+      <c r="J212">
         <v>-0.02471263786810896</v>
       </c>
-      <c r="K212">
+      <c r="L212">
         <v>-0.2864515546594651</v>
       </c>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:12">
       <c r="A213" s="2">
         <v>37469</v>
       </c>
@@ -3358,14 +3364,14 @@
       <c r="F213">
         <v>0.01520657043305151</v>
       </c>
-      <c r="I213">
+      <c r="J213">
         <v>0.0215310605877379</v>
       </c>
-      <c r="K213">
+      <c r="L213">
         <v>-0.001022699716384801</v>
       </c>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:12">
       <c r="A214" s="2">
         <v>37500</v>
       </c>
@@ -3378,14 +3384,14 @@
       <c r="F214">
         <v>-0.006202348557279969</v>
       </c>
-      <c r="I214">
+      <c r="J214">
         <v>0.03201278902071136</v>
       </c>
-      <c r="K214">
+      <c r="L214">
         <v>-0.3551134564643801</v>
       </c>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:12">
       <c r="A215" s="2">
         <v>37530</v>
       </c>
@@ -3398,14 +3404,14 @@
       <c r="F215">
         <v>0.01001529429177572</v>
       </c>
-      <c r="I215">
+      <c r="J215">
         <v>-0.02140410165210049</v>
       </c>
-      <c r="K215">
+      <c r="L215">
         <v>0.2739800009819469</v>
       </c>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:12">
       <c r="A216" s="2">
         <v>37561</v>
       </c>
@@ -3418,14 +3424,14 @@
       <c r="F216">
         <v>-0.02532727627979692</v>
       </c>
-      <c r="I216">
+      <c r="J216">
         <v>0.0003950898994038443</v>
       </c>
-      <c r="K216">
+      <c r="L216">
         <v>0.1003417090591443</v>
       </c>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:12">
       <c r="A217" s="2">
         <v>37591</v>
       </c>
@@ -3438,14 +3444,14 @@
       <c r="F217">
         <v>-2.505826045551274E-05</v>
       </c>
-      <c r="I217">
+      <c r="J217">
         <v>0.01691690820645109</v>
       </c>
-      <c r="K217">
+      <c r="L217">
         <v>-0.1997665051660735</v>
       </c>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:12">
       <c r="A218" s="2">
         <v>37622</v>
       </c>
@@ -3458,14 +3464,14 @@
       <c r="F218">
         <v>0.006164486543376979</v>
       </c>
-      <c r="I218">
+      <c r="J218">
         <v>0.03959568772415856</v>
       </c>
-      <c r="K218">
+      <c r="L218">
         <v>-0.119908380018674</v>
       </c>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:12">
       <c r="A219" s="2">
         <v>37653</v>
       </c>
@@ -3478,14 +3484,14 @@
       <c r="F219">
         <v>0.02348575413428966</v>
       </c>
-      <c r="I219">
+      <c r="J219">
         <v>-0.05157646215599732</v>
       </c>
-      <c r="K219">
+      <c r="L219">
         <v>-0.1042851222544537</v>
       </c>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:12">
       <c r="A220" s="2">
         <v>37681</v>
       </c>
@@ -3498,14 +3504,14 @@
       <c r="F220">
         <v>0.02649957415744009</v>
       </c>
-      <c r="I220">
+      <c r="J220">
         <v>-0.04625981822193392</v>
       </c>
-      <c r="K220">
+      <c r="L220">
         <v>-0.1128733760225045</v>
       </c>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:12">
       <c r="A221" s="2">
         <v>37712</v>
       </c>
@@ -3518,14 +3524,14 @@
       <c r="F221">
         <v>0.06040204816992234</v>
       </c>
-      <c r="I221">
+      <c r="J221">
         <v>-0.01564817015469999</v>
       </c>
-      <c r="K221">
+      <c r="L221">
         <v>0.3067487222280172</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:12">
       <c r="A222" s="2">
         <v>37742</v>
       </c>
@@ -3538,14 +3544,14 @@
       <c r="F222">
         <v>-0.0485781990521329</v>
       </c>
-      <c r="I222">
+      <c r="J222">
         <v>0.01047080820339397</v>
       </c>
-      <c r="K222">
+      <c r="L222">
         <v>0.01749708647966952</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:12">
       <c r="A223" s="2">
         <v>37773</v>
       </c>
@@ -3558,14 +3564,14 @@
       <c r="F223">
         <v>0.02786719612772881</v>
       </c>
-      <c r="I223">
+      <c r="J223">
         <v>-0.009517793201264779</v>
       </c>
-      <c r="K223">
+      <c r="L223">
         <v>0.07656703538087184</v>
       </c>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:12">
       <c r="A224" s="2">
         <v>37803</v>
       </c>
@@ -3578,14 +3584,14 @@
       <c r="F224">
         <v>0.02432277974625663</v>
       </c>
-      <c r="I224">
+      <c r="J224">
         <v>0.03516324449161057</v>
       </c>
-      <c r="K224">
+      <c r="L224">
         <v>0.08333454783939565</v>
       </c>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:12">
       <c r="A225" s="2">
         <v>37834</v>
       </c>
@@ -3598,14 +3604,14 @@
       <c r="F225">
         <v>-0.03048494722042461</v>
       </c>
-      <c r="I225">
+      <c r="J225">
         <v>0.09665980519190387</v>
       </c>
-      <c r="K225">
+      <c r="L225">
         <v>0.02931403279835143</v>
       </c>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:12">
       <c r="A226" s="2">
         <v>37865</v>
       </c>
@@ -3618,14 +3624,14 @@
       <c r="F226">
         <v>0.003659968234237976</v>
       </c>
-      <c r="I226">
+      <c r="J226">
         <v>-0.03126139040334608</v>
       </c>
-      <c r="K226">
+      <c r="L226">
         <v>-0.1258887494772044</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:12">
       <c r="A227" s="2">
         <v>37895</v>
       </c>
@@ -3638,14 +3644,14 @@
       <c r="F227">
         <v>0.05589193156277239</v>
       </c>
-      <c r="I227">
+      <c r="J227">
         <v>-0.001940640484541345</v>
       </c>
-      <c r="K227">
+      <c r="L227">
         <v>0.1517045454545443</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:12">
       <c r="A228" s="2">
         <v>37926</v>
       </c>
@@ -3658,14 +3664,14 @@
       <c r="F228">
         <v>0.01589956341362764</v>
       </c>
-      <c r="I228">
+      <c r="J228">
         <v>-0.0006602654077834114</v>
       </c>
-      <c r="K228">
+      <c r="L228">
         <v>0.04029808116739853</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:12">
       <c r="A229" s="2">
         <v>37956</v>
       </c>
@@ -3678,14 +3684,14 @@
       <c r="F229">
         <v>-0.0002779500117595646</v>
       </c>
-      <c r="I229">
+      <c r="J229">
         <v>-0.005299771295312783</v>
       </c>
-      <c r="K229">
+      <c r="L229">
         <v>0.09019093972295078</v>
       </c>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:12">
       <c r="A230" s="2">
         <v>37987</v>
       </c>
@@ -3698,14 +3704,14 @@
       <c r="F230">
         <v>0.01304589588947347</v>
       </c>
-      <c r="I230">
+      <c r="J230">
         <v>-0.02291007705491166</v>
       </c>
-      <c r="K230">
+      <c r="L230">
         <v>0.06544409721029809</v>
       </c>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:12">
       <c r="A231" s="2">
         <v>38018</v>
       </c>
@@ -3718,14 +3724,14 @@
       <c r="F231">
         <v>0.01311011653436922</v>
       </c>
-      <c r="I231">
+      <c r="J231">
         <v>-0.01246734677042338</v>
       </c>
-      <c r="K231">
+      <c r="L231">
         <v>0.03626146936845909</v>
       </c>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:12">
       <c r="A232" s="2">
         <v>38047</v>
       </c>
@@ -3738,14 +3744,14 @@
       <c r="F232">
         <v>0.018733459751193</v>
       </c>
-      <c r="I232">
+      <c r="J232">
         <v>0.08734191351766807</v>
       </c>
-      <c r="K232">
+      <c r="L232">
         <v>-0.07463011539777653</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:12">
       <c r="A233" s="2">
         <v>38078</v>
       </c>
@@ -3758,17 +3764,17 @@
       <c r="F233">
         <v>-0.02771641302569128</v>
       </c>
-      <c r="G233">
+      <c r="H233">
         <v>0.001400000000000068</v>
       </c>
-      <c r="I233">
+      <c r="J233">
         <v>-0.0618181288022579</v>
       </c>
-      <c r="K233">
+      <c r="L233">
         <v>0.007865458090107191</v>
       </c>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:12">
       <c r="A234" s="2">
         <v>38108</v>
       </c>
@@ -3781,17 +3787,17 @@
       <c r="F234">
         <v>0.01201270696147927</v>
       </c>
-      <c r="G234">
+      <c r="H234">
         <v>0.001298182544437809</v>
       </c>
-      <c r="I234">
+      <c r="J234">
         <v>-0.008602218267735773</v>
       </c>
-      <c r="K234">
+      <c r="L234">
         <v>-0.009894055784687827</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:12">
       <c r="A235" s="2">
         <v>38139</v>
       </c>
@@ -3804,17 +3810,17 @@
       <c r="F235">
         <v>-0.03380176284716441</v>
       </c>
-      <c r="G235">
+      <c r="H235">
         <v>0.001396230178517976</v>
       </c>
-      <c r="I235">
+      <c r="J235">
         <v>0.0100450030504966</v>
       </c>
-      <c r="K235">
+      <c r="L235">
         <v>0.05145795672725995</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:12">
       <c r="A236" s="2">
         <v>38169</v>
       </c>
@@ -3827,17 +3833,17 @@
       <c r="F236">
         <v>-0.0323809113989415</v>
       </c>
-      <c r="G236">
+      <c r="H236">
         <v>0.001493875112040799</v>
       </c>
-      <c r="I236">
+      <c r="J236">
         <v>-0.001588487407504724</v>
       </c>
-      <c r="K236">
+      <c r="L236">
         <v>-0.06284304722038281</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:12">
       <c r="A237" s="2">
         <v>38200</v>
       </c>
@@ -3850,17 +3856,17 @@
       <c r="F237">
         <v>-0.0271940942343184</v>
       </c>
-      <c r="G237">
+      <c r="H237">
         <v>0.00149164677804281</v>
       </c>
-      <c r="I237">
+      <c r="J237">
         <v>0.03430990091778807</v>
       </c>
-      <c r="K237">
+      <c r="L237">
         <v>-0.03577899066783741</v>
       </c>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:12">
       <c r="A238" s="2">
         <v>38231</v>
       </c>
@@ -3873,17 +3879,17 @@
       <c r="F238">
         <v>0.01629714285714279</v>
       </c>
-      <c r="G238">
+      <c r="H238">
         <v>0.001489425081918405</v>
       </c>
-      <c r="I238">
+      <c r="J238">
         <v>-0.003884010402354754</v>
       </c>
-      <c r="K238">
+      <c r="L238">
         <v>0.03935193391711467</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:12">
       <c r="A239" s="2">
         <v>38261</v>
       </c>
@@ -3896,17 +3902,17 @@
       <c r="F239">
         <v>-0.01985920878033431</v>
       </c>
-      <c r="G239">
+      <c r="H239">
         <v>0.002280388657545096</v>
       </c>
-      <c r="I239">
+      <c r="J239">
         <v>-0.002546988775247061</v>
       </c>
-      <c r="K239">
+      <c r="L239">
         <v>0.06071562574615386</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:12">
       <c r="A240" s="2">
         <v>38292</v>
       </c>
@@ -3919,17 +3925,17 @@
       <c r="F240">
         <v>-0.01014226709499766</v>
       </c>
-      <c r="G240">
+      <c r="H240">
         <v>0.002374122069443096</v>
       </c>
-      <c r="I240">
+      <c r="J240">
         <v>0.02072729453187527</v>
       </c>
-      <c r="K240">
+      <c r="L240">
         <v>0.04640319001832993</v>
       </c>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:12">
       <c r="A241" s="2">
         <v>38322</v>
       </c>
@@ -3942,17 +3948,17 @@
       <c r="F241">
         <v>-0.03013584310816453</v>
       </c>
-      <c r="G241">
+      <c r="H241">
         <v>0.002269811506957486</v>
       </c>
-      <c r="I241">
+      <c r="J241">
         <v>-0.0570863051801187</v>
       </c>
-      <c r="K241">
+      <c r="L241">
         <v>0.05051219012497343</v>
       </c>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:12">
       <c r="A242" s="2">
         <v>38353</v>
       </c>
@@ -3965,17 +3971,17 @@
       <c r="F242">
         <v>-0.02633969118982737</v>
       </c>
-      <c r="G242">
+      <c r="H242">
         <v>0.003249310752264645</v>
       </c>
-      <c r="I242">
+      <c r="J242">
         <v>0.007141845015091963</v>
       </c>
-      <c r="K242">
+      <c r="L242">
         <v>0.02304219364023852</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:12">
       <c r="A243" s="2">
         <v>38384</v>
       </c>
@@ -3988,17 +3994,17 @@
       <c r="F243">
         <v>-0.00417321288295347</v>
       </c>
-      <c r="G243">
+      <c r="H243">
         <v>0.003140641868681904</v>
       </c>
-      <c r="I243">
+      <c r="J243">
         <v>0.01423193382017152</v>
       </c>
-      <c r="K243">
+      <c r="L243">
         <v>0.05125150122957778</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:12">
       <c r="A244" s="2">
         <v>38412</v>
       </c>
@@ -4011,17 +4017,17 @@
       <c r="F244">
         <v>-0.03931864122664308</v>
       </c>
-      <c r="G244">
+      <c r="H244">
         <v>0.003130809118481626</v>
       </c>
-      <c r="I244">
+      <c r="J244">
         <v>0.003931446716485709</v>
       </c>
-      <c r="K244">
+      <c r="L244">
         <v>-0.004288654559303051</v>
       </c>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:12">
       <c r="A245" s="2">
         <v>38443</v>
       </c>
@@ -4034,17 +4040,17 @@
       <c r="F245">
         <v>0.04639347206897426</v>
       </c>
-      <c r="G245">
+      <c r="H245">
         <v>0.003706232322247205</v>
       </c>
-      <c r="I245">
+      <c r="J245">
         <v>0.01973189772558248</v>
       </c>
-      <c r="K245">
+      <c r="L245">
         <v>-0.06631881840863829</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:12">
       <c r="A246" s="2">
         <v>38473</v>
       </c>
@@ -4057,17 +4063,17 @@
       <c r="F246">
         <v>0.04855440300154501</v>
       </c>
-      <c r="G246">
+      <c r="H246">
         <v>0.003692546885628367</v>
       </c>
-      <c r="I246">
+      <c r="J246">
         <v>-0.0004817112674353474</v>
       </c>
-      <c r="K246">
+      <c r="L246">
         <v>0.1224752523528538</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:12">
       <c r="A247" s="2">
         <v>38504</v>
       </c>
@@ -4080,17 +4086,17 @@
       <c r="F247">
         <v>-0.02916345096938655</v>
       </c>
-      <c r="G247">
+      <c r="H247">
         <v>0.003678962145415854</v>
       </c>
-      <c r="I247">
+      <c r="J247">
         <v>0.07549605515634061</v>
       </c>
-      <c r="K247">
+      <c r="L247">
         <v>0.07475693569548181</v>
       </c>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:12">
       <c r="A248" s="2">
         <v>38534</v>
       </c>
@@ -4103,17 +4109,17 @@
       <c r="F248">
         <v>-0.02596839468105616</v>
       </c>
-      <c r="G248">
+      <c r="H248">
         <v>0.003954856757017344</v>
       </c>
-      <c r="I248">
+      <c r="J248">
         <v>-0.01861238862553516</v>
       </c>
-      <c r="K248">
+      <c r="L248">
         <v>0.09211217733655608</v>
       </c>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:12">
       <c r="A249" s="2">
         <v>38565</v>
       </c>
@@ -4126,17 +4132,17 @@
       <c r="F249">
         <v>0.004699015679873408</v>
       </c>
-      <c r="G249">
+      <c r="H249">
         <v>0.003939277478862468</v>
       </c>
-      <c r="I249">
+      <c r="J249">
         <v>0.001213514309921893</v>
       </c>
-      <c r="K249">
+      <c r="L249">
         <v>-0.03602756660325301</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:12">
       <c r="A250" s="2">
         <v>38596</v>
       </c>
@@ -4149,17 +4155,17 @@
       <c r="F250">
         <v>-0.0100679401339111</v>
       </c>
-      <c r="G250">
+      <c r="H250">
         <v>0.003923820461288363</v>
       </c>
-      <c r="I250">
+      <c r="J250">
         <v>0.106476150553271</v>
       </c>
-      <c r="K250">
+      <c r="L250">
         <v>0.1000199655977403</v>
       </c>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:12">
       <c r="A251" s="2">
         <v>38626</v>
       </c>
@@ -4172,17 +4178,17 @@
       <c r="F251">
         <v>-0.02695511625015534</v>
       </c>
-      <c r="G251">
+      <c r="H251">
         <v>0.003813155386081846</v>
       </c>
-      <c r="I251">
+      <c r="J251">
         <v>-0.003710663911073775</v>
       </c>
-      <c r="K251">
+      <c r="L251">
         <v>-0.06395158081382746</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:12">
       <c r="A252" s="2">
         <v>38657</v>
       </c>
@@ -4195,17 +4201,17 @@
       <c r="F252">
         <v>0.01321203138176896</v>
       </c>
-      <c r="G252">
+      <c r="H252">
         <v>0.003798670465337217</v>
       </c>
-      <c r="I252">
+      <c r="J252">
         <v>0.07561801174647642</v>
       </c>
-      <c r="K252">
+      <c r="L252">
         <v>0.07880645546208376</v>
       </c>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:12">
       <c r="A253" s="2">
         <v>38687</v>
       </c>
@@ -4218,17 +4224,17 @@
       <c r="F253">
         <v>-0.01523405972558511</v>
       </c>
-      <c r="G253">
+      <c r="H253">
         <v>0.003878902554399266</v>
       </c>
-      <c r="I253">
+      <c r="J253">
         <v>0.03254797196746084</v>
       </c>
-      <c r="K253">
+      <c r="L253">
         <v>0.0752756558708656</v>
       </c>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:12">
       <c r="A254" s="2">
         <v>38718</v>
       </c>
@@ -4241,17 +4247,17 @@
       <c r="F254">
         <v>-0.01675033295768869</v>
       </c>
-      <c r="G254">
+      <c r="H254">
         <v>0.00329846385826027</v>
       </c>
-      <c r="I254">
+      <c r="J254">
         <v>0.07930620985906045</v>
       </c>
-      <c r="K254">
+      <c r="L254">
         <v>0.06280537982821621</v>
       </c>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:12">
       <c r="A255" s="2">
         <v>38749</v>
       </c>
@@ -4264,17 +4270,17 @@
       <c r="F255">
         <v>-0.005209690023443625</v>
       </c>
-      <c r="G255">
+      <c r="H255">
         <v>0.003287619763291394</v>
       </c>
-      <c r="I255">
+      <c r="J255">
         <v>-0.002413159051473657</v>
       </c>
-      <c r="K255">
+      <c r="L255">
         <v>0.043039567366147</v>
       </c>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:12">
       <c r="A256" s="2">
         <v>38777</v>
       </c>
@@ -4287,17 +4293,17 @@
       <c r="F256">
         <v>-0.01021209740769835</v>
       </c>
-      <c r="G256">
+      <c r="H256">
         <v>0.003276846737196859</v>
       </c>
-      <c r="I256">
+      <c r="J256">
         <v>0.02695850589851867</v>
       </c>
-      <c r="K256">
+      <c r="L256">
         <v>0.04176235878163692</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:12">
       <c r="A257" s="2">
         <v>38808</v>
       </c>
@@ -4310,17 +4316,17 @@
       <c r="F257">
         <v>0.03666666666666685</v>
       </c>
-      <c r="G257">
+      <c r="H257">
         <v>0.002799552071668598</v>
       </c>
-      <c r="I257">
+      <c r="J257">
         <v>0.06831216026678</v>
       </c>
-      <c r="K257">
+      <c r="L257">
         <v>-0.003696507802192772</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:12">
       <c r="A258" s="2">
         <v>38838</v>
       </c>
@@ -4333,17 +4339,17 @@
       <c r="F258">
         <v>-0.01133057724697595</v>
       </c>
-      <c r="G258">
+      <c r="H258">
         <v>0.002791736460078242</v>
       </c>
-      <c r="I258">
+      <c r="J258">
         <v>-0.01210704680299113</v>
       </c>
-      <c r="K258">
+      <c r="L258">
         <v>-0.08458637163691196</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:12">
       <c r="A259" s="2">
         <v>38869</v>
       </c>
@@ -4356,17 +4362,17 @@
       <c r="F259">
         <v>0.0158484332249238</v>
       </c>
-      <c r="G259">
+      <c r="H259">
         <v>0.002783964365256075</v>
       </c>
-      <c r="I259">
+      <c r="J259">
         <v>-0.04903531119162863</v>
       </c>
-      <c r="K259">
+      <c r="L259">
         <v>0.01126798390985551</v>
       </c>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:12">
       <c r="A260" s="2">
         <v>38899</v>
       </c>
@@ -4379,17 +4385,17 @@
       <c r="F260">
         <v>0.03577599349527372</v>
       </c>
-      <c r="G260">
+      <c r="H260">
         <v>0.002220988339811214</v>
       </c>
-      <c r="I260">
+      <c r="J260">
         <v>0.02660919882523638</v>
       </c>
-      <c r="K260">
+      <c r="L260">
         <v>0.02049217434343631</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:12">
       <c r="A261" s="2">
         <v>38930</v>
       </c>
@@ -4402,17 +4408,17 @@
       <c r="F261">
         <v>-0.0327494848395643</v>
       </c>
-      <c r="G261">
+      <c r="H261">
         <v>0.002308402585410985</v>
       </c>
-      <c r="I261">
+      <c r="J261">
         <v>-0.0206726964543118</v>
       </c>
-      <c r="K261">
+      <c r="L261">
         <v>0.06456573686327371</v>
       </c>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:12">
       <c r="A262" s="2">
         <v>38961</v>
       </c>
@@ -4425,17 +4431,17 @@
       <c r="F262">
         <v>-0.0002536204316619939</v>
       </c>
-      <c r="G262">
+      <c r="H262">
         <v>0.002210962690004648</v>
       </c>
-      <c r="I262">
+      <c r="J262">
         <v>-0.02439323570882967</v>
       </c>
-      <c r="K262">
+      <c r="L262">
         <v>0.04467063738999033</v>
       </c>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:12">
       <c r="A263" s="2">
         <v>38991</v>
       </c>
@@ -4448,17 +4454,17 @@
       <c r="F263">
         <v>0.007407595322052707</v>
       </c>
-      <c r="G263">
+      <c r="H263">
         <v>0.001838404265097848</v>
       </c>
-      <c r="I263">
+      <c r="J263">
         <v>0.004652554823965094</v>
       </c>
-      <c r="K263">
+      <c r="L263">
         <v>0.05311024124578911</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:12">
       <c r="A264" s="2">
         <v>39022</v>
       </c>
@@ -4471,17 +4477,17 @@
       <c r="F264">
         <v>-0.0256352144242149</v>
       </c>
-      <c r="G264">
+      <c r="H264">
         <v>0.001835030736764942</v>
       </c>
-      <c r="I264">
+      <c r="J264">
         <v>0.03024069264069085</v>
       </c>
-      <c r="K264">
+      <c r="L264">
         <v>-0.007282460481784714</v>
       </c>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:12">
       <c r="A265" s="2">
         <v>39052</v>
       </c>
@@ -4494,17 +4500,17 @@
       <c r="F265">
         <v>-0.01377510143953686</v>
       </c>
-      <c r="G265">
+      <c r="H265">
         <v>0.001831669566810135</v>
       </c>
-      <c r="I265">
+      <c r="J265">
         <v>-0.01477027403537701</v>
       </c>
-      <c r="K265">
+      <c r="L265">
         <v>0.06371332058117019</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:12">
       <c r="A266" s="2">
         <v>39083</v>
       </c>
@@ -4517,17 +4523,17 @@
       <c r="F266">
         <v>0.003590146750524159</v>
       </c>
-      <c r="G266">
+      <c r="H266">
         <v>0.001919736721820886</v>
       </c>
-      <c r="I266">
+      <c r="J266">
         <v>0.04034401176909097</v>
       </c>
-      <c r="K266">
+      <c r="L266">
         <v>0.02651942685516451</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:12">
       <c r="A267" s="2">
         <v>39114</v>
       </c>
@@ -4543,17 +4549,17 @@
       <c r="F267">
         <v>0.02148993393738419</v>
       </c>
-      <c r="G267">
+      <c r="H267">
         <v>0.001916058394160647</v>
       </c>
-      <c r="I267">
+      <c r="J267">
         <v>0.00119753232449038</v>
       </c>
-      <c r="K267">
+      <c r="L267">
         <v>-0.04676267372354126</v>
       </c>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:12">
       <c r="A268" s="2">
         <v>39142</v>
       </c>
@@ -4569,17 +4575,17 @@
       <c r="F268">
         <v>0.002837423312883391</v>
       </c>
-      <c r="G268">
+      <c r="H268">
         <v>0.001912394135324513</v>
       </c>
-      <c r="I268">
+      <c r="J268">
         <v>-0.01169325189189019</v>
       </c>
-      <c r="K268">
+      <c r="L268">
         <v>0.04108504398826773</v>
       </c>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:12">
       <c r="A269" s="2">
         <v>39173</v>
       </c>
@@ -4595,17 +4601,17 @@
       <c r="F269">
         <v>-0.01605872906629957</v>
       </c>
-      <c r="G269">
+      <c r="H269">
         <v>0.001999636429740104</v>
       </c>
-      <c r="I269">
+      <c r="J269">
         <v>0.001463633325543556</v>
       </c>
-      <c r="K269">
+      <c r="L269">
         <v>0.1116400476981829</v>
       </c>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:12">
       <c r="A270" s="2">
         <v>39203</v>
       </c>
@@ -4621,17 +4627,17 @@
       <c r="F270">
         <v>-0.01847102406673395</v>
       </c>
-      <c r="G270">
+      <c r="H270">
         <v>0.001995645863570372</v>
       </c>
-      <c r="I270">
+      <c r="J270">
         <v>-0.01544031900107024</v>
       </c>
-      <c r="K270">
+      <c r="L270">
         <v>0.08478541805681794</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:12">
       <c r="A271" s="2">
         <v>39234</v>
       </c>
@@ -4647,17 +4653,17 @@
       <c r="F271">
         <v>0.007179054054053946</v>
       </c>
-      <c r="G271">
+      <c r="H271">
         <v>0.001991671193192213</v>
       </c>
-      <c r="I271">
+      <c r="J271">
         <v>-0.01684828093193014</v>
       </c>
-      <c r="K271">
+      <c r="L271">
         <v>-0.008424757262658678</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:12">
       <c r="A272" s="2">
         <v>39264</v>
       </c>
@@ -4673,17 +4679,17 @@
       <c r="F272">
         <v>-0.01394129979035641</v>
       </c>
-      <c r="G272">
+      <c r="H272">
         <v>0.002258764004336777</v>
       </c>
-      <c r="I272">
+      <c r="J272">
         <v>0.007982366432833343</v>
       </c>
-      <c r="K272">
+      <c r="L272">
         <v>-0.0796590471852956</v>
       </c>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:12">
       <c r="A273" s="2">
         <v>39295</v>
       </c>
@@ -4699,17 +4705,17 @@
       <c r="F273">
         <v>0.006803444243648427</v>
       </c>
-      <c r="G273">
+      <c r="H273">
         <v>0.002253673487785157</v>
       </c>
-      <c r="I273">
+      <c r="J273">
         <v>0.009914449885986887</v>
       </c>
-      <c r="K273">
+      <c r="L273">
         <v>-0.0152809832387002</v>
       </c>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:12">
       <c r="A274" s="2">
         <v>39326</v>
       </c>
@@ -4725,17 +4731,17 @@
       <c r="F274">
         <v>0.009898637947418409</v>
       </c>
-      <c r="G274">
+      <c r="H274">
         <v>0.002248605864364039</v>
       </c>
-      <c r="I274">
+      <c r="J274">
         <v>0.06869303278826111</v>
       </c>
-      <c r="K274">
+      <c r="L274">
         <v>0.03483561281826053</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:12">
       <c r="A275" s="2">
         <v>39356</v>
       </c>
@@ -4751,17 +4757,17 @@
       <c r="F275">
         <v>-0.014480253012363</v>
       </c>
-      <c r="G275">
+      <c r="H275">
         <v>0.002512788297585722</v>
       </c>
-      <c r="I275">
+      <c r="J275">
         <v>0.04287258360512158</v>
       </c>
-      <c r="K275">
+      <c r="L275">
         <v>0.04710970075522702</v>
       </c>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:12">
       <c r="A276" s="2">
         <v>39387</v>
       </c>
@@ -4778,16 +4784,19 @@
         <v>-0.03781991778278748</v>
       </c>
       <c r="G276">
+        <v>-0.004215636177823945</v>
+      </c>
+      <c r="H276">
         <v>0.0025960075194702</v>
       </c>
-      <c r="I276">
+      <c r="J276">
         <v>-0.02871035432662716</v>
       </c>
-      <c r="K276">
+      <c r="L276">
         <v>-0.04226354444448399</v>
       </c>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:12">
       <c r="A277" s="2">
         <v>39417</v>
       </c>
@@ -4804,16 +4813,19 @@
         <v>-0.004410264891535065</v>
       </c>
       <c r="G277">
+        <v>-0.004810776138550077</v>
+      </c>
+      <c r="H277">
         <v>0.002499999999999947</v>
       </c>
-      <c r="I277">
+      <c r="J277">
         <v>0.07054619452989264</v>
       </c>
-      <c r="K277">
+      <c r="L277">
         <v>4.174493842246108E-05</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:12">
       <c r="A278" s="2">
         <v>39448</v>
       </c>
@@ -4830,16 +4842,19 @@
         <v>-0.003460782413687968</v>
       </c>
       <c r="G278">
+        <v>0.01398646471156106</v>
+      </c>
+      <c r="H278">
         <v>0.002850017812611183</v>
       </c>
-      <c r="I278">
+      <c r="J278">
         <v>0.09264659123843222</v>
       </c>
-      <c r="K278">
+      <c r="L278">
         <v>-0.2699532476206338</v>
       </c>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:12">
       <c r="A279" s="2">
         <v>39479</v>
       </c>
@@ -4856,16 +4871,19 @@
         <v>0.001555814858031912</v>
       </c>
       <c r="G279">
+        <v>-0.000317823544360385</v>
+      </c>
+      <c r="H279">
         <v>0.002753108348134914</v>
       </c>
-      <c r="I279">
+      <c r="J279">
         <v>0.03165567227336719</v>
       </c>
-      <c r="K279">
+      <c r="L279">
         <v>-0.04363885871119033</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:12">
       <c r="A280" s="2">
         <v>39508</v>
       </c>
@@ -4882,16 +4900,19 @@
         <v>-0.02565880721220526</v>
       </c>
       <c r="G280">
+        <v>-0.01659566350861574</v>
+      </c>
+      <c r="H280">
         <v>0.002834115667345705</v>
       </c>
-      <c r="I280">
+      <c r="J280">
         <v>-0.07831101260708728</v>
       </c>
-      <c r="K280">
+      <c r="L280">
         <v>-0.05960253022276985</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:12">
       <c r="A281" s="2">
         <v>39539</v>
       </c>
@@ -4908,16 +4929,19 @@
         <v>0.001110320284697375</v>
       </c>
       <c r="G281">
+        <v>0.007694297167982311</v>
+      </c>
+      <c r="H281">
         <v>0.003091053607701122</v>
       </c>
-      <c r="I281">
+      <c r="J281">
         <v>-0.05062099363117045</v>
       </c>
-      <c r="K281">
+      <c r="L281">
         <v>0.1217694816547887</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:12">
       <c r="A282" s="2">
         <v>39569</v>
       </c>
@@ -4934,16 +4958,19 @@
         <v>-0.01814355590945282</v>
       </c>
       <c r="G282">
+        <v>-0.006223933269169257</v>
+      </c>
+      <c r="H282">
         <v>0.003169572107765362</v>
       </c>
-      <c r="I282">
+      <c r="J282">
         <v>0.01903295273399874</v>
       </c>
-      <c r="K282">
+      <c r="L282">
         <v>0.0143616599222407</v>
       </c>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:12">
       <c r="A283" s="2">
         <v>39600</v>
       </c>
@@ -4960,16 +4987,19 @@
         <v>-0.02392399930487166</v>
       </c>
       <c r="G283">
+        <v>-0.01233212809917406</v>
+      </c>
+      <c r="H283">
         <v>0.003071792171318366</v>
       </c>
-      <c r="I283">
+      <c r="J283">
         <v>0.03318450389075767</v>
       </c>
-      <c r="K283">
+      <c r="L283">
         <v>-0.2150735294117641</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:12">
       <c r="A284" s="2">
         <v>39630</v>
       </c>
@@ -4986,16 +5016,19 @@
         <v>-0.005756676557863494</v>
       </c>
       <c r="G284">
+        <v>0.01144015166372525</v>
+      </c>
+      <c r="H284">
         <v>0.003412372036048605</v>
       </c>
-      <c r="I284">
+      <c r="J284">
         <v>-0.003496783211820009</v>
       </c>
-      <c r="K284">
+      <c r="L284">
         <v>0.002163962899424554</v>
       </c>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:12">
       <c r="A285" s="2">
         <v>39661</v>
       </c>
@@ -5012,16 +5045,19 @@
         <v>-0.04160448874828393</v>
       </c>
       <c r="G285">
+        <v>0.008660806618406847</v>
+      </c>
+      <c r="H285">
         <v>0.003487966515521412</v>
       </c>
-      <c r="I285">
+      <c r="J285">
         <v>-0.03864696049969107</v>
       </c>
-      <c r="K285">
+      <c r="L285">
         <v>-0.005192240760866107</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:12">
       <c r="A286" s="2">
         <v>39692</v>
       </c>
@@ -5038,16 +5074,19 @@
         <v>0.0372135027404088</v>
       </c>
       <c r="G286">
+        <v>-0.04363706266820377</v>
+      </c>
+      <c r="H286">
         <v>0.003388946819603778</v>
       </c>
-      <c r="I286">
+      <c r="J286">
         <v>0.09389550408711278</v>
       </c>
-      <c r="K286">
+      <c r="L286">
         <v>-0.1985634317701491</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:12">
       <c r="A287" s="2">
         <v>39722</v>
       </c>
@@ -5064,16 +5103,19 @@
         <v>0.01954544089830956</v>
       </c>
       <c r="G287">
+        <v>-0.02056951423785591</v>
+      </c>
+      <c r="H287">
         <v>0.004070321295574608</v>
       </c>
-      <c r="I287">
+      <c r="J287">
         <v>-0.07370446657978225</v>
       </c>
-      <c r="K287">
+      <c r="L287">
         <v>-0.3128307467526689</v>
       </c>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:12">
       <c r="A288" s="2">
         <v>39753</v>
       </c>
@@ -5090,16 +5132,19 @@
         <v>0.03254019671358743</v>
       </c>
       <c r="G288">
+        <v>0.01546039129839882</v>
+      </c>
+      <c r="H288">
         <v>0.003967569432465234</v>
       </c>
-      <c r="I288">
+      <c r="J288">
         <v>0.117235626409286</v>
       </c>
-      <c r="K288">
+      <c r="L288">
         <v>-0.1354042420785143</v>
       </c>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:12">
       <c r="A289" s="2">
         <v>39783</v>
       </c>
@@ -5116,16 +5161,19 @@
         <v>0.07737501069503461</v>
       </c>
       <c r="G289">
+        <v>0.005928321207221199</v>
+      </c>
+      <c r="H289">
         <v>0.004037800687285209</v>
       </c>
-      <c r="I289">
+      <c r="J289">
         <v>-0.02880724110532917</v>
       </c>
-      <c r="K289">
+      <c r="L289">
         <v>-0.0004048704414569837</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:12">
       <c r="A290" s="2">
         <v>39814</v>
       </c>
@@ -5142,16 +5190,19 @@
         <v>0.08513341804320196</v>
       </c>
       <c r="G290">
+        <v>0.00194213769086593</v>
+      </c>
+      <c r="H290">
         <v>0.004278257893385762</v>
       </c>
-      <c r="I290">
+      <c r="J290">
         <v>0.1543267357277411</v>
       </c>
-      <c r="K290">
+      <c r="L290">
         <v>-0.1730247071001053</v>
       </c>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:12">
       <c r="A291" s="2">
         <v>39845</v>
       </c>
@@ -5168,16 +5219,19 @@
         <v>0.08504098360655754</v>
       </c>
       <c r="G291">
+        <v>-0.004432858766125092</v>
+      </c>
+      <c r="H291">
         <v>0.004345233023770989</v>
       </c>
-      <c r="I291">
+      <c r="J291">
         <v>0.04942939877472652</v>
       </c>
-      <c r="K291">
+      <c r="L291">
         <v>-0.2259147060424108</v>
       </c>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:12">
       <c r="A292" s="2">
         <v>39873</v>
       </c>
@@ -5194,16 +5248,19 @@
         <v>0.04658482845451695</v>
       </c>
       <c r="G292">
+        <v>-0.003103792763590851</v>
+      </c>
+      <c r="H292">
         <v>0.00424160162877496</v>
       </c>
-      <c r="I292">
+      <c r="J292">
         <v>-0.08532414318297088</v>
       </c>
-      <c r="K292">
+      <c r="L292">
         <v>0.0800740515079803</v>
       </c>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:12">
       <c r="A293" s="2">
         <v>39904</v>
       </c>
@@ -5220,16 +5277,19 @@
         <v>-0.001095596133190213</v>
       </c>
       <c r="G293">
+        <v>0.02933572191036782</v>
+      </c>
+      <c r="H293">
         <v>0.004223686433519225</v>
       </c>
-      <c r="I293">
+      <c r="J293">
         <v>-0.0338836336961118</v>
       </c>
-      <c r="K293">
+      <c r="L293">
         <v>0.3271859405510946</v>
       </c>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:12">
       <c r="A294" s="2">
         <v>39934</v>
       </c>
@@ -5246,16 +5306,19 @@
         <v>-0.04942041764339022</v>
       </c>
       <c r="G294">
+        <v>0.02334199596441766</v>
+      </c>
+      <c r="H294">
         <v>0.004205921938088775</v>
       </c>
-      <c r="I294">
+      <c r="J294">
         <v>0.03996961626866669</v>
       </c>
-      <c r="K294">
+      <c r="L294">
         <v>0.1068334150727477</v>
       </c>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:12">
       <c r="A295" s="2">
         <v>39965</v>
       </c>
@@ -5272,16 +5335,19 @@
         <v>0.0199542996764781</v>
       </c>
       <c r="G295">
+        <v>0.02230960053193987</v>
+      </c>
+      <c r="H295">
         <v>0.004188306248952944</v>
       </c>
-      <c r="I295">
+      <c r="J295">
         <v>-0.04446972620630285</v>
       </c>
-      <c r="K295">
+      <c r="L295">
         <v>-0.04039583487187104</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:12">
       <c r="A296" s="2">
         <v>39995</v>
       </c>
@@ -5298,16 +5364,19 @@
         <v>-0.01195572610518392</v>
       </c>
       <c r="G296">
+        <v>0.03452714052885741</v>
+      </c>
+      <c r="H296">
         <v>0.004337671004337684</v>
       </c>
-      <c r="I296">
+      <c r="J296">
         <v>0.00453112145880552</v>
       </c>
-      <c r="K296">
+      <c r="L296">
         <v>0.2020317069416675</v>
       </c>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:12">
       <c r="A297" s="2">
         <v>40026</v>
       </c>
@@ -5324,16 +5393,19 @@
         <v>-0.07020025143678155</v>
       </c>
       <c r="G297">
+        <v>0.01153319284093679</v>
+      </c>
+      <c r="H297">
         <v>0.004235880398671066</v>
       </c>
-      <c r="I297">
+      <c r="J297">
         <v>0.008017888866601375</v>
       </c>
-      <c r="K297">
+      <c r="L297">
         <v>0.1058825035853299</v>
       </c>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:12">
       <c r="A298" s="2">
         <v>40057</v>
       </c>
@@ -5350,16 +5422,19 @@
         <v>-0.01241036289446362</v>
       </c>
       <c r="G298">
+        <v>0.0152534573228349</v>
+      </c>
+      <c r="H298">
         <v>0.004300719543462117</v>
       </c>
-      <c r="I298">
+      <c r="J298">
         <v>0.01572092229744571</v>
       </c>
-      <c r="K298">
+      <c r="L298">
         <v>0.0703873096740586</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:12">
       <c r="A299" s="2">
         <v>40087</v>
       </c>
@@ -5376,16 +5451,19 @@
         <v>0.02745519888516745</v>
       </c>
       <c r="G299">
+        <v>0.008580260103844273</v>
+      </c>
+      <c r="H299">
         <v>0.004199950588816614</v>
       </c>
-      <c r="I299">
+      <c r="J299">
         <v>0.03335934478289304</v>
       </c>
-      <c r="K299">
+      <c r="L299">
         <v>-0.09155813249102285</v>
       </c>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:12">
       <c r="A300" s="2">
         <v>40118</v>
       </c>
@@ -5402,16 +5480,19 @@
         <v>0.01208775519916228</v>
       </c>
       <c r="G300">
+        <v>0.008847532828793359</v>
+      </c>
+      <c r="H300">
         <v>0.004264392324093702</v>
       </c>
-      <c r="I300">
+      <c r="J300">
         <v>0.1137473822190596</v>
       </c>
-      <c r="K300">
+      <c r="L300">
         <v>0.04265301262205345</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:12">
       <c r="A301" s="2">
         <v>40148</v>
       </c>
@@ -5428,16 +5509,19 @@
         <v>-0.02148869139982135</v>
       </c>
       <c r="G301">
+        <v>-0.0004304265272365715</v>
+      </c>
+      <c r="H301">
         <v>0.004164625183733506</v>
       </c>
-      <c r="I301">
+      <c r="J301">
         <v>-0.02080915856255583</v>
       </c>
-      <c r="K301">
+      <c r="L301">
         <v>0.1250770882346224</v>
       </c>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:12">
       <c r="A302" s="2">
         <v>40179</v>
       </c>
@@ -5454,16 +5538,19 @@
         <v>-0.01487265737626131</v>
       </c>
       <c r="G302">
+        <v>0.01630363693399706</v>
+      </c>
+      <c r="H302">
         <v>0.003903391070992912</v>
       </c>
-      <c r="I302">
+      <c r="J302">
         <v>0.007679558742039516</v>
       </c>
-      <c r="K302">
+      <c r="L302">
         <v>-0.1247842946180237</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:12">
       <c r="A303" s="2">
         <v>40210</v>
       </c>
@@ -5483,16 +5570,19 @@
         <v>-0.01570693397722012</v>
       </c>
       <c r="G303">
+        <v>0.005719433945181374</v>
+      </c>
+      <c r="H303">
         <v>0.003888213851761968</v>
       </c>
-      <c r="I303">
+      <c r="J303">
         <v>0.05757160197864608</v>
       </c>
-      <c r="K303">
+      <c r="L303">
         <v>-0.03700954523839795</v>
       </c>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:12">
       <c r="A304" s="2">
         <v>40238</v>
       </c>
@@ -5512,16 +5602,19 @@
         <v>-0.0220531754094706</v>
       </c>
       <c r="G304">
+        <v>0.01033303774775396</v>
+      </c>
+      <c r="H304">
         <v>0.003953844912450544</v>
       </c>
-      <c r="I304">
+      <c r="J304">
         <v>0.01333725351014037</v>
       </c>
-      <c r="K304">
+      <c r="L304">
         <v>0.1532096832470176</v>
       </c>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:12">
       <c r="A305" s="2">
         <v>40269</v>
       </c>
@@ -5541,16 +5634,19 @@
         <v>-0.02310791293992442</v>
       </c>
       <c r="G305">
+        <v>0.005773345872790214</v>
+      </c>
+      <c r="H305">
         <v>0.003697154798263824</v>
       </c>
-      <c r="I305">
+      <c r="J305">
         <v>0.07017009997890944</v>
       </c>
-      <c r="K305">
+      <c r="L305">
         <v>-0.07430731793923717</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:12">
       <c r="A306" s="2">
         <v>40299</v>
       </c>
@@ -5570,16 +5666,19 @@
         <v>0.01719621320191944</v>
       </c>
       <c r="G306">
+        <v>-0.00543817757803533</v>
+      </c>
+      <c r="H306">
         <v>0.00376361306854589</v>
       </c>
-      <c r="I306">
+      <c r="J306">
         <v>0.1078226102306448</v>
       </c>
-      <c r="K306">
+      <c r="L306">
         <v>-0.1191389503136437</v>
       </c>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:12">
       <c r="A307" s="2">
         <v>40330</v>
       </c>
@@ -5599,16 +5698,19 @@
         <v>0.03789076444489781</v>
       </c>
       <c r="G307">
+        <v>0.002338668830153656</v>
+      </c>
+      <c r="H307">
         <v>0.003749501396090871</v>
       </c>
-      <c r="I307">
+      <c r="J307">
         <v>0.03325017003006403</v>
       </c>
-      <c r="K307">
+      <c r="L307">
         <v>-0.02798555253855106</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:12">
       <c r="A308" s="2">
         <v>40360</v>
       </c>
@@ -5628,16 +5730,19 @@
         <v>0.01464229559748409</v>
       </c>
       <c r="G308">
+        <v>0.01216970848822041</v>
+      </c>
+      <c r="H308">
         <v>0.003735495151804269</v>
       </c>
-      <c r="I308">
+      <c r="J308">
         <v>-0.1148918554841564</v>
       </c>
-      <c r="K308">
+      <c r="L308">
         <v>0.1316625159768625</v>
       </c>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:12">
       <c r="A309" s="2">
         <v>40391</v>
       </c>
@@ -5657,16 +5762,19 @@
         <v>-0.03094430992736075</v>
       </c>
       <c r="G309">
+        <v>0.01891566950402668</v>
+      </c>
+      <c r="H309">
         <v>0.003800775991764871</v>
       </c>
-      <c r="I309">
+      <c r="J309">
         <v>0.09512079941064333</v>
       </c>
-      <c r="K309">
+      <c r="L309">
         <v>-0.08538360327422367</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:12">
       <c r="A310" s="2">
         <v>40422</v>
       </c>
@@ -5686,16 +5794,19 @@
         <v>-0.002648543301184358</v>
       </c>
       <c r="G310">
+        <v>-0.002738794951908874</v>
+      </c>
+      <c r="H310">
         <v>0.003786384791354402</v>
       </c>
-      <c r="I310">
+      <c r="J310">
         <v>-0.02544178887092807</v>
       </c>
-      <c r="K310">
+      <c r="L310">
         <v>0.09597708465945476</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:12">
       <c r="A311" s="2">
         <v>40452</v>
       </c>
@@ -5715,16 +5826,19 @@
         <v>-0.005937468684236835</v>
       </c>
       <c r="G311">
+        <v>-0.0004848039506084589</v>
+      </c>
+      <c r="H311">
         <v>0.003379174852652378</v>
       </c>
-      <c r="I311">
+      <c r="J311">
         <v>0.01487181976090879</v>
       </c>
-      <c r="K311">
+      <c r="L311">
         <v>0.07141446642427995</v>
       </c>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:12">
       <c r="A312" s="2">
         <v>40483</v>
       </c>
@@ -5744,16 +5858,19 @@
         <v>-0.001940573099120546</v>
       </c>
       <c r="G312">
+        <v>-0.01354683753963026</v>
+      </c>
+      <c r="H312">
         <v>0.003367794486215603</v>
       </c>
-      <c r="I312">
+      <c r="J312">
         <v>0.09517838459990213</v>
       </c>
-      <c r="K312">
+      <c r="L312">
         <v>-0.1271940761299682</v>
       </c>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:12">
       <c r="A313" s="2">
         <v>40513</v>
       </c>
@@ -5773,16 +5890,19 @@
         <v>0.0152265037119339</v>
       </c>
       <c r="G313">
+        <v>-0.002381878977840812</v>
+      </c>
+      <c r="H313">
         <v>0.003434548434938733</v>
       </c>
-      <c r="I313">
+      <c r="J313">
         <v>-0.008433124654778523</v>
       </c>
-      <c r="K313">
+      <c r="L313">
         <v>0.1195826346189668</v>
       </c>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:12">
       <c r="A314" s="2">
         <v>40544</v>
       </c>
@@ -5802,16 +5922,19 @@
         <v>-0.0170874269369482</v>
       </c>
       <c r="G314">
+        <v>-0.004375085990497851</v>
+      </c>
+      <c r="H314">
         <v>0.003267211201866793</v>
       </c>
-      <c r="I314">
+      <c r="J314">
         <v>-0.08171098012998335</v>
       </c>
-      <c r="K314">
+      <c r="L314">
         <v>0.1094838681045585</v>
       </c>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:12">
       <c r="A315" s="2">
         <v>40575</v>
       </c>
@@ -5831,16 +5954,19 @@
         <v>-0.005845437522141728</v>
       </c>
       <c r="G315">
+        <v>0.008044953173777403</v>
+      </c>
+      <c r="H315">
         <v>0.003256571295650046</v>
       </c>
-      <c r="I315">
+      <c r="J315">
         <v>0.05238635869665331</v>
       </c>
-      <c r="K315">
+      <c r="L315">
         <v>0.03923000000000054</v>
       </c>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:12">
       <c r="A316" s="2">
         <v>40603</v>
       </c>
@@ -5860,16 +5986,19 @@
         <v>0.007407030315371488</v>
       </c>
       <c r="G316">
+        <v>-0.003303289911584129</v>
+      </c>
+      <c r="H316">
         <v>0.003323286189040875</v>
       </c>
-      <c r="I316">
+      <c r="J316">
         <v>-0.006931580677855709</v>
       </c>
-      <c r="K316">
+      <c r="L316">
         <v>-0.06983054761698626</v>
       </c>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:12">
       <c r="A317" s="2">
         <v>40634</v>
       </c>
@@ -5889,16 +6018,19 @@
         <v>0.01793925918439543</v>
       </c>
       <c r="G317">
+        <v>0.009886923730001662</v>
+      </c>
+      <c r="H317">
         <v>0.00346633800647056</v>
       </c>
-      <c r="I317">
+      <c r="J317">
         <v>0.02017011682817782</v>
       </c>
-      <c r="K317">
+      <c r="L317">
         <v>0.07910744212028953</v>
       </c>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:12">
       <c r="A318" s="2">
         <v>40664</v>
       </c>
@@ -5918,16 +6050,19 @@
         <v>-0.02370432883240681</v>
       </c>
       <c r="G318">
+        <v>0.009100953360277053</v>
+      </c>
+      <c r="H318">
         <v>0.003377600368465572</v>
       </c>
-      <c r="I318">
+      <c r="J318">
         <v>0.03369326586281862</v>
       </c>
-      <c r="K318">
+      <c r="L318">
         <v>-0.0579026583455553</v>
       </c>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:12">
       <c r="A319" s="2">
         <v>40695</v>
       </c>
@@ -5947,16 +6082,19 @@
         <v>0.004474614191645632</v>
       </c>
       <c r="G319">
+        <v>-0.004396964836750339</v>
+      </c>
+      <c r="H319">
         <v>0.003442735827404064</v>
       </c>
-      <c r="I319">
+      <c r="J319">
         <v>-0.02478570472793062</v>
       </c>
-      <c r="K319">
+      <c r="L319">
         <v>-0.008690077640857496</v>
       </c>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:12">
       <c r="A320" s="2">
         <v>40725</v>
       </c>
@@ -5976,16 +6114,19 @@
         <v>0.00746665316763262</v>
       </c>
       <c r="G320">
+        <v>0.01185106465222141</v>
+      </c>
+      <c r="H320">
         <v>0.003507166819152197</v>
       </c>
-      <c r="I320">
+      <c r="J320">
         <v>0.09634055680829801</v>
       </c>
-      <c r="K320">
+      <c r="L320">
         <v>-0.1225633603301212</v>
       </c>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:12">
       <c r="A321" s="2">
         <v>40756</v>
       </c>
@@ -6005,16 +6146,19 @@
         <v>0.005200482363581616</v>
       </c>
       <c r="G321">
+        <v>-0.01292233524251496</v>
+      </c>
+      <c r="H321">
         <v>0.003494909588208639</v>
       </c>
-      <c r="I321">
+      <c r="J321">
         <v>0.09895896302135632</v>
       </c>
-      <c r="K321">
+      <c r="L321">
         <v>-0.2680190456135427</v>
       </c>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:12">
       <c r="A322" s="2">
         <v>40787</v>
       </c>
@@ -6034,16 +6178,19 @@
         <v>0.03164129864287313</v>
       </c>
       <c r="G322">
+        <v>-0.0121092497988603</v>
+      </c>
+      <c r="H322">
         <v>0.003407026044821126</v>
       </c>
-      <c r="I322">
+      <c r="J322">
         <v>-0.04405031581071361</v>
       </c>
-      <c r="K322">
+      <c r="L322">
         <v>-0.1154885006952318</v>
       </c>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:12">
       <c r="A323" s="2">
         <v>40817</v>
       </c>
@@ -6063,16 +6210,19 @@
         <v>0.06962715313612899</v>
       </c>
       <c r="G323">
+        <v>0.01913776331392048</v>
+      </c>
+      <c r="H323">
         <v>0.003697276088432844</v>
       </c>
-      <c r="I323">
+      <c r="J323">
         <v>0.02515455245260312</v>
       </c>
-      <c r="K323">
+      <c r="L323">
         <v>0.1846484650271929</v>
       </c>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:12">
       <c r="A324" s="2">
         <v>40848</v>
       </c>
@@ -6092,16 +6242,19 @@
         <v>-0.01048673869221528</v>
       </c>
       <c r="G324">
+        <v>-0.03061639389350501</v>
+      </c>
+      <c r="H324">
         <v>0.003758833258156624</v>
       </c>
-      <c r="I324">
+      <c r="J324">
         <v>0.05799194280084441</v>
       </c>
-      <c r="K324">
+      <c r="L324">
         <v>-0.05002898020194657</v>
       </c>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:12">
       <c r="A325" s="2">
         <v>40878</v>
       </c>
@@ -6121,16 +6274,19 @@
         <v>0.02996246108771272</v>
       </c>
       <c r="G325">
+        <v>0.02581392127644611</v>
+      </c>
+      <c r="H325">
         <v>0.003669862192929862</v>
       </c>
-      <c r="I325">
+      <c r="J325">
         <v>-0.06484090870661274</v>
       </c>
-      <c r="K325">
+      <c r="L325">
         <v>-0.01489997109919228</v>
       </c>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:12">
       <c r="A326" s="2">
         <v>40909</v>
       </c>
@@ -6150,16 +6306,19 @@
         <v>-0.007778296330866574</v>
       </c>
       <c r="G326">
+        <v>0.0293876964338482</v>
+      </c>
+      <c r="H326">
         <v>0.004029550033579632</v>
       </c>
-      <c r="I326">
+      <c r="J326">
         <v>0.08772958831004796</v>
       </c>
-      <c r="K326">
+      <c r="L326">
         <v>0.09246340906868222</v>
       </c>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:12">
       <c r="A327" s="2">
         <v>40940</v>
       </c>
@@ -6179,16 +6338,19 @@
         <v>-0.05223195287477322</v>
       </c>
       <c r="G327">
+        <v>0.01817404793980226</v>
+      </c>
+      <c r="H327">
         <v>0.004087699739873552</v>
       </c>
-      <c r="I327">
+      <c r="J327">
         <v>-0.00524948354827437</v>
       </c>
-      <c r="K327">
+      <c r="L327">
         <v>0.07932624166380897</v>
       </c>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:12">
       <c r="A328" s="2">
         <v>40969</v>
       </c>
@@ -6208,16 +6370,19 @@
         <v>-0.02637362637362617</v>
       </c>
       <c r="G328">
+        <v>0.008534439051142373</v>
+      </c>
+      <c r="H328">
         <v>0.004071058475203726</v>
       </c>
-      <c r="I328">
+      <c r="J328">
         <v>-0.05461615677077714</v>
       </c>
-      <c r="K328">
+      <c r="L328">
         <v>-0.02909709167311947</v>
       </c>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:12">
       <c r="A329" s="2">
         <v>41000</v>
       </c>
@@ -6237,16 +6402,19 @@
         <v>0.005000121362168874</v>
       </c>
       <c r="G329">
+        <v>0.001202192378595424</v>
+      </c>
+      <c r="H329">
         <v>0.004349428676741596</v>
       </c>
-      <c r="I329">
+      <c r="J329">
         <v>0.003906542502768007</v>
       </c>
-      <c r="K329">
+      <c r="L329">
         <v>-0.1214994518714677</v>
       </c>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:12">
       <c r="A330" s="2">
         <v>41030</v>
       </c>
@@ -6266,16 +6434,19 @@
         <v>0.007873445236082466</v>
       </c>
       <c r="G330">
+        <v>0.001257339410136504</v>
+      </c>
+      <c r="H330">
         <v>0.004403992953611269</v>
       </c>
-      <c r="I330">
+      <c r="J330">
         <v>0.005222455093310874</v>
       </c>
-      <c r="K330">
+      <c r="L330">
         <v>-0.1239931934203053</v>
       </c>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:12">
       <c r="A331" s="2">
         <v>41061</v>
       </c>
@@ -6295,16 +6466,19 @@
         <v>0.05161630442596632</v>
       </c>
       <c r="G331">
+        <v>-0.002295719264571949</v>
+      </c>
+      <c r="H331">
         <v>0.004384682841274357</v>
       </c>
-      <c r="I331">
+      <c r="J331">
         <v>0.01075570398904513</v>
       </c>
-      <c r="K331">
+      <c r="L331">
         <v>0.1472046472046471</v>
       </c>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:12">
       <c r="A332" s="2">
         <v>41091</v>
       </c>
@@ -6324,16 +6498,19 @@
         <v>-0.03798564429759588</v>
       </c>
       <c r="G332">
+        <v>0.02437372635074597</v>
+      </c>
+      <c r="H332">
         <v>0.004583818393480765</v>
       </c>
-      <c r="I332">
+      <c r="J332">
         <v>0.03997795067359466</v>
       </c>
-      <c r="K332">
+      <c r="L332">
         <v>0.05302285078453939</v>
       </c>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:12">
       <c r="A333" s="2">
         <v>41122</v>
       </c>
@@ -6353,16 +6530,19 @@
         <v>-0.02532095314794647</v>
       </c>
       <c r="G333">
+        <v>0.01041480756787827</v>
+      </c>
+      <c r="H333">
         <v>0.004490475845585706</v>
       </c>
-      <c r="I333">
+      <c r="J333">
         <v>-0.01001552575643672</v>
       </c>
-      <c r="K333">
+      <c r="L333">
         <v>0.09701526822769124</v>
       </c>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:12">
       <c r="A334" s="2">
         <v>41153</v>
       </c>
@@ -6382,16 +6562,19 @@
         <v>0.01249119055141068</v>
       </c>
       <c r="G334">
+        <v>0.007693276021029094</v>
+      </c>
+      <c r="H334">
         <v>0.004614608118826302</v>
       </c>
-      <c r="I334">
+      <c r="J334">
         <v>0.05076357822304911</v>
       </c>
-      <c r="K334">
+      <c r="L334">
         <v>0.01408549013038418</v>
       </c>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:12">
       <c r="A335" s="2">
         <v>41183</v>
       </c>
@@ -6411,19 +6594,22 @@
         <v>-0.0130091448047428</v>
       </c>
       <c r="G335">
+        <v>0.01138219169898025</v>
+      </c>
+      <c r="H335">
         <v>0.004378095169740748</v>
       </c>
-      <c r="H335">
+      <c r="I335">
         <v>0.006536336576810076</v>
       </c>
-      <c r="I335">
+      <c r="J335">
         <v>-0.03678774017610287</v>
       </c>
-      <c r="K335">
+      <c r="L335">
         <v>0.04029293944357937</v>
       </c>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:12">
       <c r="A336" s="2">
         <v>41214</v>
       </c>
@@ -6443,19 +6629,22 @@
         <v>0.005155516645996006</v>
       </c>
       <c r="G336">
+        <v>0.008547000201626131</v>
+      </c>
+      <c r="H336">
         <v>0.004430470201514991</v>
       </c>
-      <c r="H336">
+      <c r="I336">
         <v>0.002688435694128133</v>
       </c>
-      <c r="I336">
+      <c r="J336">
         <v>0.004613372059425025</v>
       </c>
-      <c r="K336">
+      <c r="L336">
         <v>0.05721847293899818</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:12">
       <c r="A337" s="2">
         <v>41244</v>
       </c>
@@ -6475,19 +6664,22 @@
         <v>-0.007814579149831857</v>
       </c>
       <c r="G337">
+        <v>0.009929674687344514</v>
+      </c>
+      <c r="H337">
         <v>0.004482071713147295</v>
       </c>
-      <c r="H337">
+      <c r="I337">
         <v>-0.01060777381973277</v>
       </c>
-      <c r="I337">
+      <c r="J337">
         <v>-0.05111965813316932</v>
       </c>
-      <c r="K337">
+      <c r="L337">
         <v>0.04942799208951931</v>
       </c>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:12">
       <c r="A338" s="2">
         <v>41275</v>
       </c>
@@ -6507,19 +6699,22 @@
         <v>-0.004413557668861201</v>
       </c>
       <c r="G338">
+        <v>-0.0121197829118086</v>
+      </c>
+      <c r="H338">
         <v>0.00432041929315119</v>
       </c>
-      <c r="H338">
+      <c r="I338">
         <v>-0.03095639001791395</v>
       </c>
-      <c r="I338">
+      <c r="J338">
         <v>-0.02583418340193055</v>
       </c>
-      <c r="K338">
+      <c r="L338">
         <v>0.05698746466610172</v>
       </c>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:12">
       <c r="A339" s="2">
         <v>41306</v>
       </c>
@@ -6539,19 +6734,22 @@
         <v>0.02716206617845152</v>
       </c>
       <c r="G339">
+        <v>0.01267457685506113</v>
+      </c>
+      <c r="H339">
         <v>0.004301833568406188</v>
       </c>
-      <c r="H339">
+      <c r="I339">
         <v>0.02678207940358246</v>
       </c>
-      <c r="I339">
+      <c r="J339">
         <v>-0.01520498287403182</v>
       </c>
-      <c r="K339">
+      <c r="L339">
         <v>-0.05456945870617524</v>
       </c>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:12">
       <c r="A340" s="2">
         <v>41334</v>
       </c>
@@ -6571,19 +6769,22 @@
         <v>-0.01115933044017359</v>
       </c>
       <c r="G340">
+        <v>0.005165826776631022</v>
+      </c>
+      <c r="H340">
         <v>0.004353626852046988</v>
       </c>
-      <c r="H340">
+      <c r="I340">
         <v>0.02383693150623212</v>
       </c>
-      <c r="I340">
+      <c r="J340">
         <v>0.03159578614202441</v>
       </c>
-      <c r="K340">
+      <c r="L340">
         <v>-0.007459569135288335</v>
       </c>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:12">
       <c r="A341" s="2">
         <v>41365</v>
       </c>
@@ -6603,19 +6804,22 @@
         <v>0.006631299734747964</v>
       </c>
       <c r="G341">
+        <v>0.01379768918377855</v>
+      </c>
+      <c r="H341">
         <v>0.003705516325246405</v>
       </c>
-      <c r="H341">
+      <c r="I341">
         <v>0.002815504898136867</v>
       </c>
-      <c r="I341">
+      <c r="J341">
         <v>-0.09964324696476978</v>
       </c>
-      <c r="K341">
+      <c r="L341">
         <v>0.08299663299663496</v>
       </c>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:12">
       <c r="A342" s="2">
         <v>41395</v>
       </c>
@@ -6635,19 +6839,22 @@
         <v>-0.004120253922625383</v>
       </c>
       <c r="G342">
+        <v>-0.001835999411350264</v>
+      </c>
+      <c r="H342">
         <v>0.003691836166062945</v>
       </c>
-      <c r="H342">
+      <c r="I342">
         <v>-0.0191951164408295</v>
       </c>
-      <c r="I342">
+      <c r="J342">
         <v>-0.04589754720735928</v>
       </c>
-      <c r="K342">
+      <c r="L342">
         <v>0.07222802069685286</v>
       </c>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:12">
       <c r="A343" s="2">
         <v>41426</v>
       </c>
@@ -6667,19 +6874,22 @@
         <v>0.02766218459096059</v>
       </c>
       <c r="G343">
+        <v>-0.01643945695764792</v>
+      </c>
+      <c r="H343">
         <v>0.00374765771392882</v>
       </c>
-      <c r="H343">
+      <c r="I343">
         <v>-0.02968441023725454</v>
       </c>
-      <c r="I343">
+      <c r="J343">
         <v>-0.1500492871185727</v>
       </c>
-      <c r="K343">
+      <c r="L343">
         <v>-0.1157848954611828</v>
       </c>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:12">
       <c r="A344" s="2">
         <v>41456</v>
       </c>
@@ -6699,19 +6909,22 @@
         <v>0.01303747396016197</v>
       </c>
       <c r="G344">
+        <v>0.00846319215402036</v>
+      </c>
+      <c r="H344">
         <v>0.003249671575745072</v>
       </c>
-      <c r="H344">
+      <c r="I344">
         <v>0.000791096252049206</v>
       </c>
-      <c r="I344">
+      <c r="J344">
         <v>0.08656959769461103</v>
       </c>
-      <c r="K344">
+      <c r="L344">
         <v>0.1321411004145872</v>
       </c>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:12">
       <c r="A345" s="2">
         <v>41487</v>
       </c>
@@ -6731,19 +6944,22 @@
         <v>-0.01756007393715353</v>
       </c>
       <c r="G345">
+        <v>-0.002071448346997573</v>
+      </c>
+      <c r="H345">
         <v>0.003308063404548811</v>
       </c>
-      <c r="H345">
+      <c r="I345">
         <v>-0.003416175450214776</v>
       </c>
-      <c r="I345">
+      <c r="J345">
         <v>0.06425662846605285</v>
       </c>
-      <c r="K345">
+      <c r="L345">
         <v>-0.03502674073384371</v>
       </c>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:12">
       <c r="A346" s="2">
         <v>41518</v>
       </c>
@@ -6763,19 +6979,22 @@
         <v>0.003245531514581401</v>
       </c>
       <c r="G346">
+        <v>0.006705970417022256</v>
+      </c>
+      <c r="H346">
         <v>0.003228465448550599</v>
       </c>
-      <c r="H346">
+      <c r="I346">
         <v>-0.001623544844150171</v>
       </c>
-      <c r="I346">
+      <c r="J346">
         <v>-0.06794778828604364</v>
       </c>
-      <c r="K346">
+      <c r="L346">
         <v>0.1325321870008476</v>
       </c>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:12">
       <c r="A347" s="2">
         <v>41548</v>
       </c>
@@ -6795,19 +7014,22 @@
         <v>-0.01136949692906364</v>
       </c>
       <c r="G347">
+        <v>0.01149750201251853</v>
+      </c>
+      <c r="H347">
         <v>0.002875727490585289</v>
       </c>
-      <c r="H347">
+      <c r="I347">
         <v>0.003769307412608391</v>
       </c>
-      <c r="I347">
+      <c r="J347">
         <v>-0.011835812486652</v>
       </c>
-      <c r="K347">
+      <c r="L347">
         <v>0.124566950002839</v>
       </c>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:12">
       <c r="A348" s="2">
         <v>41579</v>
       </c>
@@ -6827,19 +7049,22 @@
         <v>-0.009176487326014171</v>
       </c>
       <c r="G348">
+        <v>0.00243197344083268</v>
+      </c>
+      <c r="H348">
         <v>0.002867481395507632</v>
       </c>
-      <c r="H348">
+      <c r="I348">
         <v>0.0009655792717031542</v>
       </c>
-      <c r="I348">
+      <c r="J348">
         <v>-0.05153947369297174</v>
       </c>
-      <c r="K348">
+      <c r="L348">
         <v>0.01582411662710581</v>
       </c>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:12">
       <c r="A349" s="2">
         <v>41609</v>
       </c>
@@ -6859,19 +7084,22 @@
         <v>0.005504235868472707</v>
       </c>
       <c r="G349">
+        <v>-0.004306233479252186</v>
+      </c>
+      <c r="H349">
         <v>0.002859282456259882</v>
       </c>
-      <c r="H349">
+      <c r="I349">
         <v>-0.01300870414257593</v>
       </c>
-      <c r="I349">
+      <c r="J349">
         <v>-0.05361689265753589</v>
       </c>
-      <c r="K349">
+      <c r="L349">
         <v>0.01436786371244514</v>
       </c>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:12">
       <c r="A350" s="2">
         <v>41640</v>
       </c>
@@ -6891,19 +7119,22 @@
         <v>-0.01178122619954303</v>
       </c>
       <c r="G350">
+        <v>0.01360337823000557</v>
+      </c>
+      <c r="H350">
         <v>0.002172289729142518</v>
       </c>
-      <c r="H350">
+      <c r="I350">
         <v>0.0293749853356513</v>
       </c>
-      <c r="I350">
+      <c r="J350">
         <v>0.06238299343931986</v>
       </c>
-      <c r="K350">
+      <c r="L350">
         <v>-0.05776833850678076</v>
       </c>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:12">
       <c r="A351" s="2">
         <v>41671</v>
       </c>
@@ -6923,19 +7154,22 @@
         <v>0.02295224103465721</v>
       </c>
       <c r="G351">
+        <v>0.005629035215882316</v>
+      </c>
+      <c r="H351">
         <v>0.002235318024791821</v>
       </c>
-      <c r="H351">
+      <c r="I351">
         <v>-0.005546913496636163</v>
       </c>
-      <c r="I351">
+      <c r="J351">
         <v>0.03755258299694941</v>
       </c>
-      <c r="K351">
+      <c r="L351">
         <v>0.0906907792072682</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:12">
       <c r="A352" s="2">
         <v>41699</v>
       </c>
@@ -6955,19 +7189,22 @@
         <v>-0.02177802891180491</v>
       </c>
       <c r="G352">
+        <v>0.004206642710516961</v>
+      </c>
+      <c r="H352">
         <v>0.002162746688294082</v>
       </c>
-      <c r="H352">
+      <c r="I352">
         <v>0.002525601358514873</v>
       </c>
-      <c r="I352">
+      <c r="J352">
         <v>-0.02443108671278815</v>
       </c>
-      <c r="K352">
+      <c r="L352">
         <v>0.0069231930942939</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:12">
       <c r="A353" s="2">
         <v>41730</v>
       </c>
@@ -6987,19 +7224,22 @@
         <v>0.001155262461190576</v>
       </c>
       <c r="G353">
+        <v>0.009203221493456981</v>
+      </c>
+      <c r="H353">
         <v>0.001820879417318677</v>
       </c>
-      <c r="H353">
+      <c r="I353">
         <v>0.008886699588724456</v>
       </c>
-      <c r="I353">
+      <c r="J353">
         <v>-0.006981238196581696</v>
       </c>
-      <c r="K353">
+      <c r="L353">
         <v>0.03107041364066987</v>
       </c>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:12">
       <c r="A354" s="2">
         <v>41760</v>
       </c>
@@ -7019,19 +7259,22 @@
         <v>0.00920739476404564</v>
       </c>
       <c r="G354">
+        <v>0.008935730275558607</v>
+      </c>
+      <c r="H354">
         <v>0.001817569841803923</v>
       </c>
-      <c r="H354">
+      <c r="I354">
         <v>0.02582160061807914</v>
       </c>
-      <c r="I354">
+      <c r="J354">
         <v>-0.01215987719347988</v>
       </c>
-      <c r="K354">
+      <c r="L354">
         <v>0.06126355117290383</v>
       </c>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:12">
       <c r="A355" s="2">
         <v>41791</v>
       </c>
@@ -7051,19 +7294,22 @@
         <v>-0.01550738446879474</v>
       </c>
       <c r="G355">
+        <v>0.005612243522765015</v>
+      </c>
+      <c r="H355">
         <v>0.00174707700577903</v>
       </c>
-      <c r="H355">
+      <c r="I355">
         <v>0.001421950257359139</v>
       </c>
-      <c r="I355">
+      <c r="J355">
         <v>0.04765269174216558</v>
       </c>
-      <c r="K355">
+      <c r="L355">
         <v>-0.005771256258206181</v>
       </c>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:12">
       <c r="A356" s="2">
         <v>41821</v>
       </c>
@@ -7083,19 +7329,22 @@
         <v>0.00476662875946654</v>
       </c>
       <c r="G356">
+        <v>0.004965783180754135</v>
+      </c>
+      <c r="H356">
         <v>0.001676951972095608</v>
       </c>
-      <c r="H356">
+      <c r="I356">
         <v>0.01426926513101168</v>
       </c>
-      <c r="I356">
+      <c r="J356">
         <v>-0.002241780078138245</v>
       </c>
-      <c r="K356">
+      <c r="L356">
         <v>-0.06857594798937672</v>
       </c>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:12">
       <c r="A357" s="2">
         <v>41852</v>
       </c>
@@ -7115,19 +7364,22 @@
         <v>0.005008910080431583</v>
       </c>
       <c r="G357">
+        <v>0.01157076592424788</v>
+      </c>
+      <c r="H357">
         <v>0.001607178731668046</v>
       </c>
-      <c r="H357">
+      <c r="I357">
         <v>0.02295414879239432</v>
       </c>
-      <c r="I357">
+      <c r="J357">
         <v>0.01487752683986998</v>
       </c>
-      <c r="K357">
+      <c r="L357">
         <v>0.0352427025637434</v>
       </c>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:12">
       <c r="A358" s="2">
         <v>41883</v>
       </c>
@@ -7147,19 +7399,22 @@
         <v>0.007691570422197591</v>
       </c>
       <c r="G358">
+        <v>0.001763880008699648</v>
+      </c>
+      <c r="H358">
         <v>0.001604599852911726</v>
       </c>
-      <c r="H358">
+      <c r="I358">
         <v>0.02382688506723785</v>
       </c>
-      <c r="I358">
+      <c r="J358">
         <v>-0.008368481503698177</v>
       </c>
-      <c r="K358">
+      <c r="L358">
         <v>0.03535980615692491</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:12">
       <c r="A359" s="2">
         <v>41913</v>
       </c>
@@ -7179,19 +7434,22 @@
         <v>-0.007204850790631157</v>
       </c>
       <c r="G359">
+        <v>0.004357192394196518</v>
+      </c>
+      <c r="H359">
         <v>0.001535278018823805</v>
       </c>
-      <c r="H359">
+      <c r="I359">
         <v>0.008720597371781214</v>
       </c>
-      <c r="I359">
+      <c r="J359">
         <v>-0.03844247487077157</v>
       </c>
-      <c r="K359">
+      <c r="L359">
         <v>-0.07164038084163138</v>
       </c>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:12">
       <c r="A360" s="2">
         <v>41944</v>
       </c>
@@ -7211,19 +7469,22 @@
         <v>0.01216708181643988</v>
       </c>
       <c r="G360">
+        <v>0.0056420039727203</v>
+      </c>
+      <c r="H360">
         <v>0.001466275659824046</v>
       </c>
-      <c r="H360">
+      <c r="I360">
         <v>0.005990988838836753</v>
       </c>
-      <c r="I360">
+      <c r="J360">
         <v>0.01922671522125685</v>
       </c>
-      <c r="K360">
+      <c r="L360">
         <v>0.09068134311415332</v>
       </c>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:12">
       <c r="A361" s="2">
         <v>41974</v>
       </c>
@@ -7243,19 +7504,22 @@
         <v>-0.0106483672503549</v>
       </c>
       <c r="G361">
+        <v>0.005458777952950022</v>
+      </c>
+      <c r="H361">
         <v>0.001464128843338131</v>
       </c>
-      <c r="H361">
+      <c r="I361">
         <v>0.02192960531672017</v>
       </c>
-      <c r="I361">
+      <c r="J361">
         <v>0.04251252601212818</v>
       </c>
-      <c r="K361">
+      <c r="L361">
         <v>-0.06509661488989138</v>
       </c>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:12">
       <c r="A362" s="2">
         <v>42005</v>
       </c>
@@ -7275,19 +7539,22 @@
         <v>0.02485051423104534</v>
       </c>
       <c r="G362">
+        <v>0.009190103749341594</v>
+      </c>
+      <c r="H362">
         <v>0.001329080276448735</v>
       </c>
-      <c r="H362">
+      <c r="I362">
         <v>0.07829833773322137</v>
       </c>
-      <c r="I362">
+      <c r="J362">
         <v>0.128576158418338</v>
       </c>
-      <c r="K362">
+      <c r="L362">
         <v>0.1324022818183921</v>
       </c>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:12">
       <c r="A363" s="2">
         <v>42036</v>
       </c>
@@ -7307,19 +7574,22 @@
         <v>-0.02368783402179764</v>
       </c>
       <c r="G363">
+        <v>0.005818843293562859</v>
+      </c>
+      <c r="H363">
         <v>0.001260950358375368</v>
       </c>
-      <c r="H363">
+      <c r="I363">
         <v>0.0002057328261240166</v>
       </c>
-      <c r="I363">
+      <c r="J363">
         <v>-0.0311283772001959</v>
       </c>
-      <c r="K363">
+      <c r="L363">
         <v>0.1519946844574611</v>
       </c>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:12">
       <c r="A364" s="2">
         <v>42064</v>
       </c>
@@ -7339,19 +7609,22 @@
         <v>-0.009011808576755764</v>
       </c>
       <c r="G364">
+        <v>-0.001443422681992157</v>
+      </c>
+      <c r="H364">
         <v>0.001259362364949945</v>
       </c>
-      <c r="H364">
+      <c r="I364">
         <v>0.03395272266414362</v>
       </c>
-      <c r="I364">
+      <c r="J364">
         <v>0.02147192810340925</v>
       </c>
-      <c r="K364">
+      <c r="L364">
         <v>0.05543523041610321</v>
       </c>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:12">
       <c r="A365" s="2">
         <v>42095</v>
       </c>
@@ -7371,19 +7644,22 @@
         <v>-0.01715271244904359</v>
       </c>
       <c r="G365">
+        <v>-0.004966806984466277</v>
+      </c>
+      <c r="H365">
         <v>0.001059181782073315</v>
       </c>
-      <c r="H365">
+      <c r="I365">
         <v>-0.03346398828143671</v>
       </c>
-      <c r="I365">
+      <c r="J365">
         <v>-0.04611521907903315</v>
       </c>
-      <c r="K365">
+      <c r="L365">
         <v>-0.03731131049635028</v>
       </c>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:12">
       <c r="A366" s="2">
         <v>42125</v>
       </c>
@@ -7403,19 +7679,22 @@
         <v>-0.008121062487268516</v>
       </c>
       <c r="G366">
+        <v>-0.004535481469836178</v>
+      </c>
+      <c r="H366">
         <v>0.00105806110302864</v>
       </c>
-      <c r="H366">
+      <c r="I366">
         <v>0.01085558046291646</v>
       </c>
-      <c r="I366">
+      <c r="J366">
         <v>0.03199177746321347</v>
       </c>
-      <c r="K366">
+      <c r="L366">
         <v>0.001633475828033859</v>
       </c>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:12">
       <c r="A367" s="2">
         <v>42156</v>
       </c>
@@ -7435,19 +7714,22 @@
         <v>0.01709761227267093</v>
       </c>
       <c r="G367">
+        <v>-0.01971275200240497</v>
+      </c>
+      <c r="H367">
         <v>0.0009908838684107302</v>
       </c>
-      <c r="H367">
+      <c r="I367">
         <v>-0.03110644004245966</v>
       </c>
-      <c r="I367">
+      <c r="J367">
         <v>-0.0363603681419713</v>
       </c>
-      <c r="K367">
+      <c r="L367">
         <v>-0.08086398334490053</v>
       </c>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:12">
       <c r="A368" s="2">
         <v>42186</v>
       </c>
@@ -7467,19 +7749,22 @@
         <v>0.01971974894176021</v>
       </c>
       <c r="G368">
+        <v>0.01248708588141012</v>
+      </c>
+      <c r="H368">
         <v>0.001055896522140776</v>
       </c>
-      <c r="H368">
+      <c r="I368">
         <v>0.02430033782713847</v>
       </c>
-      <c r="I368">
+      <c r="J368">
         <v>-0.04301074950649564</v>
       </c>
-      <c r="K368">
+      <c r="L368">
         <v>0.1018579688807524</v>
       </c>
     </row>
-    <row r="369" spans="1:12">
+    <row r="369" spans="1:13">
       <c r="A369" s="2">
         <v>42217</v>
       </c>
@@ -7499,19 +7784,22 @@
         <v>-0.01170419356531782</v>
       </c>
       <c r="G369">
+        <v>-0.007987113810948632</v>
+      </c>
+      <c r="H369">
         <v>0.00105478278067106</v>
       </c>
-      <c r="H369">
+      <c r="I369">
         <v>-0.02695672768529178</v>
       </c>
-      <c r="I369">
+      <c r="J369">
         <v>0.0104711136597504</v>
       </c>
-      <c r="K369">
+      <c r="L369">
         <v>-0.1829254365428324</v>
       </c>
     </row>
-    <row r="370" spans="1:12">
+    <row r="370" spans="1:13">
       <c r="A370" s="2">
         <v>42248</v>
       </c>
@@ -7531,19 +7819,22 @@
         <v>0.02117027953459183</v>
       </c>
       <c r="G370">
+        <v>-0.00699354173403044</v>
+      </c>
+      <c r="H370">
         <v>0.0009878169245967072</v>
       </c>
-      <c r="H370">
+      <c r="I370">
         <v>0.00153256320438877</v>
       </c>
-      <c r="I370">
+      <c r="J370">
         <v>-0.01745087946471258</v>
       </c>
-      <c r="K370">
+      <c r="L370">
         <v>-0.1053245836565542</v>
       </c>
     </row>
-    <row r="371" spans="1:12">
+    <row r="371" spans="1:13">
       <c r="A371" s="2">
         <v>42278</v>
       </c>
@@ -7563,19 +7854,22 @@
         <v>0.003848426825520557</v>
       </c>
       <c r="G371">
+        <v>0.01438481695550808</v>
+      </c>
+      <c r="H371">
         <v>0.001052631578947416</v>
       </c>
-      <c r="H371">
+      <c r="I371">
         <v>0.02293250380617584</v>
       </c>
-      <c r="I371">
+      <c r="J371">
         <v>0.04276148465835949</v>
       </c>
-      <c r="K371">
+      <c r="L371">
         <v>0.2143180753007339</v>
       </c>
     </row>
-    <row r="372" spans="1:12">
+    <row r="372" spans="1:13">
       <c r="A372" s="2">
         <v>42309</v>
       </c>
@@ -7595,19 +7889,22 @@
         <v>0.0007912249386565762</v>
       </c>
       <c r="G372">
+        <v>0.006848355366618097</v>
+      </c>
+      <c r="H372">
         <v>0.001051524710830698</v>
       </c>
-      <c r="H372">
+      <c r="I372">
         <v>0.02992515509391258</v>
       </c>
-      <c r="I372">
+      <c r="J372">
         <v>-0.03193801276634778</v>
       </c>
-      <c r="K372">
+      <c r="L372">
         <v>0.05310793338350872</v>
       </c>
     </row>
-    <row r="373" spans="1:12">
+    <row r="373" spans="1:13">
       <c r="A373" s="2">
         <v>42339</v>
       </c>
@@ -7627,19 +7924,22 @@
         <v>0.004442415657632814</v>
       </c>
       <c r="G373">
+        <v>-0.008163249479110846</v>
+      </c>
+      <c r="H373">
         <v>0.001050420168067223</v>
       </c>
-      <c r="H373">
+      <c r="I373">
         <v>-0.03126710438785285</v>
       </c>
-      <c r="I373">
+      <c r="J373">
         <v>-0.02797034848127322</v>
       </c>
-      <c r="K373">
+      <c r="L373">
         <v>-0.1345219988638657</v>
       </c>
     </row>
-    <row r="374" spans="1:12">
+    <row r="374" spans="1:13">
       <c r="A374" s="2">
         <v>42370</v>
       </c>
@@ -7659,19 +7959,22 @@
         <v>-0.001286069686704971</v>
       </c>
       <c r="G374">
+        <v>0.005933368519133175</v>
+      </c>
+      <c r="H374">
         <v>0.0009837355718782526</v>
       </c>
-      <c r="H374">
+      <c r="I374">
         <v>-0.002694143195926646</v>
       </c>
-      <c r="I374">
+      <c r="J374">
         <v>0.04348332768666907</v>
       </c>
-      <c r="K374">
+      <c r="L374">
         <v>-0.1337638506598919</v>
       </c>
     </row>
-    <row r="375" spans="1:12">
+    <row r="375" spans="1:13">
       <c r="A375" s="2">
         <v>42401</v>
       </c>
@@ -7691,19 +7994,22 @@
         <v>0.03671308578036436</v>
       </c>
       <c r="G375">
+        <v>0.00458042495565425</v>
+      </c>
+      <c r="H375">
         <v>0.001048286706414103</v>
       </c>
-      <c r="H375">
+      <c r="I375">
         <v>0.01086787983161797</v>
       </c>
-      <c r="I375">
+      <c r="J375">
         <v>0.1139857799552961</v>
       </c>
-      <c r="K375">
+      <c r="L375">
         <v>-0.07138841588111144</v>
       </c>
     </row>
-    <row r="376" spans="1:12">
+    <row r="376" spans="1:13">
       <c r="A376" s="2">
         <v>42430</v>
       </c>
@@ -7723,19 +8029,22 @@
         <v>-0.01557971424369609</v>
       </c>
       <c r="G376">
+        <v>0.01395201284770087</v>
+      </c>
+      <c r="H376">
         <v>0.001047188952156608</v>
       </c>
-      <c r="H376">
+      <c r="I376">
         <v>-0.008046423274523984</v>
       </c>
-      <c r="I376">
+      <c r="J376">
         <v>-0.04202762342305344</v>
       </c>
-      <c r="K376">
+      <c r="L376">
         <v>0.0396139504277262</v>
       </c>
     </row>
-    <row r="377" spans="1:12">
+    <row r="377" spans="1:13">
       <c r="A377" s="2">
         <v>42461</v>
       </c>
@@ -7755,19 +8064,22 @@
         <v>-0.02481963874888249</v>
       </c>
       <c r="G377">
+        <v>0.002664927920610349</v>
+      </c>
+      <c r="H377">
         <v>0.00104609349460616</v>
       </c>
-      <c r="H377">
+      <c r="I377">
         <v>0.01260439870778796</v>
       </c>
-      <c r="I377">
+      <c r="J377">
         <v>0.03768840774361171</v>
       </c>
-      <c r="K377">
+      <c r="L377">
         <v>0.02587560131656663</v>
       </c>
     </row>
-    <row r="378" spans="1:12">
+    <row r="378" spans="1:13">
       <c r="A378" s="2">
         <v>42491</v>
       </c>
@@ -7787,19 +8099,22 @@
         <v>0.03068583549375425</v>
       </c>
       <c r="G378">
+        <v>0.003409618472822507</v>
+      </c>
+      <c r="H378">
         <v>0.001045000326562517</v>
       </c>
-      <c r="H378">
+      <c r="I378">
         <v>0.01469553184948169</v>
       </c>
-      <c r="I378">
+      <c r="J378">
         <v>-0.03616169691396565</v>
       </c>
-      <c r="K378">
+      <c r="L378">
         <v>0.05584257461581488</v>
       </c>
     </row>
-    <row r="379" spans="1:12">
+    <row r="379" spans="1:13">
       <c r="A379" s="2">
         <v>42522</v>
       </c>
@@ -7819,19 +8134,22 @@
         <v>0.002984084880636839</v>
       </c>
       <c r="G379">
+        <v>0.009591098368487927</v>
+      </c>
+      <c r="H379">
         <v>0.001043909440856083</v>
       </c>
-      <c r="H379">
+      <c r="I379">
         <v>0.01949582669538885</v>
       </c>
-      <c r="I379">
+      <c r="J379">
         <v>0.09474150867897713</v>
       </c>
-      <c r="K379">
+      <c r="L379">
         <v>-0.1308436701365085</v>
       </c>
     </row>
-    <row r="380" spans="1:12">
+    <row r="380" spans="1:13">
       <c r="A380" s="2">
         <v>42552</v>
       </c>
@@ -7851,22 +8169,25 @@
         <v>-0.003075520091194051</v>
       </c>
       <c r="G380">
+        <v>0.01677449675466525</v>
+      </c>
+      <c r="H380">
         <v>0.001042820830346125</v>
       </c>
-      <c r="H380">
+      <c r="I380">
         <v>0.01615466106888297</v>
       </c>
-      <c r="I380">
+      <c r="J380">
         <v>0.0150835857052527</v>
       </c>
-      <c r="K380">
+      <c r="L380">
         <v>0.09040707837670681</v>
       </c>
-      <c r="L380">
+      <c r="M380">
         <v>0.02682380599999989</v>
       </c>
     </row>
-    <row r="381" spans="1:12">
+    <row r="381" spans="1:13">
       <c r="A381" s="2">
         <v>42583</v>
       </c>
@@ -7886,22 +8207,25 @@
         <v>-0.003860262168516093</v>
       </c>
       <c r="G381">
+        <v>0.002370603044473008</v>
+      </c>
+      <c r="H381">
         <v>0.0009766260824273232</v>
       </c>
-      <c r="H381">
+      <c r="I381">
         <v>6.782366576696397E-05</v>
       </c>
-      <c r="I381">
+      <c r="J381">
         <v>-0.02606901372662451</v>
       </c>
-      <c r="K381">
+      <c r="L381">
         <v>0.02135880824755843</v>
       </c>
-      <c r="L381">
+      <c r="M381">
         <v>0.01766975005252269</v>
       </c>
     </row>
-    <row r="382" spans="1:12">
+    <row r="382" spans="1:13">
       <c r="A382" s="2">
         <v>42614</v>
       </c>
@@ -7921,22 +8245,25 @@
         <v>0.001597840160886044</v>
       </c>
       <c r="G382">
+        <v>-0.000733046557877981</v>
+      </c>
+      <c r="H382">
         <v>0.001040718095485893</v>
       </c>
-      <c r="H382">
+      <c r="I382">
         <v>-0.002888548222972243</v>
       </c>
-      <c r="I382">
+      <c r="J382">
         <v>0.007495668488966212</v>
       </c>
-      <c r="K382">
+      <c r="L382">
         <v>-0.01349067083085109</v>
       </c>
-      <c r="L382">
+      <c r="M382">
         <v>0.005233702353349523</v>
       </c>
     </row>
-    <row r="383" spans="1:12">
+    <row r="383" spans="1:13">
       <c r="A383" s="2">
         <v>42644</v>
       </c>
@@ -7956,22 +8283,25 @@
         <v>-0.0154830339870361</v>
       </c>
       <c r="G383">
+        <v>-0.007314122440551185</v>
+      </c>
+      <c r="H383">
         <v>0.00103963612735547</v>
       </c>
-      <c r="H383">
+      <c r="I383">
         <v>0.001004310353592608</v>
       </c>
-      <c r="I383">
+      <c r="J383">
         <v>-0.01929340702268567</v>
       </c>
-      <c r="K383">
+      <c r="L383">
         <v>0.03723135168654856</v>
       </c>
-      <c r="L383">
+      <c r="M383">
         <v>0.0194323441184443</v>
       </c>
     </row>
-    <row r="384" spans="1:12">
+    <row r="384" spans="1:13">
       <c r="A384" s="2">
         <v>42675</v>
       </c>
@@ -7991,22 +8321,25 @@
         <v>0.00275650770960767</v>
       </c>
       <c r="G384">
+        <v>-0.01095273068956737</v>
+      </c>
+      <c r="H384">
         <v>0.001038556406594893</v>
       </c>
-      <c r="H384">
+      <c r="I384">
         <v>3.09587590874294E-06</v>
       </c>
-      <c r="I384">
+      <c r="J384">
         <v>-0.04673643452111698</v>
       </c>
-      <c r="K384">
+      <c r="L384">
         <v>-0.0002123960635936895</v>
       </c>
-      <c r="L384">
+      <c r="M384">
         <v>0.01284899060747158</v>
       </c>
     </row>
-    <row r="385" spans="1:12">
+    <row r="385" spans="1:13">
       <c r="A385" s="2">
         <v>42705</v>
       </c>
@@ -8026,22 +8359,25 @@
         <v>0.03442431503112275</v>
       </c>
       <c r="G385">
+        <v>0.006343039207378443</v>
+      </c>
+      <c r="H385">
         <v>0.001037478926209312</v>
       </c>
-      <c r="H385">
+      <c r="I385">
         <v>0.01354933744915687</v>
       </c>
-      <c r="I385">
+      <c r="J385">
         <v>-0.007353922586878503</v>
       </c>
-      <c r="K385">
+      <c r="L385">
         <v>0.1636347899979558</v>
       </c>
-      <c r="L385">
+      <c r="M385">
         <v>0.02394578653570734</v>
       </c>
     </row>
-    <row r="386" spans="1:12">
+    <row r="386" spans="1:13">
       <c r="A386" s="2">
         <v>42736</v>
       </c>
@@ -8061,22 +8397,25 @@
         <v>-0.01128742649369319</v>
       </c>
       <c r="G386">
+        <v>-0.005642722426918545</v>
+      </c>
+      <c r="H386">
         <v>0.001036403679232967</v>
       </c>
-      <c r="H386">
+      <c r="I386">
         <v>-0.01129749904372168</v>
       </c>
-      <c r="I386">
+      <c r="J386">
         <v>0.02550948388474161</v>
       </c>
-      <c r="K386">
+      <c r="L386">
         <v>-0.0343360988836372</v>
       </c>
-      <c r="L386">
+      <c r="M386">
         <v>0.004121093830212308</v>
       </c>
     </row>
-    <row r="387" spans="1:12">
+    <row r="387" spans="1:13">
       <c r="A387" s="2">
         <v>42767</v>
       </c>
@@ -8096,22 +8435,25 @@
         <v>-0.01901201105080219</v>
       </c>
       <c r="G387">
+        <v>0.01204318711678098</v>
+      </c>
+      <c r="H387">
         <v>0.001035330658729183</v>
       </c>
-      <c r="H387">
+      <c r="I387">
         <v>0.02232698033884706</v>
       </c>
-      <c r="I387">
+      <c r="J387">
         <v>0.05072629083304658</v>
       </c>
-      <c r="K387">
+      <c r="L387">
         <v>0.0586081099059601</v>
       </c>
-      <c r="L387">
+      <c r="M387">
         <v>0.02266085676043761</v>
       </c>
     </row>
-    <row r="388" spans="1:12">
+    <row r="388" spans="1:13">
       <c r="A388" s="2">
         <v>42795</v>
       </c>
@@ -8131,22 +8473,25 @@
         <v>-0.003635429586981931</v>
       </c>
       <c r="G388">
+        <v>-0.003630016157215143</v>
+      </c>
+      <c r="H388">
         <v>0.001034259857789488</v>
       </c>
-      <c r="H388">
+      <c r="I388">
         <v>-0.009001795577248783</v>
       </c>
-      <c r="I388">
+      <c r="J388">
         <v>-0.01727880831784034</v>
       </c>
-      <c r="K388">
+      <c r="L388">
         <v>0.1167327014280715</v>
       </c>
-      <c r="L388">
+      <c r="M388">
         <v>-0.005709978727395759</v>
       </c>
     </row>
-    <row r="389" spans="1:12">
+    <row r="389" spans="1:13">
       <c r="A389" s="2">
         <v>42826</v>
       </c>
@@ -8166,22 +8511,25 @@
         <v>-0.01747239092819908</v>
       </c>
       <c r="G389">
+        <v>0.005387711269307038</v>
+      </c>
+      <c r="H389">
         <v>0.001033191269533829</v>
       </c>
-      <c r="H389">
+      <c r="I389">
         <v>-0.008169808360388608</v>
       </c>
-      <c r="I389">
+      <c r="J389">
         <v>-0.004894349532516329</v>
       </c>
-      <c r="K389">
+      <c r="L389">
         <v>0.03958988574373135</v>
       </c>
-      <c r="L389">
+      <c r="M389">
         <v>-0.003477613478358399</v>
       </c>
     </row>
-    <row r="390" spans="1:12">
+    <row r="390" spans="1:13">
       <c r="A390" s="2">
         <v>42856</v>
       </c>
@@ -8201,22 +8549,25 @@
         <v>-0.001222100878872423</v>
       </c>
       <c r="G390">
+        <v>0.003746332359134019</v>
+      </c>
+      <c r="H390">
         <v>0.001032124887111241</v>
       </c>
-      <c r="H390">
+      <c r="I390">
         <v>-0.009644334784826958</v>
       </c>
-      <c r="I390">
+      <c r="J390">
         <v>-0.02612580036594669</v>
       </c>
-      <c r="K390">
+      <c r="L390">
         <v>0.02734239238811509</v>
       </c>
-      <c r="L390">
+      <c r="M390">
         <v>-0.01295904679002591</v>
       </c>
     </row>
-    <row r="391" spans="1:12">
+    <row r="391" spans="1:13">
       <c r="A391" s="2">
         <v>42887</v>
       </c>
@@ -8236,22 +8587,25 @@
         <v>-0.01025974794390871</v>
       </c>
       <c r="G391">
+        <v>-0.005552408257162411</v>
+      </c>
+      <c r="H391">
         <v>0.001031060703698961</v>
       </c>
-      <c r="H391">
+      <c r="I391">
         <v>-0.01259402844474389</v>
       </c>
-      <c r="I391">
+      <c r="J391">
         <v>-0.03533505799884218</v>
       </c>
-      <c r="K391">
+      <c r="L391">
         <v>-0.0585534123806245</v>
       </c>
-      <c r="L391">
+      <c r="M391">
         <v>-0.01121435781864333</v>
       </c>
     </row>
-    <row r="392" spans="1:12">
+    <row r="392" spans="1:13">
       <c r="A392" s="2">
         <v>42917</v>
       </c>
@@ -8271,22 +8625,25 @@
         <v>0.01192998397857448</v>
       </c>
       <c r="G392">
+        <v>0.007797399520272474</v>
+      </c>
+      <c r="H392">
         <v>0.001223123471095544</v>
       </c>
-      <c r="H392">
+      <c r="I392">
         <v>-0.01060036259146369</v>
       </c>
-      <c r="I392">
+      <c r="J392">
         <v>-0.007041879144171315</v>
       </c>
-      <c r="K392">
+      <c r="L392">
         <v>0.00543132496053067</v>
       </c>
-      <c r="L392">
+      <c r="M392">
         <v>-0.00513825736587914</v>
       </c>
     </row>
-    <row r="393" spans="1:12">
+    <row r="393" spans="1:13">
       <c r="A393" s="2">
         <v>42948</v>
       </c>
@@ -8306,22 +8663,25 @@
         <v>0.005418510842929214</v>
       </c>
       <c r="G393">
+        <v>0.005494399867798538</v>
+      </c>
+      <c r="H393">
         <v>0.001221629267665447</v>
       </c>
-      <c r="H393">
+      <c r="I393">
         <v>-0.0002092383889776839</v>
       </c>
-      <c r="I393">
+      <c r="J393">
         <v>0.02629390336420889</v>
       </c>
-      <c r="K393">
+      <c r="L393">
         <v>-0.01509860673314645</v>
       </c>
-      <c r="L393">
+      <c r="M393">
         <v>-0.003661386492799235</v>
       </c>
     </row>
-    <row r="394" spans="1:12">
+    <row r="394" spans="1:13">
       <c r="A394" s="2">
         <v>42979</v>
       </c>
@@ -8341,22 +8701,25 @@
         <v>-0.001609976684717185</v>
       </c>
       <c r="G394">
+        <v>-0.002028649229583013</v>
+      </c>
+      <c r="H394">
         <v>0.001220138710505969</v>
       </c>
-      <c r="H394">
+      <c r="I394">
         <v>-0.0008693152359945389</v>
       </c>
-      <c r="I394">
+      <c r="J394">
         <v>-0.02026685077516333</v>
       </c>
-      <c r="K394">
+      <c r="L394">
         <v>0.1060731346036021</v>
       </c>
-      <c r="L394">
+      <c r="M394">
         <v>0.0147607398302334</v>
       </c>
     </row>
-    <row r="395" spans="1:12">
+    <row r="395" spans="1:13">
       <c r="A395" s="2">
         <v>43009</v>
       </c>
@@ -8376,22 +8739,25 @@
         <v>0.01535593132558222</v>
       </c>
       <c r="G395">
+        <v>0.0110475730842452</v>
+      </c>
+      <c r="H395">
         <v>0.001667628760182005</v>
       </c>
-      <c r="H395">
+      <c r="I395">
         <v>0.01516837025012197</v>
       </c>
-      <c r="I395">
+      <c r="J395">
         <v>0.004197032371429099</v>
       </c>
-      <c r="K395">
+      <c r="L395">
         <v>0.04605984983757505</v>
       </c>
-      <c r="L395">
+      <c r="M395">
         <v>0.01871182473798272</v>
       </c>
     </row>
-    <row r="396" spans="1:12">
+    <row r="396" spans="1:13">
       <c r="A396" s="2">
         <v>43040</v>
       </c>
@@ -8411,22 +8777,25 @@
         <v>-0.01718253692239924</v>
       </c>
       <c r="G396">
+        <v>-0.001719882502920655</v>
+      </c>
+      <c r="H396">
         <v>0.001600819619645311</v>
       </c>
-      <c r="H396">
+      <c r="I396">
         <v>-0.01232334160181392</v>
       </c>
-      <c r="I396">
+      <c r="J396">
         <v>-0.01003585888614267</v>
       </c>
-      <c r="K396">
+      <c r="L396">
         <v>-0.05451525995393292</v>
       </c>
-      <c r="L396">
+      <c r="M396">
         <v>-0.01160795423607008</v>
       </c>
     </row>
-    <row r="397" spans="1:12">
+    <row r="397" spans="1:13">
       <c r="A397" s="2">
         <v>43070</v>
       </c>
@@ -8446,25 +8815,28 @@
         <v>-0.008584592084435183</v>
       </c>
       <c r="G397">
+        <v>-0.002861716803922332</v>
+      </c>
+      <c r="H397">
         <v>0.001598261091932063</v>
       </c>
-      <c r="H397">
+      <c r="I397">
         <v>-0.004072241667602783</v>
       </c>
-      <c r="I397">
+      <c r="J397">
         <v>0.0005725036735426681</v>
       </c>
-      <c r="J397">
+      <c r="K397">
         <v>0.003464868704460056</v>
       </c>
-      <c r="K397">
+      <c r="L397">
         <v>-0.03466689868564821</v>
       </c>
-      <c r="L397">
+      <c r="M397">
         <v>-0.006097835660390127</v>
       </c>
     </row>
-    <row r="398" spans="1:12">
+    <row r="398" spans="1:13">
       <c r="A398" s="2">
         <v>43101</v>
       </c>
@@ -8484,25 +8856,28 @@
         <v>-0.006165231047446929</v>
       </c>
       <c r="G398">
+        <v>-0.002678763087015867</v>
+      </c>
+      <c r="H398">
         <v>0.002170166592200262</v>
       </c>
-      <c r="H398">
+      <c r="I398">
         <v>-0.03164194037442813</v>
       </c>
-      <c r="I398">
+      <c r="J398">
         <v>-0.001195990799171209</v>
       </c>
-      <c r="J398">
+      <c r="K398">
         <v>0.01191685728598424</v>
       </c>
-      <c r="K398">
+      <c r="L398">
         <v>0.06262463524825668</v>
       </c>
-      <c r="L398">
+      <c r="M398">
         <v>-0.01645853364648264</v>
       </c>
     </row>
-    <row r="399" spans="1:12">
+    <row r="399" spans="1:13">
       <c r="A399" s="2">
         <v>43132</v>
       </c>
@@ -8522,25 +8897,28 @@
         <v>-0.005779696362430586</v>
       </c>
       <c r="G399">
+        <v>-0.0002266048741962345</v>
+      </c>
+      <c r="H399">
         <v>0.002165467167696278</v>
       </c>
-      <c r="H399">
+      <c r="I399">
         <v>0.001259973142639037</v>
       </c>
-      <c r="I399">
+      <c r="J399">
         <v>-0.0007294210216791663</v>
       </c>
-      <c r="J399">
+      <c r="K399">
         <v>-0.008873336430593293</v>
       </c>
-      <c r="K399">
+      <c r="L399">
         <v>-0.09170620510509753</v>
       </c>
-      <c r="L399">
+      <c r="M399">
         <v>0.0005474034967785091</v>
       </c>
     </row>
-    <row r="400" spans="1:12">
+    <row r="400" spans="1:13">
       <c r="A400" s="2">
         <v>43160</v>
       </c>
@@ -8560,25 +8938,28 @@
         <v>0.005668805914438302</v>
       </c>
       <c r="G400">
+        <v>-0.001036200819053312</v>
+      </c>
+      <c r="H400">
         <v>0.002224340641881151</v>
       </c>
-      <c r="H400">
+      <c r="I400">
         <v>-0.004420138494219295</v>
       </c>
-      <c r="I400">
+      <c r="J400">
         <v>-0.004171028594512127</v>
       </c>
-      <c r="J400">
+      <c r="K400">
         <v>0.01064396696754888</v>
       </c>
-      <c r="K400">
+      <c r="L400">
         <v>-0.044182191716861</v>
       </c>
-      <c r="L400">
+      <c r="M400">
         <v>-0.01174256556087805</v>
       </c>
     </row>
-    <row r="401" spans="1:12">
+    <row r="401" spans="1:13">
       <c r="A401" s="2">
         <v>43191</v>
       </c>
@@ -8598,25 +8979,28 @@
         <v>0.008998848204899712</v>
       </c>
       <c r="G401">
+        <v>0.0004204402261274165</v>
+      </c>
+      <c r="H401">
         <v>0.002599873176918344</v>
       </c>
-      <c r="H401">
+      <c r="I401">
         <v>0.008440105288725963</v>
       </c>
-      <c r="I401">
+      <c r="J401">
         <v>0.01182887894837847</v>
       </c>
-      <c r="J401">
+      <c r="K401">
         <v>-0.01601715156386285</v>
       </c>
-      <c r="K401">
+      <c r="L401">
         <v>0.122046090153024</v>
       </c>
-      <c r="L401">
+      <c r="M401">
         <v>0.02087823290621982</v>
       </c>
     </row>
-    <row r="402" spans="1:12">
+    <row r="402" spans="1:13">
       <c r="A402" s="2">
         <v>43221</v>
       </c>
@@ -8636,25 +9020,28 @@
         <v>0.005949682818066071</v>
       </c>
       <c r="G402">
+        <v>-0.002461833852834383</v>
+      </c>
+      <c r="H402">
         <v>0.002593131364239998</v>
       </c>
-      <c r="H402">
+      <c r="I402">
         <v>0.02459325371955901</v>
       </c>
-      <c r="I402">
+      <c r="J402">
         <v>0.02630947822418594</v>
       </c>
-      <c r="J402">
+      <c r="K402">
         <v>-0.007585252654838892</v>
       </c>
-      <c r="K402">
+      <c r="L402">
         <v>-0.04235577106224131</v>
       </c>
-      <c r="L402">
+      <c r="M402">
         <v>0.01296667186458134</v>
       </c>
     </row>
-    <row r="403" spans="1:12">
+    <row r="403" spans="1:13">
       <c r="A403" s="2">
         <v>43252</v>
       </c>
@@ -8674,25 +9061,28 @@
         <v>0.01829553121918326</v>
       </c>
       <c r="G403">
+        <v>-0.0004596007666562985</v>
+      </c>
+      <c r="H403">
         <v>0.002586424425939926</v>
       </c>
-      <c r="H403">
+      <c r="I403">
         <v>-0.001337078498311106</v>
       </c>
-      <c r="I403">
+      <c r="J403">
         <v>-0.03868870001277447</v>
       </c>
-      <c r="J403">
+      <c r="K403">
         <v>-0.004446341275239241</v>
       </c>
-      <c r="K403">
+      <c r="L403">
         <v>-0.004620105699835286</v>
       </c>
-      <c r="L403">
+      <c r="M403">
         <v>0.003400090322757565</v>
       </c>
     </row>
-    <row r="404" spans="1:12">
+    <row r="404" spans="1:13">
       <c r="A404" s="2">
         <v>43282</v>
       </c>
@@ -8712,25 +9102,28 @@
         <v>0.01331235853012647</v>
       </c>
       <c r="G404">
+        <v>0.002782107765605613</v>
+      </c>
+      <c r="H404">
         <v>0.002579752092116028</v>
       </c>
-      <c r="H404">
+      <c r="I404">
         <v>-0.000625186248865206</v>
       </c>
-      <c r="I404">
+      <c r="J404">
         <v>-0.03008092955656549</v>
       </c>
-      <c r="J404">
+      <c r="K404">
         <v>-0.001669447050334782</v>
       </c>
-      <c r="K404">
+      <c r="L404">
         <v>0.08006531283362928</v>
       </c>
-      <c r="L404">
+      <c r="M404">
         <v>0.004202964861125924</v>
       </c>
     </row>
-    <row r="405" spans="1:12">
+    <row r="405" spans="1:13">
       <c r="A405" s="2">
         <v>43313</v>
       </c>
@@ -8750,25 +9143,28 @@
         <v>-0.02224864246927694</v>
       </c>
       <c r="G405">
+        <v>0.0001219511699419584</v>
+      </c>
+      <c r="H405">
         <v>0.002573114095644424</v>
       </c>
-      <c r="H405">
+      <c r="I405">
         <v>0.009465343018927097</v>
       </c>
-      <c r="I405">
+      <c r="J405">
         <v>-0.007967167091083249</v>
       </c>
-      <c r="J405">
+      <c r="K405">
         <v>0.001049016163422678</v>
       </c>
-      <c r="K405">
+      <c r="L405">
         <v>-0.07359618566346515</v>
       </c>
-      <c r="L405">
+      <c r="M405">
         <v>0.007149220558499314</v>
       </c>
     </row>
-    <row r="406" spans="1:12">
+    <row r="406" spans="1:13">
       <c r="A406" s="2">
         <v>43344</v>
       </c>
@@ -8788,25 +9184,28 @@
         <v>0.006255202925798065</v>
       </c>
       <c r="G406">
+        <v>-0.002866315950772691</v>
+      </c>
+      <c r="H406">
         <v>0.002566510172143932</v>
       </c>
-      <c r="H406">
+      <c r="I406">
         <v>0.002398520625034317</v>
       </c>
-      <c r="I406">
+      <c r="J406">
         <v>-0.006243835473778381</v>
       </c>
-      <c r="J406">
+      <c r="K406">
         <v>-0.008620375971287952</v>
       </c>
-      <c r="K406">
+      <c r="L406">
         <v>0.005460521060379309</v>
       </c>
-      <c r="L406">
+      <c r="M406">
         <v>0.01386010268200377</v>
       </c>
     </row>
-    <row r="407" spans="1:12">
+    <row r="407" spans="1:13">
       <c r="A407" s="2">
         <v>43374</v>
       </c>
@@ -8826,25 +9225,28 @@
         <v>-0.005305366483933982</v>
       </c>
       <c r="G407">
+        <v>-0.001811475312939459</v>
+      </c>
+      <c r="H407">
         <v>0.002559940059940091</v>
       </c>
-      <c r="H407">
+      <c r="I407">
         <v>0.005850147968610608</v>
       </c>
-      <c r="I407">
+      <c r="J407">
         <v>0.04665862263727072</v>
       </c>
-      <c r="J407">
+      <c r="K407">
         <v>-0.01117051038770334</v>
       </c>
-      <c r="K407">
+      <c r="L407">
         <v>-0.1152796299974463</v>
       </c>
-      <c r="L407">
+      <c r="M407">
         <v>0.001817274575773631</v>
       </c>
     </row>
-    <row r="408" spans="1:12">
+    <row r="408" spans="1:13">
       <c r="A408" s="2">
         <v>43405</v>
       </c>
@@ -8864,25 +9266,28 @@
         <v>0.01451980674522702</v>
       </c>
       <c r="G408">
+        <v>-0.006428441627655768</v>
+      </c>
+      <c r="H408">
         <v>0.002553403500031193</v>
       </c>
-      <c r="H408">
+      <c r="I408">
         <v>-0.007344767688699627</v>
       </c>
-      <c r="I408">
+      <c r="J408">
         <v>-0.001477191195592309</v>
       </c>
-      <c r="J408">
+      <c r="K408">
         <v>0.003127047457190724</v>
       </c>
-      <c r="K408">
+      <c r="L408">
         <v>-0.01462466565320197</v>
       </c>
-      <c r="L408">
+      <c r="M408">
         <v>-0.01887622042364767</v>
       </c>
     </row>
-    <row r="409" spans="1:12">
+    <row r="409" spans="1:13">
       <c r="A409" s="2">
         <v>43435</v>
       </c>
@@ -8902,25 +9307,28 @@
         <v>-0.01157395147046292</v>
       </c>
       <c r="G409">
+        <v>0.002085437162950399</v>
+      </c>
+      <c r="H409">
         <v>0.002609019754006736</v>
       </c>
-      <c r="H409">
+      <c r="I409">
         <v>0.004322309328143703</v>
       </c>
-      <c r="I409">
+      <c r="J409">
         <v>0.04428069541184398</v>
       </c>
-      <c r="J409">
+      <c r="K409">
         <v>0.02021798942076125</v>
       </c>
-      <c r="K409">
+      <c r="L409">
         <v>-0.1046731892124131</v>
       </c>
-      <c r="L409">
+      <c r="M409">
         <v>-0.0163603556578692</v>
       </c>
     </row>
-    <row r="410" spans="1:12">
+    <row r="410" spans="1:13">
       <c r="A410" s="2">
         <v>43466</v>
       </c>
@@ -8940,25 +9348,28 @@
         <v>-0.0005358494961850147</v>
       </c>
       <c r="G410">
+        <v>0.01086444281022891</v>
+      </c>
+      <c r="H410">
         <v>0.002540272614621975</v>
       </c>
-      <c r="H410">
+      <c r="I410">
         <v>0.01955479954199069</v>
       </c>
-      <c r="I410">
+      <c r="J410">
         <v>0.02904299487940221</v>
       </c>
-      <c r="J410">
+      <c r="K410">
         <v>0.01522508652864096</v>
       </c>
-      <c r="K410">
+      <c r="L410">
         <v>0.1127809162358866</v>
       </c>
-      <c r="L410">
+      <c r="M410">
         <v>0.03680988921201167</v>
       </c>
     </row>
-    <row r="411" spans="1:12">
+    <row r="411" spans="1:13">
       <c r="A411" s="2">
         <v>43497</v>
       </c>
@@ -8978,25 +9389,28 @@
         <v>-0.00655252392219019</v>
       </c>
       <c r="G411">
+        <v>0.006874065274000252</v>
+      </c>
+      <c r="H411">
         <v>0.002472035102898396</v>
       </c>
-      <c r="H411">
+      <c r="I411">
         <v>0.008195611573896366</v>
       </c>
-      <c r="I411">
+      <c r="J411">
         <v>0.00318896412352454</v>
       </c>
-      <c r="J411">
+      <c r="K411">
         <v>-0.005755994144776455</v>
       </c>
-      <c r="K411">
+      <c r="L411">
         <v>0.08909985429883815</v>
       </c>
-      <c r="L411">
+      <c r="M411">
         <v>0.02254369414776103</v>
       </c>
     </row>
-    <row r="412" spans="1:12">
+    <row r="412" spans="1:13">
       <c r="A412" s="2">
         <v>43525</v>
       </c>
@@ -9016,25 +9430,28 @@
         <v>0.009840819927542821</v>
       </c>
       <c r="G412">
+        <v>0.01389162013694856</v>
+      </c>
+      <c r="H412">
         <v>0.002527587694963307</v>
       </c>
-      <c r="H412">
+      <c r="I412">
         <v>0.03263748750821893</v>
       </c>
-      <c r="I412">
+      <c r="J412">
         <v>-0.002183699733417255</v>
       </c>
-      <c r="J412">
+      <c r="K412">
         <v>0.01251943208980588</v>
       </c>
-      <c r="K412">
+      <c r="L412">
         <v>0.03653488511608272</v>
       </c>
-      <c r="L412">
+      <c r="M412">
         <v>0.02260757434546923</v>
       </c>
     </row>
-    <row r="413" spans="1:12">
+    <row r="413" spans="1:13">
       <c r="A413" s="2">
         <v>43556</v>
       </c>
@@ -9054,25 +9471,28 @@
         <v>0.0002207361900470328</v>
       </c>
       <c r="G413">
+        <v>0.00718390519073564</v>
+      </c>
+      <c r="H413">
         <v>0.002336735948837765</v>
       </c>
-      <c r="H413">
+      <c r="I413">
         <v>0.006097826468154821</v>
       </c>
-      <c r="I413">
+      <c r="J413">
         <v>-0.008612609870442656</v>
       </c>
-      <c r="J413">
+      <c r="K413">
         <v>-0.002961008100256235</v>
       </c>
-      <c r="K413">
+      <c r="L413">
         <v>0.1120094918393333</v>
       </c>
-      <c r="L413">
+      <c r="M413">
         <v>0.01280610187215769</v>
       </c>
     </row>
-    <row r="414" spans="1:12">
+    <row r="414" spans="1:13">
       <c r="A414" s="2">
         <v>43586</v>
       </c>
@@ -9092,25 +9512,28 @@
         <v>-0.004423041630950197</v>
       </c>
       <c r="G414">
+        <v>-0.001539392829691955</v>
+      </c>
+      <c r="H414">
         <v>0.002269938650306669</v>
       </c>
-      <c r="H414">
+      <c r="I414">
         <v>0.01287847660593244</v>
       </c>
-      <c r="I414">
+      <c r="J414">
         <v>0.01640351021296405</v>
       </c>
-      <c r="J414">
+      <c r="K414">
         <v>0.01354138547646411</v>
       </c>
-      <c r="K414">
+      <c r="L414">
         <v>-0.1016743609895231</v>
       </c>
-      <c r="L414">
+      <c r="M414">
         <v>-0.003845456685016346</v>
       </c>
     </row>
-    <row r="415" spans="1:12">
+    <row r="415" spans="1:13">
       <c r="A415" s="2">
         <v>43617</v>
       </c>
@@ -9130,25 +9553,28 @@
         <v>-0.0009566720878085855</v>
       </c>
       <c r="G415">
+        <v>0.01584252721606427</v>
+      </c>
+      <c r="H415">
         <v>0.002326008447083305</v>
       </c>
-      <c r="H415">
+      <c r="I415">
         <v>0.006864477441103523</v>
       </c>
-      <c r="I415">
+      <c r="J415">
         <v>0.06568381058889039</v>
       </c>
-      <c r="J415">
+      <c r="K415">
         <v>0.02217165963870005</v>
       </c>
-      <c r="K415">
+      <c r="L415">
         <v>0.1236051402681382</v>
       </c>
-      <c r="L415">
+      <c r="M415">
         <v>0.01001214926397398</v>
       </c>
     </row>
-    <row r="416" spans="1:12">
+    <row r="416" spans="1:13">
       <c r="A416" s="2">
         <v>43647</v>
       </c>
@@ -9168,25 +9594,28 @@
         <v>-0.008433782776958942</v>
       </c>
       <c r="G416">
+        <v>0.01428665914485161</v>
+      </c>
+      <c r="H416">
         <v>0.002442748091603164</v>
       </c>
-      <c r="H416">
+      <c r="I416">
         <v>0.02124932989622952</v>
       </c>
-      <c r="I416">
+      <c r="J416">
         <v>0.03397200784457022</v>
       </c>
-      <c r="J416">
+      <c r="K416">
         <v>-0.002778776768912694</v>
       </c>
-      <c r="K416">
+      <c r="L416">
         <v>-0.001794443413154934</v>
       </c>
-      <c r="L416">
+      <c r="M416">
         <v>0.02653906536213091</v>
       </c>
     </row>
-    <row r="417" spans="1:12">
+    <row r="417" spans="1:13">
       <c r="A417" s="2">
         <v>43678</v>
       </c>
@@ -9206,25 +9635,28 @@
         <v>0.0105029348860437</v>
       </c>
       <c r="G417">
+        <v>0.006369338797040491</v>
+      </c>
+      <c r="H417">
         <v>0.002436795613767861</v>
       </c>
-      <c r="H417">
+      <c r="I417">
         <v>0.02979717563684203</v>
       </c>
-      <c r="I417">
+      <c r="J417">
         <v>0.08180211119888736</v>
       </c>
-      <c r="J417">
+      <c r="K417">
         <v>0.0203348839194597</v>
       </c>
-      <c r="K417">
+      <c r="L417">
         <v>-0.02460430614100417</v>
       </c>
-      <c r="L417">
+      <c r="M417">
         <v>0.01872704450449048</v>
       </c>
     </row>
-    <row r="418" spans="1:12">
+    <row r="418" spans="1:13">
       <c r="A418" s="2">
         <v>43709</v>
       </c>
@@ -9244,25 +9676,28 @@
         <v>0.01968266252065809</v>
       </c>
       <c r="G418">
+        <v>-0.007645144544231819</v>
+      </c>
+      <c r="H418">
         <v>0.002491643877240879</v>
       </c>
-      <c r="H418">
+      <c r="I418">
         <v>0.005715513989371424</v>
       </c>
-      <c r="I418">
+      <c r="J418">
         <v>-0.01508025033078031</v>
       </c>
-      <c r="J418">
+      <c r="K418">
         <v>-0.0101716486664013</v>
       </c>
-      <c r="K418">
+      <c r="L418">
         <v>0.0870718828943744</v>
       </c>
-      <c r="L418">
+      <c r="M418">
         <v>0.01680496021717048</v>
       </c>
     </row>
-    <row r="419" spans="1:12">
+    <row r="419" spans="1:13">
       <c r="A419" s="2">
         <v>43739</v>
       </c>
@@ -9282,25 +9717,28 @@
         <v>-0.0008160914022370402</v>
       </c>
       <c r="G419">
+        <v>-0.002083294924506207</v>
+      </c>
+      <c r="H419">
         <v>0.002606692531522681</v>
       </c>
-      <c r="H419">
+      <c r="I419">
         <v>-0.01237630077921126</v>
       </c>
-      <c r="I419">
+      <c r="J419">
         <v>-0.006899342080268434</v>
       </c>
-      <c r="J419">
+      <c r="K419">
         <v>0.00665896155081791</v>
       </c>
-      <c r="K419">
+      <c r="L419">
         <v>0.02009139538736027</v>
       </c>
-      <c r="L419">
+      <c r="M419">
         <v>-0.01113311670621997</v>
       </c>
     </row>
-    <row r="420" spans="1:12">
+    <row r="420" spans="1:13">
       <c r="A420" s="2">
         <v>43770</v>
       </c>
@@ -9320,25 +9758,28 @@
         <v>-0.02477956686662375</v>
       </c>
       <c r="G420">
+        <v>-0.002508713912696248</v>
+      </c>
+      <c r="H420">
         <v>0.002660378499304894</v>
       </c>
-      <c r="H420">
+      <c r="I420">
         <v>0.01324888010931513</v>
       </c>
-      <c r="I420">
+      <c r="J420">
         <v>-0.01848581479765277</v>
       </c>
-      <c r="J420">
+      <c r="K420">
         <v>-0.007582647452648916</v>
       </c>
-      <c r="K420">
+      <c r="L420">
         <v>0.05686149026200082</v>
       </c>
-      <c r="L420">
+      <c r="M420">
         <v>0.01988323210313125</v>
       </c>
     </row>
-    <row r="421" spans="1:12">
+    <row r="421" spans="1:13">
       <c r="A421" s="2">
         <v>43800</v>
       </c>
@@ -9358,25 +9799,28 @@
         <v>0.01220607934538065</v>
       </c>
       <c r="G421">
+        <v>-0.000516664055696503</v>
+      </c>
+      <c r="H421">
         <v>0.002653319664716935</v>
       </c>
-      <c r="H421">
+      <c r="I421">
         <v>-0.01403421944235761</v>
       </c>
-      <c r="I421">
+      <c r="J421">
         <v>0.01964607163702414</v>
       </c>
-      <c r="J421">
+      <c r="K421">
         <v>0.005831639178431436</v>
       </c>
-      <c r="K421">
+      <c r="L421">
         <v>0.02349384523616371</v>
       </c>
-      <c r="L421">
+      <c r="M421">
         <v>-0.00243634261054626</v>
       </c>
     </row>
-    <row r="422" spans="1:12">
+    <row r="422" spans="1:13">
       <c r="A422" s="2">
         <v>43831</v>
       </c>
@@ -9396,25 +9840,28 @@
         <v>-0.01404745681003827</v>
       </c>
       <c r="G422">
+        <v>0.01155933686113131</v>
+      </c>
+      <c r="H422">
         <v>0.002706441330366127</v>
       </c>
-      <c r="H422">
+      <c r="I422">
         <v>0.03268214834813032</v>
       </c>
-      <c r="I422">
+      <c r="J422">
         <v>0.05731318718009271</v>
       </c>
-      <c r="J422">
+      <c r="K422">
         <v>0.01276484517295673</v>
       </c>
-      <c r="K422">
+      <c r="L422">
         <v>-0.05330896150398567</v>
       </c>
-      <c r="L422">
+      <c r="M422">
         <v>0.02385829338972822</v>
       </c>
     </row>
-    <row r="423" spans="1:12">
+    <row r="423" spans="1:13">
       <c r="A423" s="2">
         <v>43862</v>
       </c>
@@ -9434,25 +9881,28 @@
         <v>0.01004454578578051</v>
       </c>
       <c r="G423">
+        <v>-0.00400728333287248</v>
+      </c>
+      <c r="H423">
         <v>0.002699136276391512</v>
       </c>
-      <c r="H423">
+      <c r="I423">
         <v>0.01019652821980777</v>
       </c>
-      <c r="I423">
+      <c r="J423">
         <v>0.02313423079695243</v>
       </c>
-      <c r="J423">
+      <c r="K423">
         <v>0.006725835948122372</v>
       </c>
-      <c r="K423">
+      <c r="L423">
         <v>-0.1661995084345</v>
       </c>
-      <c r="L423">
+      <c r="M423">
         <v>-0.003704522292866663</v>
       </c>
     </row>
-    <row r="424" spans="1:12">
+    <row r="424" spans="1:13">
       <c r="A424" s="2">
         <v>43891</v>
       </c>
@@ -9472,25 +9922,28 @@
         <v>0.007528893729723318</v>
       </c>
       <c r="G424">
+        <v>-0.06849791683350981</v>
+      </c>
+      <c r="H424">
         <v>0.00263205120535992</v>
       </c>
-      <c r="H424">
+      <c r="I424">
         <v>-0.0703744081946307</v>
       </c>
-      <c r="I424">
+      <c r="J424">
         <v>0.001356628064066445</v>
       </c>
-      <c r="J424">
+      <c r="K424">
         <v>-0.02240637416126146</v>
       </c>
-      <c r="K424">
+      <c r="L424">
         <v>-0.3333463846829356</v>
       </c>
-      <c r="L424">
+      <c r="M424">
         <v>-0.1168656801358938</v>
       </c>
     </row>
-    <row r="425" spans="1:12">
+    <row r="425" spans="1:13">
       <c r="A425" s="2">
         <v>43922</v>
       </c>
@@ -9510,25 +9963,28 @@
         <v>0.05282354653244403</v>
       </c>
       <c r="G425">
+        <v>0.03732175824610051</v>
+      </c>
+      <c r="H425">
         <v>0.003102440188532896</v>
       </c>
-      <c r="H425">
+      <c r="I425">
         <v>0.05583450195111017</v>
       </c>
-      <c r="I425">
+      <c r="J425">
         <v>0.06608336200840426</v>
       </c>
-      <c r="J425">
+      <c r="K425">
         <v>0.01963337449682845</v>
       </c>
-      <c r="K425">
+      <c r="L425">
         <v>0.09868691529974316</v>
       </c>
-      <c r="L425">
+      <c r="M425">
         <v>0.1116252695510838</v>
       </c>
     </row>
-    <row r="426" spans="1:12">
+    <row r="426" spans="1:13">
       <c r="A426" s="2">
         <v>43952</v>
       </c>
@@ -9548,25 +10004,28 @@
         <v>-0.002834694732777421</v>
       </c>
       <c r="G426">
+        <v>0.001737719376164071</v>
+      </c>
+      <c r="H426">
         <v>0.003092844822458973</v>
       </c>
-      <c r="H426">
+      <c r="I426">
         <v>-0.009153979074514429</v>
       </c>
-      <c r="I426">
+      <c r="J426">
         <v>-0.008463468493327131</v>
       </c>
-      <c r="J426">
+      <c r="K426">
         <v>0.004386959934453927</v>
       </c>
-      <c r="K426">
+      <c r="L426">
         <v>0.09307582457024721</v>
       </c>
-      <c r="L426">
+      <c r="M426">
         <v>0.0157895130214627</v>
       </c>
     </row>
-    <row r="427" spans="1:12">
+    <row r="427" spans="1:13">
       <c r="A427" s="2">
         <v>43983</v>
       </c>
@@ -9586,25 +10045,28 @@
         <v>-0.02117322971513047</v>
       </c>
       <c r="G427">
+        <v>0.01319001234324468</v>
+      </c>
+      <c r="H427">
         <v>0.003024014230655236</v>
       </c>
-      <c r="H427">
+      <c r="I427">
         <v>0.01520030702404429</v>
       </c>
-      <c r="I427">
+      <c r="J427">
         <v>0.01712879936156142</v>
       </c>
-      <c r="J427">
+      <c r="K427">
         <v>0.008884279168048126</v>
       </c>
-      <c r="K427">
+      <c r="L427">
         <v>0.1243441506270302</v>
       </c>
-      <c r="L427">
+      <c r="M427">
         <v>0.02029125690911626</v>
       </c>
     </row>
-    <row r="428" spans="1:12">
+    <row r="428" spans="1:13">
       <c r="A428" s="2">
         <v>44013</v>
       </c>
@@ -9624,25 +10086,28 @@
         <v>-0.0004360863720761499</v>
       </c>
       <c r="G428">
+        <v>0.0150469036261287</v>
+      </c>
+      <c r="H428">
         <v>0.003487822180184397</v>
       </c>
-      <c r="H428">
+      <c r="I428">
         <v>-0.01491914313781251</v>
       </c>
-      <c r="I428">
+      <c r="J428">
         <v>0.05033792287282934</v>
       </c>
-      <c r="J428">
+      <c r="K428">
         <v>0.03189335685268047</v>
       </c>
-      <c r="K428">
+      <c r="L428">
         <v>-0.03343627472302113</v>
       </c>
-      <c r="L428">
+      <c r="M428">
         <v>0.002964213767491231</v>
       </c>
     </row>
-    <row r="429" spans="1:12">
+    <row r="429" spans="1:13">
       <c r="A429" s="2">
         <v>44044</v>
       </c>
@@ -9662,25 +10127,28 @@
         <v>-0.007749532239493373</v>
       </c>
       <c r="G429">
+        <v>0.001751409210795085</v>
+      </c>
+      <c r="H429">
         <v>0.003475699558173728</v>
       </c>
-      <c r="H429">
+      <c r="I429">
         <v>-0.01070443535075738</v>
       </c>
-      <c r="I429">
+      <c r="J429">
         <v>-0.01151802065955165</v>
       </c>
-      <c r="J429">
+      <c r="K429">
         <v>-0.0015246588193637</v>
       </c>
-      <c r="K429">
+      <c r="L429">
         <v>0.06280857848179378</v>
       </c>
-      <c r="L429">
+      <c r="M429">
         <v>0.008958761320716713</v>
       </c>
     </row>
-    <row r="430" spans="1:12">
+    <row r="430" spans="1:13">
       <c r="A430" s="2">
         <v>44075</v>
       </c>
@@ -9700,25 +10168,28 @@
         <v>-0.003469877115129139</v>
       </c>
       <c r="G430">
+        <v>0.003045198039699937</v>
+      </c>
+      <c r="H430">
         <v>0.003404954796289772</v>
       </c>
-      <c r="H430">
+      <c r="I430">
         <v>0.01181590843876346</v>
       </c>
-      <c r="I430">
+      <c r="J430">
         <v>-0.01689024075582979</v>
       </c>
-      <c r="J430">
+      <c r="K430">
         <v>-0.003596812942408767</v>
       </c>
-      <c r="K430">
+      <c r="L430">
         <v>-0.0490194892391822</v>
       </c>
-      <c r="L430">
+      <c r="M430">
         <v>-0.0004431497576241616</v>
       </c>
     </row>
-    <row r="431" spans="1:12">
+    <row r="431" spans="1:13">
       <c r="A431" s="2">
         <v>44105</v>
       </c>
@@ -9738,25 +10209,28 @@
         <v>0.03009586190427438</v>
       </c>
       <c r="G431">
+        <v>0.007756333074492749</v>
+      </c>
+      <c r="H431">
         <v>0.003744441844137691</v>
       </c>
-      <c r="H431">
+      <c r="I431">
         <v>0.0002347934426873977</v>
       </c>
-      <c r="I431">
+      <c r="J431">
         <v>-0.001823788333345178</v>
       </c>
-      <c r="J431">
+      <c r="K431">
         <v>0.0009564788238152211</v>
       </c>
-      <c r="K431">
+      <c r="L431">
         <v>-0.1435077408439239</v>
       </c>
-      <c r="L431">
+      <c r="M431">
         <v>0.007641197186271098</v>
       </c>
     </row>
-    <row r="432" spans="1:12">
+    <row r="432" spans="1:13">
       <c r="A432" s="2">
         <v>44136</v>
       </c>
@@ -9776,25 +10250,28 @@
         <v>0.01694750600536965</v>
       </c>
       <c r="G432">
+        <v>0.01026712232431026</v>
+      </c>
+      <c r="H432">
         <v>0.003672184658428446</v>
       </c>
-      <c r="H432">
+      <c r="I432">
         <v>0.006348456447925477</v>
       </c>
-      <c r="I432">
+      <c r="J432">
         <v>-0.0854420243142433</v>
       </c>
-      <c r="J432">
+      <c r="K432">
         <v>0.01818220432956164</v>
       </c>
-      <c r="K432">
+      <c r="L432">
         <v>0.3865033864068446</v>
       </c>
-      <c r="L432">
+      <c r="M432">
         <v>0.03310174336756555</v>
       </c>
     </row>
-    <row r="433" spans="1:12">
+    <row r="433" spans="1:13">
       <c r="A433" s="2">
         <v>44166</v>
       </c>
@@ -9814,25 +10291,28 @@
         <v>-0.02759854451980459</v>
       </c>
       <c r="G433">
+        <v>0.001669903248711302</v>
+      </c>
+      <c r="H433">
         <v>0.003716824438120714</v>
       </c>
-      <c r="H433">
+      <c r="I433">
         <v>-0.01166553003519133</v>
       </c>
-      <c r="I433">
+      <c r="J433">
         <v>0.04749006045960358</v>
       </c>
-      <c r="J433">
+      <c r="K433">
         <v>0.01343233400547317</v>
       </c>
-      <c r="K433">
+      <c r="L433">
         <v>0.03474003888570576</v>
       </c>
-      <c r="L433">
+      <c r="M433">
         <v>0.002951148107560364</v>
       </c>
     </row>
-    <row r="434" spans="1:12">
+    <row r="434" spans="1:13">
       <c r="A434" s="2">
         <v>44197</v>
       </c>
@@ -9852,25 +10332,28 @@
         <v>0.01858930277834836</v>
       </c>
       <c r="G434">
+        <v>-0.001178403179169285</v>
+      </c>
+      <c r="H434">
         <v>0.003760921136376716</v>
       </c>
-      <c r="H434">
+      <c r="I434">
         <v>0.001080394409124441</v>
       </c>
-      <c r="I434">
+      <c r="J434">
         <v>-0.00347269921727078</v>
       </c>
-      <c r="J434">
+      <c r="K434">
         <v>-0.008806961361813248</v>
       </c>
-      <c r="K434">
+      <c r="L434">
         <v>-0.03785451402009465</v>
       </c>
-      <c r="L434">
+      <c r="M434">
         <v>0.01241920686371434</v>
       </c>
     </row>
-    <row r="435" spans="1:12">
+    <row r="435" spans="1:13">
       <c r="A435" s="2">
         <v>44228</v>
       </c>
@@ -9890,25 +10373,28 @@
         <v>-0.009350792822729437</v>
       </c>
       <c r="G435">
+        <v>-0.007742559064892185</v>
+      </c>
+      <c r="H435">
         <v>0.00380447313811394</v>
       </c>
-      <c r="H435">
+      <c r="I435">
         <v>-0.01264382313634238</v>
       </c>
-      <c r="I435">
+      <c r="J435">
         <v>-0.06373708841117287</v>
       </c>
-      <c r="J435">
+      <c r="K435">
         <v>-0.01721310320077729</v>
       </c>
-      <c r="K435">
+      <c r="L435">
         <v>0.139599944048113</v>
       </c>
-      <c r="L435">
+      <c r="M435">
         <v>0.005553124599915416</v>
       </c>
     </row>
-    <row r="436" spans="1:12">
+    <row r="436" spans="1:13">
       <c r="A436" s="2">
         <v>44256</v>
       </c>
@@ -9928,25 +10414,28 @@
         <v>0.0002190498105993921</v>
       </c>
       <c r="G436">
+        <v>0.00210510117486562</v>
+      </c>
+      <c r="H436">
         <v>0.003790053979556784</v>
       </c>
-      <c r="H436">
+      <c r="I436">
         <v>0.0138728059931601</v>
       </c>
-      <c r="I436">
+      <c r="J436">
         <v>0.003048742614738309</v>
       </c>
-      <c r="J436">
+      <c r="K436">
         <v>-0.01923673581241125</v>
       </c>
-      <c r="K436">
+      <c r="L436">
         <v>0.1152524289261776</v>
       </c>
-      <c r="L436">
+      <c r="M436">
         <v>0.02293241761637232</v>
       </c>
     </row>
-    <row r="437" spans="1:12">
+    <row r="437" spans="1:13">
       <c r="A437" s="2">
         <v>44287</v>
       </c>
@@ -9966,25 +10455,28 @@
         <v>0.02474499558678112</v>
       </c>
       <c r="G437">
+        <v>0.0001660421489859676</v>
+      </c>
+      <c r="H437">
         <v>0.003661327231121225</v>
       </c>
-      <c r="H437">
+      <c r="I437">
         <v>-0.0155195614155329</v>
       </c>
-      <c r="I437">
+      <c r="J437">
         <v>0.01441076380479478</v>
       </c>
-      <c r="J437">
+      <c r="K437">
         <v>0.01263308625561299</v>
       </c>
-      <c r="K437">
+      <c r="L437">
         <v>0.03842783668804062</v>
       </c>
-      <c r="L437">
+      <c r="M437">
         <v>-0.01087126376281211</v>
       </c>
     </row>
-    <row r="438" spans="1:12">
+    <row r="438" spans="1:13">
       <c r="A438" s="2">
         <v>44317</v>
       </c>
@@ -10004,25 +10496,28 @@
         <v>-0.01591194140364438</v>
       </c>
       <c r="G438">
+        <v>-0.001392782941417536</v>
+      </c>
+      <c r="H438">
         <v>0.003704970360237203</v>
       </c>
-      <c r="H438">
+      <c r="I438">
         <v>0.0008054987067533936</v>
       </c>
-      <c r="I438">
+      <c r="J438">
         <v>0.06436184750153484</v>
       </c>
-      <c r="J438">
+      <c r="K438">
         <v>0.009391611862869409</v>
       </c>
-      <c r="K438">
+      <c r="L438">
         <v>0.03938234011242603</v>
       </c>
-      <c r="L438">
+      <c r="M438">
         <v>-0.001462857735733181</v>
       </c>
     </row>
-    <row r="439" spans="1:12">
+    <row r="439" spans="1:13">
       <c r="A439" s="2">
         <v>44348</v>
       </c>
@@ -10042,25 +10537,28 @@
         <v>-0.01748101415766901</v>
       </c>
       <c r="G439">
+        <v>0</v>
+      </c>
+      <c r="H439">
         <v>0.003634505082628081</v>
       </c>
-      <c r="H439">
+      <c r="I439">
         <v>0.02800791255407464</v>
       </c>
-      <c r="I439">
+      <c r="J439">
         <v>-0.0472479904318911</v>
       </c>
-      <c r="J439">
+      <c r="K439">
         <v>-0.008822371664789053</v>
       </c>
-      <c r="K439">
+      <c r="L439">
         <v>0.02315922407775117</v>
       </c>
-      <c r="L439">
+      <c r="M439">
         <v>0.03195852711393932</v>
       </c>
     </row>
-    <row r="440" spans="1:12">
+    <row r="440" spans="1:13">
       <c r="A440" s="2">
         <v>44378</v>
       </c>
@@ -10080,25 +10578,28 @@
         <v>0.009055653420317444</v>
       </c>
       <c r="G440">
+        <v>0</v>
+      </c>
+      <c r="H440">
         <v>0.003677926780965457</v>
       </c>
-      <c r="H440">
+      <c r="I440">
         <v>0.01200593159028318</v>
       </c>
-      <c r="I440">
+      <c r="J440">
         <v>0.03489505518551028</v>
       </c>
-      <c r="J440">
+      <c r="K440">
         <v>0.01331017403087054</v>
       </c>
-      <c r="K440">
+      <c r="L440">
         <v>0.01286803460608343</v>
       </c>
-      <c r="L440">
+      <c r="M440">
         <v>0.008764161903177081</v>
       </c>
     </row>
-    <row r="441" spans="1:12">
+    <row r="441" spans="1:13">
       <c r="A441" s="2">
         <v>44409</v>
       </c>
@@ -10118,25 +10619,28 @@
         <v>0.01114938942766175</v>
       </c>
       <c r="G441">
+        <v>0</v>
+      </c>
+      <c r="H441">
         <v>0.003720825346713141</v>
       </c>
-      <c r="H441">
+      <c r="I441">
         <v>2.776063316400901E-05</v>
       </c>
-      <c r="I441">
+      <c r="J441">
         <v>-0.00118227520501335</v>
       </c>
-      <c r="J441">
+      <c r="K441">
         <v>-0.004158548685487484</v>
       </c>
-      <c r="K441">
+      <c r="L441">
         <v>0.05324028519959478</v>
       </c>
-      <c r="L441">
+      <c r="M441">
         <v>0.008551801313494423</v>
       </c>
     </row>
-    <row r="442" spans="1:12">
+    <row r="442" spans="1:13">
       <c r="A442" s="2">
         <v>44440</v>
       </c>
@@ -10156,25 +10660,28 @@
         <v>-0.01005706883271484</v>
       </c>
       <c r="G442">
+        <v>0</v>
+      </c>
+      <c r="H442">
         <v>0.003650864974163115</v>
       </c>
-      <c r="H442">
+      <c r="I442">
         <v>0.006433214022155909</v>
       </c>
-      <c r="I442">
+      <c r="J442">
         <v>-0.01855192735947264</v>
       </c>
-      <c r="J442">
+      <c r="K442">
         <v>-0.01776904781565247</v>
       </c>
-      <c r="K442">
+      <c r="L442">
         <v>-0.06812694032425126</v>
       </c>
-      <c r="L442">
+      <c r="M442">
         <v>0.01459234072249904</v>
       </c>
     </row>
-    <row r="443" spans="1:12">
+    <row r="443" spans="1:13">
       <c r="A443" s="2">
         <v>44470</v>
       </c>
@@ -10194,25 +10701,28 @@
         <v>0.01909168073988288</v>
       </c>
       <c r="G443">
+        <v>0</v>
+      </c>
+      <c r="H443">
         <v>0.003917398847165465</v>
       </c>
-      <c r="H443">
+      <c r="I443">
         <v>-0.005383507094585016</v>
       </c>
-      <c r="I443">
+      <c r="J443">
         <v>0.009365988194278918</v>
       </c>
-      <c r="J443">
+      <c r="K443">
         <v>-0.002417112419656697</v>
       </c>
-      <c r="K443">
+      <c r="L443">
         <v>0.1049956814115598</v>
       </c>
-      <c r="L443">
+      <c r="M443">
         <v>-0.004844455415892068</v>
       </c>
     </row>
-    <row r="444" spans="1:12">
+    <row r="444" spans="1:13">
       <c r="A444" s="2">
         <v>44501</v>
       </c>
@@ -10232,25 +10742,28 @@
         <v>0.0006008246698174791</v>
       </c>
       <c r="G444">
+        <v>0</v>
+      </c>
+      <c r="H444">
         <v>0.003902112715313155</v>
       </c>
-      <c r="H444">
+      <c r="I444">
         <v>0.01668580980248824</v>
       </c>
-      <c r="I444">
+      <c r="J444">
         <v>0.04523669451877765</v>
       </c>
-      <c r="J444">
+      <c r="K444">
         <v>-0.002925049523762713</v>
       </c>
-      <c r="K444">
+      <c r="L444">
         <v>-0.08660939233845444</v>
       </c>
-      <c r="L444">
+      <c r="M444">
         <v>0.005137023188291012</v>
       </c>
     </row>
-    <row r="445" spans="1:12">
+    <row r="445" spans="1:13">
       <c r="A445" s="2">
         <v>44531</v>
       </c>
@@ -10270,25 +10783,28 @@
         <v>0.01024257007218576</v>
       </c>
       <c r="G445">
+        <v>0</v>
+      </c>
+      <c r="H445">
         <v>0.00394247320784058</v>
       </c>
-      <c r="H445">
+      <c r="I445">
         <v>0.00634866753281349</v>
       </c>
-      <c r="I445">
+      <c r="J445">
         <v>0.0119961973777829</v>
       </c>
-      <c r="J445">
+      <c r="K445">
         <v>-0.001396013625551862</v>
       </c>
-      <c r="K445">
+      <c r="L445">
         <v>0.1159791254383948</v>
       </c>
-      <c r="L445">
+      <c r="M445">
         <v>0.02009394246890328</v>
       </c>
     </row>
-    <row r="446" spans="1:12">
+    <row r="446" spans="1:13">
       <c r="A446" s="2">
         <v>44562</v>
       </c>
@@ -10308,25 +10824,28 @@
         <v>-0.01526494791163768</v>
       </c>
       <c r="G446">
+        <v>0</v>
+      </c>
+      <c r="H446">
         <v>0.004369469026548556</v>
       </c>
-      <c r="H446">
+      <c r="I446">
         <v>-0.01605590791984357</v>
       </c>
-      <c r="I446">
+      <c r="J446">
         <v>0.001377288892810746</v>
       </c>
-      <c r="J446">
+      <c r="K446">
         <v>-0.02049368558168541</v>
       </c>
-      <c r="K446">
+      <c r="L446">
         <v>-0.05744714356137293</v>
       </c>
-      <c r="L446">
+      <c r="M446">
         <v>-0.02021307062166489</v>
       </c>
     </row>
-    <row r="447" spans="1:12">
+    <row r="447" spans="1:13">
       <c r="A447" s="2">
         <v>44593</v>
       </c>
@@ -10346,25 +10865,28 @@
         <v>-0.001887035023457218</v>
       </c>
       <c r="G447">
+        <v>0</v>
+      </c>
+      <c r="H447">
         <v>0.004460598050553433</v>
       </c>
-      <c r="H447">
+      <c r="I447">
         <v>-0.02434247429961411</v>
       </c>
-      <c r="I447">
+      <c r="J447">
         <v>0.05975038876824734</v>
       </c>
-      <c r="J447">
+      <c r="K447">
         <v>-0.01188562752829569</v>
       </c>
-      <c r="K447">
+      <c r="L447">
         <v>-0.1189150513382141</v>
       </c>
-      <c r="L447">
+      <c r="M447">
         <v>-0.02266745242612966</v>
       </c>
     </row>
-    <row r="448" spans="1:12">
+    <row r="448" spans="1:13">
       <c r="A448" s="2">
         <v>44621</v>
       </c>
@@ -10384,25 +10906,28 @@
         <v>0.02657977753763197</v>
       </c>
       <c r="G448">
+        <v>0</v>
+      </c>
+      <c r="H448">
         <v>0.004385964912280604</v>
       </c>
-      <c r="H448">
+      <c r="I448">
         <v>-0.01628693966051931</v>
       </c>
-      <c r="I448">
+      <c r="J448">
         <v>0.02588965902160156</v>
       </c>
-      <c r="J448">
+      <c r="K448">
         <v>-0.0304526896277344</v>
       </c>
-      <c r="K448">
+      <c r="L448">
         <v>-0.02236695659342691</v>
       </c>
-      <c r="L448">
+      <c r="M448">
         <v>-0.003779930125488051</v>
       </c>
     </row>
-    <row r="449" spans="1:12">
+    <row r="449" spans="1:13">
       <c r="A449" s="2">
         <v>44652</v>
       </c>
@@ -10422,25 +10947,28 @@
         <v>-0.01162835208302326</v>
       </c>
       <c r="G449">
+        <v>0</v>
+      </c>
+      <c r="H449">
         <v>0.0055676855895197</v>
       </c>
-      <c r="H449">
+      <c r="I449">
         <v>-0.00829966912362079</v>
       </c>
-      <c r="I449">
+      <c r="J449">
         <v>0.03649588542129489</v>
       </c>
-      <c r="J449">
+      <c r="K449">
         <v>-0.05478838109389506</v>
       </c>
-      <c r="K449">
+      <c r="L449">
         <v>-0.04151557571975228</v>
       </c>
-      <c r="L449">
+      <c r="M449">
         <v>-0.0001770728364918206</v>
       </c>
     </row>
-    <row r="450" spans="1:12">
+    <row r="450" spans="1:13">
       <c r="A450" s="2">
         <v>44682</v>
       </c>
@@ -10460,25 +10988,28 @@
         <v>0.005719056205111483</v>
       </c>
       <c r="G450">
+        <v>0</v>
+      </c>
+      <c r="H450">
         <v>0.005591141027032842</v>
       </c>
-      <c r="H450">
+      <c r="I450">
         <v>-0.01031515139176764</v>
       </c>
-      <c r="I450">
+      <c r="J450">
         <v>-0.05351982372871433</v>
       </c>
-      <c r="J450">
+      <c r="K450">
         <v>0.0027295825676803</v>
       </c>
-      <c r="K450">
+      <c r="L450">
         <v>0.0210718024969403</v>
       </c>
-      <c r="L450">
+      <c r="M450">
         <v>-0.01366419799844909</v>
       </c>
     </row>
-    <row r="451" spans="1:12">
+    <row r="451" spans="1:13">
       <c r="A451" s="2">
         <v>44713</v>
       </c>
@@ -10498,25 +11029,28 @@
         <v>-0.01913482521073118</v>
       </c>
       <c r="G451">
+        <v>0</v>
+      </c>
+      <c r="H451">
         <v>0.005560053981106705</v>
       </c>
-      <c r="H451">
+      <c r="I451">
         <v>-0.006081394393121053</v>
       </c>
-      <c r="I451">
+      <c r="J451">
         <v>0.0192131645159328</v>
       </c>
-      <c r="J451">
+      <c r="K451">
         <v>-0.0320876833526722</v>
       </c>
-      <c r="K451">
+      <c r="L451">
         <v>-0.1714245092801593</v>
       </c>
-      <c r="L451">
+      <c r="M451">
         <v>-0.03688502620631617</v>
       </c>
     </row>
-    <row r="452" spans="1:12">
+    <row r="452" spans="1:13">
       <c r="A452" s="2">
         <v>44743</v>
       </c>
@@ -10536,25 +11070,28 @@
         <v>0.02532084558406544</v>
       </c>
       <c r="G452">
+        <v>0</v>
+      </c>
+      <c r="H452">
         <v>0.00719347219239852</v>
       </c>
-      <c r="H452">
+      <c r="I452">
         <v>0.04699916923352854</v>
       </c>
-      <c r="I452">
+      <c r="J452">
         <v>-0.01711841369177913</v>
       </c>
-      <c r="J452">
+      <c r="K452">
         <v>0.02125895477168949</v>
       </c>
-      <c r="K452">
+      <c r="L452">
         <v>0.1512071090219873</v>
       </c>
-      <c r="L452">
+      <c r="M452">
         <v>0.06066220705422887</v>
       </c>
     </row>
-    <row r="453" spans="1:12">
+    <row r="453" spans="1:13">
       <c r="A453" s="2">
         <v>44774</v>
       </c>
@@ -10574,25 +11111,28 @@
         <v>0.008302753757299275</v>
       </c>
       <c r="G453">
+        <v>0</v>
+      </c>
+      <c r="H453">
         <v>0.007142095725402475</v>
       </c>
-      <c r="H453">
+      <c r="I453">
         <v>-0.01814203797712999</v>
       </c>
-      <c r="I453">
+      <c r="J453">
         <v>-0.002010482491164423</v>
       </c>
-      <c r="J453">
+      <c r="K453">
         <v>-0.03946132847401196</v>
       </c>
-      <c r="K453">
+      <c r="L453">
         <v>-0.1011477016608076</v>
       </c>
-      <c r="L453">
+      <c r="M453">
         <v>-0.001114565497836062</v>
       </c>
     </row>
-    <row r="454" spans="1:12">
+    <row r="454" spans="1:13">
       <c r="A454" s="2">
         <v>44805</v>
       </c>
@@ -10612,25 +11152,28 @@
         <v>-0.003170966353578608</v>
       </c>
       <c r="G454">
+        <v>0</v>
+      </c>
+      <c r="H454">
         <v>0.007197290431837366</v>
       </c>
-      <c r="H454">
+      <c r="I454">
         <v>-0.03050277571033455</v>
       </c>
-      <c r="I454">
+      <c r="J454">
         <v>-0.0005436373020654139</v>
       </c>
-      <c r="J454">
+      <c r="K454">
         <v>-0.0513799020894613</v>
       </c>
-      <c r="K454">
+      <c r="L454">
         <v>-0.1115801110524796</v>
       </c>
-      <c r="L454">
+      <c r="M454">
         <v>-0.02026077777627489</v>
       </c>
     </row>
-    <row r="455" spans="1:12">
+    <row r="455" spans="1:13">
       <c r="A455" s="2">
         <v>44835</v>
       </c>
@@ -10650,25 +11193,28 @@
         <v>0.0282612146417347</v>
       </c>
       <c r="G455">
+        <v>0</v>
+      </c>
+      <c r="H455">
         <v>0.008774695250105102</v>
       </c>
-      <c r="H455">
+      <c r="I455">
         <v>-0.01992841976851301</v>
       </c>
-      <c r="I455">
+      <c r="J455">
         <v>-0.03600622901441353</v>
       </c>
-      <c r="J455">
+      <c r="K455">
         <v>-0.00687738076673805</v>
       </c>
-      <c r="K455">
+      <c r="L455">
         <v>0.1856674208144715</v>
       </c>
-      <c r="L455">
+      <c r="M455">
         <v>-0.002783300035572034</v>
       </c>
     </row>
-    <row r="456" spans="1:12">
+    <row r="456" spans="1:13">
       <c r="A456" s="2">
         <v>44866</v>
       </c>
@@ -10688,25 +11234,28 @@
         <v>-0.02900143669288946</v>
       </c>
       <c r="G456">
+        <v>0</v>
+      </c>
+      <c r="H456">
         <v>0.008854627845200191</v>
       </c>
-      <c r="H456">
+      <c r="I456">
         <v>0.008135908312193463</v>
       </c>
-      <c r="I456">
+      <c r="J456">
         <v>0.02222328196245771</v>
       </c>
-      <c r="J456">
+      <c r="K456">
         <v>0.04706102278539581</v>
       </c>
-      <c r="K456">
+      <c r="L456">
         <v>0.1996221842710368</v>
       </c>
-      <c r="L456">
+      <c r="M456">
         <v>-0.005925365221789103</v>
       </c>
     </row>
-    <row r="457" spans="1:12">
+    <row r="457" spans="1:13">
       <c r="A457" s="2">
         <v>44896</v>
       </c>
@@ -10726,21 +11275,24 @@
         <v>-0.009897233268609473</v>
       </c>
       <c r="G457">
+        <v>0</v>
+      </c>
+      <c r="H457">
         <v>0.008776911559708722</v>
       </c>
-      <c r="H457">
+      <c r="I457">
         <v>-0.02515282633221005</v>
       </c>
-      <c r="I457">
+      <c r="J457">
         <v>0.005459740292789395</v>
       </c>
-      <c r="J457">
+      <c r="K457">
         <v>0.005407715642045119</v>
       </c>
-      <c r="K457">
+      <c r="L457">
         <v>-0.08715085576127835</v>
       </c>
-      <c r="L457">
+      <c r="M457">
         <v>-0.01867151643650844</v>
       </c>
     </row>
